--- a/bot/datos/2017 - 08 (Agosto).xlsx
+++ b/bot/datos/2017 - 08 (Agosto).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedido base (copiar esta hoja)" sheetId="3" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="280">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2062,6 +2062,126 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,15 +2209,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,114 +2227,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2233,6 +2236,60 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,15 +2398,6 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2359,52 +2407,10 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7058,14 +7064,14 @@
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Encargado" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Millares"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Entregado" dataDxfId="63" totalsRowDxfId="62"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Pagado" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="N 2 kg" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="M 2 kg" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="P 2 kg" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Q 1050 gr" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="T 1 kg" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="N 500 gr" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Naranjas" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Mandarinas" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Paltas" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quesos" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Tomate Cherry" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Nueces" dataDxfId="49" totalsRowDxfId="48"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Total" dataDxfId="47" totalsRowDxfId="46">
-      <calculatedColumnFormula>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Comentario" dataDxfId="45" totalsRowDxfId="44"/>
   </tableColumns>
@@ -7092,14 +7098,14 @@
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Encargado" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Millares"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="Entregado" dataDxfId="18" totalsRowDxfId="17"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Pagado" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="N 2 kg" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="M 2 kg" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="P 2 kg" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Q 1050 gr" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="T 1 kg" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="N 500 gr" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Naranjas" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Mandarinas" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Paltas" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Quesos" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Tomate Cherry" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Nueces" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Total" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="Comentario" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
@@ -7435,28 +7441,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="167" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="189"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="172"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -7544,7 +7550,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="164" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="41" t="str">
@@ -7602,7 +7608,7 @@
       <c r="U5" s="91"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+      <c r="A6" s="165"/>
       <c r="B6" s="43" t="str">
         <f>[1]Personas!A3</f>
         <v>Maida</v>
@@ -7658,7 +7664,7 @@
       <c r="U6" s="92"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="43" t="str">
         <f>[1]Personas!A4</f>
         <v>Gabriel</v>
@@ -7714,7 +7720,7 @@
       <c r="U7" s="92"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="43" t="str">
         <f>[1]Personas!A5</f>
         <v>Martin</v>
@@ -7770,7 +7776,7 @@
       <c r="U8" s="92"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="43" t="str">
         <f>[1]Personas!A6</f>
         <v>Javi</v>
@@ -7826,7 +7832,7 @@
       <c r="U9" s="92"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="43" t="str">
         <f>[1]Personas!A7</f>
         <v>Paul</v>
@@ -7882,7 +7888,7 @@
       <c r="U10" s="92"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="43" t="str">
         <f>[1]Personas!A8</f>
         <v>Alvaro</v>
@@ -7938,7 +7944,7 @@
       <c r="U11" s="92"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="43" t="str">
         <f>[1]Personas!A9</f>
         <v>Ignacio</v>
@@ -7994,7 +8000,7 @@
       <c r="U12" s="92"/>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="43" t="str">
         <f>[1]Personas!A10</f>
         <v>Majo</v>
@@ -8050,7 +8056,7 @@
       <c r="U13" s="92"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="43" t="str">
         <f>[1]Personas!A11</f>
         <v>Vicky</v>
@@ -8106,7 +8112,7 @@
       <c r="U14" s="92"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="43" t="str">
         <f>[1]Personas!A12</f>
         <v>Antonia</v>
@@ -8162,7 +8168,7 @@
       <c r="U15" s="92"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="43" t="str">
         <f>[1]Personas!A13</f>
         <v>Josefa</v>
@@ -8218,7 +8224,7 @@
       <c r="U16" s="92"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="43" t="str">
         <f>[1]Personas!A14</f>
         <v>Florencia</v>
@@ -8274,7 +8280,7 @@
       <c r="U17" s="92"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="43" t="str">
         <f>[1]Personas!A15</f>
         <v>Joaquin</v>
@@ -8330,7 +8336,7 @@
       <c r="U18" s="92"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="43" t="str">
         <f>[1]Personas!A16</f>
         <v>Dominique</v>
@@ -8386,7 +8392,7 @@
       <c r="U19" s="92"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="43" t="str">
         <f>[1]Personas!A17</f>
         <v>Camila</v>
@@ -8442,7 +8448,7 @@
       <c r="U20" s="92"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="43" t="str">
         <f>[1]Personas!A18</f>
         <v>Javi</v>
@@ -8498,7 +8504,7 @@
       <c r="U21" s="92"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="43" t="str">
         <f>[1]Personas!A20</f>
         <v>Constanza</v>
@@ -8554,7 +8560,7 @@
       <c r="U22" s="92"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="43" t="str">
         <f>[1]Personas!A19</f>
         <v>Amelia</v>
@@ -8610,7 +8616,7 @@
       <c r="U23" s="92"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="43" t="str">
         <f>[1]Personas!A21</f>
         <v>Pilar</v>
@@ -8666,7 +8672,7 @@
       <c r="U24" s="92"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="43" t="str">
         <f>[1]Personas!A22</f>
         <v>Joaquin</v>
@@ -8722,7 +8728,7 @@
       <c r="U25" s="92"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="43" t="str">
         <f>[1]Personas!A23</f>
         <v>Maria Jesus</v>
@@ -8778,7 +8784,7 @@
       <c r="U26" s="92"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="43" t="str">
         <f>[1]Personas!A24</f>
         <v>Rafael</v>
@@ -8834,7 +8840,7 @@
       <c r="U27" s="92"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="43" t="str">
         <f>[1]Personas!A25</f>
         <v>Isidora</v>
@@ -8890,7 +8896,7 @@
       <c r="U28" s="92"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="165"/>
       <c r="B29" s="43" t="str">
         <f>[1]Personas!A26</f>
         <v>Maria Luisa</v>
@@ -8946,7 +8952,7 @@
       <c r="U29" s="92"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="43" t="str">
         <f>[1]Personas!A27</f>
         <v>Rodrigo</v>
@@ -9002,7 +9008,7 @@
       <c r="U30" s="92"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="43" t="str">
         <f>[1]Personas!A28</f>
         <v>Tere</v>
@@ -9058,7 +9064,7 @@
       <c r="U31" s="92"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="43" t="str">
         <f>[1]Personas!A29</f>
         <v>Diego</v>
@@ -9114,7 +9120,7 @@
       <c r="U32" s="92"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
+      <c r="A33" s="165"/>
       <c r="B33" s="43" t="str">
         <f>[1]Personas!A30</f>
         <v>Matias</v>
@@ -9170,7 +9176,7 @@
       <c r="U33" s="92"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="182"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="43" t="str">
         <f>[1]Personas!A31</f>
         <v>Benjamin</v>
@@ -9226,7 +9232,7 @@
       <c r="U34" s="92"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="43" t="str">
         <f>[1]Personas!A32</f>
         <v>Mauricio</v>
@@ -9282,7 +9288,7 @@
       <c r="U35" s="92"/>
     </row>
     <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="43" t="str">
         <f>[1]Personas!A33</f>
         <v>Andres</v>
@@ -9338,7 +9344,7 @@
       <c r="U36" s="92"/>
     </row>
     <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="43" t="str">
         <f>[1]Personas!A34</f>
         <v>Cata</v>
@@ -9394,7 +9400,7 @@
       <c r="U37" s="92"/>
     </row>
     <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="182"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="43" t="str">
         <f>[1]Personas!A35</f>
         <v>Margarita</v>
@@ -9450,7 +9456,7 @@
       <c r="U38" s="92"/>
     </row>
     <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="43" t="str">
         <f>[1]Personas!A36</f>
         <v>Ric</v>
@@ -9506,7 +9512,7 @@
       <c r="U39" s="92"/>
     </row>
     <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="182"/>
+      <c r="A40" s="165"/>
       <c r="B40" s="43" t="str">
         <f>[1]Personas!A37</f>
         <v>Matias</v>
@@ -9562,7 +9568,7 @@
       <c r="U40" s="92"/>
     </row>
     <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="182"/>
+      <c r="A41" s="165"/>
       <c r="B41" s="43" t="str">
         <f>[1]Personas!A38</f>
         <v>Juan Diego</v>
@@ -9618,7 +9624,7 @@
       <c r="U41" s="92"/>
     </row>
     <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
+      <c r="A42" s="165"/>
       <c r="B42" s="43" t="str">
         <f>[1]Personas!A39</f>
         <v>Bernardita</v>
@@ -9674,7 +9680,7 @@
       <c r="U42" s="92"/>
     </row>
     <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="165"/>
       <c r="B43" s="43" t="str">
         <f>[1]Personas!A40</f>
         <v>Michella</v>
@@ -9730,7 +9736,7 @@
       <c r="U43" s="92"/>
     </row>
     <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="43" t="str">
         <f>[1]Personas!A41</f>
         <v>Vicente</v>
@@ -9786,7 +9792,7 @@
       <c r="U44" s="92"/>
     </row>
     <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
+      <c r="A45" s="165"/>
       <c r="B45" s="22" t="str">
         <f>[1]Personas!A43</f>
         <v>Ignacio</v>
@@ -9842,7 +9848,7 @@
       <c r="U45" s="92"/>
     </row>
     <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="43" t="str">
         <f>[1]Personas!A42</f>
         <v>Jesu</v>
@@ -9898,7 +9904,7 @@
       <c r="U46" s="92"/>
     </row>
     <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="22" t="str">
         <f>[1]Personas!A44</f>
         <v>Rodrigo</v>
@@ -9954,7 +9960,7 @@
       <c r="U47" s="92"/>
     </row>
     <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
+      <c r="A48" s="165"/>
       <c r="B48" s="22" t="str">
         <f>[1]Personas!A45</f>
         <v>Ignacio</v>
@@ -10010,7 +10016,7 @@
       <c r="U48" s="92"/>
     </row>
     <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="22" t="str">
         <f>[1]Personas!A46</f>
         <v>Josefina</v>
@@ -10066,7 +10072,7 @@
       <c r="U49" s="92"/>
     </row>
     <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
+      <c r="A50" s="165"/>
       <c r="B50" s="22" t="str">
         <f>[1]Personas!A47</f>
         <v>Raimundo</v>
@@ -10119,7 +10125,7 @@
       <c r="U50" s="92"/>
     </row>
     <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="182"/>
+      <c r="A51" s="165"/>
       <c r="B51" s="22" t="str">
         <f>[1]Personas!A48</f>
         <v>Trinidad</v>
@@ -10172,7 +10178,7 @@
       <c r="U51" s="92"/>
     </row>
     <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="182"/>
+      <c r="A52" s="165"/>
       <c r="B52" s="22" t="str">
         <f>[1]Personas!A49</f>
         <v>Sofia</v>
@@ -10225,7 +10231,7 @@
       <c r="U52" s="92"/>
     </row>
     <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="182"/>
+      <c r="A53" s="165"/>
       <c r="B53" s="22" t="str">
         <f>[1]Personas!A50</f>
         <v>Francesco</v>
@@ -10281,7 +10287,7 @@
       <c r="U53" s="92"/>
     </row>
     <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
+      <c r="A54" s="165"/>
       <c r="B54" s="22" t="str">
         <f>[1]Personas!A51</f>
         <v>Trinidad</v>
@@ -10337,7 +10343,7 @@
       <c r="U54" s="92"/>
     </row>
     <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="182"/>
+      <c r="A55" s="165"/>
       <c r="B55" s="22" t="str">
         <f>[1]Personas!A52</f>
         <v>Agustina</v>
@@ -10390,7 +10396,7 @@
       <c r="U55" s="92"/>
     </row>
     <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
+      <c r="A56" s="165"/>
       <c r="B56" s="22" t="str">
         <f>[1]Personas!A53</f>
         <v>Benjamin</v>
@@ -10443,7 +10449,7 @@
       <c r="U56" s="92"/>
     </row>
     <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="183"/>
+      <c r="A57" s="166"/>
       <c r="B57" s="26" t="str">
         <f>[1]Personas!A54</f>
         <v>Lukas</v>
@@ -10519,22 +10525,22 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="190" t="s">
+      <c r="A60" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="193" t="s">
+      <c r="B60" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="195"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="177"/>
+      <c r="J60" s="177"/>
+      <c r="K60" s="177"/>
+      <c r="L60" s="178"/>
       <c r="M60" s="76" t="s">
         <v>9</v>
       </c>
@@ -10564,18 +10570,18 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="191"/>
-      <c r="B61" s="196"/>
-      <c r="C61" s="197"/>
-      <c r="D61" s="197"/>
-      <c r="E61" s="197"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="197"/>
-      <c r="H61" s="197"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="198"/>
+      <c r="A61" s="174"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
+      <c r="L61" s="181"/>
       <c r="M61" s="76" t="s">
         <v>30</v>
       </c>
@@ -10599,18 +10605,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="191"/>
-      <c r="B62" s="196"/>
-      <c r="C62" s="197"/>
-      <c r="D62" s="197"/>
-      <c r="E62" s="197"/>
-      <c r="F62" s="197"/>
-      <c r="G62" s="197"/>
-      <c r="H62" s="197"/>
-      <c r="I62" s="197"/>
-      <c r="J62" s="197"/>
-      <c r="K62" s="197"/>
-      <c r="L62" s="198"/>
+      <c r="A62" s="174"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="180"/>
+      <c r="D62" s="180"/>
+      <c r="E62" s="180"/>
+      <c r="F62" s="180"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="180"/>
+      <c r="L62" s="181"/>
       <c r="M62" s="76" t="s">
         <v>8</v>
       </c>
@@ -10640,18 +10646,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="191"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="200"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="200"/>
-      <c r="G63" s="200"/>
-      <c r="H63" s="200"/>
-      <c r="I63" s="200"/>
-      <c r="J63" s="200"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="201"/>
+      <c r="A63" s="174"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="183"/>
+      <c r="E63" s="183"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="183"/>
+      <c r="I63" s="183"/>
+      <c r="J63" s="183"/>
+      <c r="K63" s="183"/>
+      <c r="L63" s="184"/>
       <c r="M63" s="76" t="s">
         <v>10</v>
       </c>
@@ -10663,7 +10669,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="191"/>
+      <c r="A64" s="174"/>
       <c r="B64" s="77"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -10677,20 +10683,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="191"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="194"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="194"/>
-      <c r="H65" s="194"/>
-      <c r="I65" s="194"/>
-      <c r="J65" s="194"/>
-      <c r="K65" s="194"/>
-      <c r="L65" s="195"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="178"/>
       <c r="M65" s="76" t="s">
         <v>14</v>
       </c>
@@ -10720,18 +10726,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="191"/>
-      <c r="B66" s="196"/>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="197"/>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="198"/>
+      <c r="A66" s="174"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="180"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="180"/>
+      <c r="H66" s="180"/>
+      <c r="I66" s="180"/>
+      <c r="J66" s="180"/>
+      <c r="K66" s="180"/>
+      <c r="L66" s="181"/>
       <c r="M66" s="76" t="s">
         <v>8</v>
       </c>
@@ -10755,18 +10761,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="191"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="200"/>
-      <c r="G67" s="200"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="200"/>
-      <c r="J67" s="200"/>
-      <c r="K67" s="200"/>
-      <c r="L67" s="201"/>
+      <c r="A67" s="174"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="183"/>
+      <c r="L67" s="184"/>
       <c r="M67" s="76" t="s">
         <v>15</v>
       </c>
@@ -10790,7 +10796,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="191"/>
+      <c r="A68" s="174"/>
       <c r="B68" s="77"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -10804,20 +10810,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="191"/>
-      <c r="B69" s="193" t="s">
+      <c r="A69" s="174"/>
+      <c r="B69" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="194"/>
-      <c r="G69" s="194"/>
-      <c r="H69" s="194"/>
-      <c r="I69" s="194"/>
-      <c r="J69" s="194"/>
-      <c r="K69" s="194"/>
-      <c r="L69" s="195"/>
+      <c r="C69" s="177"/>
+      <c r="D69" s="177"/>
+      <c r="E69" s="177"/>
+      <c r="F69" s="177"/>
+      <c r="G69" s="177"/>
+      <c r="H69" s="177"/>
+      <c r="I69" s="177"/>
+      <c r="J69" s="177"/>
+      <c r="K69" s="177"/>
+      <c r="L69" s="178"/>
       <c r="M69" s="76" t="s">
         <v>20</v>
       </c>
@@ -10847,46 +10853,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="191"/>
-      <c r="B70" s="199"/>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="200"/>
-      <c r="J70" s="200"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="201"/>
+      <c r="A70" s="174"/>
+      <c r="B70" s="182"/>
+      <c r="C70" s="183"/>
+      <c r="D70" s="183"/>
+      <c r="E70" s="183"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="183"/>
+      <c r="H70" s="183"/>
+      <c r="I70" s="183"/>
+      <c r="J70" s="183"/>
+      <c r="K70" s="183"/>
+      <c r="L70" s="184"/>
       <c r="M70" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="202">
+      <c r="N70" s="185">
         <f>SUM(N69:S69)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="203"/>
-      <c r="P70" s="203"/>
-      <c r="Q70" s="203"/>
-      <c r="R70" s="203"/>
-      <c r="S70" s="204"/>
+      <c r="O70" s="186"/>
+      <c r="P70" s="186"/>
+      <c r="Q70" s="186"/>
+      <c r="R70" s="186"/>
+      <c r="S70" s="187"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="191"/>
-      <c r="B71" s="193" t="s">
+      <c r="A71" s="174"/>
+      <c r="B71" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="194"/>
-      <c r="H71" s="194"/>
-      <c r="I71" s="194"/>
-      <c r="J71" s="194"/>
-      <c r="K71" s="194"/>
-      <c r="L71" s="195"/>
+      <c r="C71" s="177"/>
+      <c r="D71" s="177"/>
+      <c r="E71" s="177"/>
+      <c r="F71" s="177"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="177"/>
+      <c r="I71" s="177"/>
+      <c r="J71" s="177"/>
+      <c r="K71" s="177"/>
+      <c r="L71" s="178"/>
       <c r="M71" s="76" t="s">
         <v>20</v>
       </c>
@@ -10916,46 +10922,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="191"/>
-      <c r="B72" s="199"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="200"/>
-      <c r="E72" s="200"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="200"/>
-      <c r="H72" s="200"/>
-      <c r="I72" s="200"/>
-      <c r="J72" s="200"/>
-      <c r="K72" s="200"/>
-      <c r="L72" s="201"/>
+      <c r="A72" s="174"/>
+      <c r="B72" s="182"/>
+      <c r="C72" s="183"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
+      <c r="G72" s="183"/>
+      <c r="H72" s="183"/>
+      <c r="I72" s="183"/>
+      <c r="J72" s="183"/>
+      <c r="K72" s="183"/>
+      <c r="L72" s="184"/>
       <c r="M72" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="202">
+      <c r="N72" s="185">
         <f>SUM(N71:S71)</f>
         <v>0</v>
       </c>
-      <c r="O72" s="203"/>
-      <c r="P72" s="203"/>
-      <c r="Q72" s="203"/>
-      <c r="R72" s="203"/>
-      <c r="S72" s="204"/>
+      <c r="O72" s="186"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="186"/>
+      <c r="R72" s="186"/>
+      <c r="S72" s="187"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="191"/>
-      <c r="B73" s="193" t="s">
+      <c r="A73" s="174"/>
+      <c r="B73" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="194"/>
-      <c r="D73" s="194"/>
-      <c r="E73" s="194"/>
-      <c r="F73" s="194"/>
-      <c r="G73" s="194"/>
-      <c r="H73" s="194"/>
-      <c r="I73" s="194"/>
-      <c r="J73" s="194"/>
-      <c r="K73" s="194"/>
-      <c r="L73" s="195"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="177"/>
+      <c r="L73" s="178"/>
       <c r="M73" s="76" t="s">
         <v>20</v>
       </c>
@@ -10985,55 +10991,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="191"/>
-      <c r="B74" s="199"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="201"/>
+      <c r="A74" s="174"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="183"/>
+      <c r="D74" s="183"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="183"/>
+      <c r="G74" s="183"/>
+      <c r="H74" s="183"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="183"/>
+      <c r="K74" s="183"/>
+      <c r="L74" s="184"/>
       <c r="M74" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="214">
+      <c r="N74" s="200">
         <f>SUM(N73:S73)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="215"/>
-      <c r="P74" s="215"/>
-      <c r="Q74" s="215"/>
-      <c r="R74" s="215"/>
-      <c r="S74" s="216"/>
+      <c r="O74" s="201"/>
+      <c r="P74" s="201"/>
+      <c r="Q74" s="201"/>
+      <c r="R74" s="201"/>
+      <c r="S74" s="202"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="191"/>
+      <c r="A75" s="174"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="191"/>
-      <c r="B76" s="163" t="s">
+      <c r="A76" s="174"/>
+      <c r="B76" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="164"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="164"/>
-      <c r="F76" s="164"/>
-      <c r="G76" s="164"/>
-      <c r="H76" s="164"/>
-      <c r="I76" s="164"/>
-      <c r="J76" s="164"/>
-      <c r="K76" s="164"/>
-      <c r="L76" s="164"/>
-      <c r="M76" s="165"/>
-      <c r="N76" s="172" t="s">
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="204"/>
+      <c r="J76" s="204"/>
+      <c r="K76" s="204"/>
+      <c r="L76" s="204"/>
+      <c r="M76" s="205"/>
+      <c r="N76" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="173"/>
-      <c r="P76" s="174"/>
+      <c r="O76" s="195"/>
+      <c r="P76" s="196"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -11041,171 +11047,171 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="191"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
-      <c r="F77" s="167"/>
-      <c r="G77" s="167"/>
-      <c r="H77" s="167"/>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="175"/>
-      <c r="O77" s="176"/>
-      <c r="P77" s="177"/>
+      <c r="A77" s="174"/>
+      <c r="B77" s="206"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="207"/>
+      <c r="E77" s="207"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="207"/>
+      <c r="H77" s="207"/>
+      <c r="I77" s="207"/>
+      <c r="J77" s="207"/>
+      <c r="K77" s="207"/>
+      <c r="L77" s="207"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="212"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="214"/>
       <c r="Q77" s="61"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="191"/>
-      <c r="B78" s="166"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="167"/>
-      <c r="I78" s="167"/>
-      <c r="J78" s="167"/>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="178"/>
-      <c r="O78" s="179"/>
-      <c r="P78" s="180"/>
+      <c r="A78" s="174"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="207"/>
+      <c r="D78" s="207"/>
+      <c r="E78" s="207"/>
+      <c r="F78" s="207"/>
+      <c r="G78" s="207"/>
+      <c r="H78" s="207"/>
+      <c r="I78" s="207"/>
+      <c r="J78" s="207"/>
+      <c r="K78" s="207"/>
+      <c r="L78" s="207"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="215"/>
+      <c r="O78" s="216"/>
+      <c r="P78" s="217"/>
       <c r="Q78" s="62"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="191"/>
-      <c r="B79" s="166"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
-      <c r="F79" s="167"/>
-      <c r="G79" s="167"/>
-      <c r="H79" s="167"/>
-      <c r="I79" s="167"/>
-      <c r="J79" s="167"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="178"/>
-      <c r="O79" s="179"/>
-      <c r="P79" s="180"/>
+      <c r="A79" s="174"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="207"/>
+      <c r="D79" s="207"/>
+      <c r="E79" s="207"/>
+      <c r="F79" s="207"/>
+      <c r="G79" s="207"/>
+      <c r="H79" s="207"/>
+      <c r="I79" s="207"/>
+      <c r="J79" s="207"/>
+      <c r="K79" s="207"/>
+      <c r="L79" s="207"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="215"/>
+      <c r="O79" s="216"/>
+      <c r="P79" s="217"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="191"/>
-      <c r="B80" s="166"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="168"/>
-      <c r="N80" s="178"/>
-      <c r="O80" s="179"/>
-      <c r="P80" s="180"/>
+      <c r="A80" s="174"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="207"/>
+      <c r="D80" s="207"/>
+      <c r="E80" s="207"/>
+      <c r="F80" s="207"/>
+      <c r="G80" s="207"/>
+      <c r="H80" s="207"/>
+      <c r="I80" s="207"/>
+      <c r="J80" s="207"/>
+      <c r="K80" s="207"/>
+      <c r="L80" s="207"/>
+      <c r="M80" s="208"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="216"/>
+      <c r="P80" s="217"/>
       <c r="Q80" s="62"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="191"/>
-      <c r="B81" s="166"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="167"/>
-      <c r="I81" s="167"/>
-      <c r="J81" s="167"/>
-      <c r="K81" s="167"/>
-      <c r="L81" s="167"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="178"/>
-      <c r="O81" s="179"/>
-      <c r="P81" s="180"/>
+      <c r="A81" s="174"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="207"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="207"/>
+      <c r="F81" s="207"/>
+      <c r="G81" s="207"/>
+      <c r="H81" s="207"/>
+      <c r="I81" s="207"/>
+      <c r="J81" s="207"/>
+      <c r="K81" s="207"/>
+      <c r="L81" s="207"/>
+      <c r="M81" s="208"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="216"/>
+      <c r="P81" s="217"/>
       <c r="Q81" s="62"/>
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="191"/>
-      <c r="B82" s="166"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="167"/>
-      <c r="H82" s="167"/>
-      <c r="I82" s="167"/>
-      <c r="J82" s="167"/>
-      <c r="K82" s="167"/>
-      <c r="L82" s="167"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="178"/>
-      <c r="O82" s="179"/>
-      <c r="P82" s="180"/>
+      <c r="A82" s="174"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207"/>
+      <c r="E82" s="207"/>
+      <c r="F82" s="207"/>
+      <c r="G82" s="207"/>
+      <c r="H82" s="207"/>
+      <c r="I82" s="207"/>
+      <c r="J82" s="207"/>
+      <c r="K82" s="207"/>
+      <c r="L82" s="207"/>
+      <c r="M82" s="208"/>
+      <c r="N82" s="215"/>
+      <c r="O82" s="216"/>
+      <c r="P82" s="217"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="191"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="167"/>
-      <c r="I83" s="167"/>
-      <c r="J83" s="167"/>
-      <c r="K83" s="167"/>
-      <c r="L83" s="167"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="205"/>
-      <c r="O83" s="206"/>
-      <c r="P83" s="207"/>
+      <c r="A83" s="174"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="207"/>
+      <c r="D83" s="207"/>
+      <c r="E83" s="207"/>
+      <c r="F83" s="207"/>
+      <c r="G83" s="207"/>
+      <c r="H83" s="207"/>
+      <c r="I83" s="207"/>
+      <c r="J83" s="207"/>
+      <c r="K83" s="207"/>
+      <c r="L83" s="207"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="188"/>
+      <c r="O83" s="189"/>
+      <c r="P83" s="190"/>
       <c r="Q83" s="62"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="191"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="170"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="170"/>
-      <c r="I84" s="170"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="170"/>
-      <c r="M84" s="171"/>
-      <c r="N84" s="208" t="s">
+      <c r="A84" s="174"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="210"/>
+      <c r="D84" s="210"/>
+      <c r="E84" s="210"/>
+      <c r="F84" s="210"/>
+      <c r="G84" s="210"/>
+      <c r="H84" s="210"/>
+      <c r="I84" s="210"/>
+      <c r="J84" s="210"/>
+      <c r="K84" s="210"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="211"/>
+      <c r="N84" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="209"/>
-      <c r="P84" s="210"/>
+      <c r="O84" s="192"/>
+      <c r="P84" s="193"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>0</v>
@@ -11214,35 +11220,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="191"/>
+      <c r="A85" s="174"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="192"/>
-      <c r="B86" s="172" t="s">
+      <c r="A86" s="175"/>
+      <c r="B86" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="173"/>
-      <c r="L86" s="174"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="195"/>
+      <c r="E86" s="195"/>
+      <c r="F86" s="195"/>
+      <c r="G86" s="195"/>
+      <c r="H86" s="195"/>
+      <c r="I86" s="195"/>
+      <c r="J86" s="195"/>
+      <c r="K86" s="195"/>
+      <c r="L86" s="196"/>
       <c r="M86" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="211">
+      <c r="N86" s="197">
         <f>N74-SUM(Q77:Q83)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="212"/>
-      <c r="P86" s="212"/>
-      <c r="Q86" s="212"/>
-      <c r="R86" s="212"/>
-      <c r="S86" s="213"/>
+      <c r="O86" s="198"/>
+      <c r="P86" s="198"/>
+      <c r="Q86" s="198"/>
+      <c r="R86" s="198"/>
+      <c r="S86" s="199"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -11302,6 +11308,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
     <mergeCell ref="A5:A57"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -11318,14 +11332,6 @@
     <mergeCell ref="N86:S86"/>
     <mergeCell ref="B73:L74"/>
     <mergeCell ref="N74:S74"/>
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11342,11 +11348,11 @@
   </sheetPr>
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11369,28 +11375,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="189"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="172"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -11452,23 +11458,23 @@
       <c r="M4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>22</v>
+      <c r="N4" s="278" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="278" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="278" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="278" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="279" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="279" t="s">
+        <v>23</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>17</v>
@@ -11478,7 +11484,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="217"/>
+      <c r="A5" s="218"/>
       <c r="B5" s="95" t="s">
         <v>137</v>
       </c>
@@ -11534,13 +11540,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="10">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>14</v>
       </c>
       <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="80" t="s">
         <v>79</v>
       </c>
@@ -11597,13 +11603,13 @@
         <v>0</v>
       </c>
       <c r="T6" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>59</v>
       </c>
       <c r="U6" s="70"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="218"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="80" t="s">
         <v>111</v>
       </c>
@@ -11659,13 +11665,13 @@
         <v>4</v>
       </c>
       <c r="T7" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>26</v>
       </c>
       <c r="U7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="218"/>
+      <c r="A8" s="219"/>
       <c r="B8" s="80" t="s">
         <v>57</v>
       </c>
@@ -11721,13 +11727,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>6</v>
       </c>
       <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="218"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="80" t="s">
         <v>107</v>
       </c>
@@ -11783,13 +11789,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>4</v>
       </c>
       <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="80" t="s">
         <v>92</v>
       </c>
@@ -11845,13 +11851,13 @@
         <v>12</v>
       </c>
       <c r="T10" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>101</v>
       </c>
       <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="80" t="s">
         <v>90</v>
       </c>
@@ -11907,13 +11913,13 @@
         <v>7</v>
       </c>
       <c r="T11" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>53</v>
       </c>
       <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
+      <c r="A12" s="219"/>
       <c r="B12" s="80" t="s">
         <v>70</v>
       </c>
@@ -11969,13 +11975,13 @@
         <v>2</v>
       </c>
       <c r="T12" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>24</v>
       </c>
       <c r="U12" s="70"/>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="80" t="s">
         <v>117</v>
       </c>
@@ -12031,13 +12037,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>27</v>
       </c>
       <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="80" t="s">
         <v>107</v>
       </c>
@@ -12093,13 +12099,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>7</v>
       </c>
       <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="80" t="s">
         <v>102</v>
       </c>
@@ -12155,13 +12161,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>10</v>
       </c>
       <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="82" t="s">
         <v>125</v>
       </c>
@@ -12217,13 +12223,13 @@
         <v>4</v>
       </c>
       <c r="T16" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>43</v>
       </c>
       <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="80" t="s">
         <v>59</v>
       </c>
@@ -12279,13 +12285,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>8</v>
       </c>
       <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="80" t="s">
         <v>55</v>
       </c>
@@ -12341,13 +12347,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>17</v>
       </c>
       <c r="U18" s="70"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
+      <c r="A19" s="219"/>
       <c r="B19" s="80" t="s">
         <v>55</v>
       </c>
@@ -12403,13 +12409,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>16</v>
       </c>
       <c r="U19" s="70"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
+      <c r="A20" s="219"/>
       <c r="B20" s="80" t="s">
         <v>73</v>
       </c>
@@ -12465,13 +12471,13 @@
         <v>3</v>
       </c>
       <c r="T20" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>33</v>
       </c>
       <c r="U20" s="70"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="80" t="s">
         <v>84</v>
       </c>
@@ -12527,13 +12533,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>23</v>
       </c>
       <c r="U21" s="70"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
+      <c r="A22" s="219"/>
       <c r="B22" s="82" t="s">
         <v>123</v>
       </c>
@@ -12589,13 +12595,13 @@
         <v>8</v>
       </c>
       <c r="T22" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>47</v>
       </c>
       <c r="U22" s="70"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
+      <c r="A23" s="219"/>
       <c r="B23" s="82" t="s">
         <v>64</v>
       </c>
@@ -12651,13 +12657,13 @@
         <v>2</v>
       </c>
       <c r="T23" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>12</v>
       </c>
       <c r="U23" s="70"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
+      <c r="A24" s="219"/>
       <c r="B24" s="80" t="s">
         <v>68</v>
       </c>
@@ -12713,13 +12719,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>17</v>
       </c>
       <c r="U24" s="70"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
+      <c r="A25" s="219"/>
       <c r="B25" s="80" t="s">
         <v>75</v>
       </c>
@@ -12777,13 +12783,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>14</v>
       </c>
       <c r="U25" s="70"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="218"/>
+      <c r="A26" s="219"/>
       <c r="B26" s="80" t="s">
         <v>80</v>
       </c>
@@ -12839,13 +12845,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>22</v>
       </c>
       <c r="U26" s="70"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
+      <c r="A27" s="219"/>
       <c r="B27" s="80" t="s">
         <v>82</v>
       </c>
@@ -12901,13 +12907,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>10</v>
       </c>
       <c r="U27" s="70"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
+      <c r="A28" s="219"/>
       <c r="B28" s="80" t="s">
         <v>96</v>
       </c>
@@ -12963,13 +12969,13 @@
         <v>6</v>
       </c>
       <c r="T28" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>87</v>
       </c>
       <c r="U28" s="70"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
+      <c r="A29" s="219"/>
       <c r="B29" s="80" t="s">
         <v>98</v>
       </c>
@@ -13025,13 +13031,13 @@
         <v>2</v>
       </c>
       <c r="T29" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>4</v>
       </c>
       <c r="U29" s="70"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="80" t="s">
         <v>100</v>
       </c>
@@ -13087,13 +13093,13 @@
         <v>5</v>
       </c>
       <c r="T30" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>94</v>
       </c>
       <c r="U30" s="70"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="82" t="s">
         <v>132</v>
       </c>
@@ -13149,13 +13155,13 @@
         <v>2</v>
       </c>
       <c r="T31" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>31</v>
       </c>
       <c r="U31" s="70"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="80" t="s">
         <v>109</v>
       </c>
@@ -13211,13 +13217,13 @@
         <v>8</v>
       </c>
       <c r="T32" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>110</v>
       </c>
       <c r="U32" s="70"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="82" t="s">
         <v>134</v>
       </c>
@@ -13273,13 +13279,13 @@
         <v>2</v>
       </c>
       <c r="T33" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>31</v>
       </c>
       <c r="U33" s="70"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
+      <c r="A34" s="219"/>
       <c r="B34" s="80" t="s">
         <v>77</v>
       </c>
@@ -13335,13 +13341,13 @@
         <v>8</v>
       </c>
       <c r="T34" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>73</v>
       </c>
       <c r="U34" s="70"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
+      <c r="A35" s="219"/>
       <c r="B35" s="80" t="s">
         <v>84</v>
       </c>
@@ -13397,13 +13403,13 @@
         <v>0</v>
       </c>
       <c r="T35" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>8</v>
       </c>
       <c r="U35" s="70"/>
     </row>
     <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
+      <c r="A36" s="219"/>
       <c r="B36" s="80" t="s">
         <v>119</v>
       </c>
@@ -13459,13 +13465,13 @@
         <v>7</v>
       </c>
       <c r="T36" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>60</v>
       </c>
       <c r="U36" s="70"/>
     </row>
     <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
+      <c r="A37" s="219"/>
       <c r="B37" s="82" t="s">
         <v>135</v>
       </c>
@@ -13521,13 +13527,13 @@
         <v>1</v>
       </c>
       <c r="T37" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>16</v>
       </c>
       <c r="U37" s="70"/>
     </row>
     <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
+      <c r="A38" s="219"/>
       <c r="B38" s="80" t="s">
         <v>61</v>
       </c>
@@ -13567,13 +13573,13 @@
       <c r="R38" s="31"/>
       <c r="S38" s="24"/>
       <c r="T38" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U38" s="70"/>
     </row>
     <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="80" t="s">
         <v>86</v>
       </c>
@@ -13613,13 +13619,13 @@
       <c r="R39" s="31"/>
       <c r="S39" s="24"/>
       <c r="T39" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U39" s="70"/>
     </row>
     <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="218"/>
+      <c r="A40" s="219"/>
       <c r="B40" s="80" t="s">
         <v>41</v>
       </c>
@@ -13659,13 +13665,13 @@
       <c r="R40" s="31"/>
       <c r="S40" s="24"/>
       <c r="T40" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U40" s="70"/>
     </row>
     <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="218"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="80" t="s">
         <v>79</v>
       </c>
@@ -13705,13 +13711,13 @@
       <c r="R41" s="31"/>
       <c r="S41" s="24"/>
       <c r="T41" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U41" s="70"/>
     </row>
     <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="218"/>
+      <c r="A42" s="219"/>
       <c r="B42" s="82" t="s">
         <v>127</v>
       </c>
@@ -13751,13 +13757,13 @@
       <c r="R42" s="31"/>
       <c r="S42" s="24"/>
       <c r="T42" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U42" s="70"/>
     </row>
     <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="218"/>
+      <c r="A43" s="219"/>
       <c r="B43" s="80" t="s">
         <v>47</v>
       </c>
@@ -13797,13 +13803,13 @@
       <c r="R43" s="31"/>
       <c r="S43" s="24"/>
       <c r="T43" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U43" s="70"/>
     </row>
     <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="218"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="80" t="s">
         <v>49</v>
       </c>
@@ -13843,13 +13849,13 @@
       <c r="R44" s="31"/>
       <c r="S44" s="24"/>
       <c r="T44" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U44" s="70"/>
     </row>
     <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="218"/>
+      <c r="A45" s="219"/>
       <c r="B45" s="80" t="s">
         <v>62</v>
       </c>
@@ -13889,13 +13895,13 @@
       <c r="R45" s="31"/>
       <c r="S45" s="24"/>
       <c r="T45" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U45" s="70"/>
     </row>
     <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="218"/>
+      <c r="A46" s="219"/>
       <c r="B46" s="80" t="s">
         <v>66</v>
       </c>
@@ -13935,13 +13941,13 @@
       <c r="R46" s="31"/>
       <c r="S46" s="24"/>
       <c r="T46" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U46" s="70"/>
     </row>
     <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="218"/>
+      <c r="A47" s="219"/>
       <c r="B47" s="80" t="s">
         <v>70</v>
       </c>
@@ -13981,13 +13987,13 @@
       <c r="R47" s="31"/>
       <c r="S47" s="24"/>
       <c r="T47" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U47" s="70"/>
     </row>
     <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="218"/>
+      <c r="A48" s="219"/>
       <c r="B48" s="80" t="s">
         <v>104</v>
       </c>
@@ -14027,13 +14033,13 @@
       <c r="R48" s="31"/>
       <c r="S48" s="24"/>
       <c r="T48" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U48" s="70"/>
     </row>
     <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="218"/>
+      <c r="A49" s="219"/>
       <c r="B49" s="80" t="s">
         <v>51</v>
       </c>
@@ -14073,13 +14079,13 @@
       <c r="R49" s="31"/>
       <c r="S49" s="24"/>
       <c r="T49" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U49" s="70"/>
     </row>
     <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="218"/>
+      <c r="A50" s="219"/>
       <c r="B50" s="80" t="s">
         <v>53</v>
       </c>
@@ -14119,13 +14125,13 @@
       <c r="R50" s="31"/>
       <c r="S50" s="24"/>
       <c r="T50" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U50" s="70"/>
     </row>
     <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="218"/>
+      <c r="A51" s="219"/>
       <c r="B51" s="80" t="s">
         <v>64</v>
       </c>
@@ -14165,13 +14171,13 @@
       <c r="R51" s="31"/>
       <c r="S51" s="24"/>
       <c r="T51" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U51" s="70"/>
     </row>
     <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="218"/>
+      <c r="A52" s="219"/>
       <c r="B52" s="80" t="s">
         <v>81</v>
       </c>
@@ -14211,13 +14217,13 @@
       <c r="R52" s="31"/>
       <c r="S52" s="24"/>
       <c r="T52" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U52" s="70"/>
     </row>
     <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="218"/>
+      <c r="A53" s="219"/>
       <c r="B53" s="80" t="s">
         <v>88</v>
       </c>
@@ -14257,13 +14263,13 @@
       <c r="R53" s="31"/>
       <c r="S53" s="24"/>
       <c r="T53" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U53" s="70"/>
     </row>
     <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="218"/>
+      <c r="A54" s="219"/>
       <c r="B54" s="80" t="s">
         <v>113</v>
       </c>
@@ -14303,13 +14309,13 @@
       <c r="R54" s="31"/>
       <c r="S54" s="24"/>
       <c r="T54" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U54" s="70"/>
     </row>
     <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="218"/>
+      <c r="A55" s="219"/>
       <c r="B55" s="80" t="s">
         <v>115</v>
       </c>
@@ -14349,13 +14355,13 @@
       <c r="R55" s="31"/>
       <c r="S55" s="24"/>
       <c r="T55" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U55" s="70"/>
     </row>
     <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="218"/>
+      <c r="A56" s="219"/>
       <c r="B56" s="80" t="s">
         <v>121</v>
       </c>
@@ -14395,13 +14401,13 @@
       <c r="R56" s="31"/>
       <c r="S56" s="24"/>
       <c r="T56" s="31">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U56" s="70"/>
     </row>
     <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="219"/>
+      <c r="A57" s="220"/>
       <c r="B57" s="85" t="s">
         <v>129</v>
       </c>
@@ -14441,7 +14447,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="24"/>
       <c r="T57" s="11">
-        <f>SUM(Tabla52[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla52[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>0</v>
       </c>
       <c r="U57" s="71"/>
@@ -14470,63 +14476,63 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="190" t="s">
+      <c r="A60" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="193" t="s">
+      <c r="B60" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="194"/>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="195"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="177"/>
+      <c r="I60" s="177"/>
+      <c r="J60" s="177"/>
+      <c r="K60" s="177"/>
+      <c r="L60" s="178"/>
       <c r="M60" s="74" t="s">
         <v>9</v>
       </c>
       <c r="N60" s="19">
-        <f>SUM(Tabla52[N 2 kg])</f>
+        <f>SUM(Tabla52[Naranjas])</f>
         <v>185</v>
       </c>
       <c r="O60" s="12">
-        <f>SUM(Tabla52[M 2 kg])</f>
+        <f>SUM(Tabla52[Mandarinas])</f>
         <v>169</v>
       </c>
       <c r="P60" s="12">
-        <f>SUM(Tabla52[P 2 kg])</f>
+        <f>SUM(Tabla52[Paltas])</f>
         <v>425</v>
       </c>
       <c r="Q60" s="12">
-        <f>SUM(Tabla52[Q 1050 gr])</f>
+        <f>SUM(Tabla52[Quesos])</f>
         <v>132</v>
       </c>
       <c r="R60" s="12">
-        <f>SUM(Tabla52[T 1 kg])</f>
+        <f>SUM(Tabla52[Tomate Cherry])</f>
         <v>111</v>
       </c>
       <c r="S60" s="13">
-        <f>SUM(Tabla52[N 500 gr])</f>
+        <f>SUM(Tabla52[Nueces])</f>
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="191"/>
-      <c r="B61" s="196"/>
-      <c r="C61" s="197"/>
-      <c r="D61" s="197"/>
-      <c r="E61" s="197"/>
-      <c r="F61" s="197"/>
-      <c r="G61" s="197"/>
-      <c r="H61" s="197"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="198"/>
+      <c r="A61" s="174"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
+      <c r="L61" s="181"/>
       <c r="M61" s="74" t="s">
         <v>30</v>
       </c>
@@ -14550,18 +14556,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="191"/>
-      <c r="B62" s="196"/>
-      <c r="C62" s="197"/>
-      <c r="D62" s="197"/>
-      <c r="E62" s="197"/>
-      <c r="F62" s="197"/>
-      <c r="G62" s="197"/>
-      <c r="H62" s="197"/>
-      <c r="I62" s="197"/>
-      <c r="J62" s="197"/>
-      <c r="K62" s="197"/>
-      <c r="L62" s="198"/>
+      <c r="A62" s="174"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="180"/>
+      <c r="D62" s="180"/>
+      <c r="E62" s="180"/>
+      <c r="F62" s="180"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="180"/>
+      <c r="L62" s="181"/>
       <c r="M62" s="74" t="s">
         <v>8</v>
       </c>
@@ -14591,18 +14597,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="191"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="200"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="200"/>
-      <c r="G63" s="200"/>
-      <c r="H63" s="200"/>
-      <c r="I63" s="200"/>
-      <c r="J63" s="200"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="201"/>
+      <c r="A63" s="174"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="183"/>
+      <c r="E63" s="183"/>
+      <c r="F63" s="183"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="183"/>
+      <c r="I63" s="183"/>
+      <c r="J63" s="183"/>
+      <c r="K63" s="183"/>
+      <c r="L63" s="184"/>
       <c r="M63" s="74" t="s">
         <v>10</v>
       </c>
@@ -14614,7 +14620,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="191"/>
+      <c r="A64" s="174"/>
       <c r="B64" s="72"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -14628,20 +14634,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="191"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="194"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="194"/>
-      <c r="F65" s="194"/>
-      <c r="G65" s="194"/>
-      <c r="H65" s="194"/>
-      <c r="I65" s="194"/>
-      <c r="J65" s="194"/>
-      <c r="K65" s="194"/>
-      <c r="L65" s="195"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="178"/>
       <c r="M65" s="74" t="s">
         <v>14</v>
       </c>
@@ -14671,18 +14677,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="191"/>
-      <c r="B66" s="196"/>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="197"/>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="198"/>
+      <c r="A66" s="174"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="180"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="180"/>
+      <c r="H66" s="180"/>
+      <c r="I66" s="180"/>
+      <c r="J66" s="180"/>
+      <c r="K66" s="180"/>
+      <c r="L66" s="181"/>
       <c r="M66" s="74" t="s">
         <v>8</v>
       </c>
@@ -14706,18 +14712,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="191"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="200"/>
-      <c r="G67" s="200"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="200"/>
-      <c r="J67" s="200"/>
-      <c r="K67" s="200"/>
-      <c r="L67" s="201"/>
+      <c r="A67" s="174"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="183"/>
+      <c r="D67" s="183"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="183"/>
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="183"/>
+      <c r="L67" s="184"/>
       <c r="M67" s="74" t="s">
         <v>15</v>
       </c>
@@ -14741,7 +14747,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="191"/>
+      <c r="A68" s="174"/>
       <c r="B68" s="72"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -14755,20 +14761,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="191"/>
-      <c r="B69" s="193" t="s">
+      <c r="A69" s="174"/>
+      <c r="B69" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="194"/>
-      <c r="G69" s="194"/>
-      <c r="H69" s="194"/>
-      <c r="I69" s="194"/>
-      <c r="J69" s="194"/>
-      <c r="K69" s="194"/>
-      <c r="L69" s="195"/>
+      <c r="C69" s="177"/>
+      <c r="D69" s="177"/>
+      <c r="E69" s="177"/>
+      <c r="F69" s="177"/>
+      <c r="G69" s="177"/>
+      <c r="H69" s="177"/>
+      <c r="I69" s="177"/>
+      <c r="J69" s="177"/>
+      <c r="K69" s="177"/>
+      <c r="L69" s="178"/>
       <c r="M69" s="74" t="s">
         <v>20</v>
       </c>
@@ -14798,46 +14804,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="191"/>
-      <c r="B70" s="199"/>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="200"/>
-      <c r="J70" s="200"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="201"/>
+      <c r="A70" s="174"/>
+      <c r="B70" s="182"/>
+      <c r="C70" s="183"/>
+      <c r="D70" s="183"/>
+      <c r="E70" s="183"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="183"/>
+      <c r="H70" s="183"/>
+      <c r="I70" s="183"/>
+      <c r="J70" s="183"/>
+      <c r="K70" s="183"/>
+      <c r="L70" s="184"/>
       <c r="M70" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="202">
+      <c r="N70" s="185">
         <f>SUM(N69:S69)</f>
         <v>3175196.4000000004</v>
       </c>
-      <c r="O70" s="203"/>
-      <c r="P70" s="203"/>
-      <c r="Q70" s="203"/>
-      <c r="R70" s="203"/>
-      <c r="S70" s="204"/>
+      <c r="O70" s="186"/>
+      <c r="P70" s="186"/>
+      <c r="Q70" s="186"/>
+      <c r="R70" s="186"/>
+      <c r="S70" s="187"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="191"/>
-      <c r="B71" s="193" t="s">
+      <c r="A71" s="174"/>
+      <c r="B71" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="194"/>
-      <c r="H71" s="194"/>
-      <c r="I71" s="194"/>
-      <c r="J71" s="194"/>
-      <c r="K71" s="194"/>
-      <c r="L71" s="195"/>
+      <c r="C71" s="177"/>
+      <c r="D71" s="177"/>
+      <c r="E71" s="177"/>
+      <c r="F71" s="177"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="177"/>
+      <c r="I71" s="177"/>
+      <c r="J71" s="177"/>
+      <c r="K71" s="177"/>
+      <c r="L71" s="178"/>
       <c r="M71" s="74" t="s">
         <v>20</v>
       </c>
@@ -14867,46 +14873,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="191"/>
-      <c r="B72" s="199"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="200"/>
-      <c r="E72" s="200"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="200"/>
-      <c r="H72" s="200"/>
-      <c r="I72" s="200"/>
-      <c r="J72" s="200"/>
-      <c r="K72" s="200"/>
-      <c r="L72" s="201"/>
+      <c r="A72" s="174"/>
+      <c r="B72" s="182"/>
+      <c r="C72" s="183"/>
+      <c r="D72" s="183"/>
+      <c r="E72" s="183"/>
+      <c r="F72" s="183"/>
+      <c r="G72" s="183"/>
+      <c r="H72" s="183"/>
+      <c r="I72" s="183"/>
+      <c r="J72" s="183"/>
+      <c r="K72" s="183"/>
+      <c r="L72" s="184"/>
       <c r="M72" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="202">
+      <c r="N72" s="185">
         <f>SUM(N71:S71)</f>
         <v>4990750</v>
       </c>
-      <c r="O72" s="203"/>
-      <c r="P72" s="203"/>
-      <c r="Q72" s="203"/>
-      <c r="R72" s="203"/>
-      <c r="S72" s="204"/>
+      <c r="O72" s="186"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="186"/>
+      <c r="R72" s="186"/>
+      <c r="S72" s="187"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="191"/>
-      <c r="B73" s="193" t="s">
+      <c r="A73" s="174"/>
+      <c r="B73" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="194"/>
-      <c r="D73" s="194"/>
-      <c r="E73" s="194"/>
-      <c r="F73" s="194"/>
-      <c r="G73" s="194"/>
-      <c r="H73" s="194"/>
-      <c r="I73" s="194"/>
-      <c r="J73" s="194"/>
-      <c r="K73" s="194"/>
-      <c r="L73" s="195"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="177"/>
+      <c r="K73" s="177"/>
+      <c r="L73" s="178"/>
       <c r="M73" s="74" t="s">
         <v>20</v>
       </c>
@@ -14936,55 +14942,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="191"/>
-      <c r="B74" s="199"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="201"/>
+      <c r="A74" s="174"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="183"/>
+      <c r="D74" s="183"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="183"/>
+      <c r="G74" s="183"/>
+      <c r="H74" s="183"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="183"/>
+      <c r="K74" s="183"/>
+      <c r="L74" s="184"/>
       <c r="M74" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="214">
+      <c r="N74" s="200">
         <f>SUM(N73:S73)</f>
         <v>1815553.5999999999</v>
       </c>
-      <c r="O74" s="215"/>
-      <c r="P74" s="215"/>
-      <c r="Q74" s="215"/>
-      <c r="R74" s="215"/>
-      <c r="S74" s="216"/>
+      <c r="O74" s="201"/>
+      <c r="P74" s="201"/>
+      <c r="Q74" s="201"/>
+      <c r="R74" s="201"/>
+      <c r="S74" s="202"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="191"/>
+      <c r="A75" s="174"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="191"/>
-      <c r="B76" s="163" t="s">
+      <c r="A76" s="174"/>
+      <c r="B76" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="164"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="164"/>
-      <c r="F76" s="164"/>
-      <c r="G76" s="164"/>
-      <c r="H76" s="164"/>
-      <c r="I76" s="164"/>
-      <c r="J76" s="164"/>
-      <c r="K76" s="164"/>
-      <c r="L76" s="164"/>
-      <c r="M76" s="165"/>
-      <c r="N76" s="172" t="s">
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="204"/>
+      <c r="J76" s="204"/>
+      <c r="K76" s="204"/>
+      <c r="L76" s="204"/>
+      <c r="M76" s="205"/>
+      <c r="N76" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="173"/>
-      <c r="P76" s="174"/>
+      <c r="O76" s="195"/>
+      <c r="P76" s="196"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -14992,24 +14998,24 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="191"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
-      <c r="F77" s="167"/>
-      <c r="G77" s="167"/>
-      <c r="H77" s="167"/>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="167"/>
-      <c r="L77" s="167"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="175" t="s">
+      <c r="A77" s="174"/>
+      <c r="B77" s="206"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="207"/>
+      <c r="E77" s="207"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="207"/>
+      <c r="H77" s="207"/>
+      <c r="I77" s="207"/>
+      <c r="J77" s="207"/>
+      <c r="K77" s="207"/>
+      <c r="L77" s="207"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="176"/>
-      <c r="P77" s="177"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="214"/>
       <c r="Q77" s="61">
         <v>45000</v>
       </c>
@@ -15017,24 +15023,24 @@
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="191"/>
-      <c r="B78" s="166"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="167"/>
-      <c r="I78" s="167"/>
-      <c r="J78" s="167"/>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="178" t="s">
+      <c r="A78" s="174"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="207"/>
+      <c r="D78" s="207"/>
+      <c r="E78" s="207"/>
+      <c r="F78" s="207"/>
+      <c r="G78" s="207"/>
+      <c r="H78" s="207"/>
+      <c r="I78" s="207"/>
+      <c r="J78" s="207"/>
+      <c r="K78" s="207"/>
+      <c r="L78" s="207"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="179"/>
-      <c r="P78" s="180"/>
+      <c r="O78" s="216"/>
+      <c r="P78" s="217"/>
       <c r="Q78" s="62">
         <v>50000</v>
       </c>
@@ -15042,24 +15048,24 @@
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="191"/>
-      <c r="B79" s="166"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
-      <c r="F79" s="167"/>
-      <c r="G79" s="167"/>
-      <c r="H79" s="167"/>
-      <c r="I79" s="167"/>
-      <c r="J79" s="167"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="178" t="s">
+      <c r="A79" s="174"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="207"/>
+      <c r="D79" s="207"/>
+      <c r="E79" s="207"/>
+      <c r="F79" s="207"/>
+      <c r="G79" s="207"/>
+      <c r="H79" s="207"/>
+      <c r="I79" s="207"/>
+      <c r="J79" s="207"/>
+      <c r="K79" s="207"/>
+      <c r="L79" s="207"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="179"/>
-      <c r="P79" s="180"/>
+      <c r="O79" s="216"/>
+      <c r="P79" s="217"/>
       <c r="Q79" s="62">
         <v>15000</v>
       </c>
@@ -15067,24 +15073,24 @@
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="191"/>
-      <c r="B80" s="166"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="168"/>
-      <c r="N80" s="178" t="s">
+      <c r="A80" s="174"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="207"/>
+      <c r="D80" s="207"/>
+      <c r="E80" s="207"/>
+      <c r="F80" s="207"/>
+      <c r="G80" s="207"/>
+      <c r="H80" s="207"/>
+      <c r="I80" s="207"/>
+      <c r="J80" s="207"/>
+      <c r="K80" s="207"/>
+      <c r="L80" s="207"/>
+      <c r="M80" s="208"/>
+      <c r="N80" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="179"/>
-      <c r="P80" s="180"/>
+      <c r="O80" s="216"/>
+      <c r="P80" s="217"/>
       <c r="Q80" s="62">
         <v>30000</v>
       </c>
@@ -15092,24 +15098,24 @@
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="191"/>
-      <c r="B81" s="166"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="167"/>
-      <c r="I81" s="167"/>
-      <c r="J81" s="167"/>
-      <c r="K81" s="167"/>
-      <c r="L81" s="167"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="178" t="s">
+      <c r="A81" s="174"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="207"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="207"/>
+      <c r="F81" s="207"/>
+      <c r="G81" s="207"/>
+      <c r="H81" s="207"/>
+      <c r="I81" s="207"/>
+      <c r="J81" s="207"/>
+      <c r="K81" s="207"/>
+      <c r="L81" s="207"/>
+      <c r="M81" s="208"/>
+      <c r="N81" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="179"/>
-      <c r="P81" s="180"/>
+      <c r="O81" s="216"/>
+      <c r="P81" s="217"/>
       <c r="Q81" s="62">
         <v>70000</v>
       </c>
@@ -15117,24 +15123,24 @@
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="191"/>
-      <c r="B82" s="166"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="167"/>
-      <c r="H82" s="167"/>
-      <c r="I82" s="167"/>
-      <c r="J82" s="167"/>
-      <c r="K82" s="167"/>
-      <c r="L82" s="167"/>
-      <c r="M82" s="168"/>
-      <c r="N82" s="178" t="s">
+      <c r="A82" s="174"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207"/>
+      <c r="E82" s="207"/>
+      <c r="F82" s="207"/>
+      <c r="G82" s="207"/>
+      <c r="H82" s="207"/>
+      <c r="I82" s="207"/>
+      <c r="J82" s="207"/>
+      <c r="K82" s="207"/>
+      <c r="L82" s="207"/>
+      <c r="M82" s="208"/>
+      <c r="N82" s="215" t="s">
         <v>139</v>
       </c>
-      <c r="O82" s="179"/>
-      <c r="P82" s="180"/>
+      <c r="O82" s="216"/>
+      <c r="P82" s="217"/>
       <c r="Q82" s="62">
         <v>20000</v>
       </c>
@@ -15142,24 +15148,24 @@
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="191"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="167"/>
-      <c r="I83" s="167"/>
-      <c r="J83" s="167"/>
-      <c r="K83" s="167"/>
-      <c r="L83" s="167"/>
-      <c r="M83" s="168"/>
-      <c r="N83" s="205" t="s">
+      <c r="A83" s="174"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="207"/>
+      <c r="D83" s="207"/>
+      <c r="E83" s="207"/>
+      <c r="F83" s="207"/>
+      <c r="G83" s="207"/>
+      <c r="H83" s="207"/>
+      <c r="I83" s="207"/>
+      <c r="J83" s="207"/>
+      <c r="K83" s="207"/>
+      <c r="L83" s="207"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="O83" s="206"/>
-      <c r="P83" s="207"/>
+      <c r="O83" s="189"/>
+      <c r="P83" s="190"/>
       <c r="Q83" s="62">
         <v>15000</v>
       </c>
@@ -15167,24 +15173,24 @@
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="191"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="170"/>
-      <c r="E84" s="170"/>
-      <c r="F84" s="170"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="170"/>
-      <c r="I84" s="170"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="170"/>
-      <c r="M84" s="171"/>
-      <c r="N84" s="208" t="s">
+      <c r="A84" s="174"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="210"/>
+      <c r="D84" s="210"/>
+      <c r="E84" s="210"/>
+      <c r="F84" s="210"/>
+      <c r="G84" s="210"/>
+      <c r="H84" s="210"/>
+      <c r="I84" s="210"/>
+      <c r="J84" s="210"/>
+      <c r="K84" s="210"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="211"/>
+      <c r="N84" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="209"/>
-      <c r="P84" s="210"/>
+      <c r="O84" s="192"/>
+      <c r="P84" s="193"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>245000</v>
@@ -15193,35 +15199,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="191"/>
+      <c r="A85" s="174"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="192"/>
-      <c r="B86" s="172" t="s">
+      <c r="A86" s="175"/>
+      <c r="B86" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
-      <c r="F86" s="173"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="173"/>
-      <c r="L86" s="174"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="195"/>
+      <c r="E86" s="195"/>
+      <c r="F86" s="195"/>
+      <c r="G86" s="195"/>
+      <c r="H86" s="195"/>
+      <c r="I86" s="195"/>
+      <c r="J86" s="195"/>
+      <c r="K86" s="195"/>
+      <c r="L86" s="196"/>
       <c r="M86" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="211">
+      <c r="N86" s="197">
         <f>N74-SUM(Q77:Q83)</f>
         <v>1570553.5999999999</v>
       </c>
-      <c r="O86" s="212"/>
-      <c r="P86" s="212"/>
-      <c r="Q86" s="212"/>
-      <c r="R86" s="212"/>
-      <c r="S86" s="213"/>
+      <c r="O86" s="198"/>
+      <c r="P86" s="198"/>
+      <c r="Q86" s="198"/>
+      <c r="R86" s="198"/>
+      <c r="S86" s="199"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -15281,14 +15287,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A57"/>
@@ -15305,6 +15303,14 @@
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="N78:P78"/>
     <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15321,11 +15327,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:M7"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15350,28 +15356,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223" t="s">
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="225"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="244"/>
     </row>
     <row r="3" spans="1:21" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="101"/>
@@ -15433,23 +15439,23 @@
       <c r="M4" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="105" t="s">
-        <v>22</v>
+      <c r="N4" s="278" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="278" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="278" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="278" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="279" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="279" t="s">
+        <v>23</v>
       </c>
       <c r="T4" s="105" t="s">
         <v>17</v>
@@ -15459,7 +15465,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="226" t="s">
+      <c r="A5" s="245" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -15517,13 +15523,13 @@
         <v>4</v>
       </c>
       <c r="T5" s="110">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>41</v>
       </c>
       <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="227"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="116" t="s">
         <v>137</v>
       </c>
@@ -15579,13 +15585,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>7</v>
       </c>
       <c r="U6" s="115"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="227"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="112" t="s">
         <v>111</v>
       </c>
@@ -15641,13 +15647,13 @@
         <v>2</v>
       </c>
       <c r="T7" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>7</v>
       </c>
       <c r="U7" s="115"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="227"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
@@ -15681,7 +15687,7 @@
       <c r="L8" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="277" t="s">
+      <c r="M8" s="163" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="114">
@@ -15703,13 +15709,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>9</v>
       </c>
       <c r="U8" s="115"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="227"/>
+      <c r="A9" s="246"/>
       <c r="B9" s="112" t="s">
         <v>73</v>
       </c>
@@ -15765,13 +15771,13 @@
         <v>2</v>
       </c>
       <c r="T9" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>39</v>
       </c>
       <c r="U9" s="115"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="227"/>
+      <c r="A10" s="246"/>
       <c r="B10" s="116" t="s">
         <v>117</v>
       </c>
@@ -15827,13 +15833,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>9</v>
       </c>
       <c r="U10" s="115"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="227"/>
+      <c r="A11" s="246"/>
       <c r="B11" s="112" t="s">
         <v>84</v>
       </c>
@@ -15889,13 +15895,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>7</v>
       </c>
       <c r="U11" s="115"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="227"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="112" t="s">
         <v>55</v>
       </c>
@@ -15951,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>27</v>
       </c>
       <c r="U12" s="115" t="s">
@@ -15959,7 +15965,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
+      <c r="A13" s="246"/>
       <c r="B13" s="112" t="s">
         <v>55</v>
       </c>
@@ -16015,13 +16021,13 @@
         <v>2</v>
       </c>
       <c r="T13" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>14</v>
       </c>
       <c r="U13" s="115"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="227"/>
+      <c r="A14" s="246"/>
       <c r="B14" s="112" t="s">
         <v>289</v>
       </c>
@@ -16077,13 +16083,13 @@
         <v>1</v>
       </c>
       <c r="T14" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>11</v>
       </c>
       <c r="U14" s="115"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227"/>
+      <c r="A15" s="246"/>
       <c r="B15" s="116" t="s">
         <v>123</v>
       </c>
@@ -16139,13 +16145,13 @@
         <v>1</v>
       </c>
       <c r="T15" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>11</v>
       </c>
       <c r="U15" s="115"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
+      <c r="A16" s="246"/>
       <c r="B16" s="112" t="s">
         <v>41</v>
       </c>
@@ -16201,13 +16207,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>2</v>
       </c>
       <c r="U16" s="115"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
+      <c r="A17" s="246"/>
       <c r="B17" s="112" t="s">
         <v>100</v>
       </c>
@@ -16263,13 +16269,13 @@
         <v>1</v>
       </c>
       <c r="T17" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>70</v>
       </c>
       <c r="U17" s="115"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227"/>
+      <c r="A18" s="246"/>
       <c r="B18" s="112" t="s">
         <v>68</v>
       </c>
@@ -16325,13 +16331,13 @@
         <v>4</v>
       </c>
       <c r="T18" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>85</v>
       </c>
       <c r="U18" s="115"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="227"/>
+      <c r="A19" s="246"/>
       <c r="B19" s="112" t="s">
         <v>82</v>
       </c>
@@ -16387,13 +16393,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>13</v>
       </c>
       <c r="U19" s="115"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="227"/>
+      <c r="A20" s="246"/>
       <c r="B20" s="112" t="s">
         <v>96</v>
       </c>
@@ -16449,13 +16455,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>8</v>
       </c>
       <c r="U20" s="115"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="227"/>
+      <c r="A21" s="246"/>
       <c r="B21" s="112" t="s">
         <v>61</v>
       </c>
@@ -16511,13 +16517,13 @@
         <v>4</v>
       </c>
       <c r="T21" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>129</v>
       </c>
       <c r="U21" s="115"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="227"/>
+      <c r="A22" s="246"/>
       <c r="B22" s="112" t="s">
         <v>98</v>
       </c>
@@ -16573,13 +16579,13 @@
         <v>2</v>
       </c>
       <c r="T22" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>27</v>
       </c>
       <c r="U22" s="115"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="227"/>
+      <c r="A23" s="246"/>
       <c r="B23" s="116" t="s">
         <v>132</v>
       </c>
@@ -16635,13 +16641,13 @@
         <v>3</v>
       </c>
       <c r="T23" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>23</v>
       </c>
       <c r="U23" s="115"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="227"/>
+      <c r="A24" s="246"/>
       <c r="B24" s="116" t="s">
         <v>125</v>
       </c>
@@ -16697,13 +16703,13 @@
         <v>3</v>
       </c>
       <c r="T24" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>3</v>
       </c>
       <c r="U24" s="115"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="227"/>
+      <c r="A25" s="246"/>
       <c r="B25" s="112" t="s">
         <v>102</v>
       </c>
@@ -16759,13 +16765,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>4</v>
       </c>
       <c r="U25" s="115"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="227"/>
+      <c r="A26" s="246"/>
       <c r="B26" s="112" t="s">
         <v>79</v>
       </c>
@@ -16821,13 +16827,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>34</v>
       </c>
       <c r="U26" s="115"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="227"/>
+      <c r="A27" s="246"/>
       <c r="B27" s="112" t="s">
         <v>92</v>
       </c>
@@ -16883,13 +16889,13 @@
         <v>9</v>
       </c>
       <c r="T27" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>59</v>
       </c>
       <c r="U27" s="115"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="227"/>
+      <c r="A28" s="246"/>
       <c r="B28" s="112" t="s">
         <v>90</v>
       </c>
@@ -16945,13 +16951,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>18</v>
       </c>
       <c r="U28" s="115"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="227"/>
+      <c r="A29" s="246"/>
       <c r="B29" s="112" t="s">
         <v>57</v>
       </c>
@@ -17007,13 +17013,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>11</v>
       </c>
       <c r="U29" s="115"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="227"/>
+      <c r="A30" s="246"/>
       <c r="B30" s="116" t="s">
         <v>119</v>
       </c>
@@ -17069,13 +17075,13 @@
         <v>3</v>
       </c>
       <c r="T30" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>52</v>
       </c>
       <c r="U30" s="115"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="227"/>
+      <c r="A31" s="246"/>
       <c r="B31" s="112" t="s">
         <v>51</v>
       </c>
@@ -17131,13 +17137,13 @@
         <v>2</v>
       </c>
       <c r="T31" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>27</v>
       </c>
       <c r="U31" s="115"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="227"/>
+      <c r="A32" s="246"/>
       <c r="B32" s="116" t="s">
         <v>134</v>
       </c>
@@ -17193,13 +17199,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>22</v>
       </c>
       <c r="U32" s="115"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="227"/>
+      <c r="A33" s="246"/>
       <c r="B33" s="112" t="s">
         <v>109</v>
       </c>
@@ -17255,13 +17261,13 @@
         <v>6</v>
       </c>
       <c r="T33" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>75</v>
       </c>
       <c r="U33" s="115"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="227"/>
+      <c r="A34" s="246"/>
       <c r="B34" s="112" t="s">
         <v>77</v>
       </c>
@@ -17317,13 +17323,13 @@
         <v>3</v>
       </c>
       <c r="T34" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>31</v>
       </c>
       <c r="U34" s="115"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="227"/>
+      <c r="A35" s="246"/>
       <c r="B35" s="112" t="s">
         <v>84</v>
       </c>
@@ -17379,13 +17385,13 @@
         <v>1</v>
       </c>
       <c r="T35" s="114">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>20</v>
       </c>
       <c r="U35" s="115"/>
     </row>
     <row r="36" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="228"/>
+      <c r="A36" s="247"/>
       <c r="B36" s="118" t="s">
         <v>81</v>
       </c>
@@ -17441,7 +17447,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="120">
-        <f>SUM(Tabla5234[[#This Row],[N 2 kg]:[N 500 gr]])</f>
+        <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
         <v>13</v>
       </c>
       <c r="U36" s="121"/>
@@ -17470,63 +17476,63 @@
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="229" t="s">
+      <c r="A39" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="232" t="s">
+      <c r="B39" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="233"/>
-      <c r="D39" s="233"/>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="233"/>
-      <c r="I39" s="233"/>
-      <c r="J39" s="233"/>
-      <c r="K39" s="233"/>
-      <c r="L39" s="234"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
+      <c r="H39" s="252"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="253"/>
       <c r="M39" s="127" t="s">
         <v>9</v>
       </c>
       <c r="N39" s="128">
-        <f>SUM(Tabla5234[N 2 kg])</f>
+        <f>SUM(Tabla5234[Naranjas])</f>
         <v>162</v>
       </c>
       <c r="O39" s="110">
-        <f>SUM(Tabla5234[M 2 kg])</f>
+        <f>SUM(Tabla5234[Mandarinas])</f>
         <v>153</v>
       </c>
       <c r="P39" s="110">
-        <f>SUM(Tabla5234[P 2 kg])</f>
+        <f>SUM(Tabla5234[Paltas])</f>
         <v>295</v>
       </c>
       <c r="Q39" s="110">
-        <f>SUM(Tabla5234[Q 1050 gr])</f>
+        <f>SUM(Tabla5234[Quesos])</f>
         <v>121</v>
       </c>
       <c r="R39" s="110">
-        <f>SUM(Tabla5234[T 1 kg])</f>
+        <f>SUM(Tabla5234[Tomate Cherry])</f>
         <v>120</v>
       </c>
       <c r="S39" s="129">
-        <f>SUM(Tabla5234[N 500 gr])</f>
+        <f>SUM(Tabla5234[Nueces])</f>
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="230"/>
-      <c r="B40" s="235"/>
-      <c r="C40" s="236"/>
-      <c r="D40" s="236"/>
-      <c r="E40" s="236"/>
-      <c r="F40" s="236"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="236"/>
-      <c r="J40" s="236"/>
-      <c r="K40" s="236"/>
-      <c r="L40" s="237"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="254"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="255"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="255"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="255"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="256"/>
       <c r="M40" s="127" t="s">
         <v>30</v>
       </c>
@@ -17550,18 +17556,18 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="230"/>
-      <c r="B41" s="235"/>
-      <c r="C41" s="236"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
-      <c r="F41" s="236"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="236"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="236"/>
-      <c r="L41" s="237"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="255"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="255"/>
+      <c r="H41" s="255"/>
+      <c r="I41" s="255"/>
+      <c r="J41" s="255"/>
+      <c r="K41" s="255"/>
+      <c r="L41" s="256"/>
       <c r="M41" s="127" t="s">
         <v>8</v>
       </c>
@@ -17591,18 +17597,18 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="230"/>
-      <c r="B42" s="238"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="239"/>
-      <c r="I42" s="239"/>
-      <c r="J42" s="239"/>
-      <c r="K42" s="239"/>
-      <c r="L42" s="240"/>
+      <c r="A42" s="249"/>
+      <c r="B42" s="257"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="258"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="258"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="258"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="258"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="259"/>
       <c r="M42" s="127" t="s">
         <v>10</v>
       </c>
@@ -17614,7 +17620,7 @@
       <c r="S42" s="135"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="230"/>
+      <c r="A43" s="249"/>
       <c r="B43" s="136"/>
       <c r="C43" s="123"/>
       <c r="D43" s="137"/>
@@ -17628,20 +17634,20 @@
       <c r="M43" s="140"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="230"/>
-      <c r="B44" s="232" t="s">
+      <c r="A44" s="249"/>
+      <c r="B44" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="233"/>
-      <c r="K44" s="233"/>
-      <c r="L44" s="234"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="252"/>
+      <c r="H44" s="252"/>
+      <c r="I44" s="252"/>
+      <c r="J44" s="252"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="253"/>
       <c r="M44" s="127" t="s">
         <v>14</v>
       </c>
@@ -17671,18 +17677,18 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="230"/>
-      <c r="B45" s="235"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="237"/>
+      <c r="A45" s="249"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="255"/>
+      <c r="E45" s="255"/>
+      <c r="F45" s="255"/>
+      <c r="G45" s="255"/>
+      <c r="H45" s="255"/>
+      <c r="I45" s="255"/>
+      <c r="J45" s="255"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
       <c r="M45" s="127" t="s">
         <v>8</v>
       </c>
@@ -17706,18 +17712,18 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="230"/>
-      <c r="B46" s="238"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="239"/>
-      <c r="G46" s="239"/>
-      <c r="H46" s="239"/>
-      <c r="I46" s="239"/>
-      <c r="J46" s="239"/>
-      <c r="K46" s="239"/>
-      <c r="L46" s="240"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="258"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="258"/>
+      <c r="G46" s="258"/>
+      <c r="H46" s="258"/>
+      <c r="I46" s="258"/>
+      <c r="J46" s="258"/>
+      <c r="K46" s="258"/>
+      <c r="L46" s="259"/>
       <c r="M46" s="127" t="s">
         <v>15</v>
       </c>
@@ -17741,7 +17747,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="230"/>
+      <c r="A47" s="249"/>
       <c r="B47" s="136"/>
       <c r="C47" s="123"/>
       <c r="D47" s="137"/>
@@ -17755,20 +17761,20 @@
       <c r="M47" s="140"/>
     </row>
     <row r="48" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="230"/>
-      <c r="B48" s="232" t="s">
+      <c r="A48" s="249"/>
+      <c r="B48" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="233"/>
-      <c r="D48" s="233"/>
-      <c r="E48" s="233"/>
-      <c r="F48" s="233"/>
-      <c r="G48" s="233"/>
-      <c r="H48" s="233"/>
-      <c r="I48" s="233"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="233"/>
-      <c r="L48" s="234"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="252"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="252"/>
+      <c r="H48" s="252"/>
+      <c r="I48" s="252"/>
+      <c r="J48" s="252"/>
+      <c r="K48" s="252"/>
+      <c r="L48" s="253"/>
       <c r="M48" s="127" t="s">
         <v>20</v>
       </c>
@@ -17798,46 +17804,46 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="230"/>
-      <c r="B49" s="238"/>
-      <c r="C49" s="239"/>
-      <c r="D49" s="239"/>
-      <c r="E49" s="239"/>
-      <c r="F49" s="239"/>
-      <c r="G49" s="239"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="239"/>
-      <c r="J49" s="239"/>
-      <c r="K49" s="239"/>
-      <c r="L49" s="240"/>
+      <c r="A49" s="249"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="258"/>
+      <c r="E49" s="258"/>
+      <c r="F49" s="258"/>
+      <c r="G49" s="258"/>
+      <c r="H49" s="258"/>
+      <c r="I49" s="258"/>
+      <c r="J49" s="258"/>
+      <c r="K49" s="258"/>
+      <c r="L49" s="259"/>
       <c r="M49" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="241">
+      <c r="N49" s="260">
         <f>SUM(N48:S48)</f>
         <v>2649971.7000000002</v>
       </c>
-      <c r="O49" s="242"/>
-      <c r="P49" s="242"/>
-      <c r="Q49" s="242"/>
-      <c r="R49" s="242"/>
-      <c r="S49" s="243"/>
+      <c r="O49" s="261"/>
+      <c r="P49" s="261"/>
+      <c r="Q49" s="261"/>
+      <c r="R49" s="261"/>
+      <c r="S49" s="262"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="230"/>
-      <c r="B50" s="232" t="s">
+      <c r="A50" s="249"/>
+      <c r="B50" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="233"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="234"/>
+      <c r="C50" s="252"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
+      <c r="G50" s="252"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="252"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="252"/>
+      <c r="L50" s="253"/>
       <c r="M50" s="127" t="s">
         <v>20</v>
       </c>
@@ -17867,46 +17873,46 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="230"/>
-      <c r="B51" s="238"/>
-      <c r="C51" s="239"/>
-      <c r="D51" s="239"/>
-      <c r="E51" s="239"/>
-      <c r="F51" s="239"/>
-      <c r="G51" s="239"/>
-      <c r="H51" s="239"/>
-      <c r="I51" s="239"/>
-      <c r="J51" s="239"/>
-      <c r="K51" s="239"/>
-      <c r="L51" s="240"/>
+      <c r="A51" s="249"/>
+      <c r="B51" s="257"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="258"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="258"/>
+      <c r="G51" s="258"/>
+      <c r="H51" s="258"/>
+      <c r="I51" s="258"/>
+      <c r="J51" s="258"/>
+      <c r="K51" s="258"/>
+      <c r="L51" s="259"/>
       <c r="M51" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="241">
+      <c r="N51" s="260">
         <f>SUM(N50:S50)</f>
         <v>4362000</v>
       </c>
-      <c r="O51" s="242"/>
-      <c r="P51" s="242"/>
-      <c r="Q51" s="242"/>
-      <c r="R51" s="242"/>
-      <c r="S51" s="243"/>
+      <c r="O51" s="261"/>
+      <c r="P51" s="261"/>
+      <c r="Q51" s="261"/>
+      <c r="R51" s="261"/>
+      <c r="S51" s="262"/>
     </row>
     <row r="52" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="230"/>
-      <c r="B52" s="232" t="s">
+      <c r="A52" s="249"/>
+      <c r="B52" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="233"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="233"/>
-      <c r="L52" s="234"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="253"/>
       <c r="M52" s="127" t="s">
         <v>20</v>
       </c>
@@ -17936,55 +17942,55 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="230"/>
-      <c r="B53" s="238"/>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="239"/>
-      <c r="G53" s="239"/>
-      <c r="H53" s="239"/>
-      <c r="I53" s="239"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="240"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="257"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="258"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="258"/>
+      <c r="H53" s="258"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="258"/>
+      <c r="K53" s="258"/>
+      <c r="L53" s="259"/>
       <c r="M53" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="244">
+      <c r="N53" s="263">
         <f>SUM(N52:S52)</f>
         <v>1712028.2999999998</v>
       </c>
-      <c r="O53" s="245"/>
-      <c r="P53" s="245"/>
-      <c r="Q53" s="245"/>
-      <c r="R53" s="245"/>
-      <c r="S53" s="246"/>
+      <c r="O53" s="264"/>
+      <c r="P53" s="264"/>
+      <c r="Q53" s="264"/>
+      <c r="R53" s="264"/>
+      <c r="S53" s="265"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="230"/>
+      <c r="A54" s="249"/>
     </row>
     <row r="55" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="230"/>
-      <c r="B55" s="247" t="s">
+      <c r="A55" s="249"/>
+      <c r="B55" s="266" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="248"/>
-      <c r="G55" s="248"/>
-      <c r="H55" s="248"/>
-      <c r="I55" s="248"/>
-      <c r="J55" s="248"/>
-      <c r="K55" s="248"/>
-      <c r="L55" s="248"/>
-      <c r="M55" s="249"/>
-      <c r="N55" s="256" t="s">
+      <c r="C55" s="267"/>
+      <c r="D55" s="267"/>
+      <c r="E55" s="267"/>
+      <c r="F55" s="267"/>
+      <c r="G55" s="267"/>
+      <c r="H55" s="267"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="267"/>
+      <c r="K55" s="267"/>
+      <c r="L55" s="267"/>
+      <c r="M55" s="268"/>
+      <c r="N55" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="257"/>
-      <c r="P55" s="258"/>
+      <c r="O55" s="225"/>
+      <c r="P55" s="226"/>
       <c r="Q55" s="152" t="s">
         <v>29</v>
       </c>
@@ -17992,24 +17998,24 @@
       <c r="S55" s="153"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="230"/>
-      <c r="B56" s="250"/>
-      <c r="C56" s="251"/>
-      <c r="D56" s="251"/>
-      <c r="E56" s="251"/>
-      <c r="F56" s="251"/>
-      <c r="G56" s="251"/>
-      <c r="H56" s="251"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="251"/>
-      <c r="K56" s="251"/>
-      <c r="L56" s="251"/>
-      <c r="M56" s="252"/>
-      <c r="N56" s="259" t="s">
+      <c r="A56" s="249"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="270"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="270"/>
+      <c r="K56" s="270"/>
+      <c r="L56" s="270"/>
+      <c r="M56" s="271"/>
+      <c r="N56" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="O56" s="260"/>
-      <c r="P56" s="261"/>
+      <c r="O56" s="276"/>
+      <c r="P56" s="277"/>
       <c r="Q56" s="154">
         <v>40000</v>
       </c>
@@ -18017,24 +18023,24 @@
       <c r="S56" s="155"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="230"/>
-      <c r="B57" s="250"/>
-      <c r="C57" s="251"/>
-      <c r="D57" s="251"/>
-      <c r="E57" s="251"/>
-      <c r="F57" s="251"/>
-      <c r="G57" s="251"/>
-      <c r="H57" s="251"/>
-      <c r="I57" s="251"/>
-      <c r="J57" s="251"/>
-      <c r="K57" s="251"/>
-      <c r="L57" s="251"/>
-      <c r="M57" s="252"/>
-      <c r="N57" s="262" t="s">
+      <c r="A57" s="249"/>
+      <c r="B57" s="269"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="270"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="270"/>
+      <c r="H57" s="270"/>
+      <c r="I57" s="270"/>
+      <c r="J57" s="270"/>
+      <c r="K57" s="270"/>
+      <c r="L57" s="270"/>
+      <c r="M57" s="271"/>
+      <c r="N57" s="233" t="s">
         <v>287</v>
       </c>
-      <c r="O57" s="263"/>
-      <c r="P57" s="264"/>
+      <c r="O57" s="234"/>
+      <c r="P57" s="235"/>
       <c r="Q57" s="156">
         <v>40000</v>
       </c>
@@ -18042,24 +18048,24 @@
       <c r="S57" s="155"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="230"/>
-      <c r="B58" s="250"/>
-      <c r="C58" s="251"/>
-      <c r="D58" s="251"/>
-      <c r="E58" s="251"/>
-      <c r="F58" s="251"/>
-      <c r="G58" s="251"/>
-      <c r="H58" s="251"/>
-      <c r="I58" s="251"/>
-      <c r="J58" s="251"/>
-      <c r="K58" s="251"/>
-      <c r="L58" s="251"/>
-      <c r="M58" s="252"/>
-      <c r="N58" s="262" t="s">
+      <c r="A58" s="249"/>
+      <c r="B58" s="269"/>
+      <c r="C58" s="270"/>
+      <c r="D58" s="270"/>
+      <c r="E58" s="270"/>
+      <c r="F58" s="270"/>
+      <c r="G58" s="270"/>
+      <c r="H58" s="270"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="270"/>
+      <c r="K58" s="270"/>
+      <c r="L58" s="270"/>
+      <c r="M58" s="271"/>
+      <c r="N58" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="O58" s="263"/>
-      <c r="P58" s="264"/>
+      <c r="O58" s="234"/>
+      <c r="P58" s="235"/>
       <c r="Q58" s="156">
         <v>20000</v>
       </c>
@@ -18067,24 +18073,24 @@
       <c r="S58" s="155"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="230"/>
-      <c r="B59" s="250"/>
-      <c r="C59" s="251"/>
-      <c r="D59" s="251"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="251"/>
-      <c r="G59" s="251"/>
-      <c r="H59" s="251"/>
-      <c r="I59" s="251"/>
-      <c r="J59" s="251"/>
-      <c r="K59" s="251"/>
-      <c r="L59" s="251"/>
-      <c r="M59" s="252"/>
-      <c r="N59" s="262" t="s">
+      <c r="A59" s="249"/>
+      <c r="B59" s="269"/>
+      <c r="C59" s="270"/>
+      <c r="D59" s="270"/>
+      <c r="E59" s="270"/>
+      <c r="F59" s="270"/>
+      <c r="G59" s="270"/>
+      <c r="H59" s="270"/>
+      <c r="I59" s="270"/>
+      <c r="J59" s="270"/>
+      <c r="K59" s="270"/>
+      <c r="L59" s="270"/>
+      <c r="M59" s="271"/>
+      <c r="N59" s="233" t="s">
         <v>293</v>
       </c>
-      <c r="O59" s="263"/>
-      <c r="P59" s="264"/>
+      <c r="O59" s="234"/>
+      <c r="P59" s="235"/>
       <c r="Q59" s="156">
         <v>18000</v>
       </c>
@@ -18092,24 +18098,24 @@
       <c r="S59" s="155"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="230"/>
-      <c r="B60" s="250"/>
-      <c r="C60" s="251"/>
-      <c r="D60" s="251"/>
-      <c r="E60" s="251"/>
-      <c r="F60" s="251"/>
-      <c r="G60" s="251"/>
-      <c r="H60" s="251"/>
-      <c r="I60" s="251"/>
-      <c r="J60" s="251"/>
-      <c r="K60" s="251"/>
-      <c r="L60" s="251"/>
-      <c r="M60" s="252"/>
-      <c r="N60" s="262" t="s">
+      <c r="A60" s="249"/>
+      <c r="B60" s="269"/>
+      <c r="C60" s="270"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
+      <c r="G60" s="270"/>
+      <c r="H60" s="270"/>
+      <c r="I60" s="270"/>
+      <c r="J60" s="270"/>
+      <c r="K60" s="270"/>
+      <c r="L60" s="270"/>
+      <c r="M60" s="271"/>
+      <c r="N60" s="233" t="s">
         <v>294</v>
       </c>
-      <c r="O60" s="263"/>
-      <c r="P60" s="264"/>
+      <c r="O60" s="234"/>
+      <c r="P60" s="235"/>
       <c r="Q60" s="156">
         <v>60000</v>
       </c>
@@ -18117,24 +18123,24 @@
       <c r="S60" s="155"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="230"/>
-      <c r="B61" s="250"/>
-      <c r="C61" s="251"/>
-      <c r="D61" s="251"/>
-      <c r="E61" s="251"/>
-      <c r="F61" s="251"/>
-      <c r="G61" s="251"/>
-      <c r="H61" s="251"/>
-      <c r="I61" s="251"/>
-      <c r="J61" s="251"/>
-      <c r="K61" s="251"/>
-      <c r="L61" s="251"/>
-      <c r="M61" s="252"/>
-      <c r="N61" s="274" t="s">
+      <c r="A61" s="249"/>
+      <c r="B61" s="269"/>
+      <c r="C61" s="270"/>
+      <c r="D61" s="270"/>
+      <c r="E61" s="270"/>
+      <c r="F61" s="270"/>
+      <c r="G61" s="270"/>
+      <c r="H61" s="270"/>
+      <c r="I61" s="270"/>
+      <c r="J61" s="270"/>
+      <c r="K61" s="270"/>
+      <c r="L61" s="270"/>
+      <c r="M61" s="271"/>
+      <c r="N61" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="O61" s="275"/>
-      <c r="P61" s="276"/>
+      <c r="O61" s="231"/>
+      <c r="P61" s="232"/>
       <c r="Q61" s="156">
         <v>30000</v>
       </c>
@@ -18142,24 +18148,24 @@
       <c r="S61" s="155"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="230"/>
-      <c r="B62" s="250"/>
-      <c r="C62" s="251"/>
-      <c r="D62" s="251"/>
-      <c r="E62" s="251"/>
-      <c r="F62" s="251"/>
-      <c r="G62" s="251"/>
-      <c r="H62" s="251"/>
-      <c r="I62" s="251"/>
-      <c r="J62" s="251"/>
-      <c r="K62" s="251"/>
-      <c r="L62" s="251"/>
-      <c r="M62" s="252"/>
-      <c r="N62" s="274" t="s">
+      <c r="A62" s="249"/>
+      <c r="B62" s="269"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="270"/>
+      <c r="E62" s="270"/>
+      <c r="F62" s="270"/>
+      <c r="G62" s="270"/>
+      <c r="H62" s="270"/>
+      <c r="I62" s="270"/>
+      <c r="J62" s="270"/>
+      <c r="K62" s="270"/>
+      <c r="L62" s="270"/>
+      <c r="M62" s="271"/>
+      <c r="N62" s="230" t="s">
         <v>161</v>
       </c>
-      <c r="O62" s="275"/>
-      <c r="P62" s="276"/>
+      <c r="O62" s="231"/>
+      <c r="P62" s="232"/>
       <c r="Q62" s="156">
         <v>30000</v>
       </c>
@@ -18167,24 +18173,24 @@
       <c r="S62" s="155"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="230"/>
-      <c r="B63" s="250"/>
-      <c r="C63" s="251"/>
-      <c r="D63" s="251"/>
-      <c r="E63" s="251"/>
-      <c r="F63" s="251"/>
-      <c r="G63" s="251"/>
-      <c r="H63" s="251"/>
-      <c r="I63" s="251"/>
-      <c r="J63" s="251"/>
-      <c r="K63" s="251"/>
-      <c r="L63" s="251"/>
-      <c r="M63" s="252"/>
-      <c r="N63" s="274" t="s">
+      <c r="A63" s="249"/>
+      <c r="B63" s="269"/>
+      <c r="C63" s="270"/>
+      <c r="D63" s="270"/>
+      <c r="E63" s="270"/>
+      <c r="F63" s="270"/>
+      <c r="G63" s="270"/>
+      <c r="H63" s="270"/>
+      <c r="I63" s="270"/>
+      <c r="J63" s="270"/>
+      <c r="K63" s="270"/>
+      <c r="L63" s="270"/>
+      <c r="M63" s="271"/>
+      <c r="N63" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="O63" s="275"/>
-      <c r="P63" s="276"/>
+      <c r="O63" s="231"/>
+      <c r="P63" s="232"/>
       <c r="Q63" s="156">
         <v>30000</v>
       </c>
@@ -18192,24 +18198,24 @@
       <c r="S63" s="155"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="230"/>
-      <c r="B64" s="250"/>
-      <c r="C64" s="251"/>
-      <c r="D64" s="251"/>
-      <c r="E64" s="251"/>
-      <c r="F64" s="251"/>
-      <c r="G64" s="251"/>
-      <c r="H64" s="251"/>
-      <c r="I64" s="251"/>
-      <c r="J64" s="251"/>
-      <c r="K64" s="251"/>
-      <c r="L64" s="251"/>
-      <c r="M64" s="252"/>
-      <c r="N64" s="274" t="s">
+      <c r="A64" s="249"/>
+      <c r="B64" s="269"/>
+      <c r="C64" s="270"/>
+      <c r="D64" s="270"/>
+      <c r="E64" s="270"/>
+      <c r="F64" s="270"/>
+      <c r="G64" s="270"/>
+      <c r="H64" s="270"/>
+      <c r="I64" s="270"/>
+      <c r="J64" s="270"/>
+      <c r="K64" s="270"/>
+      <c r="L64" s="270"/>
+      <c r="M64" s="271"/>
+      <c r="N64" s="230" t="s">
         <v>295</v>
       </c>
-      <c r="O64" s="275"/>
-      <c r="P64" s="276"/>
+      <c r="O64" s="231"/>
+      <c r="P64" s="232"/>
       <c r="Q64" s="156">
         <v>25000</v>
       </c>
@@ -18217,24 +18223,24 @@
       <c r="S64" s="155"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="230"/>
-      <c r="B65" s="250"/>
-      <c r="C65" s="251"/>
-      <c r="D65" s="251"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="251"/>
-      <c r="G65" s="251"/>
-      <c r="H65" s="251"/>
-      <c r="I65" s="251"/>
-      <c r="J65" s="251"/>
-      <c r="K65" s="251"/>
-      <c r="L65" s="251"/>
-      <c r="M65" s="252"/>
-      <c r="N65" s="274" t="s">
+      <c r="A65" s="249"/>
+      <c r="B65" s="269"/>
+      <c r="C65" s="270"/>
+      <c r="D65" s="270"/>
+      <c r="E65" s="270"/>
+      <c r="F65" s="270"/>
+      <c r="G65" s="270"/>
+      <c r="H65" s="270"/>
+      <c r="I65" s="270"/>
+      <c r="J65" s="270"/>
+      <c r="K65" s="270"/>
+      <c r="L65" s="270"/>
+      <c r="M65" s="271"/>
+      <c r="N65" s="230" t="s">
         <v>296</v>
       </c>
-      <c r="O65" s="275"/>
-      <c r="P65" s="276"/>
+      <c r="O65" s="231"/>
+      <c r="P65" s="232"/>
       <c r="Q65" s="156">
         <v>20000</v>
       </c>
@@ -18242,24 +18248,24 @@
       <c r="S65" s="155"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="230"/>
-      <c r="B66" s="250"/>
-      <c r="C66" s="251"/>
-      <c r="D66" s="251"/>
-      <c r="E66" s="251"/>
-      <c r="F66" s="251"/>
-      <c r="G66" s="251"/>
-      <c r="H66" s="251"/>
-      <c r="I66" s="251"/>
-      <c r="J66" s="251"/>
-      <c r="K66" s="251"/>
-      <c r="L66" s="251"/>
-      <c r="M66" s="252"/>
-      <c r="N66" s="262" t="s">
+      <c r="A66" s="249"/>
+      <c r="B66" s="269"/>
+      <c r="C66" s="270"/>
+      <c r="D66" s="270"/>
+      <c r="E66" s="270"/>
+      <c r="F66" s="270"/>
+      <c r="G66" s="270"/>
+      <c r="H66" s="270"/>
+      <c r="I66" s="270"/>
+      <c r="J66" s="270"/>
+      <c r="K66" s="270"/>
+      <c r="L66" s="270"/>
+      <c r="M66" s="271"/>
+      <c r="N66" s="233" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="263"/>
-      <c r="P66" s="264"/>
+      <c r="O66" s="234"/>
+      <c r="P66" s="235"/>
       <c r="Q66" s="156">
         <v>35000</v>
       </c>
@@ -18267,45 +18273,45 @@
       <c r="S66" s="155"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="230"/>
-      <c r="B67" s="250"/>
-      <c r="C67" s="251"/>
-      <c r="D67" s="251"/>
-      <c r="E67" s="251"/>
-      <c r="F67" s="251"/>
-      <c r="G67" s="251"/>
-      <c r="H67" s="251"/>
-      <c r="I67" s="251"/>
-      <c r="J67" s="251"/>
-      <c r="K67" s="251"/>
-      <c r="L67" s="251"/>
-      <c r="M67" s="252"/>
-      <c r="N67" s="265"/>
-      <c r="O67" s="266"/>
-      <c r="P67" s="267"/>
+      <c r="A67" s="249"/>
+      <c r="B67" s="269"/>
+      <c r="C67" s="270"/>
+      <c r="D67" s="270"/>
+      <c r="E67" s="270"/>
+      <c r="F67" s="270"/>
+      <c r="G67" s="270"/>
+      <c r="H67" s="270"/>
+      <c r="I67" s="270"/>
+      <c r="J67" s="270"/>
+      <c r="K67" s="270"/>
+      <c r="L67" s="270"/>
+      <c r="M67" s="271"/>
+      <c r="N67" s="236"/>
+      <c r="O67" s="237"/>
+      <c r="P67" s="238"/>
       <c r="Q67" s="156"/>
       <c r="R67" s="155"/>
       <c r="S67" s="155"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="230"/>
-      <c r="B68" s="253"/>
-      <c r="C68" s="254"/>
-      <c r="D68" s="254"/>
-      <c r="E68" s="254"/>
-      <c r="F68" s="254"/>
-      <c r="G68" s="254"/>
-      <c r="H68" s="254"/>
-      <c r="I68" s="254"/>
-      <c r="J68" s="254"/>
-      <c r="K68" s="254"/>
-      <c r="L68" s="254"/>
-      <c r="M68" s="255"/>
-      <c r="N68" s="268" t="s">
+      <c r="A68" s="249"/>
+      <c r="B68" s="272"/>
+      <c r="C68" s="273"/>
+      <c r="D68" s="273"/>
+      <c r="E68" s="273"/>
+      <c r="F68" s="273"/>
+      <c r="G68" s="273"/>
+      <c r="H68" s="273"/>
+      <c r="I68" s="273"/>
+      <c r="J68" s="273"/>
+      <c r="K68" s="273"/>
+      <c r="L68" s="273"/>
+      <c r="M68" s="274"/>
+      <c r="N68" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="269"/>
-      <c r="P68" s="270"/>
+      <c r="O68" s="222"/>
+      <c r="P68" s="223"/>
       <c r="Q68" s="157">
         <f>SUM(Q56:Q67)</f>
         <v>348000</v>
@@ -18314,35 +18320,35 @@
       <c r="S68" s="155"/>
     </row>
     <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="230"/>
+      <c r="A69" s="249"/>
     </row>
     <row r="70" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="231"/>
-      <c r="B70" s="256" t="s">
+      <c r="A70" s="250"/>
+      <c r="B70" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="257"/>
-      <c r="D70" s="257"/>
-      <c r="E70" s="257"/>
-      <c r="F70" s="257"/>
-      <c r="G70" s="257"/>
-      <c r="H70" s="257"/>
-      <c r="I70" s="257"/>
-      <c r="J70" s="257"/>
-      <c r="K70" s="257"/>
-      <c r="L70" s="258"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="225"/>
+      <c r="E70" s="225"/>
+      <c r="F70" s="225"/>
+      <c r="G70" s="225"/>
+      <c r="H70" s="225"/>
+      <c r="I70" s="225"/>
+      <c r="J70" s="225"/>
+      <c r="K70" s="225"/>
+      <c r="L70" s="226"/>
       <c r="M70" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="271">
+      <c r="N70" s="227">
         <f>N53-SUM(Q56:Q67)</f>
         <v>1364028.2999999998</v>
       </c>
-      <c r="O70" s="272"/>
-      <c r="P70" s="272"/>
-      <c r="Q70" s="272"/>
-      <c r="R70" s="272"/>
-      <c r="S70" s="273"/>
+      <c r="O70" s="228"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="228"/>
+      <c r="S70" s="229"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="159"/>
@@ -18402,19 +18408,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="N70:S70"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A36"/>
@@ -18431,6 +18424,19 @@
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="N70:S70"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N64:P64"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T36">
     <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">

--- a/bot/datos/2017 - 08 (Agosto).xlsx
+++ b/bot/datos/2017 - 08 (Agosto).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedido base (copiar esta hoja)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2065,6 +2065,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2405,12 +2411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5323,6 +5323,7 @@
       <sheetName val="Personas"/>
       <sheetName val="Nombre completo"/>
       <sheetName val="Apodos"/>
+      <sheetName val="Apodos Cobranza"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -5488,77 +5489,68 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Paul</v>
+            <v>Samuel</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Brenner</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>San Jose De La Sierra 1105</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Las Condes</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Quinchamali</v>
+            <v>Billikopf</v>
           </cell>
           <cell r="F7" t="str">
-            <v>UDD</v>
+            <v>UC</v>
           </cell>
           <cell r="G7" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H7">
-            <v>56955324629</v>
+            <v>56977051605</v>
           </cell>
           <cell r="I7" t="str">
-            <v>paulmartinbrenner@hotmail.com</v>
+            <v>samuelbillikopfmujica@gmail.com</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Alvaro</v>
+            <v>Paul</v>
           </cell>
           <cell r="B8" t="str">
-            <v>Caeviedes</v>
+            <v>Brenner</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Cerro El Paico 9756</v>
+            <v>San Jose De La Sierra 1105</v>
           </cell>
           <cell r="D8" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Los Trapenses</v>
+            <v>Quinchamali</v>
           </cell>
           <cell r="F8" t="str">
-            <v>UC</v>
+            <v>UDD</v>
           </cell>
           <cell r="G8" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H8">
-            <v>56963033603</v>
+            <v>56955324629</v>
           </cell>
           <cell r="I8" t="str">
-            <v>acaeviedes@uc.cl</v>
+            <v>paulmartinbrenner@hotmail.com</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Ignacio</v>
+            <v>Alvaro</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Castañeda</v>
+            <v>Caviedes</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Punta de Aguilas Norte 9300 Casa 12</v>
+            <v>Cerro El Paico 9756</v>
           </cell>
           <cell r="D9" t="str">
             <v>Lo Barnechea</v>
@@ -5570,21 +5562,21 @@
             <v>UC</v>
           </cell>
           <cell r="G9" t="str">
-            <v>SOCIO</v>
+            <v>JEFE</v>
           </cell>
           <cell r="H9">
-            <v>56982328250</v>
+            <v>56963033603</v>
           </cell>
           <cell r="I9" t="str">
-            <v>icastanedaw@gmail.com</v>
+            <v>acaviedes@uc.cl</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Majo</v>
+            <v>Ignacio</v>
           </cell>
           <cell r="B10" t="str">
             <v>Castañeda</v>
@@ -5599,16 +5591,16 @@
             <v>Los Trapenses</v>
           </cell>
           <cell r="F10" t="str">
-            <v>UAndes</v>
+            <v>UC</v>
           </cell>
           <cell r="G10" t="str">
-            <v>JEFE</v>
+            <v>SOCIO</v>
           </cell>
           <cell r="H10">
-            <v>56982328251</v>
+            <v>56982328250</v>
           </cell>
           <cell r="I10" t="str">
-            <v>mjcastaneda@miuandes.cl</v>
+            <v>icastanedaw@gmail.com</v>
           </cell>
           <cell r="J10" t="str">
             <v>Ignacio Castañeda</v>
@@ -5616,31 +5608,31 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Vicky</v>
+            <v>Majo</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Chaparro</v>
+            <v>Castañeda</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Carolina Rabat 780 Casa 8</v>
+            <v>Punta de Aguilas Norte 9300 Casa 12</v>
           </cell>
           <cell r="D11" t="str">
-            <v>Vitacura</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E11" t="str">
-            <v>Santa Maria</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F11" t="str">
-            <v>UDD</v>
+            <v>UAndes</v>
           </cell>
           <cell r="G11" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H11">
-            <v>56968348679</v>
+            <v>56982328251</v>
           </cell>
           <cell r="I11" t="str">
-            <v>mchaparroh@udd.cl</v>
+            <v>mjcastaneda@miuandes.cl</v>
           </cell>
           <cell r="J11" t="str">
             <v>Ignacio Castañeda</v>
@@ -5648,74 +5640,74 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Antonia</v>
+            <v>Vicky</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Cisternas</v>
+            <v>Chaparro</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Calle Parque 12700 Casa 38</v>
+            <v>Carolina Rabat 780 Casa 8</v>
           </cell>
           <cell r="D12" t="str">
-            <v>Lo Barnechea</v>
+            <v>Vitacura</v>
           </cell>
           <cell r="E12" t="str">
-            <v>Los Trapenses</v>
+            <v>Santa Maria</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>UDD</v>
           </cell>
           <cell r="G12" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H12">
-            <v>56944346775</v>
+            <v>56968348679</v>
           </cell>
           <cell r="I12" t="str">
-            <v>antocisternas@hotmail.com</v>
+            <v>mchaparroh@udd.cl</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Lukas Quense</v>
+            <v>Ignacio Castañeda</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Josefa</v>
+            <v>Antonia</v>
           </cell>
           <cell r="B13" t="str">
-            <v>Covarrubias</v>
+            <v>Cisternas</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Camino Las Flores 12163</v>
+            <v>Calle Parque 12700 Casa 38</v>
           </cell>
           <cell r="D13" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E13" t="str">
-            <v>San Carlos</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>Saint George</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="G13" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H13">
-            <v>56995346870</v>
+            <v>56944346775</v>
           </cell>
           <cell r="I13" t="str">
-            <v>josefacovarrubias@gmail.com</v>
+            <v>antocisternas@hotmail.com</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Florencia</v>
+            <v>Josefa</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Croxatto</v>
+            <v>Covarrubias</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Los Olivos 12179</v>
+            <v>Camino Las Flores 12163</v>
           </cell>
           <cell r="D14" t="str">
             <v>Las Condes</v>
@@ -5724,16 +5716,16 @@
             <v>San Carlos</v>
           </cell>
           <cell r="F14" t="str">
-            <v>UC</v>
+            <v>Saint George</v>
           </cell>
           <cell r="G14" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H14">
-            <v>56963061299</v>
+            <v>56995346870</v>
           </cell>
           <cell r="I14" t="str">
-            <v>fcroxatto@uc.cl</v>
+            <v>josefacovarrubias@gmail.com</v>
           </cell>
           <cell r="J14" t="str">
             <v>Joaquin Eichholz</v>
@@ -5741,95 +5733,95 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Joaquin</v>
+            <v>Florencia</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Daly</v>
+            <v>Croxatto</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Polo 1 de Manquehue Casa 112</v>
+            <v>Los Olivos 12179</v>
           </cell>
           <cell r="D15" t="str">
-            <v>Chicureo</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E15" t="str">
-            <v>Piedra Roja</v>
+            <v>San Carlos</v>
           </cell>
           <cell r="F15" t="str">
-            <v>CSA</v>
+            <v>UC</v>
           </cell>
           <cell r="G15" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H15">
-            <v>56979987750</v>
+            <v>56963061299</v>
           </cell>
           <cell r="I15" t="str">
-            <v>dalyjoaquin@gmail.com</v>
+            <v>fcroxatto@uc.cl</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Dominique</v>
+            <v>Joaquin</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Daroch</v>
+            <v>Daly</v>
           </cell>
           <cell r="C16" t="str">
-            <v>El Algarrobal 2 Casa U2</v>
+            <v>Polo 1 de Manquehue Casa 112</v>
           </cell>
           <cell r="D16" t="str">
             <v>Chicureo</v>
           </cell>
           <cell r="E16" t="str">
-            <v>Vespucio</v>
+            <v>Piedra Roja</v>
           </cell>
           <cell r="F16" t="str">
-            <v>Highlands</v>
+            <v>CSA</v>
           </cell>
           <cell r="G16" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H16">
-            <v>56974474437</v>
+            <v>56979987750</v>
           </cell>
           <cell r="I16" t="str">
-            <v>dominique_daroch@hotmail.com</v>
+            <v>dalyjoaquin@gmail.com</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Camila</v>
+            <v>Dominique</v>
           </cell>
           <cell r="B17" t="str">
-            <v>De La Sotta</v>
+            <v>Daroch</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Jose de Moraleda 4837</v>
+            <v>El Algarrobal 2 Casa U2</v>
           </cell>
           <cell r="D17" t="str">
-            <v>Las Condes</v>
+            <v>Chicureo</v>
           </cell>
           <cell r="E17" t="str">
             <v>Vespucio</v>
           </cell>
           <cell r="F17" t="str">
-            <v>UDD</v>
+            <v>Highlands</v>
           </cell>
           <cell r="G17" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H17">
-            <v>56967289638</v>
+            <v>56974474437</v>
           </cell>
           <cell r="I17" t="str">
-            <v>camila.delasotta@gmail.com</v>
+            <v>dominique_daroch@hotmail.com</v>
           </cell>
           <cell r="J17" t="str">
             <v>Ignacio Castañeda</v>
@@ -5837,31 +5829,31 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Javi</v>
+            <v>Camila</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Del Rio</v>
+            <v>De La Sotta</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Valle del monasterio 2664</v>
+            <v>Jose de Moraleda 4837</v>
           </cell>
           <cell r="D18" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E18" t="str">
-            <v>Los Trapenses</v>
+            <v>Vespucio</v>
           </cell>
           <cell r="F18" t="str">
-            <v>UC</v>
+            <v>UDD</v>
           </cell>
           <cell r="G18" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H18">
-            <v>56967898535</v>
+            <v>56967289638</v>
           </cell>
           <cell r="I18" t="str">
-            <v>jpdelrio@uc.cl</v>
+            <v>camila.delasotta@gmail.com</v>
           </cell>
           <cell r="J18" t="str">
             <v>Ignacio Castañeda</v>
@@ -5901,19 +5893,19 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Constanza</v>
+            <v>Javi</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Delfau</v>
+            <v>Del Rio</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Calle Parque 12700 Casa 1</v>
+            <v>Valle del monasterio 2664</v>
           </cell>
           <cell r="D20" t="str">
             <v>Lo Barnechea</v>
           </cell>
           <cell r="E20" t="str">
-            <v>La Dehesa</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F20" t="str">
             <v>UC</v>
@@ -5922,10 +5914,10 @@
             <v>JEFE</v>
           </cell>
           <cell r="H20">
-            <v>56991889995</v>
+            <v>56967898535</v>
           </cell>
           <cell r="I20" t="str">
-            <v>conidelfau@gmail.com</v>
+            <v>jpdelrio@uc.cl</v>
           </cell>
           <cell r="J20" t="str">
             <v>Ignacio Castañeda</v>
@@ -5933,83 +5925,83 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Pilar</v>
+            <v>Constanza</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Edwards</v>
+            <v>Delfau</v>
           </cell>
           <cell r="C21" t="str">
-            <v>El Roquerio 2028</v>
+            <v>Calle Parque 12700 Casa 1</v>
           </cell>
           <cell r="D21" t="str">
             <v>Lo Barnechea</v>
           </cell>
           <cell r="E21" t="str">
-            <v>Los Trapenses</v>
+            <v>La Dehesa</v>
           </cell>
           <cell r="F21" t="str">
-            <v>UDD</v>
+            <v>UC</v>
           </cell>
           <cell r="G21" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H21">
-            <v>56983708702</v>
+            <v>56991889995</v>
           </cell>
           <cell r="I21" t="str">
-            <v>piliedwards@gmail.com</v>
+            <v>conidelfau@gmail.com</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Ignacio Castañeda</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Joaquin</v>
+            <v>Rosario</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Eichholz</v>
+            <v>Diez</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Estrella Del Norte 980 Dpto 154</v>
+            <v>Hermanos Cabott 6671</v>
           </cell>
           <cell r="D22" t="str">
             <v>Las Condes</v>
           </cell>
           <cell r="E22" t="str">
-            <v>Alto Las Condes</v>
+            <v>Manquehue</v>
           </cell>
           <cell r="F22" t="str">
-            <v>UC</v>
+            <v>Aleman</v>
           </cell>
           <cell r="G22" t="str">
-            <v>SOCIO</v>
+            <v>JEFE</v>
           </cell>
           <cell r="H22">
-            <v>56996324787</v>
+            <v>56997267212</v>
           </cell>
           <cell r="I22" t="str">
-            <v>joaquin.eichholz@gmail.com</v>
+            <v>rdiezperry@gmail.com</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Maria Jesus</v>
+            <v>Pilar</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Elias</v>
+            <v>Edwards</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Manquehue Norte 555</v>
+            <v>El Roquerio 2028</v>
           </cell>
           <cell r="D23" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E23" t="str">
-            <v>Manquehue</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F23" t="str">
             <v>UDD</v>
@@ -6018,42 +6010,42 @@
             <v>JEFE</v>
           </cell>
           <cell r="H23">
-            <v>56958589916</v>
+            <v>56983708702</v>
           </cell>
           <cell r="I23" t="str">
-            <v>meliasm@udd.cl</v>
+            <v>piliedwards@gmail.com</v>
           </cell>
           <cell r="J23" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Rafael</v>
+            <v>Joaquin</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Errazuriz</v>
+            <v>Eichholz</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Pasaje La Aurora 1883</v>
+            <v>Estrella Del Norte 980 Dpto 154</v>
           </cell>
           <cell r="D24" t="str">
-            <v>Vitacura</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Estoril</v>
+            <v>Alto Las Condes</v>
           </cell>
           <cell r="F24" t="str">
-            <v>UDD</v>
+            <v>UC</v>
           </cell>
           <cell r="G24" t="str">
-            <v>JEFE</v>
+            <v>SOCIO</v>
           </cell>
           <cell r="H24">
-            <v>56995483434</v>
+            <v>56996324787</v>
           </cell>
           <cell r="I24" t="str">
-            <v>rerrazurizf@udd.cl</v>
+            <v>joaquin.eichholz@gmail.com</v>
           </cell>
           <cell r="J24" t="str">
             <v>Joaquin Eichholz</v>
@@ -6061,127 +6053,127 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Isidora</v>
+            <v>Maria Jesus</v>
           </cell>
           <cell r="B25" t="str">
-            <v>Fernandez</v>
+            <v>Elias</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Casa De Piedra 2628</v>
+            <v>Manquehue Norte 555</v>
           </cell>
           <cell r="D25" t="str">
             <v>Las Condes</v>
           </cell>
           <cell r="E25" t="str">
-            <v>San Carlos</v>
+            <v>Manquehue</v>
           </cell>
           <cell r="F25" t="str">
-            <v>UAndes</v>
+            <v>UDD</v>
           </cell>
           <cell r="G25" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H25">
-            <v>56997550244</v>
+            <v>56958589916</v>
           </cell>
           <cell r="I25" t="str">
-            <v>ifernandez1@miuandes.cl</v>
+            <v>meliasm@udd.cl</v>
           </cell>
           <cell r="J25" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Maria Luisa</v>
+            <v>Rafael</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Fernandez</v>
+            <v>Errazuriz</v>
           </cell>
           <cell r="C26" t="str">
-            <v>La Invernada 7005</v>
+            <v>Pasaje La Aurora 1883</v>
           </cell>
           <cell r="D26" t="str">
             <v>Vitacura</v>
           </cell>
           <cell r="E26" t="str">
-            <v>Santa Maria</v>
+            <v>Estoril</v>
           </cell>
           <cell r="F26" t="str">
-            <v>UCH</v>
+            <v>UDD</v>
           </cell>
           <cell r="G26" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H26">
-            <v>56982978895</v>
+            <v>56995483434</v>
           </cell>
           <cell r="I26" t="str">
-            <v>guisa97@hotmail.com</v>
+            <v>rerrazurizf@udd.cl</v>
           </cell>
           <cell r="J26" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Rodrigo</v>
+            <v>Isidora</v>
           </cell>
           <cell r="B27" t="str">
             <v>Fernandez</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Las Hualtatas 4555 Casa 9</v>
+            <v>Casa De Piedra 2628</v>
           </cell>
           <cell r="D27" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E27" t="str">
-            <v>Los Trapenses</v>
+            <v>San Carlos</v>
           </cell>
           <cell r="F27" t="str">
-            <v>UC</v>
+            <v>UAndes</v>
           </cell>
           <cell r="G27" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H27">
-            <v>56986194003</v>
+            <v>56997550244</v>
           </cell>
           <cell r="I27" t="str">
-            <v>rfernandezdelrio@uc.cl</v>
+            <v>ifernandez1@miuandes.cl</v>
           </cell>
           <cell r="J27" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Tere</v>
+            <v>Maria Luisa</v>
           </cell>
           <cell r="B28" t="str">
             <v>Fernandez</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Las Torcazas 3080</v>
+            <v>La Invernada 7005</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Chicureo</v>
+            <v>Vitacura</v>
           </cell>
           <cell r="E28" t="str">
-            <v>Colina</v>
+            <v>Santa Maria</v>
           </cell>
           <cell r="F28" t="str">
-            <v>Highlands</v>
+            <v>UCH</v>
           </cell>
           <cell r="G28" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H28">
-            <v>56965542496</v>
+            <v>56982978895</v>
           </cell>
           <cell r="I28" t="str">
-            <v>terefernandez99@yahoo.com</v>
+            <v>guisa97@hotmail.com</v>
           </cell>
           <cell r="J28" t="str">
             <v>Lukas Quense</v>
@@ -6189,74 +6181,77 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Diego</v>
+            <v>Rodrigo</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Figueroa</v>
+            <v>Fernandez</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Las Lavandulas 10006</v>
+            <v>Las Hualtatas 4555 Casa 9</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E29" t="str">
-            <v>San Carlos</v>
+            <v>Los Trapenses</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>UC</v>
           </cell>
           <cell r="G29" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H29">
-            <v>56979579233</v>
+            <v>56986194003</v>
           </cell>
           <cell r="I29" t="str">
-            <v>diegofiba2@gmail.com</v>
+            <v>rfernandezdelrio@uc.cl</v>
           </cell>
           <cell r="J29" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Matias</v>
+            <v>Tere</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Flores</v>
+            <v>Fernandez</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Condominio Sta Teresita P14 Sta Ester De Liray</v>
+            <v>Las Torcazas 3080</v>
           </cell>
           <cell r="D30" t="str">
             <v>Chicureo</v>
           </cell>
           <cell r="E30" t="str">
-            <v>Lo Pinto</v>
+            <v>Colina</v>
           </cell>
           <cell r="F30" t="str">
-            <v>UDD</v>
+            <v>Highlands</v>
           </cell>
           <cell r="G30" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H30">
-            <v>56986351953</v>
+            <v>56965542496</v>
           </cell>
           <cell r="I30" t="str">
-            <v>matifloresdonetch@hotmail.com</v>
+            <v>terefernandez99@yahoo.com</v>
           </cell>
           <cell r="J30" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Benjamin</v>
+            <v>Diego</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Hartmann</v>
+            <v>Figueroa</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Camino Otonal 1368 Casa 6</v>
+            <v>Las Lavandulas 10006</v>
           </cell>
           <cell r="D31" t="str">
             <v>Las Condes</v>
@@ -6264,104 +6259,101 @@
           <cell r="E31" t="str">
             <v>San Carlos</v>
           </cell>
-          <cell r="F31" t="str">
-            <v>UC</v>
-          </cell>
           <cell r="G31" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H31">
-            <v>56982958975</v>
+            <v>56979579233</v>
           </cell>
           <cell r="I31" t="str">
-            <v>hartmann12@gmail.com</v>
+            <v>diegofiba2@gmail.com</v>
           </cell>
           <cell r="J31" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Mauricio</v>
+            <v>Matias</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Hernandez</v>
+            <v>Flores</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Julia Bernstein 607 Casa G-40</v>
+            <v>Condominio Sta Teresita P14 Sta Ester De Liray</v>
           </cell>
           <cell r="D32" t="str">
-            <v>La Reina</v>
+            <v>Chicureo</v>
           </cell>
           <cell r="E32" t="str">
-            <v>La Reina</v>
+            <v>Lo Pinto</v>
           </cell>
           <cell r="F32" t="str">
-            <v>UCH</v>
+            <v>UDD</v>
           </cell>
           <cell r="G32" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H32">
-            <v>56965951459</v>
+            <v>56986351953</v>
           </cell>
           <cell r="I32" t="str">
-            <v>mauhernand@fen.uchile.cl</v>
+            <v>matifloresdonetch@hotmail.com</v>
           </cell>
           <cell r="J32" t="str">
-            <v>Lukas Quense</v>
+            <v>Ignacio Castañeda</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Andres</v>
+            <v>Benjamin</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Infante</v>
+            <v>Hartmann</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Camino De Las Ermitas 3804</v>
+            <v>Camino Otonal 1368 Casa 6</v>
           </cell>
           <cell r="D33" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E33" t="str">
-            <v>Los Trapenses</v>
+            <v>San Carlos</v>
           </cell>
           <cell r="F33" t="str">
-            <v>UAI</v>
+            <v>UC</v>
           </cell>
           <cell r="G33" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H33">
-            <v>56979891544</v>
+            <v>56982958975</v>
           </cell>
           <cell r="I33" t="str">
-            <v>andres_infanter@hotmail.com</v>
+            <v>hartmann12@gmail.com</v>
           </cell>
           <cell r="J33" t="str">
-            <v>Lukas Quense</v>
+            <v>Ignacio Castañeda</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Cata</v>
+            <v>Mauricio</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Izcue</v>
+            <v>Hernandez</v>
           </cell>
           <cell r="F34" t="str">
-            <v>Los Andes</v>
+            <v>UCH</v>
           </cell>
           <cell r="G34" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H34">
-            <v>56995952212</v>
+            <v>56965951459</v>
           </cell>
           <cell r="I34" t="str">
-            <v>cataizcue@gmail.com</v>
+            <v>mauhernand@fen.uchile.cl</v>
           </cell>
           <cell r="J34" t="str">
             <v>Lukas Quense</v>
@@ -6369,13 +6361,13 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Margarita</v>
+            <v>Andres</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Joglar</v>
+            <v>Infante</v>
           </cell>
           <cell r="C35" t="str">
-            <v>Camino Los Trapenses 4860 Casa 9</v>
+            <v>Camino De Las Ermitas 3804</v>
           </cell>
           <cell r="D35" t="str">
             <v>Lo Barnechea</v>
@@ -6383,14 +6375,17 @@
           <cell r="E35" t="str">
             <v>Los Trapenses</v>
           </cell>
+          <cell r="F35" t="str">
+            <v>UAI</v>
+          </cell>
           <cell r="G35" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H35">
-            <v>56963124612</v>
+            <v>56979891544</v>
           </cell>
           <cell r="I35" t="str">
-            <v>magui.joglar22@gmail.com</v>
+            <v>andres_infanter@hotmail.com</v>
           </cell>
           <cell r="J35" t="str">
             <v>Lukas Quense</v>
@@ -6398,63 +6393,60 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Ric</v>
+            <v>Cata</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Jungk</v>
+            <v>Izcue</v>
           </cell>
           <cell r="C36" t="str">
-            <v>Pasaje Pie Andino 4209A</v>
+            <v>Los Pumas 11996</v>
           </cell>
           <cell r="D36" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E36" t="str">
-            <v>La Dehesa</v>
+            <v>San Carlos</v>
           </cell>
           <cell r="F36" t="str">
-            <v>UAndes</v>
+            <v>Los Andes</v>
           </cell>
           <cell r="G36" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H36">
-            <v>56966477967</v>
+            <v>56995952212</v>
           </cell>
           <cell r="I36" t="str">
-            <v>rtjungk@miuandes.cl</v>
+            <v>cataizcue@gmail.com</v>
           </cell>
           <cell r="J36" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Matias</v>
+            <v>Margarita</v>
           </cell>
           <cell r="B37" t="str">
-            <v>Krumm</v>
+            <v>Joglar</v>
           </cell>
           <cell r="C37" t="str">
-            <v>La Cienaga 12315</v>
+            <v>Camino Los Trapenses 4860 Casa 9</v>
           </cell>
           <cell r="D37" t="str">
             <v>Lo Barnechea</v>
           </cell>
           <cell r="E37" t="str">
-            <v>La Dehesa</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>UAI</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="G37" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H37">
-            <v>56988587944</v>
+            <v>56963124612</v>
           </cell>
           <cell r="I37" t="str">
-            <v>matiask7@gmail.com</v>
+            <v>magui.joglar22@gmail.com</v>
           </cell>
           <cell r="J37" t="str">
             <v>Lukas Quense</v>
@@ -6462,19 +6454,19 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Juan Diego</v>
+            <v>Ric</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Lyon</v>
+            <v>Jungk</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Las Hualtatas 10725</v>
+            <v>Pasaje Pie Andino 4209A</v>
           </cell>
           <cell r="D38" t="str">
-            <v>Vitacura</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E38" t="str">
-            <v>Estoril</v>
+            <v>La Dehesa</v>
           </cell>
           <cell r="F38" t="str">
             <v>UAndes</v>
@@ -6483,74 +6475,74 @@
             <v>JEFE</v>
           </cell>
           <cell r="H38">
-            <v>56977684576</v>
+            <v>56966477967</v>
           </cell>
           <cell r="I38" t="str">
-            <v>juandiegolyon@gmail.com</v>
+            <v>rtjungk@miuandes.cl</v>
           </cell>
           <cell r="J38" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Ignacio Castañeda</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Bernardita</v>
+            <v>Matias</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Mackenney</v>
+            <v>Krumm</v>
           </cell>
           <cell r="C39" t="str">
-            <v>La Fontana 11221</v>
+            <v>La Cienaga 12315</v>
           </cell>
           <cell r="D39" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E39" t="str">
-            <v>San Carlos</v>
+            <v>La Dehesa</v>
           </cell>
           <cell r="F39" t="str">
-            <v>UC</v>
+            <v>UAI</v>
           </cell>
           <cell r="G39" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H39">
-            <v>56978785698</v>
+            <v>56988587944</v>
           </cell>
           <cell r="I39" t="str">
-            <v>bmackenney@uc.cl</v>
+            <v>matiask7@gmail.com</v>
           </cell>
           <cell r="J39" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Michella</v>
+            <v>Juan Diego</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Mascarello</v>
+            <v>Lyon</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Quinchamali 14336</v>
+            <v>Las Hualtatas 10725</v>
           </cell>
           <cell r="D40" t="str">
-            <v>Las Condes</v>
+            <v>Vitacura</v>
           </cell>
           <cell r="E40" t="str">
-            <v>Quinchamali</v>
+            <v>Estoril</v>
           </cell>
           <cell r="F40" t="str">
-            <v>UC</v>
+            <v>UAndes</v>
           </cell>
           <cell r="G40" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H40">
-            <v>56979878976</v>
+            <v>56977684576</v>
           </cell>
           <cell r="I40" t="str">
-            <v>miki.mascarello@gmail.com</v>
+            <v>juandiegolyon@gmail.com</v>
           </cell>
           <cell r="J40" t="str">
             <v>Joaquin Eichholz</v>
@@ -6558,63 +6550,63 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Vicente</v>
+            <v>Bernardita</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Mayol</v>
+            <v>Mackenney</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Paseo Pie Andino 6500 Casa O</v>
+            <v>La Fontana 11221</v>
           </cell>
           <cell r="D41" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E41" t="str">
-            <v>Los Trapenses</v>
+            <v>San Carlos</v>
           </cell>
           <cell r="F41" t="str">
-            <v>Monte Tabor</v>
+            <v>UC</v>
           </cell>
           <cell r="G41" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H41">
-            <v>56978189115</v>
+            <v>56978785698</v>
           </cell>
           <cell r="I41" t="str">
-            <v>vmayol@live.cl</v>
+            <v>bmackenney@uc.cl</v>
           </cell>
           <cell r="J41" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Jesu</v>
+            <v>Michella</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Mckay</v>
+            <v>Mascarello</v>
           </cell>
           <cell r="C42" t="str">
-            <v>Blvd Jardin De Los Pajaros 4700 Casa 5</v>
+            <v>Quinchamali 14336</v>
           </cell>
           <cell r="D42" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E42" t="str">
-            <v>Los Trapenses</v>
+            <v>Quinchamali</v>
           </cell>
           <cell r="F42" t="str">
-            <v>CLA</v>
+            <v>UC</v>
           </cell>
           <cell r="G42" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H42">
-            <v>56971837517</v>
+            <v>56979878976</v>
           </cell>
           <cell r="I42" t="str">
-            <v>jesumckayg@hotmail.com</v>
+            <v>miki.mascarello@gmail.com</v>
           </cell>
           <cell r="J42" t="str">
             <v>Joaquin Eichholz</v>
@@ -6622,42 +6614,45 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Ignacio</v>
+            <v>Vicente</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Montt</v>
+            <v>Mayol</v>
           </cell>
           <cell r="C43" t="str">
-            <v>Rio Maule 475</v>
+            <v>Paseo Pie Andino 6500 Casa O</v>
           </cell>
           <cell r="D43" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E43" t="str">
-            <v>Estoril</v>
+            <v>Los Trapenses</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>Monte Tabor</v>
           </cell>
           <cell r="G43" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H43">
-            <v>56954243532</v>
+            <v>56978189115</v>
           </cell>
           <cell r="I43" t="str">
-            <v>imontt@miuandes.cl</v>
+            <v>vmayol@live.cl</v>
           </cell>
           <cell r="J43" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Rodrigo</v>
+            <v>Jesu</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Morales</v>
+            <v>Mckay</v>
           </cell>
           <cell r="C44" t="str">
-            <v>Los Trapenses 3230</v>
+            <v>Blvd Jardin De Los Pajaros 4700 Casa 5</v>
           </cell>
           <cell r="D44" t="str">
             <v>Lo Barnechea</v>
@@ -6666,19 +6661,19 @@
             <v>Los Trapenses</v>
           </cell>
           <cell r="F44" t="str">
-            <v>UDD</v>
+            <v>CLA</v>
           </cell>
           <cell r="G44" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H44">
-            <v>56975684552</v>
+            <v>56971837517</v>
           </cell>
           <cell r="I44" t="str">
-            <v>morales.villar25@gmail.com</v>
+            <v>jesumckayg@hotmail.com</v>
           </cell>
           <cell r="J44" t="str">
-            <v>Ignacio Castañeda</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="45">
@@ -6686,116 +6681,113 @@
             <v>Ignacio</v>
           </cell>
           <cell r="B45" t="str">
-            <v>Morales</v>
+            <v>Montt</v>
           </cell>
           <cell r="C45" t="str">
-            <v>Cristobal Colon 4696 Dpto 1403</v>
+            <v>Rio Maule 475</v>
           </cell>
           <cell r="D45" t="str">
             <v>Las Condes</v>
           </cell>
           <cell r="E45" t="str">
-            <v>Colon</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>UC</v>
+            <v>Estoril</v>
           </cell>
           <cell r="G45" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H45">
-            <v>56993024442</v>
+            <v>56954243532</v>
           </cell>
           <cell r="I45" t="str">
-            <v>ibmorales@uc.cl</v>
+            <v>imontt@miuandes.cl</v>
           </cell>
           <cell r="J45" t="str">
-            <v>Lukas Quense</v>
+            <v>Joaquin Eichholz</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Josefina</v>
+            <v>Ignacio</v>
           </cell>
           <cell r="B46" t="str">
-            <v>Nazer</v>
+            <v>Morales</v>
           </cell>
           <cell r="C46" t="str">
-            <v>Camino del ayuntamiento 2087</v>
+            <v>Cristobal Colon 4696 Dpto 1403</v>
           </cell>
           <cell r="D46" t="str">
-            <v>Lo Barnechea</v>
+            <v>Las Condes</v>
           </cell>
           <cell r="E46" t="str">
-            <v>La Dehesa</v>
+            <v>Colon</v>
           </cell>
           <cell r="F46" t="str">
-            <v>Newland</v>
+            <v>UC</v>
           </cell>
           <cell r="G46" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H46">
-            <v>56998246537</v>
+            <v>56993024442</v>
           </cell>
           <cell r="I46" t="str">
-            <v>cotenazer@hotmail.com</v>
+            <v>ibmorales@uc.cl</v>
           </cell>
           <cell r="J46" t="str">
-            <v>Joaquin Eichholz</v>
+            <v>Lukas Quense</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Raimundo</v>
+            <v>Rodrigo</v>
           </cell>
           <cell r="B47" t="str">
-            <v>Opazo</v>
+            <v>Morales</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>Trinidad</v>
+            <v>Josefina</v>
           </cell>
           <cell r="B48" t="str">
-            <v>Ossa</v>
+            <v>Nazer</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>Sofia</v>
+            <v>Raimundo</v>
           </cell>
           <cell r="B49" t="str">
-            <v>Ovalle</v>
+            <v>Opazo</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Francesco</v>
+            <v>Vicente</v>
           </cell>
           <cell r="B50" t="str">
-            <v>Pamparana</v>
+            <v>Opazo</v>
           </cell>
           <cell r="C50" t="str">
-            <v>Parque Las Garzas 16, Condominio Las Banadadas</v>
+            <v>Av Contralmirante Fernandez Vial 10455</v>
           </cell>
           <cell r="D50" t="str">
-            <v>Chicureo</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E50" t="str">
-            <v>Piedra Roja</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F50" t="str">
-            <v>UDD</v>
+            <v>Monte Tabor</v>
           </cell>
           <cell r="G50" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H50">
-            <v>56984695829</v>
+            <v>56994178481</v>
           </cell>
           <cell r="I50" t="str">
-            <v>pancho.pamparana@gmail.com</v>
+            <v>vicente.opazo2005@gmail.com</v>
           </cell>
           <cell r="J50" t="str">
             <v>Lukas Quense</v>
@@ -6806,28 +6798,25 @@
             <v>Trinidad</v>
           </cell>
           <cell r="B51" t="str">
-            <v>Pereira</v>
+            <v>Ossa</v>
           </cell>
           <cell r="C51" t="str">
-            <v>Punta de Aguilas 4311</v>
+            <v>Escribano Diego Rutal 2471</v>
           </cell>
           <cell r="D51" t="str">
-            <v>Lo Barnechea</v>
+            <v>Vitacura</v>
           </cell>
           <cell r="E51" t="str">
-            <v>Los Trapenses</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>UAB</v>
+            <v>Vespucio</v>
           </cell>
           <cell r="G51" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H51">
-            <v>56968320616</v>
+            <v>56978647106</v>
           </cell>
           <cell r="I51" t="str">
-            <v>trinipereira@gmail.com</v>
+            <v>trinidadossag@gmail.com</v>
           </cell>
           <cell r="J51" t="str">
             <v>Ignacio Castañeda</v>
@@ -6835,71 +6824,71 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Agustina</v>
+            <v>Sofia</v>
           </cell>
           <cell r="B52" t="str">
-            <v>Pineda</v>
+            <v>Ovalle</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Artigas 643</v>
+            <v>Manuel Guzman Maturana 1900 Casa 9</v>
           </cell>
           <cell r="D52" t="str">
-            <v>Vitacura</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E52" t="str">
-            <v>Santa Maria</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F52" t="str">
-            <v>Pacifico</v>
+            <v>UDD</v>
           </cell>
           <cell r="G52" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H52">
-            <v>56991997991</v>
+            <v>56987143347</v>
           </cell>
           <cell r="I52" t="str">
-            <v>agustina-pineda@hotmail.com</v>
+            <v>maovallel@udd.cl</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>Benjamin</v>
+            <v>Francesco</v>
           </cell>
           <cell r="B53" t="str">
-            <v>Piña</v>
+            <v>Pamparana</v>
           </cell>
           <cell r="C53" t="str">
-            <v>La Cienaga 12184</v>
+            <v>Parque Las Garzas 16, Condominio Las Banadadas</v>
           </cell>
           <cell r="D53" t="str">
-            <v>Lo Barnechea</v>
+            <v>Chicureo</v>
           </cell>
           <cell r="E53" t="str">
-            <v>La Dehesa</v>
+            <v>Piedra Roja</v>
           </cell>
           <cell r="F53" t="str">
-            <v>Uandes</v>
+            <v>UDD</v>
           </cell>
           <cell r="G53" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H53">
-            <v>56974529859</v>
+            <v>56984695829</v>
           </cell>
           <cell r="I53" t="str">
-            <v>pina.benjamin@gmail.com</v>
+            <v>pancho.pamparana@gmail.com</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>Lukas</v>
+            <v>Trinidad</v>
           </cell>
           <cell r="B54" t="str">
-            <v>Quense</v>
+            <v>Pereira</v>
           </cell>
           <cell r="C54" t="str">
-            <v>Cerro Cortadera 9897</v>
+            <v>Punta de Aguilas 4311</v>
           </cell>
           <cell r="D54" t="str">
             <v>Lo Barnechea</v>
@@ -6908,90 +6897,91 @@
             <v>Los Trapenses</v>
           </cell>
           <cell r="F54" t="str">
-            <v>UC</v>
+            <v>UAB</v>
           </cell>
           <cell r="G54" t="str">
-            <v>SOCIO</v>
+            <v>JEFE</v>
           </cell>
           <cell r="H54">
-            <v>56987217393</v>
+            <v>56968320616</v>
           </cell>
           <cell r="I54" t="str">
-            <v>lukas.quense@gmail.com</v>
+            <v>trinipereira@gmail.com</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55" t="str">
-            <v>Santa Rita 1017</v>
+            <v>Artigas 643</v>
           </cell>
           <cell r="D55" t="str">
-            <v>Las Condes</v>
+            <v>Vitacura</v>
           </cell>
           <cell r="E55" t="str">
-            <v>San Carlos</v>
+            <v>Santa Maria</v>
           </cell>
           <cell r="F55" t="str">
-            <v>UC</v>
+            <v>Pacifico</v>
           </cell>
           <cell r="G55" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H55">
-            <v>56981207671</v>
+            <v>56991997991</v>
           </cell>
           <cell r="I55" t="str">
-            <v>josefinaquiroga7@hotmail.com</v>
+            <v>agustina-pineda@hotmail.com</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56" t="str">
-            <v>Santa Rita 1017</v>
+            <v>La Cienaga 12184</v>
           </cell>
           <cell r="D56" t="str">
-            <v>Las Condes</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E56" t="str">
-            <v>San Carlos</v>
+            <v>La Dehesa</v>
           </cell>
           <cell r="F56" t="str">
-            <v>CPH</v>
+            <v>Uandes</v>
           </cell>
           <cell r="G56" t="str">
             <v>JEFE</v>
           </cell>
           <cell r="H56">
-            <v>56995408498</v>
+            <v>56974529859</v>
           </cell>
           <cell r="I56" t="str">
-            <v>rafaquiroga7@gmail.com</v>
+            <v>pina.benjamin@gmail.com</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57" t="str">
-            <v>Raimapu 6744</v>
+            <v>Cerro Cortadera 9897</v>
           </cell>
           <cell r="D57" t="str">
-            <v>Vitacura</v>
+            <v>Lo Barnechea</v>
           </cell>
           <cell r="E57" t="str">
-            <v>Santa Maria</v>
+            <v>Los Trapenses</v>
           </cell>
           <cell r="F57" t="str">
-            <v>Aleman</v>
+            <v>UC</v>
           </cell>
           <cell r="G57" t="str">
-            <v>JEFE</v>
+            <v>SOCIO</v>
           </cell>
           <cell r="H57">
-            <v>56956481962</v>
+            <v>56987217393</v>
           </cell>
           <cell r="I57" t="str">
-            <v>barodriguez@dsstgo.cl</v>
+            <v>lukas.quense@gmail.com</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7441,28 +7431,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="169" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="174"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -7550,7 +7540,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="166" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="41" t="str">
@@ -7608,7 +7598,7 @@
       <c r="U5" s="91"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="43" t="str">
         <f>[1]Personas!A3</f>
         <v>Maida</v>
@@ -7664,7 +7654,7 @@
       <c r="U6" s="92"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="165"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="43" t="str">
         <f>[1]Personas!A4</f>
         <v>Gabriel</v>
@@ -7720,7 +7710,7 @@
       <c r="U7" s="92"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="43" t="str">
         <f>[1]Personas!A5</f>
         <v>Martin</v>
@@ -7776,7 +7766,7 @@
       <c r="U8" s="92"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="165"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="43" t="str">
         <f>[1]Personas!A6</f>
         <v>Javi</v>
@@ -7832,30 +7822,30 @@
       <c r="U9" s="92"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="165"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="43" t="str">
         <f>[1]Personas!A7</f>
-        <v>Paul</v>
+        <v>Samuel</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]Personas!B7</f>
-        <v>Brenner</v>
-      </c>
-      <c r="D10" s="3" t="str">
+        <v>Billikopf</v>
+      </c>
+      <c r="D10" s="3">
         <f>[1]Personas!C7</f>
-        <v>San Jose De La Sierra 1105</v>
-      </c>
-      <c r="E10" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <f>[1]Personas!D7</f>
-        <v>Las Condes</v>
-      </c>
-      <c r="F10" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <f>[1]Personas!E7</f>
-        <v>Quinchamali</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>[1]Personas!F7</f>
-        <v>UDD</v>
+        <v>UC</v>
       </c>
       <c r="H10" s="3" t="str">
         <f>[1]Personas!G7</f>
@@ -7863,15 +7853,15 @@
       </c>
       <c r="I10" s="40">
         <f>[1]Personas!H7</f>
-        <v>56955324629</v>
+        <v>56977051605</v>
       </c>
       <c r="J10" s="49" t="str">
         <f>[1]Personas!I7</f>
-        <v>paulmartinbrenner@hotmail.com</v>
+        <v>samuelbillikopfmujica@gmail.com</v>
       </c>
       <c r="K10" s="49" t="str">
         <f>[1]Personas!J7</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
@@ -7888,30 +7878,30 @@
       <c r="U10" s="92"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="43" t="str">
         <f>[1]Personas!A8</f>
-        <v>Alvaro</v>
+        <v>Paul</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]Personas!B8</f>
-        <v>Caeviedes</v>
+        <v>Brenner</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>[1]Personas!C8</f>
-        <v>Cerro El Paico 9756</v>
+        <v>San Jose De La Sierra 1105</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]Personas!D8</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]Personas!E8</f>
-        <v>Los Trapenses</v>
+        <v>Quinchamali</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>[1]Personas!F8</f>
-        <v>UC</v>
+        <v>UDD</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]Personas!G8</f>
@@ -7919,15 +7909,15 @@
       </c>
       <c r="I11" s="40">
         <f>[1]Personas!H8</f>
-        <v>56963033603</v>
+        <v>56955324629</v>
       </c>
       <c r="J11" s="49" t="str">
         <f>[1]Personas!I8</f>
-        <v>acaeviedes@uc.cl</v>
+        <v>paulmartinbrenner@hotmail.com</v>
       </c>
       <c r="K11" s="49" t="str">
         <f>[1]Personas!J8</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
@@ -7944,18 +7934,18 @@
       <c r="U11" s="92"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="43" t="str">
         <f>[1]Personas!A9</f>
-        <v>Ignacio</v>
+        <v>Alvaro</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]Personas!B9</f>
-        <v>Castañeda</v>
+        <v>Caviedes</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>[1]Personas!C9</f>
-        <v>Punta de Aguilas Norte 9300 Casa 12</v>
+        <v>Cerro El Paico 9756</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]Personas!D9</f>
@@ -7971,19 +7961,19 @@
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]Personas!G9</f>
-        <v>SOCIO</v>
+        <v>JEFE</v>
       </c>
       <c r="I12" s="40">
         <f>[1]Personas!H9</f>
-        <v>56982328250</v>
+        <v>56963033603</v>
       </c>
       <c r="J12" s="49" t="str">
         <f>[1]Personas!I9</f>
-        <v>icastanedaw@gmail.com</v>
+        <v>acaviedes@uc.cl</v>
       </c>
       <c r="K12" s="49" t="str">
         <f>[1]Personas!J9</f>
-        <v>Ignacio Castañeda</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -8000,10 +7990,10 @@
       <c r="U12" s="92"/>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="165"/>
+      <c r="A13" s="167"/>
       <c r="B13" s="43" t="str">
         <f>[1]Personas!A10</f>
-        <v>Majo</v>
+        <v>Ignacio</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>[1]Personas!B10</f>
@@ -8023,19 +8013,19 @@
       </c>
       <c r="G13" s="3" t="str">
         <f>[1]Personas!F10</f>
-        <v>UAndes</v>
+        <v>UC</v>
       </c>
       <c r="H13" s="3" t="str">
         <f>[1]Personas!G10</f>
-        <v>JEFE</v>
+        <v>SOCIO</v>
       </c>
       <c r="I13" s="40">
         <f>[1]Personas!H10</f>
-        <v>56982328251</v>
+        <v>56982328250</v>
       </c>
       <c r="J13" s="49" t="str">
         <f>[1]Personas!I10</f>
-        <v>mjcastaneda@miuandes.cl</v>
+        <v>icastanedaw@gmail.com</v>
       </c>
       <c r="K13" s="49" t="str">
         <f>[1]Personas!J10</f>
@@ -8056,30 +8046,30 @@
       <c r="U13" s="92"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="167"/>
       <c r="B14" s="43" t="str">
         <f>[1]Personas!A11</f>
-        <v>Vicky</v>
+        <v>Majo</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>[1]Personas!B11</f>
-        <v>Chaparro</v>
+        <v>Castañeda</v>
       </c>
       <c r="D14" s="3" t="str">
         <f>[1]Personas!C11</f>
-        <v>Carolina Rabat 780 Casa 8</v>
+        <v>Punta de Aguilas Norte 9300 Casa 12</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]Personas!D11</f>
-        <v>Vitacura</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]Personas!E11</f>
-        <v>Santa Maria</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>[1]Personas!F11</f>
-        <v>UDD</v>
+        <v>UAndes</v>
       </c>
       <c r="H14" s="3" t="str">
         <f>[1]Personas!G11</f>
@@ -8087,11 +8077,11 @@
       </c>
       <c r="I14" s="40">
         <f>[1]Personas!H11</f>
-        <v>56968348679</v>
+        <v>56982328251</v>
       </c>
       <c r="J14" s="49" t="str">
         <f>[1]Personas!I11</f>
-        <v>mchaparroh@udd.cl</v>
+        <v>mjcastaneda@miuandes.cl</v>
       </c>
       <c r="K14" s="49" t="str">
         <f>[1]Personas!J11</f>
@@ -8112,30 +8102,30 @@
       <c r="U14" s="92"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165"/>
+      <c r="A15" s="167"/>
       <c r="B15" s="43" t="str">
         <f>[1]Personas!A12</f>
-        <v>Antonia</v>
+        <v>Vicky</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]Personas!B12</f>
-        <v>Cisternas</v>
+        <v>Chaparro</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>[1]Personas!C12</f>
-        <v>Calle Parque 12700 Casa 38</v>
+        <v>Carolina Rabat 780 Casa 8</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]Personas!D12</f>
-        <v>Lo Barnechea</v>
+        <v>Vitacura</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]Personas!E12</f>
-        <v>Los Trapenses</v>
-      </c>
-      <c r="G15" s="3">
+        <v>Santa Maria</v>
+      </c>
+      <c r="G15" s="3" t="str">
         <f>[1]Personas!F12</f>
-        <v>0</v>
+        <v>UDD</v>
       </c>
       <c r="H15" s="3" t="str">
         <f>[1]Personas!G12</f>
@@ -8143,15 +8133,15 @@
       </c>
       <c r="I15" s="40">
         <f>[1]Personas!H12</f>
-        <v>56944346775</v>
+        <v>56968348679</v>
       </c>
       <c r="J15" s="49" t="str">
         <f>[1]Personas!I12</f>
-        <v>antocisternas@hotmail.com</v>
+        <v>mchaparroh@udd.cl</v>
       </c>
       <c r="K15" s="49" t="str">
         <f>[1]Personas!J12</f>
-        <v>Lukas Quense</v>
+        <v>Ignacio Castañeda</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -8168,30 +8158,30 @@
       <c r="U15" s="92"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
+      <c r="A16" s="167"/>
       <c r="B16" s="43" t="str">
         <f>[1]Personas!A13</f>
-        <v>Josefa</v>
+        <v>Antonia</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]Personas!B13</f>
-        <v>Covarrubias</v>
+        <v>Cisternas</v>
       </c>
       <c r="D16" s="3" t="str">
         <f>[1]Personas!C13</f>
-        <v>Camino Las Flores 12163</v>
+        <v>Calle Parque 12700 Casa 38</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]Personas!D13</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]Personas!E13</f>
-        <v>San Carlos</v>
-      </c>
-      <c r="G16" s="3" t="str">
+        <v>Los Trapenses</v>
+      </c>
+      <c r="G16" s="3">
         <f>[1]Personas!F13</f>
-        <v>Saint George</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="str">
         <f>[1]Personas!G13</f>
@@ -8199,15 +8189,15 @@
       </c>
       <c r="I16" s="40">
         <f>[1]Personas!H13</f>
-        <v>56995346870</v>
+        <v>56944346775</v>
       </c>
       <c r="J16" s="49" t="str">
         <f>[1]Personas!I13</f>
-        <v>josefacovarrubias@gmail.com</v>
+        <v>antocisternas@hotmail.com</v>
       </c>
       <c r="K16" s="49" t="str">
         <f>[1]Personas!J13</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -8224,18 +8214,18 @@
       <c r="U16" s="92"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165"/>
+      <c r="A17" s="167"/>
       <c r="B17" s="43" t="str">
         <f>[1]Personas!A14</f>
-        <v>Florencia</v>
+        <v>Josefa</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]Personas!B14</f>
-        <v>Croxatto</v>
+        <v>Covarrubias</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>[1]Personas!C14</f>
-        <v>Los Olivos 12179</v>
+        <v>Camino Las Flores 12163</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]Personas!D14</f>
@@ -8247,7 +8237,7 @@
       </c>
       <c r="G17" s="3" t="str">
         <f>[1]Personas!F14</f>
-        <v>UC</v>
+        <v>Saint George</v>
       </c>
       <c r="H17" s="3" t="str">
         <f>[1]Personas!G14</f>
@@ -8255,11 +8245,11 @@
       </c>
       <c r="I17" s="40">
         <f>[1]Personas!H14</f>
-        <v>56963061299</v>
+        <v>56995346870</v>
       </c>
       <c r="J17" s="49" t="str">
         <f>[1]Personas!I14</f>
-        <v>fcroxatto@uc.cl</v>
+        <v>josefacovarrubias@gmail.com</v>
       </c>
       <c r="K17" s="49" t="str">
         <f>[1]Personas!J14</f>
@@ -8280,30 +8270,30 @@
       <c r="U17" s="92"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="165"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="43" t="str">
         <f>[1]Personas!A15</f>
-        <v>Joaquin</v>
+        <v>Florencia</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]Personas!B15</f>
-        <v>Daly</v>
+        <v>Croxatto</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>[1]Personas!C15</f>
-        <v>Polo 1 de Manquehue Casa 112</v>
+        <v>Los Olivos 12179</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]Personas!D15</f>
-        <v>Chicureo</v>
+        <v>Las Condes</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]Personas!E15</f>
-        <v>Piedra Roja</v>
+        <v>San Carlos</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>[1]Personas!F15</f>
-        <v>CSA</v>
+        <v>UC</v>
       </c>
       <c r="H18" s="3" t="str">
         <f>[1]Personas!G15</f>
@@ -8311,15 +8301,15 @@
       </c>
       <c r="I18" s="40">
         <f>[1]Personas!H15</f>
-        <v>56979987750</v>
+        <v>56963061299</v>
       </c>
       <c r="J18" s="49" t="str">
         <f>[1]Personas!I15</f>
-        <v>dalyjoaquin@gmail.com</v>
+        <v>fcroxatto@uc.cl</v>
       </c>
       <c r="K18" s="49" t="str">
         <f>[1]Personas!J15</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -8336,18 +8326,18 @@
       <c r="U18" s="92"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="165"/>
+      <c r="A19" s="167"/>
       <c r="B19" s="43" t="str">
         <f>[1]Personas!A16</f>
-        <v>Dominique</v>
+        <v>Joaquin</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>[1]Personas!B16</f>
-        <v>Daroch</v>
+        <v>Daly</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>[1]Personas!C16</f>
-        <v>El Algarrobal 2 Casa U2</v>
+        <v>Polo 1 de Manquehue Casa 112</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>[1]Personas!D16</f>
@@ -8355,11 +8345,11 @@
       </c>
       <c r="F19" s="3" t="str">
         <f>[1]Personas!E16</f>
-        <v>Vespucio</v>
+        <v>Piedra Roja</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>[1]Personas!F16</f>
-        <v>Highlands</v>
+        <v>CSA</v>
       </c>
       <c r="H19" s="3" t="str">
         <f>[1]Personas!G16</f>
@@ -8367,15 +8357,15 @@
       </c>
       <c r="I19" s="40">
         <f>[1]Personas!H16</f>
-        <v>56974474437</v>
+        <v>56979987750</v>
       </c>
       <c r="J19" s="49" t="str">
         <f>[1]Personas!I16</f>
-        <v>dominique_daroch@hotmail.com</v>
+        <v>dalyjoaquin@gmail.com</v>
       </c>
       <c r="K19" s="49" t="str">
         <f>[1]Personas!J16</f>
-        <v>Ignacio Castañeda</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -8392,22 +8382,22 @@
       <c r="U19" s="92"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
+      <c r="A20" s="167"/>
       <c r="B20" s="43" t="str">
         <f>[1]Personas!A17</f>
-        <v>Camila</v>
+        <v>Dominique</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>[1]Personas!B17</f>
-        <v>De La Sotta</v>
+        <v>Daroch</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>[1]Personas!C17</f>
-        <v>Jose de Moraleda 4837</v>
+        <v>El Algarrobal 2 Casa U2</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>[1]Personas!D17</f>
-        <v>Las Condes</v>
+        <v>Chicureo</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>[1]Personas!E17</f>
@@ -8415,7 +8405,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f>[1]Personas!F17</f>
-        <v>UDD</v>
+        <v>Highlands</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>[1]Personas!G17</f>
@@ -8423,11 +8413,11 @@
       </c>
       <c r="I20" s="40">
         <f>[1]Personas!H17</f>
-        <v>56967289638</v>
+        <v>56974474437</v>
       </c>
       <c r="J20" s="49" t="str">
         <f>[1]Personas!I17</f>
-        <v>camila.delasotta@gmail.com</v>
+        <v>dominique_daroch@hotmail.com</v>
       </c>
       <c r="K20" s="49" t="str">
         <f>[1]Personas!J17</f>
@@ -8448,30 +8438,30 @@
       <c r="U20" s="92"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="165"/>
+      <c r="A21" s="167"/>
       <c r="B21" s="43" t="str">
         <f>[1]Personas!A18</f>
-        <v>Javi</v>
+        <v>Camila</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]Personas!B18</f>
-        <v>Del Rio</v>
+        <v>De La Sotta</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[1]Personas!C18</f>
-        <v>Valle del monasterio 2664</v>
+        <v>Jose de Moraleda 4837</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]Personas!D18</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]Personas!E18</f>
-        <v>Los Trapenses</v>
+        <v>Vespucio</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>[1]Personas!F18</f>
-        <v>UC</v>
+        <v>UDD</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>[1]Personas!G18</f>
@@ -8479,11 +8469,11 @@
       </c>
       <c r="I21" s="40">
         <f>[1]Personas!H18</f>
-        <v>56967898535</v>
+        <v>56967289638</v>
       </c>
       <c r="J21" s="49" t="str">
         <f>[1]Personas!I18</f>
-        <v>jpdelrio@uc.cl</v>
+        <v>camila.delasotta@gmail.com</v>
       </c>
       <c r="K21" s="49" t="str">
         <f>[1]Personas!J18</f>
@@ -8504,18 +8494,18 @@
       <c r="U21" s="92"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="165"/>
+      <c r="A22" s="167"/>
       <c r="B22" s="43" t="str">
         <f>[1]Personas!A20</f>
-        <v>Constanza</v>
+        <v>Javi</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]Personas!B20</f>
-        <v>Delfau</v>
+        <v>Del Rio</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>[1]Personas!C20</f>
-        <v>Calle Parque 12700 Casa 1</v>
+        <v>Valle del monasterio 2664</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]Personas!D20</f>
@@ -8523,7 +8513,7 @@
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]Personas!E20</f>
-        <v>La Dehesa</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>[1]Personas!F20</f>
@@ -8535,11 +8525,11 @@
       </c>
       <c r="I22" s="40">
         <f>[1]Personas!H20</f>
-        <v>56991889995</v>
+        <v>56967898535</v>
       </c>
       <c r="J22" s="49" t="str">
         <f>[1]Personas!I20</f>
-        <v>conidelfau@gmail.com</v>
+        <v>jpdelrio@uc.cl</v>
       </c>
       <c r="K22" s="49" t="str">
         <f>[1]Personas!J20</f>
@@ -8560,7 +8550,7 @@
       <c r="U22" s="92"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="165"/>
+      <c r="A23" s="167"/>
       <c r="B23" s="43" t="str">
         <f>[1]Personas!A19</f>
         <v>Amelia</v>
@@ -8616,18 +8606,18 @@
       <c r="U23" s="92"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="43" t="str">
         <f>[1]Personas!A21</f>
-        <v>Pilar</v>
+        <v>Constanza</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]Personas!B21</f>
-        <v>Edwards</v>
+        <v>Delfau</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]Personas!C21</f>
-        <v>El Roquerio 2028</v>
+        <v>Calle Parque 12700 Casa 1</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]Personas!D21</f>
@@ -8635,11 +8625,11 @@
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]Personas!E21</f>
-        <v>Los Trapenses</v>
+        <v>La Dehesa</v>
       </c>
       <c r="G24" s="3" t="str">
         <f>[1]Personas!F21</f>
-        <v>UDD</v>
+        <v>UC</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>[1]Personas!G21</f>
@@ -8647,15 +8637,15 @@
       </c>
       <c r="I24" s="40">
         <f>[1]Personas!H21</f>
-        <v>56983708702</v>
+        <v>56991889995</v>
       </c>
       <c r="J24" s="49" t="str">
         <f>[1]Personas!I21</f>
-        <v>piliedwards@gmail.com</v>
+        <v>conidelfau@gmail.com</v>
       </c>
       <c r="K24" s="49" t="str">
         <f>[1]Personas!J21</f>
-        <v>Joaquin Eichholz</v>
+        <v>Ignacio Castañeda</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -8672,18 +8662,18 @@
       <c r="U24" s="92"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="43" t="str">
         <f>[1]Personas!A22</f>
-        <v>Joaquin</v>
+        <v>Rosario</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>[1]Personas!B22</f>
-        <v>Eichholz</v>
+        <v>Diez</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>[1]Personas!C22</f>
-        <v>Estrella Del Norte 980 Dpto 154</v>
+        <v>Hermanos Cabott 6671</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]Personas!D22</f>
@@ -8691,27 +8681,27 @@
       </c>
       <c r="F25" s="3" t="str">
         <f>[1]Personas!E22</f>
-        <v>Alto Las Condes</v>
+        <v>Manquehue</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>[1]Personas!F22</f>
-        <v>UC</v>
+        <v>Aleman</v>
       </c>
       <c r="H25" s="3" t="str">
         <f>[1]Personas!G22</f>
-        <v>SOCIO</v>
+        <v>JEFE</v>
       </c>
       <c r="I25" s="40">
         <f>[1]Personas!H22</f>
-        <v>56996324787</v>
+        <v>56997267212</v>
       </c>
       <c r="J25" s="49" t="str">
         <f>[1]Personas!I22</f>
-        <v>joaquin.eichholz@gmail.com</v>
+        <v>rdiezperry@gmail.com</v>
       </c>
       <c r="K25" s="49" t="str">
         <f>[1]Personas!J22</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -8728,26 +8718,26 @@
       <c r="U25" s="92"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="165"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="43" t="str">
         <f>[1]Personas!A23</f>
-        <v>Maria Jesus</v>
+        <v>Pilar</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>[1]Personas!B23</f>
-        <v>Elias</v>
+        <v>Edwards</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>[1]Personas!C23</f>
-        <v>Manquehue Norte 555</v>
+        <v>El Roquerio 2028</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]Personas!D23</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>[1]Personas!E23</f>
-        <v>Manquehue</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>[1]Personas!F23</f>
@@ -8759,15 +8749,15 @@
       </c>
       <c r="I26" s="40">
         <f>[1]Personas!H23</f>
-        <v>56958589916</v>
+        <v>56983708702</v>
       </c>
       <c r="J26" s="49" t="str">
         <f>[1]Personas!I23</f>
-        <v>meliasm@udd.cl</v>
+        <v>piliedwards@gmail.com</v>
       </c>
       <c r="K26" s="49" t="str">
         <f>[1]Personas!J23</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -8784,42 +8774,42 @@
       <c r="U26" s="92"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="165"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="43" t="str">
         <f>[1]Personas!A24</f>
-        <v>Rafael</v>
+        <v>Joaquin</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>[1]Personas!B24</f>
-        <v>Errazuriz</v>
+        <v>Eichholz</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>[1]Personas!C24</f>
-        <v>Pasaje La Aurora 1883</v>
+        <v>Estrella Del Norte 980 Dpto 154</v>
       </c>
       <c r="E27" s="3" t="str">
         <f>[1]Personas!D24</f>
-        <v>Vitacura</v>
+        <v>Las Condes</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>[1]Personas!E24</f>
-        <v>Estoril</v>
+        <v>Alto Las Condes</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>[1]Personas!F24</f>
-        <v>UDD</v>
+        <v>UC</v>
       </c>
       <c r="H27" s="3" t="str">
         <f>[1]Personas!G24</f>
-        <v>JEFE</v>
+        <v>SOCIO</v>
       </c>
       <c r="I27" s="40">
         <f>[1]Personas!H24</f>
-        <v>56995483434</v>
+        <v>56996324787</v>
       </c>
       <c r="J27" s="49" t="str">
         <f>[1]Personas!I24</f>
-        <v>rerrazurizf@udd.cl</v>
+        <v>joaquin.eichholz@gmail.com</v>
       </c>
       <c r="K27" s="49" t="str">
         <f>[1]Personas!J24</f>
@@ -8840,18 +8830,18 @@
       <c r="U27" s="92"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
+      <c r="A28" s="167"/>
       <c r="B28" s="43" t="str">
         <f>[1]Personas!A25</f>
-        <v>Isidora</v>
+        <v>Maria Jesus</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>[1]Personas!B25</f>
-        <v>Fernandez</v>
+        <v>Elias</v>
       </c>
       <c r="D28" s="3" t="str">
         <f>[1]Personas!C25</f>
-        <v>Casa De Piedra 2628</v>
+        <v>Manquehue Norte 555</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>[1]Personas!D25</f>
@@ -8859,11 +8849,11 @@
       </c>
       <c r="F28" s="3" t="str">
         <f>[1]Personas!E25</f>
-        <v>San Carlos</v>
+        <v>Manquehue</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>[1]Personas!F25</f>
-        <v>UAndes</v>
+        <v>UDD</v>
       </c>
       <c r="H28" s="3" t="str">
         <f>[1]Personas!G25</f>
@@ -8871,15 +8861,15 @@
       </c>
       <c r="I28" s="40">
         <f>[1]Personas!H25</f>
-        <v>56997550244</v>
+        <v>56958589916</v>
       </c>
       <c r="J28" s="49" t="str">
         <f>[1]Personas!I25</f>
-        <v>ifernandez1@miuandes.cl</v>
+        <v>meliasm@udd.cl</v>
       </c>
       <c r="K28" s="49" t="str">
         <f>[1]Personas!J25</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -8896,18 +8886,18 @@
       <c r="U28" s="92"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="165"/>
+      <c r="A29" s="167"/>
       <c r="B29" s="43" t="str">
         <f>[1]Personas!A26</f>
-        <v>Maria Luisa</v>
+        <v>Rafael</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>[1]Personas!B26</f>
-        <v>Fernandez</v>
+        <v>Errazuriz</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>[1]Personas!C26</f>
-        <v>La Invernada 7005</v>
+        <v>Pasaje La Aurora 1883</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>[1]Personas!D26</f>
@@ -8915,11 +8905,11 @@
       </c>
       <c r="F29" s="3" t="str">
         <f>[1]Personas!E26</f>
-        <v>Santa Maria</v>
+        <v>Estoril</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>[1]Personas!F26</f>
-        <v>UCH</v>
+        <v>UDD</v>
       </c>
       <c r="H29" s="3" t="str">
         <f>[1]Personas!G26</f>
@@ -8927,15 +8917,15 @@
       </c>
       <c r="I29" s="40">
         <f>[1]Personas!H26</f>
-        <v>56982978895</v>
+        <v>56995483434</v>
       </c>
       <c r="J29" s="49" t="str">
         <f>[1]Personas!I26</f>
-        <v>guisa97@hotmail.com</v>
+        <v>rerrazurizf@udd.cl</v>
       </c>
       <c r="K29" s="49" t="str">
         <f>[1]Personas!J26</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
@@ -8952,10 +8942,10 @@
       <c r="U29" s="92"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="165"/>
+      <c r="A30" s="167"/>
       <c r="B30" s="43" t="str">
         <f>[1]Personas!A27</f>
-        <v>Rodrigo</v>
+        <v>Isidora</v>
       </c>
       <c r="C30" s="3" t="str">
         <f>[1]Personas!B27</f>
@@ -8963,19 +8953,19 @@
       </c>
       <c r="D30" s="3" t="str">
         <f>[1]Personas!C27</f>
-        <v>Las Hualtatas 4555 Casa 9</v>
+        <v>Casa De Piedra 2628</v>
       </c>
       <c r="E30" s="3" t="str">
         <f>[1]Personas!D27</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>[1]Personas!E27</f>
-        <v>Los Trapenses</v>
+        <v>San Carlos</v>
       </c>
       <c r="G30" s="3" t="str">
         <f>[1]Personas!F27</f>
-        <v>UC</v>
+        <v>UAndes</v>
       </c>
       <c r="H30" s="3" t="str">
         <f>[1]Personas!G27</f>
@@ -8983,15 +8973,15 @@
       </c>
       <c r="I30" s="40">
         <f>[1]Personas!H27</f>
-        <v>56986194003</v>
+        <v>56997550244</v>
       </c>
       <c r="J30" s="49" t="str">
         <f>[1]Personas!I27</f>
-        <v>rfernandezdelrio@uc.cl</v>
+        <v>ifernandez1@miuandes.cl</v>
       </c>
       <c r="K30" s="49" t="str">
         <f>[1]Personas!J27</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
@@ -9008,10 +8998,10 @@
       <c r="U30" s="92"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="165"/>
+      <c r="A31" s="167"/>
       <c r="B31" s="43" t="str">
         <f>[1]Personas!A28</f>
-        <v>Tere</v>
+        <v>Maria Luisa</v>
       </c>
       <c r="C31" s="3" t="str">
         <f>[1]Personas!B28</f>
@@ -9019,19 +9009,19 @@
       </c>
       <c r="D31" s="3" t="str">
         <f>[1]Personas!C28</f>
-        <v>Las Torcazas 3080</v>
+        <v>La Invernada 7005</v>
       </c>
       <c r="E31" s="3" t="str">
         <f>[1]Personas!D28</f>
-        <v>Chicureo</v>
+        <v>Vitacura</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>[1]Personas!E28</f>
-        <v>Colina</v>
+        <v>Santa Maria</v>
       </c>
       <c r="G31" s="3" t="str">
         <f>[1]Personas!F28</f>
-        <v>Highlands</v>
+        <v>UCH</v>
       </c>
       <c r="H31" s="3" t="str">
         <f>[1]Personas!G28</f>
@@ -9039,11 +9029,11 @@
       </c>
       <c r="I31" s="40">
         <f>[1]Personas!H28</f>
-        <v>56965542496</v>
+        <v>56982978895</v>
       </c>
       <c r="J31" s="49" t="str">
         <f>[1]Personas!I28</f>
-        <v>terefernandez99@yahoo.com</v>
+        <v>guisa97@hotmail.com</v>
       </c>
       <c r="K31" s="49" t="str">
         <f>[1]Personas!J28</f>
@@ -9064,30 +9054,30 @@
       <c r="U31" s="92"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="165"/>
+      <c r="A32" s="167"/>
       <c r="B32" s="43" t="str">
         <f>[1]Personas!A29</f>
-        <v>Diego</v>
+        <v>Rodrigo</v>
       </c>
       <c r="C32" s="3" t="str">
         <f>[1]Personas!B29</f>
-        <v>Figueroa</v>
+        <v>Fernandez</v>
       </c>
       <c r="D32" s="3" t="str">
         <f>[1]Personas!C29</f>
-        <v>Las Lavandulas 10006</v>
+        <v>Las Hualtatas 4555 Casa 9</v>
       </c>
       <c r="E32" s="3" t="str">
         <f>[1]Personas!D29</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>[1]Personas!E29</f>
-        <v>San Carlos</v>
-      </c>
-      <c r="G32" s="3">
+        <v>Los Trapenses</v>
+      </c>
+      <c r="G32" s="3" t="str">
         <f>[1]Personas!F29</f>
-        <v>0</v>
+        <v>UC</v>
       </c>
       <c r="H32" s="3" t="str">
         <f>[1]Personas!G29</f>
@@ -9095,15 +9085,15 @@
       </c>
       <c r="I32" s="40">
         <f>[1]Personas!H29</f>
-        <v>56979579233</v>
+        <v>56986194003</v>
       </c>
       <c r="J32" s="49" t="str">
         <f>[1]Personas!I29</f>
-        <v>diegofiba2@gmail.com</v>
+        <v>rfernandezdelrio@uc.cl</v>
       </c>
       <c r="K32" s="49" t="str">
         <f>[1]Personas!J29</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
@@ -9120,18 +9110,18 @@
       <c r="U32" s="92"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
+      <c r="A33" s="167"/>
       <c r="B33" s="43" t="str">
         <f>[1]Personas!A30</f>
-        <v>Matias</v>
+        <v>Tere</v>
       </c>
       <c r="C33" s="3" t="str">
         <f>[1]Personas!B30</f>
-        <v>Flores</v>
+        <v>Fernandez</v>
       </c>
       <c r="D33" s="3" t="str">
         <f>[1]Personas!C30</f>
-        <v>Condominio Sta Teresita P14 Sta Ester De Liray</v>
+        <v>Las Torcazas 3080</v>
       </c>
       <c r="E33" s="3" t="str">
         <f>[1]Personas!D30</f>
@@ -9139,11 +9129,11 @@
       </c>
       <c r="F33" s="3" t="str">
         <f>[1]Personas!E30</f>
-        <v>Lo Pinto</v>
+        <v>Colina</v>
       </c>
       <c r="G33" s="3" t="str">
         <f>[1]Personas!F30</f>
-        <v>UDD</v>
+        <v>Highlands</v>
       </c>
       <c r="H33" s="3" t="str">
         <f>[1]Personas!G30</f>
@@ -9151,15 +9141,15 @@
       </c>
       <c r="I33" s="40">
         <f>[1]Personas!H30</f>
-        <v>56986351953</v>
+        <v>56965542496</v>
       </c>
       <c r="J33" s="49" t="str">
         <f>[1]Personas!I30</f>
-        <v>matifloresdonetch@hotmail.com</v>
+        <v>terefernandez99@yahoo.com</v>
       </c>
       <c r="K33" s="49" t="str">
         <f>[1]Personas!J30</f>
-        <v>Ignacio Castañeda</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
@@ -9176,18 +9166,18 @@
       <c r="U33" s="92"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
+      <c r="A34" s="167"/>
       <c r="B34" s="43" t="str">
         <f>[1]Personas!A31</f>
-        <v>Benjamin</v>
+        <v>Diego</v>
       </c>
       <c r="C34" s="3" t="str">
         <f>[1]Personas!B31</f>
-        <v>Hartmann</v>
+        <v>Figueroa</v>
       </c>
       <c r="D34" s="3" t="str">
         <f>[1]Personas!C31</f>
-        <v>Camino Otonal 1368 Casa 6</v>
+        <v>Las Lavandulas 10006</v>
       </c>
       <c r="E34" s="3" t="str">
         <f>[1]Personas!D31</f>
@@ -9197,9 +9187,9 @@
         <f>[1]Personas!E31</f>
         <v>San Carlos</v>
       </c>
-      <c r="G34" s="3" t="str">
+      <c r="G34" s="3">
         <f>[1]Personas!F31</f>
-        <v>UC</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3" t="str">
         <f>[1]Personas!G31</f>
@@ -9207,15 +9197,15 @@
       </c>
       <c r="I34" s="40">
         <f>[1]Personas!H31</f>
-        <v>56982958975</v>
+        <v>56979579233</v>
       </c>
       <c r="J34" s="49" t="str">
         <f>[1]Personas!I31</f>
-        <v>hartmann12@gmail.com</v>
+        <v>diegofiba2@gmail.com</v>
       </c>
       <c r="K34" s="49" t="str">
         <f>[1]Personas!J31</f>
-        <v>Ignacio Castañeda</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
@@ -9232,30 +9222,30 @@
       <c r="U34" s="92"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165"/>
+      <c r="A35" s="167"/>
       <c r="B35" s="43" t="str">
         <f>[1]Personas!A32</f>
-        <v>Mauricio</v>
+        <v>Matias</v>
       </c>
       <c r="C35" s="3" t="str">
         <f>[1]Personas!B32</f>
-        <v>Hernandez</v>
+        <v>Flores</v>
       </c>
       <c r="D35" s="3" t="str">
         <f>[1]Personas!C32</f>
-        <v>Julia Bernstein 607 Casa G-40</v>
+        <v>Condominio Sta Teresita P14 Sta Ester De Liray</v>
       </c>
       <c r="E35" s="3" t="str">
         <f>[1]Personas!D32</f>
-        <v>La Reina</v>
+        <v>Chicureo</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>[1]Personas!E32</f>
-        <v>La Reina</v>
+        <v>Lo Pinto</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>[1]Personas!F32</f>
-        <v>UCH</v>
+        <v>UDD</v>
       </c>
       <c r="H35" s="3" t="str">
         <f>[1]Personas!G32</f>
@@ -9263,15 +9253,15 @@
       </c>
       <c r="I35" s="40">
         <f>[1]Personas!H32</f>
-        <v>56965951459</v>
+        <v>56986351953</v>
       </c>
       <c r="J35" s="49" t="str">
         <f>[1]Personas!I32</f>
-        <v>mauhernand@fen.uchile.cl</v>
+        <v>matifloresdonetch@hotmail.com</v>
       </c>
       <c r="K35" s="49" t="str">
         <f>[1]Personas!J32</f>
-        <v>Lukas Quense</v>
+        <v>Ignacio Castañeda</v>
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
@@ -9288,30 +9278,30 @@
       <c r="U35" s="92"/>
     </row>
     <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="165"/>
+      <c r="A36" s="167"/>
       <c r="B36" s="43" t="str">
         <f>[1]Personas!A33</f>
-        <v>Andres</v>
+        <v>Benjamin</v>
       </c>
       <c r="C36" s="3" t="str">
         <f>[1]Personas!B33</f>
-        <v>Infante</v>
+        <v>Hartmann</v>
       </c>
       <c r="D36" s="3" t="str">
         <f>[1]Personas!C33</f>
-        <v>Camino De Las Ermitas 3804</v>
+        <v>Camino Otonal 1368 Casa 6</v>
       </c>
       <c r="E36" s="3" t="str">
         <f>[1]Personas!D33</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>[1]Personas!E33</f>
-        <v>Los Trapenses</v>
+        <v>San Carlos</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>[1]Personas!F33</f>
-        <v>UAI</v>
+        <v>UC</v>
       </c>
       <c r="H36" s="3" t="str">
         <f>[1]Personas!G33</f>
@@ -9319,15 +9309,15 @@
       </c>
       <c r="I36" s="40">
         <f>[1]Personas!H33</f>
-        <v>56979891544</v>
+        <v>56982958975</v>
       </c>
       <c r="J36" s="49" t="str">
         <f>[1]Personas!I33</f>
-        <v>andres_infanter@hotmail.com</v>
+        <v>hartmann12@gmail.com</v>
       </c>
       <c r="K36" s="49" t="str">
         <f>[1]Personas!J33</f>
-        <v>Lukas Quense</v>
+        <v>Ignacio Castañeda</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
@@ -9344,30 +9334,30 @@
       <c r="U36" s="92"/>
     </row>
     <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="165"/>
+      <c r="A37" s="167"/>
       <c r="B37" s="43" t="str">
         <f>[1]Personas!A34</f>
-        <v>Cata</v>
+        <v>Mauricio</v>
       </c>
       <c r="C37" s="3" t="str">
         <f>[1]Personas!B34</f>
-        <v>Izcue</v>
+        <v>Hernandez</v>
       </c>
       <c r="D37" s="3" t="str">
         <f>[1]Personas!C38</f>
-        <v>Las Hualtatas 10725</v>
+        <v>Pasaje Pie Andino 4209A</v>
       </c>
       <c r="E37" s="3" t="str">
         <f>[1]Personas!D38</f>
-        <v>Vitacura</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>[1]Personas!E38</f>
-        <v>Estoril</v>
+        <v>La Dehesa</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>[1]Personas!F34</f>
-        <v>Los Andes</v>
+        <v>UCH</v>
       </c>
       <c r="H37" s="3" t="str">
         <f>[1]Personas!G34</f>
@@ -9375,11 +9365,11 @@
       </c>
       <c r="I37" s="40">
         <f>[1]Personas!H34</f>
-        <v>56995952212</v>
+        <v>56965951459</v>
       </c>
       <c r="J37" s="49" t="str">
         <f>[1]Personas!I34</f>
-        <v>cataizcue@gmail.com</v>
+        <v>mauhernand@fen.uchile.cl</v>
       </c>
       <c r="K37" s="49" t="str">
         <f>[1]Personas!J34</f>
@@ -9400,18 +9390,18 @@
       <c r="U37" s="92"/>
     </row>
     <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="165"/>
+      <c r="A38" s="167"/>
       <c r="B38" s="43" t="str">
         <f>[1]Personas!A35</f>
-        <v>Margarita</v>
+        <v>Andres</v>
       </c>
       <c r="C38" s="3" t="str">
         <f>[1]Personas!B35</f>
-        <v>Joglar</v>
+        <v>Infante</v>
       </c>
       <c r="D38" s="3" t="str">
         <f>[1]Personas!C35</f>
-        <v>Camino Los Trapenses 4860 Casa 9</v>
+        <v>Camino De Las Ermitas 3804</v>
       </c>
       <c r="E38" s="3" t="str">
         <f>[1]Personas!D35</f>
@@ -9421,9 +9411,9 @@
         <f>[1]Personas!E35</f>
         <v>Los Trapenses</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="3" t="str">
         <f>[1]Personas!F35</f>
-        <v>0</v>
+        <v>UAI</v>
       </c>
       <c r="H38" s="3" t="str">
         <f>[1]Personas!G35</f>
@@ -9431,11 +9421,11 @@
       </c>
       <c r="I38" s="40">
         <f>[1]Personas!H35</f>
-        <v>56963124612</v>
+        <v>56979891544</v>
       </c>
       <c r="J38" s="49" t="str">
         <f>[1]Personas!I35</f>
-        <v>magui.joglar22@gmail.com</v>
+        <v>andres_infanter@hotmail.com</v>
       </c>
       <c r="K38" s="49" t="str">
         <f>[1]Personas!J35</f>
@@ -9456,30 +9446,30 @@
       <c r="U38" s="92"/>
     </row>
     <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="165"/>
+      <c r="A39" s="167"/>
       <c r="B39" s="43" t="str">
         <f>[1]Personas!A36</f>
-        <v>Ric</v>
+        <v>Cata</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>[1]Personas!B36</f>
-        <v>Jungk</v>
+        <v>Izcue</v>
       </c>
       <c r="D39" s="3" t="str">
         <f>[1]Personas!C36</f>
-        <v>Pasaje Pie Andino 4209A</v>
+        <v>Los Pumas 11996</v>
       </c>
       <c r="E39" s="3" t="str">
         <f>[1]Personas!D36</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>[1]Personas!E36</f>
-        <v>La Dehesa</v>
+        <v>San Carlos</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>[1]Personas!F36</f>
-        <v>UAndes</v>
+        <v>Los Andes</v>
       </c>
       <c r="H39" s="3" t="str">
         <f>[1]Personas!G36</f>
@@ -9487,15 +9477,15 @@
       </c>
       <c r="I39" s="40">
         <f>[1]Personas!H36</f>
-        <v>56966477967</v>
+        <v>56995952212</v>
       </c>
       <c r="J39" s="49" t="str">
         <f>[1]Personas!I36</f>
-        <v>rtjungk@miuandes.cl</v>
+        <v>cataizcue@gmail.com</v>
       </c>
       <c r="K39" s="49" t="str">
         <f>[1]Personas!J36</f>
-        <v>Ignacio Castañeda</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -9512,18 +9502,18 @@
       <c r="U39" s="92"/>
     </row>
     <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="165"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="43" t="str">
         <f>[1]Personas!A37</f>
-        <v>Matias</v>
+        <v>Margarita</v>
       </c>
       <c r="C40" s="3" t="str">
         <f>[1]Personas!B37</f>
-        <v>Krumm</v>
+        <v>Joglar</v>
       </c>
       <c r="D40" s="3" t="str">
         <f>[1]Personas!C37</f>
-        <v>La Cienaga 12315</v>
+        <v>Camino Los Trapenses 4860 Casa 9</v>
       </c>
       <c r="E40" s="3" t="str">
         <f>[1]Personas!D37</f>
@@ -9531,11 +9521,11 @@
       </c>
       <c r="F40" s="3" t="str">
         <f>[1]Personas!E37</f>
-        <v>La Dehesa</v>
-      </c>
-      <c r="G40" s="3" t="str">
+        <v>Los Trapenses</v>
+      </c>
+      <c r="G40" s="3">
         <f>[1]Personas!F37</f>
-        <v>UAI</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="str">
         <f>[1]Personas!G37</f>
@@ -9543,11 +9533,11 @@
       </c>
       <c r="I40" s="40">
         <f>[1]Personas!H37</f>
-        <v>56988587944</v>
+        <v>56963124612</v>
       </c>
       <c r="J40" s="49" t="str">
         <f>[1]Personas!I37</f>
-        <v>matiask7@gmail.com</v>
+        <v>magui.joglar22@gmail.com</v>
       </c>
       <c r="K40" s="49" t="str">
         <f>[1]Personas!J37</f>
@@ -9568,14 +9558,14 @@
       <c r="U40" s="92"/>
     </row>
     <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="165"/>
+      <c r="A41" s="167"/>
       <c r="B41" s="43" t="str">
         <f>[1]Personas!A38</f>
-        <v>Juan Diego</v>
+        <v>Ric</v>
       </c>
       <c r="C41" s="3" t="str">
         <f>[1]Personas!B38</f>
-        <v>Lyon</v>
+        <v>Jungk</v>
       </c>
       <c r="D41" s="3" t="e">
         <f>[1]Personas!#REF!</f>
@@ -9599,15 +9589,15 @@
       </c>
       <c r="I41" s="40">
         <f>[1]Personas!H38</f>
-        <v>56977684576</v>
+        <v>56966477967</v>
       </c>
       <c r="J41" s="49" t="str">
         <f>[1]Personas!I38</f>
-        <v>juandiegolyon@gmail.com</v>
+        <v>rtjungk@miuandes.cl</v>
       </c>
       <c r="K41" s="49" t="str">
         <f>[1]Personas!J38</f>
-        <v>Joaquin Eichholz</v>
+        <v>Ignacio Castañeda</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -9624,30 +9614,30 @@
       <c r="U41" s="92"/>
     </row>
     <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="165"/>
+      <c r="A42" s="167"/>
       <c r="B42" s="43" t="str">
         <f>[1]Personas!A39</f>
-        <v>Bernardita</v>
+        <v>Matias</v>
       </c>
       <c r="C42" s="3" t="str">
         <f>[1]Personas!B39</f>
-        <v>Mackenney</v>
+        <v>Krumm</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>[1]Personas!C39</f>
-        <v>La Fontana 11221</v>
+        <v>La Cienaga 12315</v>
       </c>
       <c r="E42" s="3" t="str">
         <f>[1]Personas!D39</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>[1]Personas!E39</f>
-        <v>San Carlos</v>
+        <v>La Dehesa</v>
       </c>
       <c r="G42" s="3" t="str">
         <f>[1]Personas!F39</f>
-        <v>UC</v>
+        <v>UAI</v>
       </c>
       <c r="H42" s="3" t="str">
         <f>[1]Personas!G39</f>
@@ -9655,15 +9645,15 @@
       </c>
       <c r="I42" s="40">
         <f>[1]Personas!H39</f>
-        <v>56978785698</v>
+        <v>56988587944</v>
       </c>
       <c r="J42" s="49" t="str">
         <f>[1]Personas!I39</f>
-        <v>bmackenney@uc.cl</v>
+        <v>matiask7@gmail.com</v>
       </c>
       <c r="K42" s="49" t="str">
         <f>[1]Personas!J39</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -9680,30 +9670,30 @@
       <c r="U42" s="92"/>
     </row>
     <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="165"/>
+      <c r="A43" s="167"/>
       <c r="B43" s="43" t="str">
         <f>[1]Personas!A40</f>
-        <v>Michella</v>
+        <v>Juan Diego</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>[1]Personas!B40</f>
-        <v>Mascarello</v>
+        <v>Lyon</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>[1]Personas!C40</f>
-        <v>Quinchamali 14336</v>
+        <v>Las Hualtatas 10725</v>
       </c>
       <c r="E43" s="3" t="str">
         <f>[1]Personas!D40</f>
-        <v>Las Condes</v>
+        <v>Vitacura</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>[1]Personas!E40</f>
-        <v>Quinchamali</v>
+        <v>Estoril</v>
       </c>
       <c r="G43" s="3" t="str">
         <f>[1]Personas!F40</f>
-        <v>UC</v>
+        <v>UAndes</v>
       </c>
       <c r="H43" s="3" t="str">
         <f>[1]Personas!G40</f>
@@ -9711,11 +9701,11 @@
       </c>
       <c r="I43" s="40">
         <f>[1]Personas!H40</f>
-        <v>56979878976</v>
+        <v>56977684576</v>
       </c>
       <c r="J43" s="49" t="str">
         <f>[1]Personas!I40</f>
-        <v>miki.mascarello@gmail.com</v>
+        <v>juandiegolyon@gmail.com</v>
       </c>
       <c r="K43" s="49" t="str">
         <f>[1]Personas!J40</f>
@@ -9736,30 +9726,30 @@
       <c r="U43" s="92"/>
     </row>
     <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="165"/>
+      <c r="A44" s="167"/>
       <c r="B44" s="43" t="str">
         <f>[1]Personas!A41</f>
-        <v>Vicente</v>
+        <v>Bernardita</v>
       </c>
       <c r="C44" s="3" t="str">
         <f>[1]Personas!B41</f>
-        <v>Mayol</v>
+        <v>Mackenney</v>
       </c>
       <c r="D44" s="3" t="str">
         <f>[1]Personas!C41</f>
-        <v>Paseo Pie Andino 6500 Casa O</v>
+        <v>La Fontana 11221</v>
       </c>
       <c r="E44" s="3" t="str">
         <f>[1]Personas!D41</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>[1]Personas!E41</f>
-        <v>Los Trapenses</v>
+        <v>San Carlos</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>[1]Personas!F41</f>
-        <v>Monte Tabor</v>
+        <v>UC</v>
       </c>
       <c r="H44" s="3" t="str">
         <f>[1]Personas!G41</f>
@@ -9767,15 +9757,15 @@
       </c>
       <c r="I44" s="40">
         <f>[1]Personas!H41</f>
-        <v>56978189115</v>
+        <v>56978785698</v>
       </c>
       <c r="J44" s="49" t="str">
         <f>[1]Personas!I41</f>
-        <v>vmayol@live.cl</v>
+        <v>bmackenney@uc.cl</v>
       </c>
       <c r="K44" s="49" t="str">
         <f>[1]Personas!J41</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -9792,30 +9782,30 @@
       <c r="U44" s="92"/>
     </row>
     <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="165"/>
+      <c r="A45" s="167"/>
       <c r="B45" s="22" t="str">
         <f>[1]Personas!A43</f>
-        <v>Ignacio</v>
+        <v>Vicente</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>[1]Personas!B43</f>
-        <v>Montt</v>
+        <v>Mayol</v>
       </c>
       <c r="D45" s="4" t="str">
         <f>[1]Personas!C43</f>
-        <v>Rio Maule 475</v>
+        <v>Paseo Pie Andino 6500 Casa O</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>[1]Personas!D43</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>[1]Personas!E43</f>
-        <v>Estoril</v>
-      </c>
-      <c r="G45" s="4">
+        <v>Los Trapenses</v>
+      </c>
+      <c r="G45" s="4" t="str">
         <f>[1]Personas!F43</f>
-        <v>0</v>
+        <v>Monte Tabor</v>
       </c>
       <c r="H45" s="4" t="str">
         <f>[1]Personas!G43</f>
@@ -9823,15 +9813,15 @@
       </c>
       <c r="I45" s="40">
         <f>[1]Personas!H43</f>
-        <v>56954243532</v>
+        <v>56978189115</v>
       </c>
       <c r="J45" s="49" t="str">
         <f>[1]Personas!I43</f>
-        <v>imontt@miuandes.cl</v>
+        <v>vmayol@live.cl</v>
       </c>
       <c r="K45" s="49" t="str">
         <f>[1]Personas!J43</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -9848,30 +9838,30 @@
       <c r="U45" s="92"/>
     </row>
     <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="165"/>
+      <c r="A46" s="167"/>
       <c r="B46" s="43" t="str">
         <f>[1]Personas!A42</f>
-        <v>Jesu</v>
+        <v>Michella</v>
       </c>
       <c r="C46" s="3" t="str">
         <f>[1]Personas!B42</f>
-        <v>Mckay</v>
+        <v>Mascarello</v>
       </c>
       <c r="D46" s="3" t="str">
         <f>[1]Personas!C42</f>
-        <v>Blvd Jardin De Los Pajaros 4700 Casa 5</v>
+        <v>Quinchamali 14336</v>
       </c>
       <c r="E46" s="3" t="str">
         <f>[1]Personas!D42</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>[1]Personas!E42</f>
-        <v>Los Trapenses</v>
+        <v>Quinchamali</v>
       </c>
       <c r="G46" s="3" t="str">
         <f>[1]Personas!F42</f>
-        <v>CLA</v>
+        <v>UC</v>
       </c>
       <c r="H46" s="3" t="str">
         <f>[1]Personas!G42</f>
@@ -9879,11 +9869,11 @@
       </c>
       <c r="I46" s="40">
         <f>[1]Personas!H42</f>
-        <v>56971837517</v>
+        <v>56979878976</v>
       </c>
       <c r="J46" s="49" t="str">
         <f>[1]Personas!I42</f>
-        <v>jesumckayg@hotmail.com</v>
+        <v>miki.mascarello@gmail.com</v>
       </c>
       <c r="K46" s="49" t="str">
         <f>[1]Personas!J42</f>
@@ -9904,18 +9894,18 @@
       <c r="U46" s="92"/>
     </row>
     <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="165"/>
+      <c r="A47" s="167"/>
       <c r="B47" s="22" t="str">
         <f>[1]Personas!A44</f>
-        <v>Rodrigo</v>
+        <v>Jesu</v>
       </c>
       <c r="C47" s="5" t="str">
         <f>[1]Personas!B44</f>
-        <v>Morales</v>
+        <v>Mckay</v>
       </c>
       <c r="D47" s="4" t="str">
         <f>[1]Personas!C44</f>
-        <v>Los Trapenses 3230</v>
+        <v>Blvd Jardin De Los Pajaros 4700 Casa 5</v>
       </c>
       <c r="E47" s="4" t="str">
         <f>[1]Personas!D44</f>
@@ -9927,7 +9917,7 @@
       </c>
       <c r="G47" s="4" t="str">
         <f>[1]Personas!F44</f>
-        <v>UDD</v>
+        <v>CLA</v>
       </c>
       <c r="H47" s="4" t="str">
         <f>[1]Personas!G44</f>
@@ -9935,15 +9925,15 @@
       </c>
       <c r="I47" s="40">
         <f>[1]Personas!H44</f>
-        <v>56975684552</v>
+        <v>56971837517</v>
       </c>
       <c r="J47" s="49" t="str">
         <f>[1]Personas!I44</f>
-        <v>morales.villar25@gmail.com</v>
+        <v>jesumckayg@hotmail.com</v>
       </c>
       <c r="K47" s="49" t="str">
         <f>[1]Personas!J44</f>
-        <v>Ignacio Castañeda</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
@@ -9960,18 +9950,18 @@
       <c r="U47" s="92"/>
     </row>
     <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="165"/>
+      <c r="A48" s="167"/>
       <c r="B48" s="22" t="str">
         <f>[1]Personas!A45</f>
         <v>Ignacio</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>[1]Personas!B45</f>
-        <v>Morales</v>
+        <v>Montt</v>
       </c>
       <c r="D48" s="4" t="str">
         <f>[1]Personas!C45</f>
-        <v>Cristobal Colon 4696 Dpto 1403</v>
+        <v>Rio Maule 475</v>
       </c>
       <c r="E48" s="4" t="str">
         <f>[1]Personas!D45</f>
@@ -9979,11 +9969,11 @@
       </c>
       <c r="F48" s="4" t="str">
         <f>[1]Personas!E45</f>
-        <v>Colon</v>
-      </c>
-      <c r="G48" s="4" t="str">
+        <v>Estoril</v>
+      </c>
+      <c r="G48" s="4">
         <f>[1]Personas!F45</f>
-        <v>UC</v>
+        <v>0</v>
       </c>
       <c r="H48" s="4" t="str">
         <f>[1]Personas!G45</f>
@@ -9991,15 +9981,15 @@
       </c>
       <c r="I48" s="40">
         <f>[1]Personas!H45</f>
-        <v>56993024442</v>
+        <v>56954243532</v>
       </c>
       <c r="J48" s="49" t="str">
         <f>[1]Personas!I45</f>
-        <v>ibmorales@uc.cl</v>
+        <v>imontt@miuandes.cl</v>
       </c>
       <c r="K48" s="49" t="str">
         <f>[1]Personas!J45</f>
-        <v>Lukas Quense</v>
+        <v>Joaquin Eichholz</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -10016,30 +10006,30 @@
       <c r="U48" s="92"/>
     </row>
     <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
+      <c r="A49" s="167"/>
       <c r="B49" s="22" t="str">
         <f>[1]Personas!A46</f>
-        <v>Josefina</v>
+        <v>Ignacio</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>[1]Personas!B46</f>
-        <v>Nazer</v>
+        <v>Morales</v>
       </c>
       <c r="D49" s="4" t="str">
         <f>[1]Personas!C46</f>
-        <v>Camino del ayuntamiento 2087</v>
+        <v>Cristobal Colon 4696 Dpto 1403</v>
       </c>
       <c r="E49" s="4" t="str">
         <f>[1]Personas!D46</f>
-        <v>Lo Barnechea</v>
+        <v>Las Condes</v>
       </c>
       <c r="F49" s="4" t="str">
         <f>[1]Personas!E46</f>
-        <v>La Dehesa</v>
+        <v>Colon</v>
       </c>
       <c r="G49" s="4" t="str">
         <f>[1]Personas!F46</f>
-        <v>Newland</v>
+        <v>UC</v>
       </c>
       <c r="H49" s="4" t="str">
         <f>[1]Personas!G46</f>
@@ -10047,15 +10037,15 @@
       </c>
       <c r="I49" s="40">
         <f>[1]Personas!H46</f>
-        <v>56998246537</v>
+        <v>56993024442</v>
       </c>
       <c r="J49" s="49" t="str">
         <f>[1]Personas!I46</f>
-        <v>cotenazer@hotmail.com</v>
+        <v>ibmorales@uc.cl</v>
       </c>
       <c r="K49" s="49" t="str">
         <f>[1]Personas!J46</f>
-        <v>Joaquin Eichholz</v>
+        <v>Lukas Quense</v>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -10072,30 +10062,30 @@
       <c r="U49" s="92"/>
     </row>
     <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="165"/>
+      <c r="A50" s="167"/>
       <c r="B50" s="22" t="str">
         <f>[1]Personas!A47</f>
-        <v>Raimundo</v>
+        <v>Rodrigo</v>
       </c>
       <c r="C50" s="5" t="str">
         <f>[1]Personas!B47</f>
-        <v>Opazo</v>
+        <v>Morales</v>
       </c>
       <c r="D50" s="4" t="str">
         <f>[1]Personas!C52</f>
-        <v>Artigas 643</v>
+        <v>Manuel Guzman Maturana 1900 Casa 9</v>
       </c>
       <c r="E50" s="4" t="str">
         <f>[1]Personas!D52</f>
-        <v>Vitacura</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F50" s="4" t="str">
         <f>[1]Personas!E52</f>
-        <v>Santa Maria</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G50" s="4" t="str">
         <f>[1]Personas!F52</f>
-        <v>Pacifico</v>
+        <v>UDD</v>
       </c>
       <c r="H50" s="4" t="str">
         <f>[1]Personas!G52</f>
@@ -10103,11 +10093,11 @@
       </c>
       <c r="I50" s="89">
         <f>[1]Personas!H52</f>
-        <v>56991997991</v>
+        <v>56987143347</v>
       </c>
       <c r="J50" s="49" t="str">
         <f>[1]Personas!I52</f>
-        <v>agustina-pineda@hotmail.com</v>
+        <v>maovallel@udd.cl</v>
       </c>
       <c r="K50" s="49"/>
       <c r="L50" s="31"/>
@@ -10125,30 +10115,30 @@
       <c r="U50" s="92"/>
     </row>
     <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="165"/>
+      <c r="A51" s="167"/>
       <c r="B51" s="22" t="str">
         <f>[1]Personas!A48</f>
-        <v>Trinidad</v>
+        <v>Josefina</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>[1]Personas!B48</f>
-        <v>Ossa</v>
+        <v>Nazer</v>
       </c>
       <c r="D51" s="4" t="str">
         <f>[1]Personas!C53</f>
-        <v>La Cienaga 12184</v>
+        <v>Parque Las Garzas 16, Condominio Las Banadadas</v>
       </c>
       <c r="E51" s="4" t="str">
         <f>[1]Personas!D53</f>
-        <v>Lo Barnechea</v>
+        <v>Chicureo</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>[1]Personas!E53</f>
-        <v>La Dehesa</v>
+        <v>Piedra Roja</v>
       </c>
       <c r="G51" s="4" t="str">
         <f>[1]Personas!F53</f>
-        <v>Uandes</v>
+        <v>UDD</v>
       </c>
       <c r="H51" s="4" t="str">
         <f>[1]Personas!G53</f>
@@ -10156,11 +10146,11 @@
       </c>
       <c r="I51" s="89">
         <f>[1]Personas!H53</f>
-        <v>56974529859</v>
+        <v>56984695829</v>
       </c>
       <c r="J51" s="49" t="str">
         <f>[1]Personas!I53</f>
-        <v>pina.benjamin@gmail.com</v>
+        <v>pancho.pamparana@gmail.com</v>
       </c>
       <c r="K51" s="49"/>
       <c r="L51" s="31"/>
@@ -10178,18 +10168,18 @@
       <c r="U51" s="92"/>
     </row>
     <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="165"/>
+      <c r="A52" s="167"/>
       <c r="B52" s="22" t="str">
         <f>[1]Personas!A49</f>
-        <v>Sofia</v>
+        <v>Raimundo</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>[1]Personas!B49</f>
-        <v>Ovalle</v>
+        <v>Opazo</v>
       </c>
       <c r="D52" s="4" t="str">
         <f>[1]Personas!C54</f>
-        <v>Cerro Cortadera 9897</v>
+        <v>Punta de Aguilas 4311</v>
       </c>
       <c r="E52" s="4" t="str">
         <f>[1]Personas!D54</f>
@@ -10201,19 +10191,19 @@
       </c>
       <c r="G52" s="4" t="str">
         <f>[1]Personas!F54</f>
-        <v>UC</v>
+        <v>UAB</v>
       </c>
       <c r="H52" s="4" t="str">
         <f>[1]Personas!G54</f>
-        <v>SOCIO</v>
+        <v>JEFE</v>
       </c>
       <c r="I52" s="89">
         <f>[1]Personas!H54</f>
-        <v>56987217393</v>
+        <v>56968320616</v>
       </c>
       <c r="J52" s="49" t="str">
         <f>[1]Personas!I54</f>
-        <v>lukas.quense@gmail.com</v>
+        <v>trinipereira@gmail.com</v>
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="31"/>
@@ -10231,30 +10221,30 @@
       <c r="U52" s="92"/>
     </row>
     <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="165"/>
+      <c r="A53" s="167"/>
       <c r="B53" s="22" t="str">
         <f>[1]Personas!A50</f>
-        <v>Francesco</v>
+        <v>Vicente</v>
       </c>
       <c r="C53" s="5" t="str">
         <f>[1]Personas!B50</f>
-        <v>Pamparana</v>
+        <v>Opazo</v>
       </c>
       <c r="D53" s="4" t="str">
         <f>[1]Personas!C50</f>
-        <v>Parque Las Garzas 16, Condominio Las Banadadas</v>
+        <v>Av Contralmirante Fernandez Vial 10455</v>
       </c>
       <c r="E53" s="4" t="str">
         <f>[1]Personas!D50</f>
-        <v>Chicureo</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>[1]Personas!E50</f>
-        <v>Piedra Roja</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G53" s="4" t="str">
         <f>[1]Personas!F50</f>
-        <v>UDD</v>
+        <v>Monte Tabor</v>
       </c>
       <c r="H53" s="4" t="str">
         <f>[1]Personas!G50</f>
@@ -10262,11 +10252,11 @@
       </c>
       <c r="I53" s="40">
         <f>[1]Personas!H50</f>
-        <v>56984695829</v>
+        <v>56994178481</v>
       </c>
       <c r="J53" s="49" t="str">
         <f>[1]Personas!I50</f>
-        <v>pancho.pamparana@gmail.com</v>
+        <v>vicente.opazo2005@gmail.com</v>
       </c>
       <c r="K53" s="49" t="str">
         <f>[1]Personas!J50</f>
@@ -10287,30 +10277,30 @@
       <c r="U53" s="92"/>
     </row>
     <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="165"/>
+      <c r="A54" s="167"/>
       <c r="B54" s="22" t="str">
         <f>[1]Personas!A51</f>
         <v>Trinidad</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>[1]Personas!B51</f>
-        <v>Pereira</v>
+        <v>Ossa</v>
       </c>
       <c r="D54" s="4" t="str">
         <f>[1]Personas!C51</f>
-        <v>Punta de Aguilas 4311</v>
+        <v>Escribano Diego Rutal 2471</v>
       </c>
       <c r="E54" s="4" t="str">
         <f>[1]Personas!D51</f>
-        <v>Lo Barnechea</v>
+        <v>Vitacura</v>
       </c>
       <c r="F54" s="4" t="str">
         <f>[1]Personas!E51</f>
-        <v>Los Trapenses</v>
-      </c>
-      <c r="G54" s="4" t="str">
+        <v>Vespucio</v>
+      </c>
+      <c r="G54" s="4">
         <f>[1]Personas!F51</f>
-        <v>UAB</v>
+        <v>0</v>
       </c>
       <c r="H54" s="4" t="str">
         <f>[1]Personas!G51</f>
@@ -10318,11 +10308,11 @@
       </c>
       <c r="I54" s="40">
         <f>[1]Personas!H51</f>
-        <v>56968320616</v>
+        <v>56978647106</v>
       </c>
       <c r="J54" s="49" t="str">
         <f>[1]Personas!I51</f>
-        <v>trinipereira@gmail.com</v>
+        <v>trinidadossag@gmail.com</v>
       </c>
       <c r="K54" s="49" t="str">
         <f>[1]Personas!J51</f>
@@ -10343,30 +10333,30 @@
       <c r="U54" s="92"/>
     </row>
     <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="165"/>
+      <c r="A55" s="167"/>
       <c r="B55" s="22" t="str">
         <f>[1]Personas!A52</f>
-        <v>Agustina</v>
+        <v>Sofia</v>
       </c>
       <c r="C55" s="5" t="str">
         <f>[1]Personas!B52</f>
-        <v>Pineda</v>
+        <v>Ovalle</v>
       </c>
       <c r="D55" s="4" t="str">
         <f>[1]Personas!C55</f>
-        <v>Santa Rita 1017</v>
+        <v>Artigas 643</v>
       </c>
       <c r="E55" s="4" t="str">
         <f>[1]Personas!D55</f>
-        <v>Las Condes</v>
+        <v>Vitacura</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>[1]Personas!E55</f>
-        <v>San Carlos</v>
+        <v>Santa Maria</v>
       </c>
       <c r="G55" s="4" t="str">
         <f>[1]Personas!F55</f>
-        <v>UC</v>
+        <v>Pacifico</v>
       </c>
       <c r="H55" s="4" t="str">
         <f>[1]Personas!G55</f>
@@ -10374,11 +10364,11 @@
       </c>
       <c r="I55" s="89">
         <f>[1]Personas!H55</f>
-        <v>56981207671</v>
+        <v>56991997991</v>
       </c>
       <c r="J55" s="49" t="str">
         <f>[1]Personas!I55</f>
-        <v>josefinaquiroga7@hotmail.com</v>
+        <v>agustina-pineda@hotmail.com</v>
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="31"/>
@@ -10396,30 +10386,30 @@
       <c r="U55" s="92"/>
     </row>
     <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="165"/>
+      <c r="A56" s="167"/>
       <c r="B56" s="22" t="str">
         <f>[1]Personas!A53</f>
-        <v>Benjamin</v>
+        <v>Francesco</v>
       </c>
       <c r="C56" s="5" t="str">
         <f>[1]Personas!B53</f>
-        <v>Piña</v>
+        <v>Pamparana</v>
       </c>
       <c r="D56" s="4" t="str">
         <f>[1]Personas!C56</f>
-        <v>Santa Rita 1017</v>
+        <v>La Cienaga 12184</v>
       </c>
       <c r="E56" s="4" t="str">
         <f>[1]Personas!D56</f>
-        <v>Las Condes</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>[1]Personas!E56</f>
-        <v>San Carlos</v>
+        <v>La Dehesa</v>
       </c>
       <c r="G56" s="4" t="str">
         <f>[1]Personas!F56</f>
-        <v>CPH</v>
+        <v>Uandes</v>
       </c>
       <c r="H56" s="4" t="str">
         <f>[1]Personas!G56</f>
@@ -10427,11 +10417,11 @@
       </c>
       <c r="I56" s="89">
         <f>[1]Personas!H56</f>
-        <v>56995408498</v>
+        <v>56974529859</v>
       </c>
       <c r="J56" s="49" t="str">
         <f>[1]Personas!I56</f>
-        <v>rafaquiroga7@gmail.com</v>
+        <v>pina.benjamin@gmail.com</v>
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="31"/>
@@ -10449,42 +10439,42 @@
       <c r="U56" s="92"/>
     </row>
     <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="166"/>
+      <c r="A57" s="168"/>
       <c r="B57" s="26" t="str">
         <f>[1]Personas!A54</f>
-        <v>Lukas</v>
+        <v>Trinidad</v>
       </c>
       <c r="C57" s="27" t="str">
         <f>[1]Personas!B54</f>
-        <v>Quense</v>
+        <v>Pereira</v>
       </c>
       <c r="D57" s="44" t="str">
         <f>[1]Personas!C57</f>
-        <v>Raimapu 6744</v>
+        <v>Cerro Cortadera 9897</v>
       </c>
       <c r="E57" s="44" t="str">
         <f>[1]Personas!D57</f>
-        <v>Vitacura</v>
+        <v>Lo Barnechea</v>
       </c>
       <c r="F57" s="44" t="str">
         <f>[1]Personas!E57</f>
-        <v>Santa Maria</v>
+        <v>Los Trapenses</v>
       </c>
       <c r="G57" s="44" t="str">
         <f>[1]Personas!F57</f>
-        <v>Aleman</v>
+        <v>UC</v>
       </c>
       <c r="H57" s="44" t="str">
         <f>[1]Personas!G57</f>
-        <v>JEFE</v>
+        <v>SOCIO</v>
       </c>
       <c r="I57" s="93">
         <f>[1]Personas!H57</f>
-        <v>56956481962</v>
+        <v>56987217393</v>
       </c>
       <c r="J57" s="50" t="str">
         <f>[1]Personas!I57</f>
-        <v>barodriguez@dsstgo.cl</v>
+        <v>lukas.quense@gmail.com</v>
       </c>
       <c r="K57" s="50"/>
       <c r="L57" s="32"/>
@@ -10525,22 +10515,22 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="173" t="s">
+      <c r="A60" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="176" t="s">
+      <c r="B60" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="177"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="177"/>
-      <c r="J60" s="177"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="178"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
       <c r="M60" s="76" t="s">
         <v>9</v>
       </c>
@@ -10570,18 +10560,18 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="174"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
-      <c r="L61" s="181"/>
+      <c r="A61" s="176"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="183"/>
       <c r="M61" s="76" t="s">
         <v>30</v>
       </c>
@@ -10605,18 +10595,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="174"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="181"/>
+      <c r="A62" s="176"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="182"/>
+      <c r="L62" s="183"/>
       <c r="M62" s="76" t="s">
         <v>8</v>
       </c>
@@ -10646,18 +10636,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="174"/>
-      <c r="B63" s="182"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="183"/>
-      <c r="E63" s="183"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="183"/>
-      <c r="I63" s="183"/>
-      <c r="J63" s="183"/>
-      <c r="K63" s="183"/>
-      <c r="L63" s="184"/>
+      <c r="A63" s="176"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="185"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="185"/>
+      <c r="G63" s="185"/>
+      <c r="H63" s="185"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="186"/>
       <c r="M63" s="76" t="s">
         <v>10</v>
       </c>
@@ -10669,7 +10659,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="174"/>
+      <c r="A64" s="176"/>
       <c r="B64" s="77"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -10683,20 +10673,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="174"/>
-      <c r="B65" s="176" t="s">
+      <c r="A65" s="176"/>
+      <c r="B65" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="177"/>
-      <c r="D65" s="177"/>
-      <c r="E65" s="177"/>
-      <c r="F65" s="177"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="178"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
       <c r="M65" s="76" t="s">
         <v>14</v>
       </c>
@@ -10726,18 +10716,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="174"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="181"/>
+      <c r="A66" s="176"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="183"/>
       <c r="M66" s="76" t="s">
         <v>8</v>
       </c>
@@ -10761,18 +10751,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="174"/>
-      <c r="B67" s="182"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
-      <c r="I67" s="183"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="184"/>
+      <c r="A67" s="176"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="186"/>
       <c r="M67" s="76" t="s">
         <v>15</v>
       </c>
@@ -10796,7 +10786,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="174"/>
+      <c r="A68" s="176"/>
       <c r="B68" s="77"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -10810,20 +10800,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="174"/>
-      <c r="B69" s="176" t="s">
+      <c r="A69" s="176"/>
+      <c r="B69" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="177"/>
-      <c r="F69" s="177"/>
-      <c r="G69" s="177"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="177"/>
-      <c r="J69" s="177"/>
-      <c r="K69" s="177"/>
-      <c r="L69" s="178"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="179"/>
+      <c r="J69" s="179"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
       <c r="M69" s="76" t="s">
         <v>20</v>
       </c>
@@ -10853,46 +10843,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="174"/>
-      <c r="B70" s="182"/>
-      <c r="C70" s="183"/>
-      <c r="D70" s="183"/>
-      <c r="E70" s="183"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="183"/>
-      <c r="K70" s="183"/>
-      <c r="L70" s="184"/>
+      <c r="A70" s="176"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="186"/>
       <c r="M70" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="185">
+      <c r="N70" s="187">
         <f>SUM(N69:S69)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="186"/>
-      <c r="P70" s="186"/>
-      <c r="Q70" s="186"/>
-      <c r="R70" s="186"/>
-      <c r="S70" s="187"/>
+      <c r="O70" s="188"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="188"/>
+      <c r="R70" s="188"/>
+      <c r="S70" s="189"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="174"/>
-      <c r="B71" s="176" t="s">
+      <c r="A71" s="176"/>
+      <c r="B71" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="177"/>
-      <c r="D71" s="177"/>
-      <c r="E71" s="177"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="177"/>
-      <c r="I71" s="177"/>
-      <c r="J71" s="177"/>
-      <c r="K71" s="177"/>
-      <c r="L71" s="178"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
       <c r="M71" s="76" t="s">
         <v>20</v>
       </c>
@@ -10922,46 +10912,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="174"/>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="183"/>
-      <c r="J72" s="183"/>
-      <c r="K72" s="183"/>
-      <c r="L72" s="184"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="185"/>
+      <c r="D72" s="185"/>
+      <c r="E72" s="185"/>
+      <c r="F72" s="185"/>
+      <c r="G72" s="185"/>
+      <c r="H72" s="185"/>
+      <c r="I72" s="185"/>
+      <c r="J72" s="185"/>
+      <c r="K72" s="185"/>
+      <c r="L72" s="186"/>
       <c r="M72" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="185">
+      <c r="N72" s="187">
         <f>SUM(N71:S71)</f>
         <v>0</v>
       </c>
-      <c r="O72" s="186"/>
-      <c r="P72" s="186"/>
-      <c r="Q72" s="186"/>
-      <c r="R72" s="186"/>
-      <c r="S72" s="187"/>
+      <c r="O72" s="188"/>
+      <c r="P72" s="188"/>
+      <c r="Q72" s="188"/>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="174"/>
-      <c r="B73" s="176" t="s">
+      <c r="A73" s="176"/>
+      <c r="B73" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="177"/>
-      <c r="D73" s="177"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="177"/>
-      <c r="J73" s="177"/>
-      <c r="K73" s="177"/>
-      <c r="L73" s="178"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
       <c r="M73" s="76" t="s">
         <v>20</v>
       </c>
@@ -10991,55 +10981,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="174"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="183"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="183"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="183"/>
-      <c r="K74" s="183"/>
-      <c r="L74" s="184"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="186"/>
       <c r="M74" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="200">
+      <c r="N74" s="202">
         <f>SUM(N73:S73)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="201"/>
-      <c r="P74" s="201"/>
-      <c r="Q74" s="201"/>
-      <c r="R74" s="201"/>
-      <c r="S74" s="202"/>
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="204"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="174"/>
+      <c r="A75" s="176"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="174"/>
-      <c r="B76" s="203" t="s">
+      <c r="A76" s="176"/>
+      <c r="B76" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
-      <c r="J76" s="204"/>
-      <c r="K76" s="204"/>
-      <c r="L76" s="204"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="194" t="s">
+      <c r="C76" s="206"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="195"/>
-      <c r="P76" s="196"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="198"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -11047,171 +11037,171 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="174"/>
-      <c r="B77" s="206"/>
-      <c r="C77" s="207"/>
-      <c r="D77" s="207"/>
-      <c r="E77" s="207"/>
-      <c r="F77" s="207"/>
-      <c r="G77" s="207"/>
-      <c r="H77" s="207"/>
-      <c r="I77" s="207"/>
-      <c r="J77" s="207"/>
-      <c r="K77" s="207"/>
-      <c r="L77" s="207"/>
-      <c r="M77" s="208"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="213"/>
-      <c r="P77" s="214"/>
+      <c r="A77" s="176"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="209"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="214"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="216"/>
       <c r="Q77" s="61"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="174"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="207"/>
-      <c r="E78" s="207"/>
-      <c r="F78" s="207"/>
-      <c r="G78" s="207"/>
-      <c r="H78" s="207"/>
-      <c r="I78" s="207"/>
-      <c r="J78" s="207"/>
-      <c r="K78" s="207"/>
-      <c r="L78" s="207"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="215"/>
-      <c r="O78" s="216"/>
-      <c r="P78" s="217"/>
+      <c r="A78" s="176"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="217"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="219"/>
       <c r="Q78" s="62"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="174"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="207"/>
-      <c r="D79" s="207"/>
-      <c r="E79" s="207"/>
-      <c r="F79" s="207"/>
-      <c r="G79" s="207"/>
-      <c r="H79" s="207"/>
-      <c r="I79" s="207"/>
-      <c r="J79" s="207"/>
-      <c r="K79" s="207"/>
-      <c r="L79" s="207"/>
-      <c r="M79" s="208"/>
-      <c r="N79" s="215"/>
-      <c r="O79" s="216"/>
-      <c r="P79" s="217"/>
+      <c r="A79" s="176"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="217"/>
+      <c r="O79" s="218"/>
+      <c r="P79" s="219"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="174"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="207"/>
-      <c r="D80" s="207"/>
-      <c r="E80" s="207"/>
-      <c r="F80" s="207"/>
-      <c r="G80" s="207"/>
-      <c r="H80" s="207"/>
-      <c r="I80" s="207"/>
-      <c r="J80" s="207"/>
-      <c r="K80" s="207"/>
-      <c r="L80" s="207"/>
-      <c r="M80" s="208"/>
-      <c r="N80" s="215"/>
-      <c r="O80" s="216"/>
-      <c r="P80" s="217"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="217"/>
+      <c r="O80" s="218"/>
+      <c r="P80" s="219"/>
       <c r="Q80" s="62"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="174"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="207"/>
-      <c r="D81" s="207"/>
-      <c r="E81" s="207"/>
-      <c r="F81" s="207"/>
-      <c r="G81" s="207"/>
-      <c r="H81" s="207"/>
-      <c r="I81" s="207"/>
-      <c r="J81" s="207"/>
-      <c r="K81" s="207"/>
-      <c r="L81" s="207"/>
-      <c r="M81" s="208"/>
-      <c r="N81" s="215"/>
-      <c r="O81" s="216"/>
-      <c r="P81" s="217"/>
+      <c r="A81" s="176"/>
+      <c r="B81" s="208"/>
+      <c r="C81" s="209"/>
+      <c r="D81" s="209"/>
+      <c r="E81" s="209"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="209"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="217"/>
+      <c r="O81" s="218"/>
+      <c r="P81" s="219"/>
       <c r="Q81" s="62"/>
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="174"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="207"/>
-      <c r="D82" s="207"/>
-      <c r="E82" s="207"/>
-      <c r="F82" s="207"/>
-      <c r="G82" s="207"/>
-      <c r="H82" s="207"/>
-      <c r="I82" s="207"/>
-      <c r="J82" s="207"/>
-      <c r="K82" s="207"/>
-      <c r="L82" s="207"/>
-      <c r="M82" s="208"/>
-      <c r="N82" s="215"/>
-      <c r="O82" s="216"/>
-      <c r="P82" s="217"/>
+      <c r="A82" s="176"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="209"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="209"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="209"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="217"/>
+      <c r="O82" s="218"/>
+      <c r="P82" s="219"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="174"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
-      <c r="E83" s="207"/>
-      <c r="F83" s="207"/>
-      <c r="G83" s="207"/>
-      <c r="H83" s="207"/>
-      <c r="I83" s="207"/>
-      <c r="J83" s="207"/>
-      <c r="K83" s="207"/>
-      <c r="L83" s="207"/>
-      <c r="M83" s="208"/>
-      <c r="N83" s="188"/>
-      <c r="O83" s="189"/>
-      <c r="P83" s="190"/>
+      <c r="A83" s="176"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="209"/>
+      <c r="D83" s="209"/>
+      <c r="E83" s="209"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="190"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="192"/>
       <c r="Q83" s="62"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="174"/>
-      <c r="B84" s="209"/>
-      <c r="C84" s="210"/>
-      <c r="D84" s="210"/>
-      <c r="E84" s="210"/>
-      <c r="F84" s="210"/>
-      <c r="G84" s="210"/>
-      <c r="H84" s="210"/>
-      <c r="I84" s="210"/>
-      <c r="J84" s="210"/>
-      <c r="K84" s="210"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="211"/>
-      <c r="N84" s="191" t="s">
+      <c r="A84" s="176"/>
+      <c r="B84" s="211"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="212"/>
+      <c r="G84" s="212"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="212"/>
+      <c r="M84" s="213"/>
+      <c r="N84" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="192"/>
-      <c r="P84" s="193"/>
+      <c r="O84" s="194"/>
+      <c r="P84" s="195"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>0</v>
@@ -11220,35 +11210,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="174"/>
+      <c r="A85" s="176"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="175"/>
-      <c r="B86" s="194" t="s">
+      <c r="A86" s="177"/>
+      <c r="B86" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="195"/>
-      <c r="D86" s="195"/>
-      <c r="E86" s="195"/>
-      <c r="F86" s="195"/>
-      <c r="G86" s="195"/>
-      <c r="H86" s="195"/>
-      <c r="I86" s="195"/>
-      <c r="J86" s="195"/>
-      <c r="K86" s="195"/>
-      <c r="L86" s="196"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="198"/>
       <c r="M86" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="197">
+      <c r="N86" s="199">
         <f>N74-SUM(Q77:Q83)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="198"/>
-      <c r="P86" s="198"/>
-      <c r="Q86" s="198"/>
-      <c r="R86" s="198"/>
-      <c r="S86" s="199"/>
+      <c r="O86" s="200"/>
+      <c r="P86" s="200"/>
+      <c r="Q86" s="200"/>
+      <c r="R86" s="200"/>
+      <c r="S86" s="201"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -11348,7 +11338,7 @@
   </sheetPr>
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -11375,28 +11365,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="174"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -11458,22 +11448,22 @@
       <c r="M4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="278" t="s">
+      <c r="N4" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="278" t="s">
+      <c r="O4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="278" t="s">
+      <c r="P4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="278" t="s">
+      <c r="Q4" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="279" t="s">
+      <c r="R4" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="279" t="s">
+      <c r="S4" s="165" t="s">
         <v>23</v>
       </c>
       <c r="T4" s="18" t="s">
@@ -11484,7 +11474,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="218"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="95" t="s">
         <v>137</v>
       </c>
@@ -11546,7 +11536,7 @@
       <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="219"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="80" t="s">
         <v>79</v>
       </c>
@@ -11609,7 +11599,7 @@
       <c r="U6" s="70"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="219"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="80" t="s">
         <v>111</v>
       </c>
@@ -11671,7 +11661,7 @@
       <c r="U7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="219"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="80" t="s">
         <v>57</v>
       </c>
@@ -11733,7 +11723,7 @@
       <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="219"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="80" t="s">
         <v>107</v>
       </c>
@@ -11795,7 +11785,7 @@
       <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="219"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="80" t="s">
         <v>92</v>
       </c>
@@ -11857,7 +11847,7 @@
       <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="219"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="80" t="s">
         <v>90</v>
       </c>
@@ -11919,7 +11909,7 @@
       <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="219"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="80" t="s">
         <v>70</v>
       </c>
@@ -11981,7 +11971,7 @@
       <c r="U12" s="70"/>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="80" t="s">
         <v>117</v>
       </c>
@@ -12043,7 +12033,7 @@
       <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="219"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="80" t="s">
         <v>107</v>
       </c>
@@ -12105,7 +12095,7 @@
       <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="219"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="80" t="s">
         <v>102</v>
       </c>
@@ -12167,7 +12157,7 @@
       <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="82" t="s">
         <v>125</v>
       </c>
@@ -12229,7 +12219,7 @@
       <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="219"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="80" t="s">
         <v>59</v>
       </c>
@@ -12291,7 +12281,7 @@
       <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="219"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="80" t="s">
         <v>55</v>
       </c>
@@ -12353,7 +12343,7 @@
       <c r="U18" s="70"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="219"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="80" t="s">
         <v>55</v>
       </c>
@@ -12415,7 +12405,7 @@
       <c r="U19" s="70"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="219"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="80" t="s">
         <v>73</v>
       </c>
@@ -12477,7 +12467,7 @@
       <c r="U20" s="70"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="219"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="80" t="s">
         <v>84</v>
       </c>
@@ -12539,7 +12529,7 @@
       <c r="U21" s="70"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="219"/>
+      <c r="A22" s="221"/>
       <c r="B22" s="82" t="s">
         <v>123</v>
       </c>
@@ -12601,7 +12591,7 @@
       <c r="U22" s="70"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="219"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="82" t="s">
         <v>64</v>
       </c>
@@ -12663,7 +12653,7 @@
       <c r="U23" s="70"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="219"/>
+      <c r="A24" s="221"/>
       <c r="B24" s="80" t="s">
         <v>68</v>
       </c>
@@ -12725,7 +12715,7 @@
       <c r="U24" s="70"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="219"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="80" t="s">
         <v>75</v>
       </c>
@@ -12789,7 +12779,7 @@
       <c r="U25" s="70"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="219"/>
+      <c r="A26" s="221"/>
       <c r="B26" s="80" t="s">
         <v>80</v>
       </c>
@@ -12851,7 +12841,7 @@
       <c r="U26" s="70"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="219"/>
+      <c r="A27" s="221"/>
       <c r="B27" s="80" t="s">
         <v>82</v>
       </c>
@@ -12913,7 +12903,7 @@
       <c r="U27" s="70"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219"/>
+      <c r="A28" s="221"/>
       <c r="B28" s="80" t="s">
         <v>96</v>
       </c>
@@ -12975,7 +12965,7 @@
       <c r="U28" s="70"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="219"/>
+      <c r="A29" s="221"/>
       <c r="B29" s="80" t="s">
         <v>98</v>
       </c>
@@ -13037,7 +13027,7 @@
       <c r="U29" s="70"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="219"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="80" t="s">
         <v>100</v>
       </c>
@@ -13099,7 +13089,7 @@
       <c r="U30" s="70"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="219"/>
+      <c r="A31" s="221"/>
       <c r="B31" s="82" t="s">
         <v>132</v>
       </c>
@@ -13161,7 +13151,7 @@
       <c r="U31" s="70"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="219"/>
+      <c r="A32" s="221"/>
       <c r="B32" s="80" t="s">
         <v>109</v>
       </c>
@@ -13223,7 +13213,7 @@
       <c r="U32" s="70"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="219"/>
+      <c r="A33" s="221"/>
       <c r="B33" s="82" t="s">
         <v>134</v>
       </c>
@@ -13285,7 +13275,7 @@
       <c r="U33" s="70"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="219"/>
+      <c r="A34" s="221"/>
       <c r="B34" s="80" t="s">
         <v>77</v>
       </c>
@@ -13347,7 +13337,7 @@
       <c r="U34" s="70"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="219"/>
+      <c r="A35" s="221"/>
       <c r="B35" s="80" t="s">
         <v>84</v>
       </c>
@@ -13409,7 +13399,7 @@
       <c r="U35" s="70"/>
     </row>
     <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
+      <c r="A36" s="221"/>
       <c r="B36" s="80" t="s">
         <v>119</v>
       </c>
@@ -13471,7 +13461,7 @@
       <c r="U36" s="70"/>
     </row>
     <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="219"/>
+      <c r="A37" s="221"/>
       <c r="B37" s="82" t="s">
         <v>135</v>
       </c>
@@ -13533,7 +13523,7 @@
       <c r="U37" s="70"/>
     </row>
     <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="219"/>
+      <c r="A38" s="221"/>
       <c r="B38" s="80" t="s">
         <v>61</v>
       </c>
@@ -13579,7 +13569,7 @@
       <c r="U38" s="70"/>
     </row>
     <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="219"/>
+      <c r="A39" s="221"/>
       <c r="B39" s="80" t="s">
         <v>86</v>
       </c>
@@ -13625,7 +13615,7 @@
       <c r="U39" s="70"/>
     </row>
     <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="219"/>
+      <c r="A40" s="221"/>
       <c r="B40" s="80" t="s">
         <v>41</v>
       </c>
@@ -13671,7 +13661,7 @@
       <c r="U40" s="70"/>
     </row>
     <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="219"/>
+      <c r="A41" s="221"/>
       <c r="B41" s="80" t="s">
         <v>79</v>
       </c>
@@ -13717,7 +13707,7 @@
       <c r="U41" s="70"/>
     </row>
     <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="219"/>
+      <c r="A42" s="221"/>
       <c r="B42" s="82" t="s">
         <v>127</v>
       </c>
@@ -13763,7 +13753,7 @@
       <c r="U42" s="70"/>
     </row>
     <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="219"/>
+      <c r="A43" s="221"/>
       <c r="B43" s="80" t="s">
         <v>47</v>
       </c>
@@ -13809,7 +13799,7 @@
       <c r="U43" s="70"/>
     </row>
     <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
+      <c r="A44" s="221"/>
       <c r="B44" s="80" t="s">
         <v>49</v>
       </c>
@@ -13855,7 +13845,7 @@
       <c r="U44" s="70"/>
     </row>
     <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="219"/>
+      <c r="A45" s="221"/>
       <c r="B45" s="80" t="s">
         <v>62</v>
       </c>
@@ -13901,7 +13891,7 @@
       <c r="U45" s="70"/>
     </row>
     <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="219"/>
+      <c r="A46" s="221"/>
       <c r="B46" s="80" t="s">
         <v>66</v>
       </c>
@@ -13947,7 +13937,7 @@
       <c r="U46" s="70"/>
     </row>
     <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="219"/>
+      <c r="A47" s="221"/>
       <c r="B47" s="80" t="s">
         <v>70</v>
       </c>
@@ -13993,7 +13983,7 @@
       <c r="U47" s="70"/>
     </row>
     <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="219"/>
+      <c r="A48" s="221"/>
       <c r="B48" s="80" t="s">
         <v>104</v>
       </c>
@@ -14039,7 +14029,7 @@
       <c r="U48" s="70"/>
     </row>
     <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
+      <c r="A49" s="221"/>
       <c r="B49" s="80" t="s">
         <v>51</v>
       </c>
@@ -14085,7 +14075,7 @@
       <c r="U49" s="70"/>
     </row>
     <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
+      <c r="A50" s="221"/>
       <c r="B50" s="80" t="s">
         <v>53</v>
       </c>
@@ -14131,7 +14121,7 @@
       <c r="U50" s="70"/>
     </row>
     <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="219"/>
+      <c r="A51" s="221"/>
       <c r="B51" s="80" t="s">
         <v>64</v>
       </c>
@@ -14177,7 +14167,7 @@
       <c r="U51" s="70"/>
     </row>
     <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="219"/>
+      <c r="A52" s="221"/>
       <c r="B52" s="80" t="s">
         <v>81</v>
       </c>
@@ -14223,7 +14213,7 @@
       <c r="U52" s="70"/>
     </row>
     <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="219"/>
+      <c r="A53" s="221"/>
       <c r="B53" s="80" t="s">
         <v>88</v>
       </c>
@@ -14269,7 +14259,7 @@
       <c r="U53" s="70"/>
     </row>
     <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="219"/>
+      <c r="A54" s="221"/>
       <c r="B54" s="80" t="s">
         <v>113</v>
       </c>
@@ -14315,7 +14305,7 @@
       <c r="U54" s="70"/>
     </row>
     <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="219"/>
+      <c r="A55" s="221"/>
       <c r="B55" s="80" t="s">
         <v>115</v>
       </c>
@@ -14361,7 +14351,7 @@
       <c r="U55" s="70"/>
     </row>
     <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
+      <c r="A56" s="221"/>
       <c r="B56" s="80" t="s">
         <v>121</v>
       </c>
@@ -14407,7 +14397,7 @@
       <c r="U56" s="70"/>
     </row>
     <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="220"/>
+      <c r="A57" s="222"/>
       <c r="B57" s="85" t="s">
         <v>129</v>
       </c>
@@ -14476,22 +14466,22 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="173" t="s">
+      <c r="A60" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="176" t="s">
+      <c r="B60" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="177"/>
-      <c r="G60" s="177"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="177"/>
-      <c r="J60" s="177"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="178"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
       <c r="M60" s="74" t="s">
         <v>9</v>
       </c>
@@ -14521,18 +14511,18 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="174"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
-      <c r="L61" s="181"/>
+      <c r="A61" s="176"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="183"/>
       <c r="M61" s="74" t="s">
         <v>30</v>
       </c>
@@ -14556,18 +14546,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="174"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="181"/>
+      <c r="A62" s="176"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="182"/>
+      <c r="L62" s="183"/>
       <c r="M62" s="74" t="s">
         <v>8</v>
       </c>
@@ -14597,18 +14587,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="174"/>
-      <c r="B63" s="182"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="183"/>
-      <c r="E63" s="183"/>
-      <c r="F63" s="183"/>
-      <c r="G63" s="183"/>
-      <c r="H63" s="183"/>
-      <c r="I63" s="183"/>
-      <c r="J63" s="183"/>
-      <c r="K63" s="183"/>
-      <c r="L63" s="184"/>
+      <c r="A63" s="176"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="185"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="185"/>
+      <c r="G63" s="185"/>
+      <c r="H63" s="185"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="186"/>
       <c r="M63" s="74" t="s">
         <v>10</v>
       </c>
@@ -14620,7 +14610,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="174"/>
+      <c r="A64" s="176"/>
       <c r="B64" s="72"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -14634,20 +14624,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="174"/>
-      <c r="B65" s="176" t="s">
+      <c r="A65" s="176"/>
+      <c r="B65" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="177"/>
-      <c r="D65" s="177"/>
-      <c r="E65" s="177"/>
-      <c r="F65" s="177"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="178"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
       <c r="M65" s="74" t="s">
         <v>14</v>
       </c>
@@ -14677,18 +14667,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="174"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="181"/>
+      <c r="A66" s="176"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="183"/>
       <c r="M66" s="74" t="s">
         <v>8</v>
       </c>
@@ -14712,18 +14702,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="174"/>
-      <c r="B67" s="182"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
-      <c r="H67" s="183"/>
-      <c r="I67" s="183"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="184"/>
+      <c r="A67" s="176"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="186"/>
       <c r="M67" s="74" t="s">
         <v>15</v>
       </c>
@@ -14747,7 +14737,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="174"/>
+      <c r="A68" s="176"/>
       <c r="B68" s="72"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -14761,20 +14751,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="174"/>
-      <c r="B69" s="176" t="s">
+      <c r="A69" s="176"/>
+      <c r="B69" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="177"/>
-      <c r="D69" s="177"/>
-      <c r="E69" s="177"/>
-      <c r="F69" s="177"/>
-      <c r="G69" s="177"/>
-      <c r="H69" s="177"/>
-      <c r="I69" s="177"/>
-      <c r="J69" s="177"/>
-      <c r="K69" s="177"/>
-      <c r="L69" s="178"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="179"/>
+      <c r="J69" s="179"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
       <c r="M69" s="74" t="s">
         <v>20</v>
       </c>
@@ -14804,46 +14794,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="174"/>
-      <c r="B70" s="182"/>
-      <c r="C70" s="183"/>
-      <c r="D70" s="183"/>
-      <c r="E70" s="183"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="183"/>
-      <c r="K70" s="183"/>
-      <c r="L70" s="184"/>
+      <c r="A70" s="176"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="186"/>
       <c r="M70" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="185">
+      <c r="N70" s="187">
         <f>SUM(N69:S69)</f>
         <v>3175196.4000000004</v>
       </c>
-      <c r="O70" s="186"/>
-      <c r="P70" s="186"/>
-      <c r="Q70" s="186"/>
-      <c r="R70" s="186"/>
-      <c r="S70" s="187"/>
+      <c r="O70" s="188"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="188"/>
+      <c r="R70" s="188"/>
+      <c r="S70" s="189"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="174"/>
-      <c r="B71" s="176" t="s">
+      <c r="A71" s="176"/>
+      <c r="B71" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="177"/>
-      <c r="D71" s="177"/>
-      <c r="E71" s="177"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="177"/>
-      <c r="I71" s="177"/>
-      <c r="J71" s="177"/>
-      <c r="K71" s="177"/>
-      <c r="L71" s="178"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
       <c r="M71" s="74" t="s">
         <v>20</v>
       </c>
@@ -14873,46 +14863,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="174"/>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="183"/>
-      <c r="I72" s="183"/>
-      <c r="J72" s="183"/>
-      <c r="K72" s="183"/>
-      <c r="L72" s="184"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="185"/>
+      <c r="D72" s="185"/>
+      <c r="E72" s="185"/>
+      <c r="F72" s="185"/>
+      <c r="G72" s="185"/>
+      <c r="H72" s="185"/>
+      <c r="I72" s="185"/>
+      <c r="J72" s="185"/>
+      <c r="K72" s="185"/>
+      <c r="L72" s="186"/>
       <c r="M72" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="185">
+      <c r="N72" s="187">
         <f>SUM(N71:S71)</f>
         <v>4990750</v>
       </c>
-      <c r="O72" s="186"/>
-      <c r="P72" s="186"/>
-      <c r="Q72" s="186"/>
-      <c r="R72" s="186"/>
-      <c r="S72" s="187"/>
+      <c r="O72" s="188"/>
+      <c r="P72" s="188"/>
+      <c r="Q72" s="188"/>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="174"/>
-      <c r="B73" s="176" t="s">
+      <c r="A73" s="176"/>
+      <c r="B73" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="177"/>
-      <c r="D73" s="177"/>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="177"/>
-      <c r="J73" s="177"/>
-      <c r="K73" s="177"/>
-      <c r="L73" s="178"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
       <c r="M73" s="74" t="s">
         <v>20</v>
       </c>
@@ -14942,55 +14932,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="174"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="183"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="183"/>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="183"/>
-      <c r="K74" s="183"/>
-      <c r="L74" s="184"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="186"/>
       <c r="M74" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="200">
+      <c r="N74" s="202">
         <f>SUM(N73:S73)</f>
         <v>1815553.5999999999</v>
       </c>
-      <c r="O74" s="201"/>
-      <c r="P74" s="201"/>
-      <c r="Q74" s="201"/>
-      <c r="R74" s="201"/>
-      <c r="S74" s="202"/>
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="204"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="174"/>
+      <c r="A75" s="176"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="174"/>
-      <c r="B76" s="203" t="s">
+      <c r="A76" s="176"/>
+      <c r="B76" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
-      <c r="J76" s="204"/>
-      <c r="K76" s="204"/>
-      <c r="L76" s="204"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="194" t="s">
+      <c r="C76" s="206"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="195"/>
-      <c r="P76" s="196"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="198"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -14998,24 +14988,24 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="174"/>
-      <c r="B77" s="206"/>
-      <c r="C77" s="207"/>
-      <c r="D77" s="207"/>
-      <c r="E77" s="207"/>
-      <c r="F77" s="207"/>
-      <c r="G77" s="207"/>
-      <c r="H77" s="207"/>
-      <c r="I77" s="207"/>
-      <c r="J77" s="207"/>
-      <c r="K77" s="207"/>
-      <c r="L77" s="207"/>
-      <c r="M77" s="208"/>
-      <c r="N77" s="212" t="s">
+      <c r="A77" s="176"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="209"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="213"/>
-      <c r="P77" s="214"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="216"/>
       <c r="Q77" s="61">
         <v>45000</v>
       </c>
@@ -15023,24 +15013,24 @@
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="174"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="207"/>
-      <c r="E78" s="207"/>
-      <c r="F78" s="207"/>
-      <c r="G78" s="207"/>
-      <c r="H78" s="207"/>
-      <c r="I78" s="207"/>
-      <c r="J78" s="207"/>
-      <c r="K78" s="207"/>
-      <c r="L78" s="207"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="215" t="s">
+      <c r="A78" s="176"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="216"/>
-      <c r="P78" s="217"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="219"/>
       <c r="Q78" s="62">
         <v>50000</v>
       </c>
@@ -15048,24 +15038,24 @@
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="174"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="207"/>
-      <c r="D79" s="207"/>
-      <c r="E79" s="207"/>
-      <c r="F79" s="207"/>
-      <c r="G79" s="207"/>
-      <c r="H79" s="207"/>
-      <c r="I79" s="207"/>
-      <c r="J79" s="207"/>
-      <c r="K79" s="207"/>
-      <c r="L79" s="207"/>
-      <c r="M79" s="208"/>
-      <c r="N79" s="215" t="s">
+      <c r="A79" s="176"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="216"/>
-      <c r="P79" s="217"/>
+      <c r="O79" s="218"/>
+      <c r="P79" s="219"/>
       <c r="Q79" s="62">
         <v>15000</v>
       </c>
@@ -15073,24 +15063,24 @@
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="174"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="207"/>
-      <c r="D80" s="207"/>
-      <c r="E80" s="207"/>
-      <c r="F80" s="207"/>
-      <c r="G80" s="207"/>
-      <c r="H80" s="207"/>
-      <c r="I80" s="207"/>
-      <c r="J80" s="207"/>
-      <c r="K80" s="207"/>
-      <c r="L80" s="207"/>
-      <c r="M80" s="208"/>
-      <c r="N80" s="215" t="s">
+      <c r="A80" s="176"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="216"/>
-      <c r="P80" s="217"/>
+      <c r="O80" s="218"/>
+      <c r="P80" s="219"/>
       <c r="Q80" s="62">
         <v>30000</v>
       </c>
@@ -15098,24 +15088,24 @@
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="174"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="207"/>
-      <c r="D81" s="207"/>
-      <c r="E81" s="207"/>
-      <c r="F81" s="207"/>
-      <c r="G81" s="207"/>
-      <c r="H81" s="207"/>
-      <c r="I81" s="207"/>
-      <c r="J81" s="207"/>
-      <c r="K81" s="207"/>
-      <c r="L81" s="207"/>
-      <c r="M81" s="208"/>
-      <c r="N81" s="215" t="s">
+      <c r="A81" s="176"/>
+      <c r="B81" s="208"/>
+      <c r="C81" s="209"/>
+      <c r="D81" s="209"/>
+      <c r="E81" s="209"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="209"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="216"/>
-      <c r="P81" s="217"/>
+      <c r="O81" s="218"/>
+      <c r="P81" s="219"/>
       <c r="Q81" s="62">
         <v>70000</v>
       </c>
@@ -15123,24 +15113,24 @@
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="174"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="207"/>
-      <c r="D82" s="207"/>
-      <c r="E82" s="207"/>
-      <c r="F82" s="207"/>
-      <c r="G82" s="207"/>
-      <c r="H82" s="207"/>
-      <c r="I82" s="207"/>
-      <c r="J82" s="207"/>
-      <c r="K82" s="207"/>
-      <c r="L82" s="207"/>
-      <c r="M82" s="208"/>
-      <c r="N82" s="215" t="s">
+      <c r="A82" s="176"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="209"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="209"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="209"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="O82" s="216"/>
-      <c r="P82" s="217"/>
+      <c r="O82" s="218"/>
+      <c r="P82" s="219"/>
       <c r="Q82" s="62">
         <v>20000</v>
       </c>
@@ -15148,24 +15138,24 @@
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="174"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
-      <c r="E83" s="207"/>
-      <c r="F83" s="207"/>
-      <c r="G83" s="207"/>
-      <c r="H83" s="207"/>
-      <c r="I83" s="207"/>
-      <c r="J83" s="207"/>
-      <c r="K83" s="207"/>
-      <c r="L83" s="207"/>
-      <c r="M83" s="208"/>
-      <c r="N83" s="188" t="s">
+      <c r="A83" s="176"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="209"/>
+      <c r="D83" s="209"/>
+      <c r="E83" s="209"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="O83" s="189"/>
-      <c r="P83" s="190"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="192"/>
       <c r="Q83" s="62">
         <v>15000</v>
       </c>
@@ -15173,24 +15163,24 @@
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="174"/>
-      <c r="B84" s="209"/>
-      <c r="C84" s="210"/>
-      <c r="D84" s="210"/>
-      <c r="E84" s="210"/>
-      <c r="F84" s="210"/>
-      <c r="G84" s="210"/>
-      <c r="H84" s="210"/>
-      <c r="I84" s="210"/>
-      <c r="J84" s="210"/>
-      <c r="K84" s="210"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="211"/>
-      <c r="N84" s="191" t="s">
+      <c r="A84" s="176"/>
+      <c r="B84" s="211"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="212"/>
+      <c r="G84" s="212"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="212"/>
+      <c r="M84" s="213"/>
+      <c r="N84" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="192"/>
-      <c r="P84" s="193"/>
+      <c r="O84" s="194"/>
+      <c r="P84" s="195"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>245000</v>
@@ -15199,35 +15189,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="174"/>
+      <c r="A85" s="176"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="175"/>
-      <c r="B86" s="194" t="s">
+      <c r="A86" s="177"/>
+      <c r="B86" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="195"/>
-      <c r="D86" s="195"/>
-      <c r="E86" s="195"/>
-      <c r="F86" s="195"/>
-      <c r="G86" s="195"/>
-      <c r="H86" s="195"/>
-      <c r="I86" s="195"/>
-      <c r="J86" s="195"/>
-      <c r="K86" s="195"/>
-      <c r="L86" s="196"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="198"/>
       <c r="M86" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="197">
+      <c r="N86" s="199">
         <f>N74-SUM(Q77:Q83)</f>
         <v>1570553.5999999999</v>
       </c>
-      <c r="O86" s="198"/>
-      <c r="P86" s="198"/>
-      <c r="Q86" s="198"/>
-      <c r="R86" s="198"/>
-      <c r="S86" s="199"/>
+      <c r="O86" s="200"/>
+      <c r="P86" s="200"/>
+      <c r="Q86" s="200"/>
+      <c r="R86" s="200"/>
+      <c r="S86" s="201"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -15327,11 +15317,11 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:S4"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15356,28 +15346,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="242" t="s">
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="244"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="246"/>
     </row>
     <row r="3" spans="1:21" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="101"/>
@@ -15439,22 +15429,22 @@
       <c r="M4" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="278" t="s">
+      <c r="N4" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="278" t="s">
+      <c r="O4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="278" t="s">
+      <c r="P4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="278" t="s">
+      <c r="Q4" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="279" t="s">
+      <c r="R4" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="279" t="s">
+      <c r="S4" s="165" t="s">
         <v>23</v>
       </c>
       <c r="T4" s="105" t="s">
@@ -15465,180 +15455,180 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="247" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="108" t="s">
+      <c r="B5" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="142" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="108" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="108" t="s">
+      <c r="G5" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="142" t="s">
         <v>148</v>
       </c>
       <c r="I5" s="109">
-        <v>56974397201</v>
-      </c>
-      <c r="J5" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="K5" s="108" t="s">
-        <v>155</v>
+        <v>56987143347</v>
+      </c>
+      <c r="J5" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="142" t="s">
+        <v>150</v>
       </c>
       <c r="L5" s="110" t="s">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="M5" s="110" t="s">
         <v>140</v>
       </c>
       <c r="N5" s="110">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O5" s="110">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P5" s="110">
         <v>0</v>
       </c>
       <c r="Q5" s="110">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R5" s="110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S5" s="110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5" s="110">
         <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="246"/>
+      <c r="A6" s="248"/>
       <c r="B6" s="116" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="117">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>170</v>
       </c>
       <c r="H6" s="117" t="s">
         <v>148</v>
       </c>
       <c r="I6" s="109">
-        <v>56957850035</v>
+        <v>56974397201</v>
       </c>
       <c r="J6" s="117" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="K6" s="117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L6" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="114" t="s">
-        <v>140</v>
+      <c r="M6" s="163" t="s">
+        <v>46</v>
       </c>
       <c r="N6" s="114">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O6" s="114">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P6" s="114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R6" s="114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S6" s="114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" s="114">
         <f>SUM(Tabla5234[[#This Row],[Naranjas]:[Nueces]])</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="U6" s="115"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="246"/>
-      <c r="B7" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="113" t="s">
+      <c r="A7" s="248"/>
+      <c r="B7" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="117">
+        <v>0</v>
+      </c>
+      <c r="H7" s="117" t="s">
         <v>148</v>
       </c>
       <c r="I7" s="109">
-        <v>56987143347</v>
-      </c>
-      <c r="J7" s="113" t="s">
-        <v>215</v>
-      </c>
-      <c r="K7" s="113" t="s">
-        <v>150</v>
+        <v>56957850035</v>
+      </c>
+      <c r="J7" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="117" t="s">
+        <v>161</v>
       </c>
       <c r="L7" s="114" t="s">
-        <v>304</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>140</v>
+        <v>46</v>
+      </c>
+      <c r="M7" s="163" t="s">
+        <v>46</v>
       </c>
       <c r="N7" s="114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="114">
         <v>1</v>
       </c>
       <c r="P7" s="114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="114">
         <v>0</v>
@@ -15653,7 +15643,7 @@
       <c r="U7" s="115"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
+      <c r="A8" s="248"/>
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
@@ -15715,7 +15705,7 @@
       <c r="U8" s="115"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="246"/>
+      <c r="A9" s="248"/>
       <c r="B9" s="112" t="s">
         <v>73</v>
       </c>
@@ -15777,7 +15767,7 @@
       <c r="U9" s="115"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="246"/>
+      <c r="A10" s="248"/>
       <c r="B10" s="116" t="s">
         <v>117</v>
       </c>
@@ -15839,7 +15829,7 @@
       <c r="U10" s="115"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="246"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="112" t="s">
         <v>84</v>
       </c>
@@ -15901,7 +15891,7 @@
       <c r="U11" s="115"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="246"/>
+      <c r="A12" s="248"/>
       <c r="B12" s="112" t="s">
         <v>55</v>
       </c>
@@ -15965,7 +15955,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
+      <c r="A13" s="248"/>
       <c r="B13" s="112" t="s">
         <v>55</v>
       </c>
@@ -16027,7 +16017,7 @@
       <c r="U13" s="115"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="246"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="112" t="s">
         <v>289</v>
       </c>
@@ -16089,7 +16079,7 @@
       <c r="U14" s="115"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="116" t="s">
         <v>123</v>
       </c>
@@ -16151,7 +16141,7 @@
       <c r="U15" s="115"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="112" t="s">
         <v>41</v>
       </c>
@@ -16213,7 +16203,7 @@
       <c r="U16" s="115"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
+      <c r="A17" s="248"/>
       <c r="B17" s="112" t="s">
         <v>100</v>
       </c>
@@ -16275,7 +16265,7 @@
       <c r="U17" s="115"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="246"/>
+      <c r="A18" s="248"/>
       <c r="B18" s="112" t="s">
         <v>68</v>
       </c>
@@ -16337,7 +16327,7 @@
       <c r="U18" s="115"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="246"/>
+      <c r="A19" s="248"/>
       <c r="B19" s="112" t="s">
         <v>82</v>
       </c>
@@ -16399,7 +16389,7 @@
       <c r="U19" s="115"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
+      <c r="A20" s="248"/>
       <c r="B20" s="112" t="s">
         <v>96</v>
       </c>
@@ -16461,7 +16451,7 @@
       <c r="U20" s="115"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="246"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="112" t="s">
         <v>61</v>
       </c>
@@ -16523,7 +16513,7 @@
       <c r="U21" s="115"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="246"/>
+      <c r="A22" s="248"/>
       <c r="B22" s="112" t="s">
         <v>98</v>
       </c>
@@ -16585,7 +16575,7 @@
       <c r="U22" s="115"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="246"/>
+      <c r="A23" s="248"/>
       <c r="B23" s="116" t="s">
         <v>132</v>
       </c>
@@ -16647,7 +16637,7 @@
       <c r="U23" s="115"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="246"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="116" t="s">
         <v>125</v>
       </c>
@@ -16709,7 +16699,7 @@
       <c r="U24" s="115"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="246"/>
+      <c r="A25" s="248"/>
       <c r="B25" s="112" t="s">
         <v>102</v>
       </c>
@@ -16771,7 +16761,7 @@
       <c r="U25" s="115"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="246"/>
+      <c r="A26" s="248"/>
       <c r="B26" s="112" t="s">
         <v>79</v>
       </c>
@@ -16833,7 +16823,7 @@
       <c r="U26" s="115"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
+      <c r="A27" s="248"/>
       <c r="B27" s="112" t="s">
         <v>92</v>
       </c>
@@ -16895,7 +16885,7 @@
       <c r="U27" s="115"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
+      <c r="A28" s="248"/>
       <c r="B28" s="112" t="s">
         <v>90</v>
       </c>
@@ -16957,7 +16947,7 @@
       <c r="U28" s="115"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="246"/>
+      <c r="A29" s="248"/>
       <c r="B29" s="112" t="s">
         <v>57</v>
       </c>
@@ -17019,7 +17009,7 @@
       <c r="U29" s="115"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="246"/>
+      <c r="A30" s="248"/>
       <c r="B30" s="116" t="s">
         <v>119</v>
       </c>
@@ -17081,7 +17071,7 @@
       <c r="U30" s="115"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="246"/>
+      <c r="A31" s="248"/>
       <c r="B31" s="112" t="s">
         <v>51</v>
       </c>
@@ -17143,7 +17133,7 @@
       <c r="U31" s="115"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="246"/>
+      <c r="A32" s="248"/>
       <c r="B32" s="116" t="s">
         <v>134</v>
       </c>
@@ -17205,7 +17195,7 @@
       <c r="U32" s="115"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
+      <c r="A33" s="248"/>
       <c r="B33" s="112" t="s">
         <v>109</v>
       </c>
@@ -17267,7 +17257,7 @@
       <c r="U33" s="115"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
+      <c r="A34" s="248"/>
       <c r="B34" s="112" t="s">
         <v>77</v>
       </c>
@@ -17329,7 +17319,7 @@
       <c r="U34" s="115"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
+      <c r="A35" s="248"/>
       <c r="B35" s="112" t="s">
         <v>84</v>
       </c>
@@ -17391,7 +17381,7 @@
       <c r="U35" s="115"/>
     </row>
     <row r="36" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="247"/>
+      <c r="A36" s="249"/>
       <c r="B36" s="118" t="s">
         <v>81</v>
       </c>
@@ -17476,22 +17466,22 @@
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="248" t="s">
+      <c r="A39" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="251" t="s">
+      <c r="B39" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="252"/>
-      <c r="D39" s="252"/>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
-      <c r="H39" s="252"/>
-      <c r="I39" s="252"/>
-      <c r="J39" s="252"/>
-      <c r="K39" s="252"/>
-      <c r="L39" s="253"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="254"/>
+      <c r="I39" s="254"/>
+      <c r="J39" s="254"/>
+      <c r="K39" s="254"/>
+      <c r="L39" s="255"/>
       <c r="M39" s="127" t="s">
         <v>9</v>
       </c>
@@ -17521,18 +17511,18 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="249"/>
-      <c r="B40" s="254"/>
-      <c r="C40" s="255"/>
-      <c r="D40" s="255"/>
-      <c r="E40" s="255"/>
-      <c r="F40" s="255"/>
-      <c r="G40" s="255"/>
-      <c r="H40" s="255"/>
-      <c r="I40" s="255"/>
-      <c r="J40" s="255"/>
-      <c r="K40" s="255"/>
-      <c r="L40" s="256"/>
+      <c r="A40" s="251"/>
+      <c r="B40" s="256"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="257"/>
+      <c r="E40" s="257"/>
+      <c r="F40" s="257"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="257"/>
+      <c r="K40" s="257"/>
+      <c r="L40" s="258"/>
       <c r="M40" s="127" t="s">
         <v>30</v>
       </c>
@@ -17556,18 +17546,18 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="249"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="255"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255"/>
-      <c r="F41" s="255"/>
-      <c r="G41" s="255"/>
-      <c r="H41" s="255"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
-      <c r="L41" s="256"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="258"/>
       <c r="M41" s="127" t="s">
         <v>8</v>
       </c>
@@ -17597,18 +17587,18 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="249"/>
-      <c r="B42" s="257"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="258"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="259"/>
+      <c r="A42" s="251"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="261"/>
       <c r="M42" s="127" t="s">
         <v>10</v>
       </c>
@@ -17620,7 +17610,7 @@
       <c r="S42" s="135"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="249"/>
+      <c r="A43" s="251"/>
       <c r="B43" s="136"/>
       <c r="C43" s="123"/>
       <c r="D43" s="137"/>
@@ -17634,20 +17624,20 @@
       <c r="M43" s="140"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="249"/>
-      <c r="B44" s="251" t="s">
+      <c r="A44" s="251"/>
+      <c r="B44" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
-      <c r="E44" s="252"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="252"/>
-      <c r="H44" s="252"/>
-      <c r="I44" s="252"/>
-      <c r="J44" s="252"/>
-      <c r="K44" s="252"/>
-      <c r="L44" s="253"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="254"/>
+      <c r="J44" s="254"/>
+      <c r="K44" s="254"/>
+      <c r="L44" s="255"/>
       <c r="M44" s="127" t="s">
         <v>14</v>
       </c>
@@ -17677,18 +17667,18 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="249"/>
-      <c r="B45" s="254"/>
-      <c r="C45" s="255"/>
-      <c r="D45" s="255"/>
-      <c r="E45" s="255"/>
-      <c r="F45" s="255"/>
-      <c r="G45" s="255"/>
-      <c r="H45" s="255"/>
-      <c r="I45" s="255"/>
-      <c r="J45" s="255"/>
-      <c r="K45" s="255"/>
-      <c r="L45" s="256"/>
+      <c r="A45" s="251"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="257"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="257"/>
+      <c r="J45" s="257"/>
+      <c r="K45" s="257"/>
+      <c r="L45" s="258"/>
       <c r="M45" s="127" t="s">
         <v>8</v>
       </c>
@@ -17712,18 +17702,18 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="249"/>
-      <c r="B46" s="257"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
-      <c r="I46" s="258"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="258"/>
-      <c r="L46" s="259"/>
+      <c r="A46" s="251"/>
+      <c r="B46" s="259"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="261"/>
       <c r="M46" s="127" t="s">
         <v>15</v>
       </c>
@@ -17747,7 +17737,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="249"/>
+      <c r="A47" s="251"/>
       <c r="B47" s="136"/>
       <c r="C47" s="123"/>
       <c r="D47" s="137"/>
@@ -17761,20 +17751,20 @@
       <c r="M47" s="140"/>
     </row>
     <row r="48" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="249"/>
-      <c r="B48" s="251" t="s">
+      <c r="A48" s="251"/>
+      <c r="B48" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="252"/>
-      <c r="D48" s="252"/>
-      <c r="E48" s="252"/>
-      <c r="F48" s="252"/>
-      <c r="G48" s="252"/>
-      <c r="H48" s="252"/>
-      <c r="I48" s="252"/>
-      <c r="J48" s="252"/>
-      <c r="K48" s="252"/>
-      <c r="L48" s="253"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="255"/>
       <c r="M48" s="127" t="s">
         <v>20</v>
       </c>
@@ -17804,46 +17794,46 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="249"/>
-      <c r="B49" s="257"/>
-      <c r="C49" s="258"/>
-      <c r="D49" s="258"/>
-      <c r="E49" s="258"/>
-      <c r="F49" s="258"/>
-      <c r="G49" s="258"/>
-      <c r="H49" s="258"/>
-      <c r="I49" s="258"/>
-      <c r="J49" s="258"/>
-      <c r="K49" s="258"/>
-      <c r="L49" s="259"/>
+      <c r="A49" s="251"/>
+      <c r="B49" s="259"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="261"/>
       <c r="M49" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="260">
+      <c r="N49" s="262">
         <f>SUM(N48:S48)</f>
         <v>2649971.7000000002</v>
       </c>
-      <c r="O49" s="261"/>
-      <c r="P49" s="261"/>
-      <c r="Q49" s="261"/>
-      <c r="R49" s="261"/>
-      <c r="S49" s="262"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="264"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="249"/>
-      <c r="B50" s="251" t="s">
+      <c r="A50" s="251"/>
+      <c r="B50" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="252"/>
-      <c r="D50" s="252"/>
-      <c r="E50" s="252"/>
-      <c r="F50" s="252"/>
-      <c r="G50" s="252"/>
-      <c r="H50" s="252"/>
-      <c r="I50" s="252"/>
-      <c r="J50" s="252"/>
-      <c r="K50" s="252"/>
-      <c r="L50" s="253"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="254"/>
+      <c r="J50" s="254"/>
+      <c r="K50" s="254"/>
+      <c r="L50" s="255"/>
       <c r="M50" s="127" t="s">
         <v>20</v>
       </c>
@@ -17873,46 +17863,46 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="249"/>
-      <c r="B51" s="257"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="258"/>
-      <c r="E51" s="258"/>
-      <c r="F51" s="258"/>
-      <c r="G51" s="258"/>
-      <c r="H51" s="258"/>
-      <c r="I51" s="258"/>
-      <c r="J51" s="258"/>
-      <c r="K51" s="258"/>
-      <c r="L51" s="259"/>
+      <c r="A51" s="251"/>
+      <c r="B51" s="259"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="260"/>
+      <c r="I51" s="260"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="261"/>
       <c r="M51" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="260">
+      <c r="N51" s="262">
         <f>SUM(N50:S50)</f>
         <v>4362000</v>
       </c>
-      <c r="O51" s="261"/>
-      <c r="P51" s="261"/>
-      <c r="Q51" s="261"/>
-      <c r="R51" s="261"/>
-      <c r="S51" s="262"/>
+      <c r="O51" s="263"/>
+      <c r="P51" s="263"/>
+      <c r="Q51" s="263"/>
+      <c r="R51" s="263"/>
+      <c r="S51" s="264"/>
     </row>
     <row r="52" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="249"/>
-      <c r="B52" s="251" t="s">
+      <c r="A52" s="251"/>
+      <c r="B52" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="252"/>
-      <c r="D52" s="252"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="252"/>
-      <c r="H52" s="252"/>
-      <c r="I52" s="252"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="252"/>
-      <c r="L52" s="253"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="254"/>
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="255"/>
       <c r="M52" s="127" t="s">
         <v>20</v>
       </c>
@@ -17942,55 +17932,55 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="249"/>
-      <c r="B53" s="257"/>
-      <c r="C53" s="258"/>
-      <c r="D53" s="258"/>
-      <c r="E53" s="258"/>
-      <c r="F53" s="258"/>
-      <c r="G53" s="258"/>
-      <c r="H53" s="258"/>
-      <c r="I53" s="258"/>
-      <c r="J53" s="258"/>
-      <c r="K53" s="258"/>
-      <c r="L53" s="259"/>
+      <c r="A53" s="251"/>
+      <c r="B53" s="259"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="260"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="260"/>
+      <c r="I53" s="260"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="261"/>
       <c r="M53" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="263">
+      <c r="N53" s="265">
         <f>SUM(N52:S52)</f>
         <v>1712028.2999999998</v>
       </c>
-      <c r="O53" s="264"/>
-      <c r="P53" s="264"/>
-      <c r="Q53" s="264"/>
-      <c r="R53" s="264"/>
-      <c r="S53" s="265"/>
+      <c r="O53" s="266"/>
+      <c r="P53" s="266"/>
+      <c r="Q53" s="266"/>
+      <c r="R53" s="266"/>
+      <c r="S53" s="267"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="249"/>
+      <c r="A54" s="251"/>
     </row>
     <row r="55" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="249"/>
-      <c r="B55" s="266" t="s">
+      <c r="A55" s="251"/>
+      <c r="B55" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="267"/>
-      <c r="D55" s="267"/>
-      <c r="E55" s="267"/>
-      <c r="F55" s="267"/>
-      <c r="G55" s="267"/>
-      <c r="H55" s="267"/>
-      <c r="I55" s="267"/>
-      <c r="J55" s="267"/>
-      <c r="K55" s="267"/>
-      <c r="L55" s="267"/>
-      <c r="M55" s="268"/>
-      <c r="N55" s="224" t="s">
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="270"/>
+      <c r="N55" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="225"/>
-      <c r="P55" s="226"/>
+      <c r="O55" s="227"/>
+      <c r="P55" s="228"/>
       <c r="Q55" s="152" t="s">
         <v>29</v>
       </c>
@@ -17998,24 +17988,24 @@
       <c r="S55" s="153"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="269"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="270"/>
-      <c r="E56" s="270"/>
-      <c r="F56" s="270"/>
-      <c r="G56" s="270"/>
-      <c r="H56" s="270"/>
-      <c r="I56" s="270"/>
-      <c r="J56" s="270"/>
-      <c r="K56" s="270"/>
-      <c r="L56" s="270"/>
-      <c r="M56" s="271"/>
-      <c r="N56" s="275" t="s">
+      <c r="A56" s="251"/>
+      <c r="B56" s="271"/>
+      <c r="C56" s="272"/>
+      <c r="D56" s="272"/>
+      <c r="E56" s="272"/>
+      <c r="F56" s="272"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="272"/>
+      <c r="I56" s="272"/>
+      <c r="J56" s="272"/>
+      <c r="K56" s="272"/>
+      <c r="L56" s="272"/>
+      <c r="M56" s="273"/>
+      <c r="N56" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="O56" s="276"/>
-      <c r="P56" s="277"/>
+      <c r="O56" s="278"/>
+      <c r="P56" s="279"/>
       <c r="Q56" s="154">
         <v>40000</v>
       </c>
@@ -18023,24 +18013,24 @@
       <c r="S56" s="155"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="249"/>
-      <c r="B57" s="269"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="270"/>
-      <c r="H57" s="270"/>
-      <c r="I57" s="270"/>
-      <c r="J57" s="270"/>
-      <c r="K57" s="270"/>
-      <c r="L57" s="270"/>
-      <c r="M57" s="271"/>
-      <c r="N57" s="233" t="s">
+      <c r="A57" s="251"/>
+      <c r="B57" s="271"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
+      <c r="F57" s="272"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="272"/>
+      <c r="I57" s="272"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="272"/>
+      <c r="M57" s="273"/>
+      <c r="N57" s="235" t="s">
         <v>287</v>
       </c>
-      <c r="O57" s="234"/>
-      <c r="P57" s="235"/>
+      <c r="O57" s="236"/>
+      <c r="P57" s="237"/>
       <c r="Q57" s="156">
         <v>40000</v>
       </c>
@@ -18048,24 +18038,24 @@
       <c r="S57" s="155"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="249"/>
-      <c r="B58" s="269"/>
-      <c r="C58" s="270"/>
-      <c r="D58" s="270"/>
-      <c r="E58" s="270"/>
-      <c r="F58" s="270"/>
-      <c r="G58" s="270"/>
-      <c r="H58" s="270"/>
-      <c r="I58" s="270"/>
-      <c r="J58" s="270"/>
-      <c r="K58" s="270"/>
-      <c r="L58" s="270"/>
-      <c r="M58" s="271"/>
-      <c r="N58" s="233" t="s">
+      <c r="A58" s="251"/>
+      <c r="B58" s="271"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="272"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="272"/>
+      <c r="I58" s="272"/>
+      <c r="J58" s="272"/>
+      <c r="K58" s="272"/>
+      <c r="L58" s="272"/>
+      <c r="M58" s="273"/>
+      <c r="N58" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="O58" s="234"/>
-      <c r="P58" s="235"/>
+      <c r="O58" s="236"/>
+      <c r="P58" s="237"/>
       <c r="Q58" s="156">
         <v>20000</v>
       </c>
@@ -18073,24 +18063,24 @@
       <c r="S58" s="155"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="249"/>
-      <c r="B59" s="269"/>
-      <c r="C59" s="270"/>
-      <c r="D59" s="270"/>
-      <c r="E59" s="270"/>
-      <c r="F59" s="270"/>
-      <c r="G59" s="270"/>
-      <c r="H59" s="270"/>
-      <c r="I59" s="270"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="270"/>
-      <c r="L59" s="270"/>
-      <c r="M59" s="271"/>
-      <c r="N59" s="233" t="s">
+      <c r="A59" s="251"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="272"/>
+      <c r="D59" s="272"/>
+      <c r="E59" s="272"/>
+      <c r="F59" s="272"/>
+      <c r="G59" s="272"/>
+      <c r="H59" s="272"/>
+      <c r="I59" s="272"/>
+      <c r="J59" s="272"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="272"/>
+      <c r="M59" s="273"/>
+      <c r="N59" s="235" t="s">
         <v>293</v>
       </c>
-      <c r="O59" s="234"/>
-      <c r="P59" s="235"/>
+      <c r="O59" s="236"/>
+      <c r="P59" s="237"/>
       <c r="Q59" s="156">
         <v>18000</v>
       </c>
@@ -18098,24 +18088,24 @@
       <c r="S59" s="155"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="249"/>
-      <c r="B60" s="269"/>
-      <c r="C60" s="270"/>
-      <c r="D60" s="270"/>
-      <c r="E60" s="270"/>
-      <c r="F60" s="270"/>
-      <c r="G60" s="270"/>
-      <c r="H60" s="270"/>
-      <c r="I60" s="270"/>
-      <c r="J60" s="270"/>
-      <c r="K60" s="270"/>
-      <c r="L60" s="270"/>
-      <c r="M60" s="271"/>
-      <c r="N60" s="233" t="s">
+      <c r="A60" s="251"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="272"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="272"/>
+      <c r="F60" s="272"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="272"/>
+      <c r="I60" s="272"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="272"/>
+      <c r="L60" s="272"/>
+      <c r="M60" s="273"/>
+      <c r="N60" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="O60" s="234"/>
-      <c r="P60" s="235"/>
+      <c r="O60" s="236"/>
+      <c r="P60" s="237"/>
       <c r="Q60" s="156">
         <v>60000</v>
       </c>
@@ -18123,24 +18113,24 @@
       <c r="S60" s="155"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="249"/>
-      <c r="B61" s="269"/>
-      <c r="C61" s="270"/>
-      <c r="D61" s="270"/>
-      <c r="E61" s="270"/>
-      <c r="F61" s="270"/>
-      <c r="G61" s="270"/>
-      <c r="H61" s="270"/>
-      <c r="I61" s="270"/>
-      <c r="J61" s="270"/>
-      <c r="K61" s="270"/>
-      <c r="L61" s="270"/>
-      <c r="M61" s="271"/>
-      <c r="N61" s="230" t="s">
+      <c r="A61" s="251"/>
+      <c r="B61" s="271"/>
+      <c r="C61" s="272"/>
+      <c r="D61" s="272"/>
+      <c r="E61" s="272"/>
+      <c r="F61" s="272"/>
+      <c r="G61" s="272"/>
+      <c r="H61" s="272"/>
+      <c r="I61" s="272"/>
+      <c r="J61" s="272"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="272"/>
+      <c r="M61" s="273"/>
+      <c r="N61" s="232" t="s">
         <v>150</v>
       </c>
-      <c r="O61" s="231"/>
-      <c r="P61" s="232"/>
+      <c r="O61" s="233"/>
+      <c r="P61" s="234"/>
       <c r="Q61" s="156">
         <v>30000</v>
       </c>
@@ -18148,24 +18138,24 @@
       <c r="S61" s="155"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="249"/>
-      <c r="B62" s="269"/>
-      <c r="C62" s="270"/>
-      <c r="D62" s="270"/>
-      <c r="E62" s="270"/>
-      <c r="F62" s="270"/>
-      <c r="G62" s="270"/>
-      <c r="H62" s="270"/>
-      <c r="I62" s="270"/>
-      <c r="J62" s="270"/>
-      <c r="K62" s="270"/>
-      <c r="L62" s="270"/>
-      <c r="M62" s="271"/>
-      <c r="N62" s="230" t="s">
+      <c r="A62" s="251"/>
+      <c r="B62" s="271"/>
+      <c r="C62" s="272"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="272"/>
+      <c r="F62" s="272"/>
+      <c r="G62" s="272"/>
+      <c r="H62" s="272"/>
+      <c r="I62" s="272"/>
+      <c r="J62" s="272"/>
+      <c r="K62" s="272"/>
+      <c r="L62" s="272"/>
+      <c r="M62" s="273"/>
+      <c r="N62" s="232" t="s">
         <v>161</v>
       </c>
-      <c r="O62" s="231"/>
-      <c r="P62" s="232"/>
+      <c r="O62" s="233"/>
+      <c r="P62" s="234"/>
       <c r="Q62" s="156">
         <v>30000</v>
       </c>
@@ -18173,24 +18163,24 @@
       <c r="S62" s="155"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="249"/>
-      <c r="B63" s="269"/>
-      <c r="C63" s="270"/>
-      <c r="D63" s="270"/>
-      <c r="E63" s="270"/>
-      <c r="F63" s="270"/>
-      <c r="G63" s="270"/>
-      <c r="H63" s="270"/>
-      <c r="I63" s="270"/>
-      <c r="J63" s="270"/>
-      <c r="K63" s="270"/>
-      <c r="L63" s="270"/>
-      <c r="M63" s="271"/>
-      <c r="N63" s="230" t="s">
+      <c r="A63" s="251"/>
+      <c r="B63" s="271"/>
+      <c r="C63" s="272"/>
+      <c r="D63" s="272"/>
+      <c r="E63" s="272"/>
+      <c r="F63" s="272"/>
+      <c r="G63" s="272"/>
+      <c r="H63" s="272"/>
+      <c r="I63" s="272"/>
+      <c r="J63" s="272"/>
+      <c r="K63" s="272"/>
+      <c r="L63" s="272"/>
+      <c r="M63" s="273"/>
+      <c r="N63" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="O63" s="231"/>
-      <c r="P63" s="232"/>
+      <c r="O63" s="233"/>
+      <c r="P63" s="234"/>
       <c r="Q63" s="156">
         <v>30000</v>
       </c>
@@ -18198,24 +18188,24 @@
       <c r="S63" s="155"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="249"/>
-      <c r="B64" s="269"/>
-      <c r="C64" s="270"/>
-      <c r="D64" s="270"/>
-      <c r="E64" s="270"/>
-      <c r="F64" s="270"/>
-      <c r="G64" s="270"/>
-      <c r="H64" s="270"/>
-      <c r="I64" s="270"/>
-      <c r="J64" s="270"/>
-      <c r="K64" s="270"/>
-      <c r="L64" s="270"/>
-      <c r="M64" s="271"/>
-      <c r="N64" s="230" t="s">
+      <c r="A64" s="251"/>
+      <c r="B64" s="271"/>
+      <c r="C64" s="272"/>
+      <c r="D64" s="272"/>
+      <c r="E64" s="272"/>
+      <c r="F64" s="272"/>
+      <c r="G64" s="272"/>
+      <c r="H64" s="272"/>
+      <c r="I64" s="272"/>
+      <c r="J64" s="272"/>
+      <c r="K64" s="272"/>
+      <c r="L64" s="272"/>
+      <c r="M64" s="273"/>
+      <c r="N64" s="232" t="s">
         <v>295</v>
       </c>
-      <c r="O64" s="231"/>
-      <c r="P64" s="232"/>
+      <c r="O64" s="233"/>
+      <c r="P64" s="234"/>
       <c r="Q64" s="156">
         <v>25000</v>
       </c>
@@ -18223,24 +18213,24 @@
       <c r="S64" s="155"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="249"/>
-      <c r="B65" s="269"/>
-      <c r="C65" s="270"/>
-      <c r="D65" s="270"/>
-      <c r="E65" s="270"/>
-      <c r="F65" s="270"/>
-      <c r="G65" s="270"/>
-      <c r="H65" s="270"/>
-      <c r="I65" s="270"/>
-      <c r="J65" s="270"/>
-      <c r="K65" s="270"/>
-      <c r="L65" s="270"/>
-      <c r="M65" s="271"/>
-      <c r="N65" s="230" t="s">
+      <c r="A65" s="251"/>
+      <c r="B65" s="271"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="272"/>
+      <c r="F65" s="272"/>
+      <c r="G65" s="272"/>
+      <c r="H65" s="272"/>
+      <c r="I65" s="272"/>
+      <c r="J65" s="272"/>
+      <c r="K65" s="272"/>
+      <c r="L65" s="272"/>
+      <c r="M65" s="273"/>
+      <c r="N65" s="232" t="s">
         <v>296</v>
       </c>
-      <c r="O65" s="231"/>
-      <c r="P65" s="232"/>
+      <c r="O65" s="233"/>
+      <c r="P65" s="234"/>
       <c r="Q65" s="156">
         <v>20000</v>
       </c>
@@ -18248,24 +18238,24 @@
       <c r="S65" s="155"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="249"/>
-      <c r="B66" s="269"/>
-      <c r="C66" s="270"/>
-      <c r="D66" s="270"/>
-      <c r="E66" s="270"/>
-      <c r="F66" s="270"/>
-      <c r="G66" s="270"/>
-      <c r="H66" s="270"/>
-      <c r="I66" s="270"/>
-      <c r="J66" s="270"/>
-      <c r="K66" s="270"/>
-      <c r="L66" s="270"/>
-      <c r="M66" s="271"/>
-      <c r="N66" s="233" t="s">
+      <c r="A66" s="251"/>
+      <c r="B66" s="271"/>
+      <c r="C66" s="272"/>
+      <c r="D66" s="272"/>
+      <c r="E66" s="272"/>
+      <c r="F66" s="272"/>
+      <c r="G66" s="272"/>
+      <c r="H66" s="272"/>
+      <c r="I66" s="272"/>
+      <c r="J66" s="272"/>
+      <c r="K66" s="272"/>
+      <c r="L66" s="272"/>
+      <c r="M66" s="273"/>
+      <c r="N66" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="234"/>
-      <c r="P66" s="235"/>
+      <c r="O66" s="236"/>
+      <c r="P66" s="237"/>
       <c r="Q66" s="156">
         <v>35000</v>
       </c>
@@ -18273,45 +18263,45 @@
       <c r="S66" s="155"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="249"/>
-      <c r="B67" s="269"/>
-      <c r="C67" s="270"/>
-      <c r="D67" s="270"/>
-      <c r="E67" s="270"/>
-      <c r="F67" s="270"/>
-      <c r="G67" s="270"/>
-      <c r="H67" s="270"/>
-      <c r="I67" s="270"/>
-      <c r="J67" s="270"/>
-      <c r="K67" s="270"/>
-      <c r="L67" s="270"/>
-      <c r="M67" s="271"/>
-      <c r="N67" s="236"/>
-      <c r="O67" s="237"/>
-      <c r="P67" s="238"/>
+      <c r="A67" s="251"/>
+      <c r="B67" s="271"/>
+      <c r="C67" s="272"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="272"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="272"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="272"/>
+      <c r="J67" s="272"/>
+      <c r="K67" s="272"/>
+      <c r="L67" s="272"/>
+      <c r="M67" s="273"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="239"/>
+      <c r="P67" s="240"/>
       <c r="Q67" s="156"/>
       <c r="R67" s="155"/>
       <c r="S67" s="155"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="249"/>
-      <c r="B68" s="272"/>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="273"/>
-      <c r="H68" s="273"/>
-      <c r="I68" s="273"/>
-      <c r="J68" s="273"/>
-      <c r="K68" s="273"/>
-      <c r="L68" s="273"/>
-      <c r="M68" s="274"/>
-      <c r="N68" s="221" t="s">
+      <c r="A68" s="251"/>
+      <c r="B68" s="274"/>
+      <c r="C68" s="275"/>
+      <c r="D68" s="275"/>
+      <c r="E68" s="275"/>
+      <c r="F68" s="275"/>
+      <c r="G68" s="275"/>
+      <c r="H68" s="275"/>
+      <c r="I68" s="275"/>
+      <c r="J68" s="275"/>
+      <c r="K68" s="275"/>
+      <c r="L68" s="275"/>
+      <c r="M68" s="276"/>
+      <c r="N68" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="222"/>
-      <c r="P68" s="223"/>
+      <c r="O68" s="224"/>
+      <c r="P68" s="225"/>
       <c r="Q68" s="157">
         <f>SUM(Q56:Q67)</f>
         <v>348000</v>
@@ -18320,35 +18310,35 @@
       <c r="S68" s="155"/>
     </row>
     <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="249"/>
+      <c r="A69" s="251"/>
     </row>
     <row r="70" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="250"/>
-      <c r="B70" s="224" t="s">
+      <c r="A70" s="252"/>
+      <c r="B70" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="225"/>
-      <c r="D70" s="225"/>
-      <c r="E70" s="225"/>
-      <c r="F70" s="225"/>
-      <c r="G70" s="225"/>
-      <c r="H70" s="225"/>
-      <c r="I70" s="225"/>
-      <c r="J70" s="225"/>
-      <c r="K70" s="225"/>
-      <c r="L70" s="226"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
+      <c r="F70" s="227"/>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="227"/>
+      <c r="K70" s="227"/>
+      <c r="L70" s="228"/>
       <c r="M70" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="227">
+      <c r="N70" s="229">
         <f>N53-SUM(Q56:Q67)</f>
         <v>1364028.2999999998</v>
       </c>
-      <c r="O70" s="228"/>
-      <c r="P70" s="228"/>
-      <c r="Q70" s="228"/>
-      <c r="R70" s="228"/>
-      <c r="S70" s="229"/>
+      <c r="O70" s="230"/>
+      <c r="P70" s="230"/>
+      <c r="Q70" s="230"/>
+      <c r="R70" s="230"/>
+      <c r="S70" s="231"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="159"/>

--- a/bot/datos/2017 - 08 (Agosto).xlsx
+++ b/bot/datos/2017 - 08 (Agosto).xlsx
@@ -2071,6 +2071,60 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2161,15 +2215,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,51 +2233,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2242,6 +2242,150 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,15 +2395,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,141 +2411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7431,28 +7431,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="174"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="192"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -7540,7 +7540,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="184" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="41" t="str">
@@ -7598,7 +7598,7 @@
       <c r="U5" s="91"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="43" t="str">
         <f>[1]Personas!A3</f>
         <v>Maida</v>
@@ -7654,7 +7654,7 @@
       <c r="U6" s="92"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="43" t="str">
         <f>[1]Personas!A4</f>
         <v>Gabriel</v>
@@ -7710,7 +7710,7 @@
       <c r="U7" s="92"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="167"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="43" t="str">
         <f>[1]Personas!A5</f>
         <v>Martin</v>
@@ -7766,7 +7766,7 @@
       <c r="U8" s="92"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="43" t="str">
         <f>[1]Personas!A6</f>
         <v>Javi</v>
@@ -7822,7 +7822,7 @@
       <c r="U9" s="92"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="43" t="str">
         <f>[1]Personas!A7</f>
         <v>Samuel</v>
@@ -7878,7 +7878,7 @@
       <c r="U10" s="92"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="43" t="str">
         <f>[1]Personas!A8</f>
         <v>Paul</v>
@@ -7934,7 +7934,7 @@
       <c r="U11" s="92"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="43" t="str">
         <f>[1]Personas!A9</f>
         <v>Alvaro</v>
@@ -7990,7 +7990,7 @@
       <c r="U12" s="92"/>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="43" t="str">
         <f>[1]Personas!A10</f>
         <v>Ignacio</v>
@@ -8046,7 +8046,7 @@
       <c r="U13" s="92"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="167"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="43" t="str">
         <f>[1]Personas!A11</f>
         <v>Majo</v>
@@ -8102,7 +8102,7 @@
       <c r="U14" s="92"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="43" t="str">
         <f>[1]Personas!A12</f>
         <v>Vicky</v>
@@ -8158,7 +8158,7 @@
       <c r="U15" s="92"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="167"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="43" t="str">
         <f>[1]Personas!A13</f>
         <v>Antonia</v>
@@ -8214,7 +8214,7 @@
       <c r="U16" s="92"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="43" t="str">
         <f>[1]Personas!A14</f>
         <v>Josefa</v>
@@ -8270,7 +8270,7 @@
       <c r="U17" s="92"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="167"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="43" t="str">
         <f>[1]Personas!A15</f>
         <v>Florencia</v>
@@ -8326,7 +8326,7 @@
       <c r="U18" s="92"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="167"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="43" t="str">
         <f>[1]Personas!A16</f>
         <v>Joaquin</v>
@@ -8382,7 +8382,7 @@
       <c r="U19" s="92"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="43" t="str">
         <f>[1]Personas!A17</f>
         <v>Dominique</v>
@@ -8438,7 +8438,7 @@
       <c r="U20" s="92"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="43" t="str">
         <f>[1]Personas!A18</f>
         <v>Camila</v>
@@ -8494,7 +8494,7 @@
       <c r="U21" s="92"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="43" t="str">
         <f>[1]Personas!A20</f>
         <v>Javi</v>
@@ -8550,7 +8550,7 @@
       <c r="U22" s="92"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="43" t="str">
         <f>[1]Personas!A19</f>
         <v>Amelia</v>
@@ -8606,7 +8606,7 @@
       <c r="U23" s="92"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="43" t="str">
         <f>[1]Personas!A21</f>
         <v>Constanza</v>
@@ -8662,7 +8662,7 @@
       <c r="U24" s="92"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="43" t="str">
         <f>[1]Personas!A22</f>
         <v>Rosario</v>
@@ -8718,7 +8718,7 @@
       <c r="U25" s="92"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="167"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="43" t="str">
         <f>[1]Personas!A23</f>
         <v>Pilar</v>
@@ -8774,7 +8774,7 @@
       <c r="U26" s="92"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="167"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="43" t="str">
         <f>[1]Personas!A24</f>
         <v>Joaquin</v>
@@ -8830,7 +8830,7 @@
       <c r="U27" s="92"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="167"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="43" t="str">
         <f>[1]Personas!A25</f>
         <v>Maria Jesus</v>
@@ -8886,7 +8886,7 @@
       <c r="U28" s="92"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="167"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="43" t="str">
         <f>[1]Personas!A26</f>
         <v>Rafael</v>
@@ -8942,7 +8942,7 @@
       <c r="U29" s="92"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="167"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="43" t="str">
         <f>[1]Personas!A27</f>
         <v>Isidora</v>
@@ -8998,7 +8998,7 @@
       <c r="U30" s="92"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="167"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="43" t="str">
         <f>[1]Personas!A28</f>
         <v>Maria Luisa</v>
@@ -9054,7 +9054,7 @@
       <c r="U31" s="92"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="167"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="43" t="str">
         <f>[1]Personas!A29</f>
         <v>Rodrigo</v>
@@ -9110,7 +9110,7 @@
       <c r="U32" s="92"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="167"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="43" t="str">
         <f>[1]Personas!A30</f>
         <v>Tere</v>
@@ -9166,7 +9166,7 @@
       <c r="U33" s="92"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="167"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="43" t="str">
         <f>[1]Personas!A31</f>
         <v>Diego</v>
@@ -9222,7 +9222,7 @@
       <c r="U34" s="92"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="167"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="43" t="str">
         <f>[1]Personas!A32</f>
         <v>Matias</v>
@@ -9278,7 +9278,7 @@
       <c r="U35" s="92"/>
     </row>
     <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="167"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="43" t="str">
         <f>[1]Personas!A33</f>
         <v>Benjamin</v>
@@ -9334,7 +9334,7 @@
       <c r="U36" s="92"/>
     </row>
     <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="167"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="43" t="str">
         <f>[1]Personas!A34</f>
         <v>Mauricio</v>
@@ -9390,7 +9390,7 @@
       <c r="U37" s="92"/>
     </row>
     <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="167"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="43" t="str">
         <f>[1]Personas!A35</f>
         <v>Andres</v>
@@ -9446,7 +9446,7 @@
       <c r="U38" s="92"/>
     </row>
     <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="167"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="43" t="str">
         <f>[1]Personas!A36</f>
         <v>Cata</v>
@@ -9502,7 +9502,7 @@
       <c r="U39" s="92"/>
     </row>
     <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="167"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="43" t="str">
         <f>[1]Personas!A37</f>
         <v>Margarita</v>
@@ -9558,7 +9558,7 @@
       <c r="U40" s="92"/>
     </row>
     <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="167"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="43" t="str">
         <f>[1]Personas!A38</f>
         <v>Ric</v>
@@ -9614,7 +9614,7 @@
       <c r="U41" s="92"/>
     </row>
     <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="167"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="43" t="str">
         <f>[1]Personas!A39</f>
         <v>Matias</v>
@@ -9670,7 +9670,7 @@
       <c r="U42" s="92"/>
     </row>
     <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="167"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="43" t="str">
         <f>[1]Personas!A40</f>
         <v>Juan Diego</v>
@@ -9726,7 +9726,7 @@
       <c r="U43" s="92"/>
     </row>
     <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="167"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="43" t="str">
         <f>[1]Personas!A41</f>
         <v>Bernardita</v>
@@ -9782,7 +9782,7 @@
       <c r="U44" s="92"/>
     </row>
     <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="167"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="22" t="str">
         <f>[1]Personas!A43</f>
         <v>Vicente</v>
@@ -9838,7 +9838,7 @@
       <c r="U45" s="92"/>
     </row>
     <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="167"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="43" t="str">
         <f>[1]Personas!A42</f>
         <v>Michella</v>
@@ -9894,7 +9894,7 @@
       <c r="U46" s="92"/>
     </row>
     <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="167"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="22" t="str">
         <f>[1]Personas!A44</f>
         <v>Jesu</v>
@@ -9950,7 +9950,7 @@
       <c r="U47" s="92"/>
     </row>
     <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="167"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="22" t="str">
         <f>[1]Personas!A45</f>
         <v>Ignacio</v>
@@ -10006,7 +10006,7 @@
       <c r="U48" s="92"/>
     </row>
     <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="167"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="22" t="str">
         <f>[1]Personas!A46</f>
         <v>Ignacio</v>
@@ -10062,7 +10062,7 @@
       <c r="U49" s="92"/>
     </row>
     <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="167"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="22" t="str">
         <f>[1]Personas!A47</f>
         <v>Rodrigo</v>
@@ -10115,7 +10115,7 @@
       <c r="U50" s="92"/>
     </row>
     <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="167"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="22" t="str">
         <f>[1]Personas!A48</f>
         <v>Josefina</v>
@@ -10168,7 +10168,7 @@
       <c r="U51" s="92"/>
     </row>
     <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="167"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="22" t="str">
         <f>[1]Personas!A49</f>
         <v>Raimundo</v>
@@ -10221,7 +10221,7 @@
       <c r="U52" s="92"/>
     </row>
     <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="22" t="str">
         <f>[1]Personas!A50</f>
         <v>Vicente</v>
@@ -10277,7 +10277,7 @@
       <c r="U53" s="92"/>
     </row>
     <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="167"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="22" t="str">
         <f>[1]Personas!A51</f>
         <v>Trinidad</v>
@@ -10333,7 +10333,7 @@
       <c r="U54" s="92"/>
     </row>
     <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="167"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="22" t="str">
         <f>[1]Personas!A52</f>
         <v>Sofia</v>
@@ -10386,7 +10386,7 @@
       <c r="U55" s="92"/>
     </row>
     <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="167"/>
+      <c r="A56" s="185"/>
       <c r="B56" s="22" t="str">
         <f>[1]Personas!A53</f>
         <v>Francesco</v>
@@ -10439,7 +10439,7 @@
       <c r="U56" s="92"/>
     </row>
     <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="168"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="26" t="str">
         <f>[1]Personas!A54</f>
         <v>Trinidad</v>
@@ -10515,22 +10515,22 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="175" t="s">
+      <c r="A60" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="178" t="s">
+      <c r="B60" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="179"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="179"/>
-      <c r="H60" s="179"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="179"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="180"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="197"/>
+      <c r="H60" s="197"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="198"/>
       <c r="M60" s="76" t="s">
         <v>9</v>
       </c>
@@ -10560,18 +10560,18 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="176"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
-      <c r="G61" s="182"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="182"/>
-      <c r="J61" s="182"/>
-      <c r="K61" s="182"/>
-      <c r="L61" s="183"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="200"/>
+      <c r="D61" s="200"/>
+      <c r="E61" s="200"/>
+      <c r="F61" s="200"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="200"/>
+      <c r="L61" s="201"/>
       <c r="M61" s="76" t="s">
         <v>30</v>
       </c>
@@ -10595,18 +10595,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="176"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="182"/>
-      <c r="G62" s="182"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="182"/>
-      <c r="J62" s="182"/>
-      <c r="K62" s="182"/>
-      <c r="L62" s="183"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="200"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="200"/>
+      <c r="L62" s="201"/>
       <c r="M62" s="76" t="s">
         <v>8</v>
       </c>
@@ -10636,18 +10636,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="176"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="185"/>
-      <c r="D63" s="185"/>
-      <c r="E63" s="185"/>
-      <c r="F63" s="185"/>
-      <c r="G63" s="185"/>
-      <c r="H63" s="185"/>
-      <c r="I63" s="185"/>
-      <c r="J63" s="185"/>
-      <c r="K63" s="185"/>
-      <c r="L63" s="186"/>
+      <c r="A63" s="194"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="203"/>
+      <c r="F63" s="203"/>
+      <c r="G63" s="203"/>
+      <c r="H63" s="203"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="203"/>
+      <c r="K63" s="203"/>
+      <c r="L63" s="204"/>
       <c r="M63" s="76" t="s">
         <v>10</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="176"/>
+      <c r="A64" s="194"/>
       <c r="B64" s="77"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -10673,20 +10673,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="176"/>
-      <c r="B65" s="178" t="s">
+      <c r="A65" s="194"/>
+      <c r="B65" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="179"/>
-      <c r="K65" s="179"/>
-      <c r="L65" s="180"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="197"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="198"/>
       <c r="M65" s="76" t="s">
         <v>14</v>
       </c>
@@ -10716,18 +10716,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="176"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="183"/>
+      <c r="A66" s="194"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="200"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="200"/>
+      <c r="L66" s="201"/>
       <c r="M66" s="76" t="s">
         <v>8</v>
       </c>
@@ -10751,18 +10751,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="176"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="185"/>
-      <c r="G67" s="185"/>
-      <c r="H67" s="185"/>
-      <c r="I67" s="185"/>
-      <c r="J67" s="185"/>
-      <c r="K67" s="185"/>
-      <c r="L67" s="186"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="203"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="203"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="203"/>
+      <c r="H67" s="203"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="203"/>
+      <c r="K67" s="203"/>
+      <c r="L67" s="204"/>
       <c r="M67" s="76" t="s">
         <v>15</v>
       </c>
@@ -10786,7 +10786,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="176"/>
+      <c r="A68" s="194"/>
       <c r="B68" s="77"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -10800,20 +10800,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="176"/>
-      <c r="B69" s="178" t="s">
+      <c r="A69" s="194"/>
+      <c r="B69" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="179"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="179"/>
-      <c r="F69" s="179"/>
-      <c r="G69" s="179"/>
-      <c r="H69" s="179"/>
-      <c r="I69" s="179"/>
-      <c r="J69" s="179"/>
-      <c r="K69" s="179"/>
-      <c r="L69" s="180"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
+      <c r="H69" s="197"/>
+      <c r="I69" s="197"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="197"/>
+      <c r="L69" s="198"/>
       <c r="M69" s="76" t="s">
         <v>20</v>
       </c>
@@ -10843,46 +10843,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="176"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="185"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="186"/>
+      <c r="A70" s="194"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="203"/>
+      <c r="D70" s="203"/>
+      <c r="E70" s="203"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="203"/>
+      <c r="K70" s="203"/>
+      <c r="L70" s="204"/>
       <c r="M70" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="187">
+      <c r="N70" s="205">
         <f>SUM(N69:S69)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="188"/>
-      <c r="P70" s="188"/>
-      <c r="Q70" s="188"/>
-      <c r="R70" s="188"/>
-      <c r="S70" s="189"/>
+      <c r="O70" s="206"/>
+      <c r="P70" s="206"/>
+      <c r="Q70" s="206"/>
+      <c r="R70" s="206"/>
+      <c r="S70" s="207"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="176"/>
-      <c r="B71" s="178" t="s">
+      <c r="A71" s="194"/>
+      <c r="B71" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="179"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="179"/>
-      <c r="F71" s="179"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="179"/>
-      <c r="I71" s="179"/>
-      <c r="J71" s="179"/>
-      <c r="K71" s="179"/>
-      <c r="L71" s="180"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="197"/>
+      <c r="I71" s="197"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="197"/>
+      <c r="L71" s="198"/>
       <c r="M71" s="76" t="s">
         <v>20</v>
       </c>
@@ -10912,46 +10912,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="176"/>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185"/>
-      <c r="D72" s="185"/>
-      <c r="E72" s="185"/>
-      <c r="F72" s="185"/>
-      <c r="G72" s="185"/>
-      <c r="H72" s="185"/>
-      <c r="I72" s="185"/>
-      <c r="J72" s="185"/>
-      <c r="K72" s="185"/>
-      <c r="L72" s="186"/>
+      <c r="A72" s="194"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="203"/>
+      <c r="D72" s="203"/>
+      <c r="E72" s="203"/>
+      <c r="F72" s="203"/>
+      <c r="G72" s="203"/>
+      <c r="H72" s="203"/>
+      <c r="I72" s="203"/>
+      <c r="J72" s="203"/>
+      <c r="K72" s="203"/>
+      <c r="L72" s="204"/>
       <c r="M72" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="187">
+      <c r="N72" s="205">
         <f>SUM(N71:S71)</f>
         <v>0</v>
       </c>
-      <c r="O72" s="188"/>
-      <c r="P72" s="188"/>
-      <c r="Q72" s="188"/>
-      <c r="R72" s="188"/>
-      <c r="S72" s="189"/>
+      <c r="O72" s="206"/>
+      <c r="P72" s="206"/>
+      <c r="Q72" s="206"/>
+      <c r="R72" s="206"/>
+      <c r="S72" s="207"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="176"/>
-      <c r="B73" s="178" t="s">
+      <c r="A73" s="194"/>
+      <c r="B73" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="179"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="180"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="197"/>
+      <c r="G73" s="197"/>
+      <c r="H73" s="197"/>
+      <c r="I73" s="197"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="197"/>
+      <c r="L73" s="198"/>
       <c r="M73" s="76" t="s">
         <v>20</v>
       </c>
@@ -10981,55 +10981,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="176"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="185"/>
-      <c r="L74" s="186"/>
+      <c r="A74" s="194"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="203"/>
+      <c r="D74" s="203"/>
+      <c r="E74" s="203"/>
+      <c r="F74" s="203"/>
+      <c r="G74" s="203"/>
+      <c r="H74" s="203"/>
+      <c r="I74" s="203"/>
+      <c r="J74" s="203"/>
+      <c r="K74" s="203"/>
+      <c r="L74" s="204"/>
       <c r="M74" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="202">
+      <c r="N74" s="217">
         <f>SUM(N73:S73)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="203"/>
-      <c r="P74" s="203"/>
-      <c r="Q74" s="203"/>
-      <c r="R74" s="203"/>
-      <c r="S74" s="204"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="219"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="176"/>
+      <c r="A75" s="194"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="176"/>
-      <c r="B76" s="205" t="s">
+      <c r="A76" s="194"/>
+      <c r="B76" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="206"/>
-      <c r="D76" s="206"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
-      <c r="J76" s="206"/>
-      <c r="K76" s="206"/>
-      <c r="L76" s="206"/>
-      <c r="M76" s="207"/>
-      <c r="N76" s="196" t="s">
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="197"/>
-      <c r="P76" s="198"/>
+      <c r="O76" s="176"/>
+      <c r="P76" s="177"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -11037,171 +11037,171 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="209"/>
-      <c r="D77" s="209"/>
-      <c r="E77" s="209"/>
-      <c r="F77" s="209"/>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
-      <c r="I77" s="209"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="209"/>
-      <c r="M77" s="210"/>
-      <c r="N77" s="214"/>
-      <c r="O77" s="215"/>
-      <c r="P77" s="216"/>
+      <c r="A77" s="194"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="170"/>
+      <c r="J77" s="170"/>
+      <c r="K77" s="170"/>
+      <c r="L77" s="170"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="178"/>
+      <c r="O77" s="179"/>
+      <c r="P77" s="180"/>
       <c r="Q77" s="61"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="210"/>
-      <c r="N78" s="217"/>
-      <c r="O78" s="218"/>
-      <c r="P78" s="219"/>
+      <c r="A78" s="194"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="181"/>
+      <c r="O78" s="182"/>
+      <c r="P78" s="183"/>
       <c r="Q78" s="62"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="176"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="209"/>
-      <c r="D79" s="209"/>
-      <c r="E79" s="209"/>
-      <c r="F79" s="209"/>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
-      <c r="I79" s="209"/>
-      <c r="J79" s="209"/>
-      <c r="K79" s="209"/>
-      <c r="L79" s="209"/>
-      <c r="M79" s="210"/>
-      <c r="N79" s="217"/>
-      <c r="O79" s="218"/>
-      <c r="P79" s="219"/>
+      <c r="A79" s="194"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="170"/>
+      <c r="K79" s="170"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="171"/>
+      <c r="N79" s="181"/>
+      <c r="O79" s="182"/>
+      <c r="P79" s="183"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="209"/>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
-      <c r="F80" s="209"/>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
-      <c r="I80" s="209"/>
-      <c r="J80" s="209"/>
-      <c r="K80" s="209"/>
-      <c r="L80" s="209"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="217"/>
-      <c r="O80" s="218"/>
-      <c r="P80" s="219"/>
+      <c r="A80" s="194"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="181"/>
+      <c r="O80" s="182"/>
+      <c r="P80" s="183"/>
       <c r="Q80" s="62"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
-      <c r="B81" s="208"/>
-      <c r="C81" s="209"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="209"/>
-      <c r="F81" s="209"/>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
-      <c r="I81" s="209"/>
-      <c r="J81" s="209"/>
-      <c r="K81" s="209"/>
-      <c r="L81" s="209"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="217"/>
-      <c r="O81" s="218"/>
-      <c r="P81" s="219"/>
+      <c r="A81" s="194"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="170"/>
+      <c r="F81" s="170"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="170"/>
+      <c r="I81" s="170"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="170"/>
+      <c r="L81" s="170"/>
+      <c r="M81" s="171"/>
+      <c r="N81" s="181"/>
+      <c r="O81" s="182"/>
+      <c r="P81" s="183"/>
       <c r="Q81" s="62"/>
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="176"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="209"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
-      <c r="F82" s="209"/>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
-      <c r="I82" s="209"/>
-      <c r="J82" s="209"/>
-      <c r="K82" s="209"/>
-      <c r="L82" s="209"/>
-      <c r="M82" s="210"/>
-      <c r="N82" s="217"/>
-      <c r="O82" s="218"/>
-      <c r="P82" s="219"/>
+      <c r="A82" s="194"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
+      <c r="F82" s="170"/>
+      <c r="G82" s="170"/>
+      <c r="H82" s="170"/>
+      <c r="I82" s="170"/>
+      <c r="J82" s="170"/>
+      <c r="K82" s="170"/>
+      <c r="L82" s="170"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="181"/>
+      <c r="O82" s="182"/>
+      <c r="P82" s="183"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="176"/>
-      <c r="B83" s="208"/>
-      <c r="C83" s="209"/>
-      <c r="D83" s="209"/>
-      <c r="E83" s="209"/>
-      <c r="F83" s="209"/>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
-      <c r="I83" s="209"/>
-      <c r="J83" s="209"/>
-      <c r="K83" s="209"/>
-      <c r="L83" s="209"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="190"/>
-      <c r="O83" s="191"/>
-      <c r="P83" s="192"/>
+      <c r="A83" s="194"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="170"/>
+      <c r="K83" s="170"/>
+      <c r="L83" s="170"/>
+      <c r="M83" s="171"/>
+      <c r="N83" s="208"/>
+      <c r="O83" s="209"/>
+      <c r="P83" s="210"/>
       <c r="Q83" s="62"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="176"/>
-      <c r="B84" s="211"/>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
-      <c r="E84" s="212"/>
-      <c r="F84" s="212"/>
-      <c r="G84" s="212"/>
-      <c r="H84" s="212"/>
-      <c r="I84" s="212"/>
-      <c r="J84" s="212"/>
-      <c r="K84" s="212"/>
-      <c r="L84" s="212"/>
-      <c r="M84" s="213"/>
-      <c r="N84" s="193" t="s">
+      <c r="A84" s="194"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="173"/>
+      <c r="I84" s="173"/>
+      <c r="J84" s="173"/>
+      <c r="K84" s="173"/>
+      <c r="L84" s="173"/>
+      <c r="M84" s="174"/>
+      <c r="N84" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="194"/>
-      <c r="P84" s="195"/>
+      <c r="O84" s="212"/>
+      <c r="P84" s="213"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>0</v>
@@ -11210,35 +11210,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="176"/>
+      <c r="A85" s="194"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="177"/>
-      <c r="B86" s="196" t="s">
+      <c r="A86" s="195"/>
+      <c r="B86" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="197"/>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197"/>
-      <c r="F86" s="197"/>
-      <c r="G86" s="197"/>
-      <c r="H86" s="197"/>
-      <c r="I86" s="197"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="198"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
+      <c r="G86" s="176"/>
+      <c r="H86" s="176"/>
+      <c r="I86" s="176"/>
+      <c r="J86" s="176"/>
+      <c r="K86" s="176"/>
+      <c r="L86" s="177"/>
       <c r="M86" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="199">
+      <c r="N86" s="214">
         <f>N74-SUM(Q77:Q83)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="200"/>
-      <c r="P86" s="200"/>
-      <c r="Q86" s="200"/>
-      <c r="R86" s="200"/>
-      <c r="S86" s="201"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
+      <c r="Q86" s="215"/>
+      <c r="R86" s="215"/>
+      <c r="S86" s="216"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -11298,14 +11298,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
     <mergeCell ref="A5:A57"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -11322,6 +11314,14 @@
     <mergeCell ref="N86:S86"/>
     <mergeCell ref="B73:L74"/>
     <mergeCell ref="N74:S74"/>
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11365,28 +11365,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="174"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="192"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="64"/>
@@ -14466,22 +14466,22 @@
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="175" t="s">
+      <c r="A60" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="178" t="s">
+      <c r="B60" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="179"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="179"/>
-      <c r="H60" s="179"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="179"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="180"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="197"/>
+      <c r="H60" s="197"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="198"/>
       <c r="M60" s="74" t="s">
         <v>9</v>
       </c>
@@ -14511,18 +14511,18 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="176"/>
-      <c r="B61" s="181"/>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
-      <c r="G61" s="182"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="182"/>
-      <c r="J61" s="182"/>
-      <c r="K61" s="182"/>
-      <c r="L61" s="183"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="200"/>
+      <c r="D61" s="200"/>
+      <c r="E61" s="200"/>
+      <c r="F61" s="200"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="200"/>
+      <c r="L61" s="201"/>
       <c r="M61" s="74" t="s">
         <v>30</v>
       </c>
@@ -14546,18 +14546,18 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="176"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="182"/>
-      <c r="G62" s="182"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="182"/>
-      <c r="J62" s="182"/>
-      <c r="K62" s="182"/>
-      <c r="L62" s="183"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="200"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="200"/>
+      <c r="L62" s="201"/>
       <c r="M62" s="74" t="s">
         <v>8</v>
       </c>
@@ -14587,18 +14587,18 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="176"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="185"/>
-      <c r="D63" s="185"/>
-      <c r="E63" s="185"/>
-      <c r="F63" s="185"/>
-      <c r="G63" s="185"/>
-      <c r="H63" s="185"/>
-      <c r="I63" s="185"/>
-      <c r="J63" s="185"/>
-      <c r="K63" s="185"/>
-      <c r="L63" s="186"/>
+      <c r="A63" s="194"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="203"/>
+      <c r="F63" s="203"/>
+      <c r="G63" s="203"/>
+      <c r="H63" s="203"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="203"/>
+      <c r="K63" s="203"/>
+      <c r="L63" s="204"/>
       <c r="M63" s="74" t="s">
         <v>10</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="176"/>
+      <c r="A64" s="194"/>
       <c r="B64" s="72"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -14624,20 +14624,20 @@
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="176"/>
-      <c r="B65" s="178" t="s">
+      <c r="A65" s="194"/>
+      <c r="B65" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="179"/>
-      <c r="K65" s="179"/>
-      <c r="L65" s="180"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="197"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="198"/>
       <c r="M65" s="74" t="s">
         <v>14</v>
       </c>
@@ -14667,18 +14667,18 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="176"/>
-      <c r="B66" s="181"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="183"/>
+      <c r="A66" s="194"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="200"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="200"/>
+      <c r="L66" s="201"/>
       <c r="M66" s="74" t="s">
         <v>8</v>
       </c>
@@ -14702,18 +14702,18 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="176"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="185"/>
-      <c r="G67" s="185"/>
-      <c r="H67" s="185"/>
-      <c r="I67" s="185"/>
-      <c r="J67" s="185"/>
-      <c r="K67" s="185"/>
-      <c r="L67" s="186"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="203"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="203"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="203"/>
+      <c r="H67" s="203"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="203"/>
+      <c r="K67" s="203"/>
+      <c r="L67" s="204"/>
       <c r="M67" s="74" t="s">
         <v>15</v>
       </c>
@@ -14737,7 +14737,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="176"/>
+      <c r="A68" s="194"/>
       <c r="B68" s="72"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -14751,20 +14751,20 @@
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="176"/>
-      <c r="B69" s="178" t="s">
+      <c r="A69" s="194"/>
+      <c r="B69" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="179"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="179"/>
-      <c r="F69" s="179"/>
-      <c r="G69" s="179"/>
-      <c r="H69" s="179"/>
-      <c r="I69" s="179"/>
-      <c r="J69" s="179"/>
-      <c r="K69" s="179"/>
-      <c r="L69" s="180"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="197"/>
+      <c r="G69" s="197"/>
+      <c r="H69" s="197"/>
+      <c r="I69" s="197"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="197"/>
+      <c r="L69" s="198"/>
       <c r="M69" s="74" t="s">
         <v>20</v>
       </c>
@@ -14794,46 +14794,46 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="176"/>
-      <c r="B70" s="184"/>
-      <c r="C70" s="185"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="186"/>
+      <c r="A70" s="194"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="203"/>
+      <c r="D70" s="203"/>
+      <c r="E70" s="203"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="203"/>
+      <c r="K70" s="203"/>
+      <c r="L70" s="204"/>
       <c r="M70" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="187">
+      <c r="N70" s="205">
         <f>SUM(N69:S69)</f>
         <v>3175196.4000000004</v>
       </c>
-      <c r="O70" s="188"/>
-      <c r="P70" s="188"/>
-      <c r="Q70" s="188"/>
-      <c r="R70" s="188"/>
-      <c r="S70" s="189"/>
+      <c r="O70" s="206"/>
+      <c r="P70" s="206"/>
+      <c r="Q70" s="206"/>
+      <c r="R70" s="206"/>
+      <c r="S70" s="207"/>
     </row>
     <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="176"/>
-      <c r="B71" s="178" t="s">
+      <c r="A71" s="194"/>
+      <c r="B71" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="179"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="179"/>
-      <c r="F71" s="179"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="179"/>
-      <c r="I71" s="179"/>
-      <c r="J71" s="179"/>
-      <c r="K71" s="179"/>
-      <c r="L71" s="180"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="197"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="197"/>
+      <c r="I71" s="197"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="197"/>
+      <c r="L71" s="198"/>
       <c r="M71" s="74" t="s">
         <v>20</v>
       </c>
@@ -14863,46 +14863,46 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="176"/>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185"/>
-      <c r="D72" s="185"/>
-      <c r="E72" s="185"/>
-      <c r="F72" s="185"/>
-      <c r="G72" s="185"/>
-      <c r="H72" s="185"/>
-      <c r="I72" s="185"/>
-      <c r="J72" s="185"/>
-      <c r="K72" s="185"/>
-      <c r="L72" s="186"/>
+      <c r="A72" s="194"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="203"/>
+      <c r="D72" s="203"/>
+      <c r="E72" s="203"/>
+      <c r="F72" s="203"/>
+      <c r="G72" s="203"/>
+      <c r="H72" s="203"/>
+      <c r="I72" s="203"/>
+      <c r="J72" s="203"/>
+      <c r="K72" s="203"/>
+      <c r="L72" s="204"/>
       <c r="M72" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="187">
+      <c r="N72" s="205">
         <f>SUM(N71:S71)</f>
         <v>4990750</v>
       </c>
-      <c r="O72" s="188"/>
-      <c r="P72" s="188"/>
-      <c r="Q72" s="188"/>
-      <c r="R72" s="188"/>
-      <c r="S72" s="189"/>
+      <c r="O72" s="206"/>
+      <c r="P72" s="206"/>
+      <c r="Q72" s="206"/>
+      <c r="R72" s="206"/>
+      <c r="S72" s="207"/>
     </row>
     <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="176"/>
-      <c r="B73" s="178" t="s">
+      <c r="A73" s="194"/>
+      <c r="B73" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="179"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179"/>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="180"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="197"/>
+      <c r="G73" s="197"/>
+      <c r="H73" s="197"/>
+      <c r="I73" s="197"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="197"/>
+      <c r="L73" s="198"/>
       <c r="M73" s="74" t="s">
         <v>20</v>
       </c>
@@ -14932,55 +14932,55 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="176"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
-      <c r="E74" s="185"/>
-      <c r="F74" s="185"/>
-      <c r="G74" s="185"/>
-      <c r="H74" s="185"/>
-      <c r="I74" s="185"/>
-      <c r="J74" s="185"/>
-      <c r="K74" s="185"/>
-      <c r="L74" s="186"/>
+      <c r="A74" s="194"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="203"/>
+      <c r="D74" s="203"/>
+      <c r="E74" s="203"/>
+      <c r="F74" s="203"/>
+      <c r="G74" s="203"/>
+      <c r="H74" s="203"/>
+      <c r="I74" s="203"/>
+      <c r="J74" s="203"/>
+      <c r="K74" s="203"/>
+      <c r="L74" s="204"/>
       <c r="M74" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="202">
+      <c r="N74" s="217">
         <f>SUM(N73:S73)</f>
         <v>1815553.5999999999</v>
       </c>
-      <c r="O74" s="203"/>
-      <c r="P74" s="203"/>
-      <c r="Q74" s="203"/>
-      <c r="R74" s="203"/>
-      <c r="S74" s="204"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="219"/>
     </row>
     <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="176"/>
+      <c r="A75" s="194"/>
     </row>
     <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="176"/>
-      <c r="B76" s="205" t="s">
+      <c r="A76" s="194"/>
+      <c r="B76" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="206"/>
-      <c r="D76" s="206"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
-      <c r="J76" s="206"/>
-      <c r="K76" s="206"/>
-      <c r="L76" s="206"/>
-      <c r="M76" s="207"/>
-      <c r="N76" s="196" t="s">
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="197"/>
-      <c r="P76" s="198"/>
+      <c r="O76" s="176"/>
+      <c r="P76" s="177"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
@@ -14988,24 +14988,24 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="209"/>
-      <c r="D77" s="209"/>
-      <c r="E77" s="209"/>
-      <c r="F77" s="209"/>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
-      <c r="I77" s="209"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="209"/>
-      <c r="M77" s="210"/>
-      <c r="N77" s="214" t="s">
+      <c r="A77" s="194"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="170"/>
+      <c r="J77" s="170"/>
+      <c r="K77" s="170"/>
+      <c r="L77" s="170"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="215"/>
-      <c r="P77" s="216"/>
+      <c r="O77" s="179"/>
+      <c r="P77" s="180"/>
       <c r="Q77" s="61">
         <v>45000</v>
       </c>
@@ -15013,24 +15013,24 @@
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="176"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="210"/>
-      <c r="N78" s="217" t="s">
+      <c r="A78" s="194"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="218"/>
-      <c r="P78" s="219"/>
+      <c r="O78" s="182"/>
+      <c r="P78" s="183"/>
       <c r="Q78" s="62">
         <v>50000</v>
       </c>
@@ -15038,24 +15038,24 @@
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="176"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="209"/>
-      <c r="D79" s="209"/>
-      <c r="E79" s="209"/>
-      <c r="F79" s="209"/>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
-      <c r="I79" s="209"/>
-      <c r="J79" s="209"/>
-      <c r="K79" s="209"/>
-      <c r="L79" s="209"/>
-      <c r="M79" s="210"/>
-      <c r="N79" s="217" t="s">
+      <c r="A79" s="194"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
+      <c r="E79" s="170"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="170"/>
+      <c r="K79" s="170"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="171"/>
+      <c r="N79" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="218"/>
-      <c r="P79" s="219"/>
+      <c r="O79" s="182"/>
+      <c r="P79" s="183"/>
       <c r="Q79" s="62">
         <v>15000</v>
       </c>
@@ -15063,24 +15063,24 @@
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="209"/>
-      <c r="D80" s="209"/>
-      <c r="E80" s="209"/>
-      <c r="F80" s="209"/>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
-      <c r="I80" s="209"/>
-      <c r="J80" s="209"/>
-      <c r="K80" s="209"/>
-      <c r="L80" s="209"/>
-      <c r="M80" s="210"/>
-      <c r="N80" s="217" t="s">
+      <c r="A80" s="194"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="171"/>
+      <c r="N80" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="218"/>
-      <c r="P80" s="219"/>
+      <c r="O80" s="182"/>
+      <c r="P80" s="183"/>
       <c r="Q80" s="62">
         <v>30000</v>
       </c>
@@ -15088,24 +15088,24 @@
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
-      <c r="B81" s="208"/>
-      <c r="C81" s="209"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="209"/>
-      <c r="F81" s="209"/>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
-      <c r="I81" s="209"/>
-      <c r="J81" s="209"/>
-      <c r="K81" s="209"/>
-      <c r="L81" s="209"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="217" t="s">
+      <c r="A81" s="194"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="170"/>
+      <c r="F81" s="170"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="170"/>
+      <c r="I81" s="170"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="170"/>
+      <c r="L81" s="170"/>
+      <c r="M81" s="171"/>
+      <c r="N81" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="218"/>
-      <c r="P81" s="219"/>
+      <c r="O81" s="182"/>
+      <c r="P81" s="183"/>
       <c r="Q81" s="62">
         <v>70000</v>
       </c>
@@ -15113,24 +15113,24 @@
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="176"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="209"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="209"/>
-      <c r="F82" s="209"/>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
-      <c r="I82" s="209"/>
-      <c r="J82" s="209"/>
-      <c r="K82" s="209"/>
-      <c r="L82" s="209"/>
-      <c r="M82" s="210"/>
-      <c r="N82" s="217" t="s">
+      <c r="A82" s="194"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="170"/>
+      <c r="F82" s="170"/>
+      <c r="G82" s="170"/>
+      <c r="H82" s="170"/>
+      <c r="I82" s="170"/>
+      <c r="J82" s="170"/>
+      <c r="K82" s="170"/>
+      <c r="L82" s="170"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="O82" s="218"/>
-      <c r="P82" s="219"/>
+      <c r="O82" s="182"/>
+      <c r="P82" s="183"/>
       <c r="Q82" s="62">
         <v>20000</v>
       </c>
@@ -15138,24 +15138,24 @@
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="176"/>
-      <c r="B83" s="208"/>
-      <c r="C83" s="209"/>
-      <c r="D83" s="209"/>
-      <c r="E83" s="209"/>
-      <c r="F83" s="209"/>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
-      <c r="I83" s="209"/>
-      <c r="J83" s="209"/>
-      <c r="K83" s="209"/>
-      <c r="L83" s="209"/>
-      <c r="M83" s="210"/>
-      <c r="N83" s="190" t="s">
+      <c r="A83" s="194"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="170"/>
+      <c r="K83" s="170"/>
+      <c r="L83" s="170"/>
+      <c r="M83" s="171"/>
+      <c r="N83" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="O83" s="191"/>
-      <c r="P83" s="192"/>
+      <c r="O83" s="209"/>
+      <c r="P83" s="210"/>
       <c r="Q83" s="62">
         <v>15000</v>
       </c>
@@ -15163,24 +15163,24 @@
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="176"/>
-      <c r="B84" s="211"/>
-      <c r="C84" s="212"/>
-      <c r="D84" s="212"/>
-      <c r="E84" s="212"/>
-      <c r="F84" s="212"/>
-      <c r="G84" s="212"/>
-      <c r="H84" s="212"/>
-      <c r="I84" s="212"/>
-      <c r="J84" s="212"/>
-      <c r="K84" s="212"/>
-      <c r="L84" s="212"/>
-      <c r="M84" s="213"/>
-      <c r="N84" s="193" t="s">
+      <c r="A84" s="194"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="173"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="173"/>
+      <c r="I84" s="173"/>
+      <c r="J84" s="173"/>
+      <c r="K84" s="173"/>
+      <c r="L84" s="173"/>
+      <c r="M84" s="174"/>
+      <c r="N84" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="194"/>
-      <c r="P84" s="195"/>
+      <c r="O84" s="212"/>
+      <c r="P84" s="213"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>245000</v>
@@ -15189,35 +15189,35 @@
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="176"/>
+      <c r="A85" s="194"/>
     </row>
     <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="177"/>
-      <c r="B86" s="196" t="s">
+      <c r="A86" s="195"/>
+      <c r="B86" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="197"/>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197"/>
-      <c r="F86" s="197"/>
-      <c r="G86" s="197"/>
-      <c r="H86" s="197"/>
-      <c r="I86" s="197"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="198"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="176"/>
+      <c r="G86" s="176"/>
+      <c r="H86" s="176"/>
+      <c r="I86" s="176"/>
+      <c r="J86" s="176"/>
+      <c r="K86" s="176"/>
+      <c r="L86" s="177"/>
       <c r="M86" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="199">
+      <c r="N86" s="214">
         <f>N74-SUM(Q77:Q83)</f>
         <v>1570553.5999999999</v>
       </c>
-      <c r="O86" s="200"/>
-      <c r="P86" s="200"/>
-      <c r="Q86" s="200"/>
-      <c r="R86" s="200"/>
-      <c r="S86" s="201"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
+      <c r="Q86" s="215"/>
+      <c r="R86" s="215"/>
+      <c r="S86" s="216"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
@@ -15277,6 +15277,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A57"/>
@@ -15293,14 +15301,6 @@
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="N78:P78"/>
     <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15346,28 +15346,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="223" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="244" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="246"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="228"/>
     </row>
     <row r="3" spans="1:21" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="101"/>
@@ -15455,7 +15455,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="229" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="141" t="s">
@@ -15519,7 +15519,7 @@
       <c r="U5" s="111"/>
     </row>
     <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="248"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="116" t="s">
         <v>127</v>
       </c>
@@ -15581,7 +15581,7 @@
       <c r="U6" s="115"/>
     </row>
     <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="248"/>
+      <c r="A7" s="230"/>
       <c r="B7" s="116" t="s">
         <v>137</v>
       </c>
@@ -15643,7 +15643,7 @@
       <c r="U7" s="115"/>
     </row>
     <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="248"/>
+      <c r="A8" s="230"/>
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
@@ -15705,7 +15705,7 @@
       <c r="U8" s="115"/>
     </row>
     <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="248"/>
+      <c r="A9" s="230"/>
       <c r="B9" s="112" t="s">
         <v>73</v>
       </c>
@@ -15767,7 +15767,7 @@
       <c r="U9" s="115"/>
     </row>
     <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="248"/>
+      <c r="A10" s="230"/>
       <c r="B10" s="116" t="s">
         <v>117</v>
       </c>
@@ -15829,7 +15829,7 @@
       <c r="U10" s="115"/>
     </row>
     <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="248"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="112" t="s">
         <v>84</v>
       </c>
@@ -15891,7 +15891,7 @@
       <c r="U11" s="115"/>
     </row>
     <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="248"/>
+      <c r="A12" s="230"/>
       <c r="B12" s="112" t="s">
         <v>55</v>
       </c>
@@ -15955,7 +15955,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="248"/>
+      <c r="A13" s="230"/>
       <c r="B13" s="112" t="s">
         <v>55</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="U13" s="115"/>
     </row>
     <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="248"/>
+      <c r="A14" s="230"/>
       <c r="B14" s="112" t="s">
         <v>289</v>
       </c>
@@ -16079,7 +16079,7 @@
       <c r="U14" s="115"/>
     </row>
     <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="248"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="116" t="s">
         <v>123</v>
       </c>
@@ -16141,7 +16141,7 @@
       <c r="U15" s="115"/>
     </row>
     <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="248"/>
+      <c r="A16" s="230"/>
       <c r="B16" s="112" t="s">
         <v>41</v>
       </c>
@@ -16203,7 +16203,7 @@
       <c r="U16" s="115"/>
     </row>
     <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="248"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="112" t="s">
         <v>100</v>
       </c>
@@ -16265,7 +16265,7 @@
       <c r="U17" s="115"/>
     </row>
     <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="248"/>
+      <c r="A18" s="230"/>
       <c r="B18" s="112" t="s">
         <v>68</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="U18" s="115"/>
     </row>
     <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="248"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="112" t="s">
         <v>82</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="U19" s="115"/>
     </row>
     <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="248"/>
+      <c r="A20" s="230"/>
       <c r="B20" s="112" t="s">
         <v>96</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="U20" s="115"/>
     </row>
     <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="248"/>
+      <c r="A21" s="230"/>
       <c r="B21" s="112" t="s">
         <v>61</v>
       </c>
@@ -16513,7 +16513,7 @@
       <c r="U21" s="115"/>
     </row>
     <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="248"/>
+      <c r="A22" s="230"/>
       <c r="B22" s="112" t="s">
         <v>98</v>
       </c>
@@ -16575,7 +16575,7 @@
       <c r="U22" s="115"/>
     </row>
     <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="248"/>
+      <c r="A23" s="230"/>
       <c r="B23" s="116" t="s">
         <v>132</v>
       </c>
@@ -16637,7 +16637,7 @@
       <c r="U23" s="115"/>
     </row>
     <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
+      <c r="A24" s="230"/>
       <c r="B24" s="116" t="s">
         <v>125</v>
       </c>
@@ -16699,7 +16699,7 @@
       <c r="U24" s="115"/>
     </row>
     <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="248"/>
+      <c r="A25" s="230"/>
       <c r="B25" s="112" t="s">
         <v>102</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="U25" s="115"/>
     </row>
     <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="248"/>
+      <c r="A26" s="230"/>
       <c r="B26" s="112" t="s">
         <v>79</v>
       </c>
@@ -16823,7 +16823,7 @@
       <c r="U26" s="115"/>
     </row>
     <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="248"/>
+      <c r="A27" s="230"/>
       <c r="B27" s="112" t="s">
         <v>92</v>
       </c>
@@ -16885,7 +16885,7 @@
       <c r="U27" s="115"/>
     </row>
     <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="248"/>
+      <c r="A28" s="230"/>
       <c r="B28" s="112" t="s">
         <v>90</v>
       </c>
@@ -16947,7 +16947,7 @@
       <c r="U28" s="115"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="248"/>
+      <c r="A29" s="230"/>
       <c r="B29" s="112" t="s">
         <v>57</v>
       </c>
@@ -17009,7 +17009,7 @@
       <c r="U29" s="115"/>
     </row>
     <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="248"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="116" t="s">
         <v>119</v>
       </c>
@@ -17071,7 +17071,7 @@
       <c r="U30" s="115"/>
     </row>
     <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="248"/>
+      <c r="A31" s="230"/>
       <c r="B31" s="112" t="s">
         <v>51</v>
       </c>
@@ -17133,7 +17133,7 @@
       <c r="U31" s="115"/>
     </row>
     <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="248"/>
+      <c r="A32" s="230"/>
       <c r="B32" s="116" t="s">
         <v>134</v>
       </c>
@@ -17195,7 +17195,7 @@
       <c r="U32" s="115"/>
     </row>
     <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="248"/>
+      <c r="A33" s="230"/>
       <c r="B33" s="112" t="s">
         <v>109</v>
       </c>
@@ -17257,7 +17257,7 @@
       <c r="U33" s="115"/>
     </row>
     <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="248"/>
+      <c r="A34" s="230"/>
       <c r="B34" s="112" t="s">
         <v>77</v>
       </c>
@@ -17319,7 +17319,7 @@
       <c r="U34" s="115"/>
     </row>
     <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="248"/>
+      <c r="A35" s="230"/>
       <c r="B35" s="112" t="s">
         <v>84</v>
       </c>
@@ -17381,7 +17381,7 @@
       <c r="U35" s="115"/>
     </row>
     <row r="36" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="249"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="118" t="s">
         <v>81</v>
       </c>
@@ -17466,22 +17466,22 @@
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="250" t="s">
+      <c r="A39" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="254"/>
-      <c r="D39" s="254"/>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="254"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="254"/>
-      <c r="K39" s="254"/>
-      <c r="L39" s="255"/>
+      <c r="C39" s="236"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="236"/>
+      <c r="F39" s="236"/>
+      <c r="G39" s="236"/>
+      <c r="H39" s="236"/>
+      <c r="I39" s="236"/>
+      <c r="J39" s="236"/>
+      <c r="K39" s="236"/>
+      <c r="L39" s="237"/>
       <c r="M39" s="127" t="s">
         <v>9</v>
       </c>
@@ -17511,18 +17511,18 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="251"/>
-      <c r="B40" s="256"/>
-      <c r="C40" s="257"/>
-      <c r="D40" s="257"/>
-      <c r="E40" s="257"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="257"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="257"/>
-      <c r="L40" s="258"/>
+      <c r="A40" s="233"/>
+      <c r="B40" s="238"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="239"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="239"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="239"/>
+      <c r="I40" s="239"/>
+      <c r="J40" s="239"/>
+      <c r="K40" s="239"/>
+      <c r="L40" s="240"/>
       <c r="M40" s="127" t="s">
         <v>30</v>
       </c>
@@ -17546,18 +17546,18 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="251"/>
-      <c r="B41" s="256"/>
-      <c r="C41" s="257"/>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="257"/>
-      <c r="J41" s="257"/>
-      <c r="K41" s="257"/>
-      <c r="L41" s="258"/>
+      <c r="A41" s="233"/>
+      <c r="B41" s="238"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="239"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="239"/>
+      <c r="L41" s="240"/>
       <c r="M41" s="127" t="s">
         <v>8</v>
       </c>
@@ -17587,18 +17587,18 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="251"/>
-      <c r="B42" s="259"/>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="260"/>
-      <c r="F42" s="260"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="260"/>
-      <c r="K42" s="260"/>
-      <c r="L42" s="261"/>
+      <c r="A42" s="233"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="242"/>
+      <c r="D42" s="242"/>
+      <c r="E42" s="242"/>
+      <c r="F42" s="242"/>
+      <c r="G42" s="242"/>
+      <c r="H42" s="242"/>
+      <c r="I42" s="242"/>
+      <c r="J42" s="242"/>
+      <c r="K42" s="242"/>
+      <c r="L42" s="243"/>
       <c r="M42" s="127" t="s">
         <v>10</v>
       </c>
@@ -17610,7 +17610,7 @@
       <c r="S42" s="135"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="251"/>
+      <c r="A43" s="233"/>
       <c r="B43" s="136"/>
       <c r="C43" s="123"/>
       <c r="D43" s="137"/>
@@ -17624,20 +17624,20 @@
       <c r="M43" s="140"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="251"/>
-      <c r="B44" s="253" t="s">
+      <c r="A44" s="233"/>
+      <c r="B44" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
-      <c r="E44" s="254"/>
-      <c r="F44" s="254"/>
-      <c r="G44" s="254"/>
-      <c r="H44" s="254"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="254"/>
-      <c r="K44" s="254"/>
-      <c r="L44" s="255"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="236"/>
+      <c r="L44" s="237"/>
       <c r="M44" s="127" t="s">
         <v>14</v>
       </c>
@@ -17667,18 +17667,18 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="251"/>
-      <c r="B45" s="256"/>
-      <c r="C45" s="257"/>
-      <c r="D45" s="257"/>
-      <c r="E45" s="257"/>
-      <c r="F45" s="257"/>
-      <c r="G45" s="257"/>
-      <c r="H45" s="257"/>
-      <c r="I45" s="257"/>
-      <c r="J45" s="257"/>
-      <c r="K45" s="257"/>
-      <c r="L45" s="258"/>
+      <c r="A45" s="233"/>
+      <c r="B45" s="238"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="240"/>
       <c r="M45" s="127" t="s">
         <v>8</v>
       </c>
@@ -17702,18 +17702,18 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="251"/>
-      <c r="B46" s="259"/>
-      <c r="C46" s="260"/>
-      <c r="D46" s="260"/>
-      <c r="E46" s="260"/>
-      <c r="F46" s="260"/>
-      <c r="G46" s="260"/>
-      <c r="H46" s="260"/>
-      <c r="I46" s="260"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="260"/>
-      <c r="L46" s="261"/>
+      <c r="A46" s="233"/>
+      <c r="B46" s="241"/>
+      <c r="C46" s="242"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="242"/>
+      <c r="F46" s="242"/>
+      <c r="G46" s="242"/>
+      <c r="H46" s="242"/>
+      <c r="I46" s="242"/>
+      <c r="J46" s="242"/>
+      <c r="K46" s="242"/>
+      <c r="L46" s="243"/>
       <c r="M46" s="127" t="s">
         <v>15</v>
       </c>
@@ -17737,7 +17737,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="251"/>
+      <c r="A47" s="233"/>
       <c r="B47" s="136"/>
       <c r="C47" s="123"/>
       <c r="D47" s="137"/>
@@ -17751,20 +17751,20 @@
       <c r="M47" s="140"/>
     </row>
     <row r="48" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="251"/>
-      <c r="B48" s="253" t="s">
+      <c r="A48" s="233"/>
+      <c r="B48" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="254"/>
-      <c r="D48" s="254"/>
-      <c r="E48" s="254"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="254"/>
-      <c r="H48" s="254"/>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="254"/>
-      <c r="L48" s="255"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="236"/>
+      <c r="G48" s="236"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="237"/>
       <c r="M48" s="127" t="s">
         <v>20</v>
       </c>
@@ -17794,46 +17794,46 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="251"/>
-      <c r="B49" s="259"/>
-      <c r="C49" s="260"/>
-      <c r="D49" s="260"/>
-      <c r="E49" s="260"/>
-      <c r="F49" s="260"/>
-      <c r="G49" s="260"/>
-      <c r="H49" s="260"/>
-      <c r="I49" s="260"/>
-      <c r="J49" s="260"/>
-      <c r="K49" s="260"/>
-      <c r="L49" s="261"/>
+      <c r="A49" s="233"/>
+      <c r="B49" s="241"/>
+      <c r="C49" s="242"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="242"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="243"/>
       <c r="M49" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="262">
+      <c r="N49" s="244">
         <f>SUM(N48:S48)</f>
         <v>2649971.7000000002</v>
       </c>
-      <c r="O49" s="263"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="263"/>
-      <c r="R49" s="263"/>
-      <c r="S49" s="264"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="245"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="245"/>
+      <c r="S49" s="246"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="251"/>
-      <c r="B50" s="253" t="s">
+      <c r="A50" s="233"/>
+      <c r="B50" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="254"/>
-      <c r="D50" s="254"/>
-      <c r="E50" s="254"/>
-      <c r="F50" s="254"/>
-      <c r="G50" s="254"/>
-      <c r="H50" s="254"/>
-      <c r="I50" s="254"/>
-      <c r="J50" s="254"/>
-      <c r="K50" s="254"/>
-      <c r="L50" s="255"/>
+      <c r="C50" s="236"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="236"/>
+      <c r="G50" s="236"/>
+      <c r="H50" s="236"/>
+      <c r="I50" s="236"/>
+      <c r="J50" s="236"/>
+      <c r="K50" s="236"/>
+      <c r="L50" s="237"/>
       <c r="M50" s="127" t="s">
         <v>20</v>
       </c>
@@ -17863,46 +17863,46 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="251"/>
-      <c r="B51" s="259"/>
-      <c r="C51" s="260"/>
-      <c r="D51" s="260"/>
-      <c r="E51" s="260"/>
-      <c r="F51" s="260"/>
-      <c r="G51" s="260"/>
-      <c r="H51" s="260"/>
-      <c r="I51" s="260"/>
-      <c r="J51" s="260"/>
-      <c r="K51" s="260"/>
-      <c r="L51" s="261"/>
+      <c r="A51" s="233"/>
+      <c r="B51" s="241"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="243"/>
       <c r="M51" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="262">
+      <c r="N51" s="244">
         <f>SUM(N50:S50)</f>
         <v>4362000</v>
       </c>
-      <c r="O51" s="263"/>
-      <c r="P51" s="263"/>
-      <c r="Q51" s="263"/>
-      <c r="R51" s="263"/>
-      <c r="S51" s="264"/>
+      <c r="O51" s="245"/>
+      <c r="P51" s="245"/>
+      <c r="Q51" s="245"/>
+      <c r="R51" s="245"/>
+      <c r="S51" s="246"/>
     </row>
     <row r="52" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="251"/>
-      <c r="B52" s="253" t="s">
+      <c r="A52" s="233"/>
+      <c r="B52" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-      <c r="H52" s="254"/>
-      <c r="I52" s="254"/>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="255"/>
+      <c r="C52" s="236"/>
+      <c r="D52" s="236"/>
+      <c r="E52" s="236"/>
+      <c r="F52" s="236"/>
+      <c r="G52" s="236"/>
+      <c r="H52" s="236"/>
+      <c r="I52" s="236"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="236"/>
+      <c r="L52" s="237"/>
       <c r="M52" s="127" t="s">
         <v>20</v>
       </c>
@@ -17932,55 +17932,55 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="251"/>
-      <c r="B53" s="259"/>
-      <c r="C53" s="260"/>
-      <c r="D53" s="260"/>
-      <c r="E53" s="260"/>
-      <c r="F53" s="260"/>
-      <c r="G53" s="260"/>
-      <c r="H53" s="260"/>
-      <c r="I53" s="260"/>
-      <c r="J53" s="260"/>
-      <c r="K53" s="260"/>
-      <c r="L53" s="261"/>
+      <c r="A53" s="233"/>
+      <c r="B53" s="241"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="242"/>
+      <c r="E53" s="242"/>
+      <c r="F53" s="242"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="242"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="242"/>
+      <c r="L53" s="243"/>
       <c r="M53" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="265">
+      <c r="N53" s="247">
         <f>SUM(N52:S52)</f>
         <v>1712028.2999999998</v>
       </c>
-      <c r="O53" s="266"/>
-      <c r="P53" s="266"/>
-      <c r="Q53" s="266"/>
-      <c r="R53" s="266"/>
-      <c r="S53" s="267"/>
+      <c r="O53" s="248"/>
+      <c r="P53" s="248"/>
+      <c r="Q53" s="248"/>
+      <c r="R53" s="248"/>
+      <c r="S53" s="249"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="251"/>
+      <c r="A54" s="233"/>
     </row>
     <row r="55" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="251"/>
-      <c r="B55" s="268" t="s">
+      <c r="A55" s="233"/>
+      <c r="B55" s="250" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="269"/>
-      <c r="D55" s="269"/>
-      <c r="E55" s="269"/>
-      <c r="F55" s="269"/>
-      <c r="G55" s="269"/>
-      <c r="H55" s="269"/>
-      <c r="I55" s="269"/>
-      <c r="J55" s="269"/>
-      <c r="K55" s="269"/>
-      <c r="L55" s="269"/>
-      <c r="M55" s="270"/>
-      <c r="N55" s="226" t="s">
+      <c r="C55" s="251"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="251"/>
+      <c r="F55" s="251"/>
+      <c r="G55" s="251"/>
+      <c r="H55" s="251"/>
+      <c r="I55" s="251"/>
+      <c r="J55" s="251"/>
+      <c r="K55" s="251"/>
+      <c r="L55" s="251"/>
+      <c r="M55" s="252"/>
+      <c r="N55" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="227"/>
-      <c r="P55" s="228"/>
+      <c r="O55" s="260"/>
+      <c r="P55" s="261"/>
       <c r="Q55" s="152" t="s">
         <v>29</v>
       </c>
@@ -17988,24 +17988,24 @@
       <c r="S55" s="153"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="251"/>
-      <c r="B56" s="271"/>
-      <c r="C56" s="272"/>
-      <c r="D56" s="272"/>
-      <c r="E56" s="272"/>
-      <c r="F56" s="272"/>
-      <c r="G56" s="272"/>
-      <c r="H56" s="272"/>
-      <c r="I56" s="272"/>
-      <c r="J56" s="272"/>
-      <c r="K56" s="272"/>
-      <c r="L56" s="272"/>
-      <c r="M56" s="273"/>
-      <c r="N56" s="277" t="s">
+      <c r="A56" s="233"/>
+      <c r="B56" s="253"/>
+      <c r="C56" s="254"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="254"/>
+      <c r="F56" s="254"/>
+      <c r="G56" s="254"/>
+      <c r="H56" s="254"/>
+      <c r="I56" s="254"/>
+      <c r="J56" s="254"/>
+      <c r="K56" s="254"/>
+      <c r="L56" s="254"/>
+      <c r="M56" s="255"/>
+      <c r="N56" s="262" t="s">
         <v>286</v>
       </c>
-      <c r="O56" s="278"/>
-      <c r="P56" s="279"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="264"/>
       <c r="Q56" s="154">
         <v>40000</v>
       </c>
@@ -18013,24 +18013,24 @@
       <c r="S56" s="155"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="251"/>
-      <c r="B57" s="271"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="272"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="272"/>
-      <c r="I57" s="272"/>
-      <c r="J57" s="272"/>
-      <c r="K57" s="272"/>
-      <c r="L57" s="272"/>
-      <c r="M57" s="273"/>
-      <c r="N57" s="235" t="s">
+      <c r="A57" s="233"/>
+      <c r="B57" s="253"/>
+      <c r="C57" s="254"/>
+      <c r="D57" s="254"/>
+      <c r="E57" s="254"/>
+      <c r="F57" s="254"/>
+      <c r="G57" s="254"/>
+      <c r="H57" s="254"/>
+      <c r="I57" s="254"/>
+      <c r="J57" s="254"/>
+      <c r="K57" s="254"/>
+      <c r="L57" s="254"/>
+      <c r="M57" s="255"/>
+      <c r="N57" s="265" t="s">
         <v>287</v>
       </c>
-      <c r="O57" s="236"/>
-      <c r="P57" s="237"/>
+      <c r="O57" s="266"/>
+      <c r="P57" s="267"/>
       <c r="Q57" s="156">
         <v>40000</v>
       </c>
@@ -18038,24 +18038,24 @@
       <c r="S57" s="155"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="251"/>
-      <c r="B58" s="271"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="272"/>
-      <c r="G58" s="272"/>
-      <c r="H58" s="272"/>
-      <c r="I58" s="272"/>
-      <c r="J58" s="272"/>
-      <c r="K58" s="272"/>
-      <c r="L58" s="272"/>
-      <c r="M58" s="273"/>
-      <c r="N58" s="235" t="s">
+      <c r="A58" s="233"/>
+      <c r="B58" s="253"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="254"/>
+      <c r="E58" s="254"/>
+      <c r="F58" s="254"/>
+      <c r="G58" s="254"/>
+      <c r="H58" s="254"/>
+      <c r="I58" s="254"/>
+      <c r="J58" s="254"/>
+      <c r="K58" s="254"/>
+      <c r="L58" s="254"/>
+      <c r="M58" s="255"/>
+      <c r="N58" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="O58" s="236"/>
-      <c r="P58" s="237"/>
+      <c r="O58" s="266"/>
+      <c r="P58" s="267"/>
       <c r="Q58" s="156">
         <v>20000</v>
       </c>
@@ -18063,24 +18063,24 @@
       <c r="S58" s="155"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="251"/>
-      <c r="B59" s="271"/>
-      <c r="C59" s="272"/>
-      <c r="D59" s="272"/>
-      <c r="E59" s="272"/>
-      <c r="F59" s="272"/>
-      <c r="G59" s="272"/>
-      <c r="H59" s="272"/>
-      <c r="I59" s="272"/>
-      <c r="J59" s="272"/>
-      <c r="K59" s="272"/>
-      <c r="L59" s="272"/>
-      <c r="M59" s="273"/>
-      <c r="N59" s="235" t="s">
+      <c r="A59" s="233"/>
+      <c r="B59" s="253"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="254"/>
+      <c r="I59" s="254"/>
+      <c r="J59" s="254"/>
+      <c r="K59" s="254"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="255"/>
+      <c r="N59" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="O59" s="236"/>
-      <c r="P59" s="237"/>
+      <c r="O59" s="266"/>
+      <c r="P59" s="267"/>
       <c r="Q59" s="156">
         <v>18000</v>
       </c>
@@ -18088,24 +18088,24 @@
       <c r="S59" s="155"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="251"/>
-      <c r="B60" s="271"/>
-      <c r="C60" s="272"/>
-      <c r="D60" s="272"/>
-      <c r="E60" s="272"/>
-      <c r="F60" s="272"/>
-      <c r="G60" s="272"/>
-      <c r="H60" s="272"/>
-      <c r="I60" s="272"/>
-      <c r="J60" s="272"/>
-      <c r="K60" s="272"/>
-      <c r="L60" s="272"/>
-      <c r="M60" s="273"/>
-      <c r="N60" s="235" t="s">
+      <c r="A60" s="233"/>
+      <c r="B60" s="253"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="254"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
+      <c r="I60" s="254"/>
+      <c r="J60" s="254"/>
+      <c r="K60" s="254"/>
+      <c r="L60" s="254"/>
+      <c r="M60" s="255"/>
+      <c r="N60" s="265" t="s">
         <v>294</v>
       </c>
-      <c r="O60" s="236"/>
-      <c r="P60" s="237"/>
+      <c r="O60" s="266"/>
+      <c r="P60" s="267"/>
       <c r="Q60" s="156">
         <v>60000</v>
       </c>
@@ -18113,24 +18113,24 @@
       <c r="S60" s="155"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="251"/>
-      <c r="B61" s="271"/>
-      <c r="C61" s="272"/>
-      <c r="D61" s="272"/>
-      <c r="E61" s="272"/>
-      <c r="F61" s="272"/>
-      <c r="G61" s="272"/>
-      <c r="H61" s="272"/>
-      <c r="I61" s="272"/>
-      <c r="J61" s="272"/>
-      <c r="K61" s="272"/>
-      <c r="L61" s="272"/>
-      <c r="M61" s="273"/>
-      <c r="N61" s="232" t="s">
+      <c r="A61" s="233"/>
+      <c r="B61" s="253"/>
+      <c r="C61" s="254"/>
+      <c r="D61" s="254"/>
+      <c r="E61" s="254"/>
+      <c r="F61" s="254"/>
+      <c r="G61" s="254"/>
+      <c r="H61" s="254"/>
+      <c r="I61" s="254"/>
+      <c r="J61" s="254"/>
+      <c r="K61" s="254"/>
+      <c r="L61" s="254"/>
+      <c r="M61" s="255"/>
+      <c r="N61" s="277" t="s">
         <v>150</v>
       </c>
-      <c r="O61" s="233"/>
-      <c r="P61" s="234"/>
+      <c r="O61" s="278"/>
+      <c r="P61" s="279"/>
       <c r="Q61" s="156">
         <v>30000</v>
       </c>
@@ -18138,24 +18138,24 @@
       <c r="S61" s="155"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="251"/>
-      <c r="B62" s="271"/>
-      <c r="C62" s="272"/>
-      <c r="D62" s="272"/>
-      <c r="E62" s="272"/>
-      <c r="F62" s="272"/>
-      <c r="G62" s="272"/>
-      <c r="H62" s="272"/>
-      <c r="I62" s="272"/>
-      <c r="J62" s="272"/>
-      <c r="K62" s="272"/>
-      <c r="L62" s="272"/>
-      <c r="M62" s="273"/>
-      <c r="N62" s="232" t="s">
+      <c r="A62" s="233"/>
+      <c r="B62" s="253"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="254"/>
+      <c r="G62" s="254"/>
+      <c r="H62" s="254"/>
+      <c r="I62" s="254"/>
+      <c r="J62" s="254"/>
+      <c r="K62" s="254"/>
+      <c r="L62" s="254"/>
+      <c r="M62" s="255"/>
+      <c r="N62" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="O62" s="233"/>
-      <c r="P62" s="234"/>
+      <c r="O62" s="278"/>
+      <c r="P62" s="279"/>
       <c r="Q62" s="156">
         <v>30000</v>
       </c>
@@ -18163,24 +18163,24 @@
       <c r="S62" s="155"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="251"/>
-      <c r="B63" s="271"/>
-      <c r="C63" s="272"/>
-      <c r="D63" s="272"/>
-      <c r="E63" s="272"/>
-      <c r="F63" s="272"/>
-      <c r="G63" s="272"/>
-      <c r="H63" s="272"/>
-      <c r="I63" s="272"/>
-      <c r="J63" s="272"/>
-      <c r="K63" s="272"/>
-      <c r="L63" s="272"/>
-      <c r="M63" s="273"/>
-      <c r="N63" s="232" t="s">
+      <c r="A63" s="233"/>
+      <c r="B63" s="253"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="254"/>
+      <c r="E63" s="254"/>
+      <c r="F63" s="254"/>
+      <c r="G63" s="254"/>
+      <c r="H63" s="254"/>
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="254"/>
+      <c r="L63" s="254"/>
+      <c r="M63" s="255"/>
+      <c r="N63" s="277" t="s">
         <v>155</v>
       </c>
-      <c r="O63" s="233"/>
-      <c r="P63" s="234"/>
+      <c r="O63" s="278"/>
+      <c r="P63" s="279"/>
       <c r="Q63" s="156">
         <v>30000</v>
       </c>
@@ -18188,24 +18188,24 @@
       <c r="S63" s="155"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="251"/>
-      <c r="B64" s="271"/>
-      <c r="C64" s="272"/>
-      <c r="D64" s="272"/>
-      <c r="E64" s="272"/>
-      <c r="F64" s="272"/>
-      <c r="G64" s="272"/>
-      <c r="H64" s="272"/>
-      <c r="I64" s="272"/>
-      <c r="J64" s="272"/>
-      <c r="K64" s="272"/>
-      <c r="L64" s="272"/>
-      <c r="M64" s="273"/>
-      <c r="N64" s="232" t="s">
+      <c r="A64" s="233"/>
+      <c r="B64" s="253"/>
+      <c r="C64" s="254"/>
+      <c r="D64" s="254"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="254"/>
+      <c r="G64" s="254"/>
+      <c r="H64" s="254"/>
+      <c r="I64" s="254"/>
+      <c r="J64" s="254"/>
+      <c r="K64" s="254"/>
+      <c r="L64" s="254"/>
+      <c r="M64" s="255"/>
+      <c r="N64" s="277" t="s">
         <v>295</v>
       </c>
-      <c r="O64" s="233"/>
-      <c r="P64" s="234"/>
+      <c r="O64" s="278"/>
+      <c r="P64" s="279"/>
       <c r="Q64" s="156">
         <v>25000</v>
       </c>
@@ -18213,24 +18213,24 @@
       <c r="S64" s="155"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="251"/>
-      <c r="B65" s="271"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="272"/>
-      <c r="F65" s="272"/>
-      <c r="G65" s="272"/>
-      <c r="H65" s="272"/>
-      <c r="I65" s="272"/>
-      <c r="J65" s="272"/>
-      <c r="K65" s="272"/>
-      <c r="L65" s="272"/>
-      <c r="M65" s="273"/>
-      <c r="N65" s="232" t="s">
+      <c r="A65" s="233"/>
+      <c r="B65" s="253"/>
+      <c r="C65" s="254"/>
+      <c r="D65" s="254"/>
+      <c r="E65" s="254"/>
+      <c r="F65" s="254"/>
+      <c r="G65" s="254"/>
+      <c r="H65" s="254"/>
+      <c r="I65" s="254"/>
+      <c r="J65" s="254"/>
+      <c r="K65" s="254"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="255"/>
+      <c r="N65" s="277" t="s">
         <v>296</v>
       </c>
-      <c r="O65" s="233"/>
-      <c r="P65" s="234"/>
+      <c r="O65" s="278"/>
+      <c r="P65" s="279"/>
       <c r="Q65" s="156">
         <v>20000</v>
       </c>
@@ -18238,24 +18238,24 @@
       <c r="S65" s="155"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="251"/>
-      <c r="B66" s="271"/>
-      <c r="C66" s="272"/>
-      <c r="D66" s="272"/>
-      <c r="E66" s="272"/>
-      <c r="F66" s="272"/>
-      <c r="G66" s="272"/>
-      <c r="H66" s="272"/>
-      <c r="I66" s="272"/>
-      <c r="J66" s="272"/>
-      <c r="K66" s="272"/>
-      <c r="L66" s="272"/>
-      <c r="M66" s="273"/>
-      <c r="N66" s="235" t="s">
+      <c r="A66" s="233"/>
+      <c r="B66" s="253"/>
+      <c r="C66" s="254"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="254"/>
+      <c r="G66" s="254"/>
+      <c r="H66" s="254"/>
+      <c r="I66" s="254"/>
+      <c r="J66" s="254"/>
+      <c r="K66" s="254"/>
+      <c r="L66" s="254"/>
+      <c r="M66" s="255"/>
+      <c r="N66" s="265" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="236"/>
-      <c r="P66" s="237"/>
+      <c r="O66" s="266"/>
+      <c r="P66" s="267"/>
       <c r="Q66" s="156">
         <v>35000</v>
       </c>
@@ -18263,45 +18263,45 @@
       <c r="S66" s="155"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="251"/>
-      <c r="B67" s="271"/>
-      <c r="C67" s="272"/>
-      <c r="D67" s="272"/>
-      <c r="E67" s="272"/>
-      <c r="F67" s="272"/>
-      <c r="G67" s="272"/>
-      <c r="H67" s="272"/>
-      <c r="I67" s="272"/>
-      <c r="J67" s="272"/>
-      <c r="K67" s="272"/>
-      <c r="L67" s="272"/>
-      <c r="M67" s="273"/>
-      <c r="N67" s="238"/>
-      <c r="O67" s="239"/>
-      <c r="P67" s="240"/>
+      <c r="A67" s="233"/>
+      <c r="B67" s="253"/>
+      <c r="C67" s="254"/>
+      <c r="D67" s="254"/>
+      <c r="E67" s="254"/>
+      <c r="F67" s="254"/>
+      <c r="G67" s="254"/>
+      <c r="H67" s="254"/>
+      <c r="I67" s="254"/>
+      <c r="J67" s="254"/>
+      <c r="K67" s="254"/>
+      <c r="L67" s="254"/>
+      <c r="M67" s="255"/>
+      <c r="N67" s="268"/>
+      <c r="O67" s="269"/>
+      <c r="P67" s="270"/>
       <c r="Q67" s="156"/>
       <c r="R67" s="155"/>
       <c r="S67" s="155"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="251"/>
-      <c r="B68" s="274"/>
-      <c r="C68" s="275"/>
-      <c r="D68" s="275"/>
-      <c r="E68" s="275"/>
-      <c r="F68" s="275"/>
-      <c r="G68" s="275"/>
-      <c r="H68" s="275"/>
-      <c r="I68" s="275"/>
-      <c r="J68" s="275"/>
-      <c r="K68" s="275"/>
-      <c r="L68" s="275"/>
-      <c r="M68" s="276"/>
-      <c r="N68" s="223" t="s">
+      <c r="A68" s="233"/>
+      <c r="B68" s="256"/>
+      <c r="C68" s="257"/>
+      <c r="D68" s="257"/>
+      <c r="E68" s="257"/>
+      <c r="F68" s="257"/>
+      <c r="G68" s="257"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="257"/>
+      <c r="J68" s="257"/>
+      <c r="K68" s="257"/>
+      <c r="L68" s="257"/>
+      <c r="M68" s="258"/>
+      <c r="N68" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="224"/>
-      <c r="P68" s="225"/>
+      <c r="O68" s="272"/>
+      <c r="P68" s="273"/>
       <c r="Q68" s="157">
         <f>SUM(Q56:Q67)</f>
         <v>348000</v>
@@ -18310,35 +18310,35 @@
       <c r="S68" s="155"/>
     </row>
     <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="251"/>
+      <c r="A69" s="233"/>
     </row>
     <row r="70" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="252"/>
-      <c r="B70" s="226" t="s">
+      <c r="A70" s="234"/>
+      <c r="B70" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="227"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="227"/>
-      <c r="F70" s="227"/>
-      <c r="G70" s="227"/>
-      <c r="H70" s="227"/>
-      <c r="I70" s="227"/>
-      <c r="J70" s="227"/>
-      <c r="K70" s="227"/>
-      <c r="L70" s="228"/>
+      <c r="C70" s="260"/>
+      <c r="D70" s="260"/>
+      <c r="E70" s="260"/>
+      <c r="F70" s="260"/>
+      <c r="G70" s="260"/>
+      <c r="H70" s="260"/>
+      <c r="I70" s="260"/>
+      <c r="J70" s="260"/>
+      <c r="K70" s="260"/>
+      <c r="L70" s="261"/>
       <c r="M70" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="229">
+      <c r="N70" s="274">
         <f>N53-SUM(Q56:Q67)</f>
         <v>1364028.2999999998</v>
       </c>
-      <c r="O70" s="230"/>
-      <c r="P70" s="230"/>
-      <c r="Q70" s="230"/>
-      <c r="R70" s="230"/>
-      <c r="S70" s="231"/>
+      <c r="O70" s="275"/>
+      <c r="P70" s="275"/>
+      <c r="Q70" s="275"/>
+      <c r="R70" s="275"/>
+      <c r="S70" s="276"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="159"/>
@@ -18398,6 +18398,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="N70:S70"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A36"/>
@@ -18414,19 +18427,6 @@
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="N70:S70"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N64:P64"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T36">
     <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">

--- a/bot/datos/2017 - 08 (Agosto).xlsx
+++ b/bot/datos/2017 - 08 (Agosto).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedido base (copiar esta hoja)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2071,6 +2071,123 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,15 +2215,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2125,114 +2233,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2242,6 +2242,60 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2350,15 +2404,6 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2366,51 +2411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7412,49 +7412,49 @@
       <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="33.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="19" width="15.44140625" customWidth="1"/>
-    <col min="21" max="21" width="71.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="33.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="19" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="71.42578125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="187" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="169" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="192"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="174"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
       <c r="N3" s="33" t="s">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="U3" s="67"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
@@ -7539,8 +7539,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+    <row r="5" spans="1:21" ht="14.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="166" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="41" t="str">
@@ -7597,8 +7597,8 @@
       </c>
       <c r="U5" s="91"/>
     </row>
-    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185"/>
+    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="167"/>
       <c r="B6" s="43" t="str">
         <f>[1]Personas!A3</f>
         <v>Maida</v>
@@ -7653,8 +7653,8 @@
       </c>
       <c r="U6" s="92"/>
     </row>
-    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185"/>
+    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="167"/>
       <c r="B7" s="43" t="str">
         <f>[1]Personas!A4</f>
         <v>Gabriel</v>
@@ -7709,8 +7709,8 @@
       </c>
       <c r="U7" s="92"/>
     </row>
-    <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185"/>
+    <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="167"/>
       <c r="B8" s="43" t="str">
         <f>[1]Personas!A5</f>
         <v>Martin</v>
@@ -7765,8 +7765,8 @@
       </c>
       <c r="U8" s="92"/>
     </row>
-    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="185"/>
+    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="167"/>
       <c r="B9" s="43" t="str">
         <f>[1]Personas!A6</f>
         <v>Javi</v>
@@ -7821,8 +7821,8 @@
       </c>
       <c r="U9" s="92"/>
     </row>
-    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="167"/>
       <c r="B10" s="43" t="str">
         <f>[1]Personas!A7</f>
         <v>Samuel</v>
@@ -7877,8 +7877,8 @@
       </c>
       <c r="U10" s="92"/>
     </row>
-    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="167"/>
       <c r="B11" s="43" t="str">
         <f>[1]Personas!A8</f>
         <v>Paul</v>
@@ -7933,8 +7933,8 @@
       </c>
       <c r="U11" s="92"/>
     </row>
-    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
+    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="167"/>
       <c r="B12" s="43" t="str">
         <f>[1]Personas!A9</f>
         <v>Alvaro</v>
@@ -7989,8 +7989,8 @@
       </c>
       <c r="U12" s="92"/>
     </row>
-    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="167"/>
       <c r="B13" s="43" t="str">
         <f>[1]Personas!A10</f>
         <v>Ignacio</v>
@@ -8045,8 +8045,8 @@
       </c>
       <c r="U13" s="92"/>
     </row>
-    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
+    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="167"/>
       <c r="B14" s="43" t="str">
         <f>[1]Personas!A11</f>
         <v>Majo</v>
@@ -8101,8 +8101,8 @@
       </c>
       <c r="U14" s="92"/>
     </row>
-    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="167"/>
       <c r="B15" s="43" t="str">
         <f>[1]Personas!A12</f>
         <v>Vicky</v>
@@ -8157,8 +8157,8 @@
       </c>
       <c r="U15" s="92"/>
     </row>
-    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="185"/>
+    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="167"/>
       <c r="B16" s="43" t="str">
         <f>[1]Personas!A13</f>
         <v>Antonia</v>
@@ -8213,8 +8213,8 @@
       </c>
       <c r="U16" s="92"/>
     </row>
-    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
+    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="167"/>
       <c r="B17" s="43" t="str">
         <f>[1]Personas!A14</f>
         <v>Josefa</v>
@@ -8269,8 +8269,8 @@
       </c>
       <c r="U17" s="92"/>
     </row>
-    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
+    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="167"/>
       <c r="B18" s="43" t="str">
         <f>[1]Personas!A15</f>
         <v>Florencia</v>
@@ -8325,8 +8325,8 @@
       </c>
       <c r="U18" s="92"/>
     </row>
-    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="185"/>
+    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="167"/>
       <c r="B19" s="43" t="str">
         <f>[1]Personas!A16</f>
         <v>Joaquin</v>
@@ -8381,8 +8381,8 @@
       </c>
       <c r="U19" s="92"/>
     </row>
-    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
+    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="167"/>
       <c r="B20" s="43" t="str">
         <f>[1]Personas!A17</f>
         <v>Dominique</v>
@@ -8437,8 +8437,8 @@
       </c>
       <c r="U20" s="92"/>
     </row>
-    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
+    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="167"/>
       <c r="B21" s="43" t="str">
         <f>[1]Personas!A18</f>
         <v>Camila</v>
@@ -8493,8 +8493,8 @@
       </c>
       <c r="U21" s="92"/>
     </row>
-    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
+    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="167"/>
       <c r="B22" s="43" t="str">
         <f>[1]Personas!A20</f>
         <v>Javi</v>
@@ -8549,8 +8549,8 @@
       </c>
       <c r="U22" s="92"/>
     </row>
-    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
+    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="167"/>
       <c r="B23" s="43" t="str">
         <f>[1]Personas!A19</f>
         <v>Amelia</v>
@@ -8605,8 +8605,8 @@
       </c>
       <c r="U23" s="92"/>
     </row>
-    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
+    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="167"/>
       <c r="B24" s="43" t="str">
         <f>[1]Personas!A21</f>
         <v>Constanza</v>
@@ -8661,8 +8661,8 @@
       </c>
       <c r="U24" s="92"/>
     </row>
-    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
+    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="167"/>
       <c r="B25" s="43" t="str">
         <f>[1]Personas!A22</f>
         <v>Rosario</v>
@@ -8717,8 +8717,8 @@
       </c>
       <c r="U25" s="92"/>
     </row>
-    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="185"/>
+    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="167"/>
       <c r="B26" s="43" t="str">
         <f>[1]Personas!A23</f>
         <v>Pilar</v>
@@ -8773,8 +8773,8 @@
       </c>
       <c r="U26" s="92"/>
     </row>
-    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="185"/>
+    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="167"/>
       <c r="B27" s="43" t="str">
         <f>[1]Personas!A24</f>
         <v>Joaquin</v>
@@ -8829,8 +8829,8 @@
       </c>
       <c r="U27" s="92"/>
     </row>
-    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
+    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="167"/>
       <c r="B28" s="43" t="str">
         <f>[1]Personas!A25</f>
         <v>Maria Jesus</v>
@@ -8885,8 +8885,8 @@
       </c>
       <c r="U28" s="92"/>
     </row>
-    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="185"/>
+    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="167"/>
       <c r="B29" s="43" t="str">
         <f>[1]Personas!A26</f>
         <v>Rafael</v>
@@ -8941,8 +8941,8 @@
       </c>
       <c r="U29" s="92"/>
     </row>
-    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="185"/>
+    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="167"/>
       <c r="B30" s="43" t="str">
         <f>[1]Personas!A27</f>
         <v>Isidora</v>
@@ -8997,8 +8997,8 @@
       </c>
       <c r="U30" s="92"/>
     </row>
-    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="185"/>
+    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="167"/>
       <c r="B31" s="43" t="str">
         <f>[1]Personas!A28</f>
         <v>Maria Luisa</v>
@@ -9053,8 +9053,8 @@
       </c>
       <c r="U31" s="92"/>
     </row>
-    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="185"/>
+    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="167"/>
       <c r="B32" s="43" t="str">
         <f>[1]Personas!A29</f>
         <v>Rodrigo</v>
@@ -9109,8 +9109,8 @@
       </c>
       <c r="U32" s="92"/>
     </row>
-    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="185"/>
+    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="167"/>
       <c r="B33" s="43" t="str">
         <f>[1]Personas!A30</f>
         <v>Tere</v>
@@ -9165,8 +9165,8 @@
       </c>
       <c r="U33" s="92"/>
     </row>
-    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="185"/>
+    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="167"/>
       <c r="B34" s="43" t="str">
         <f>[1]Personas!A31</f>
         <v>Diego</v>
@@ -9221,8 +9221,8 @@
       </c>
       <c r="U34" s="92"/>
     </row>
-    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="185"/>
+    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="167"/>
       <c r="B35" s="43" t="str">
         <f>[1]Personas!A32</f>
         <v>Matias</v>
@@ -9277,8 +9277,8 @@
       </c>
       <c r="U35" s="92"/>
     </row>
-    <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="185"/>
+    <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="167"/>
       <c r="B36" s="43" t="str">
         <f>[1]Personas!A33</f>
         <v>Benjamin</v>
@@ -9333,8 +9333,8 @@
       </c>
       <c r="U36" s="92"/>
     </row>
-    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="185"/>
+    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="167"/>
       <c r="B37" s="43" t="str">
         <f>[1]Personas!A34</f>
         <v>Mauricio</v>
@@ -9389,8 +9389,8 @@
       </c>
       <c r="U37" s="92"/>
     </row>
-    <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="185"/>
+    <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="167"/>
       <c r="B38" s="43" t="str">
         <f>[1]Personas!A35</f>
         <v>Andres</v>
@@ -9445,8 +9445,8 @@
       </c>
       <c r="U38" s="92"/>
     </row>
-    <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="185"/>
+    <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="167"/>
       <c r="B39" s="43" t="str">
         <f>[1]Personas!A36</f>
         <v>Cata</v>
@@ -9501,8 +9501,8 @@
       </c>
       <c r="U39" s="92"/>
     </row>
-    <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="185"/>
+    <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="167"/>
       <c r="B40" s="43" t="str">
         <f>[1]Personas!A37</f>
         <v>Margarita</v>
@@ -9557,8 +9557,8 @@
       </c>
       <c r="U40" s="92"/>
     </row>
-    <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="185"/>
+    <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="167"/>
       <c r="B41" s="43" t="str">
         <f>[1]Personas!A38</f>
         <v>Ric</v>
@@ -9613,8 +9613,8 @@
       </c>
       <c r="U41" s="92"/>
     </row>
-    <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185"/>
+    <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="167"/>
       <c r="B42" s="43" t="str">
         <f>[1]Personas!A39</f>
         <v>Matias</v>
@@ -9669,8 +9669,8 @@
       </c>
       <c r="U42" s="92"/>
     </row>
-    <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="185"/>
+    <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="167"/>
       <c r="B43" s="43" t="str">
         <f>[1]Personas!A40</f>
         <v>Juan Diego</v>
@@ -9725,8 +9725,8 @@
       </c>
       <c r="U43" s="92"/>
     </row>
-    <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="185"/>
+    <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="167"/>
       <c r="B44" s="43" t="str">
         <f>[1]Personas!A41</f>
         <v>Bernardita</v>
@@ -9781,8 +9781,8 @@
       </c>
       <c r="U44" s="92"/>
     </row>
-    <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="185"/>
+    <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="167"/>
       <c r="B45" s="22" t="str">
         <f>[1]Personas!A43</f>
         <v>Vicente</v>
@@ -9837,8 +9837,8 @@
       </c>
       <c r="U45" s="92"/>
     </row>
-    <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="185"/>
+    <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="167"/>
       <c r="B46" s="43" t="str">
         <f>[1]Personas!A42</f>
         <v>Michella</v>
@@ -9893,8 +9893,8 @@
       </c>
       <c r="U46" s="92"/>
     </row>
-    <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="185"/>
+    <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="167"/>
       <c r="B47" s="22" t="str">
         <f>[1]Personas!A44</f>
         <v>Jesu</v>
@@ -9949,8 +9949,8 @@
       </c>
       <c r="U47" s="92"/>
     </row>
-    <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="185"/>
+    <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="167"/>
       <c r="B48" s="22" t="str">
         <f>[1]Personas!A45</f>
         <v>Ignacio</v>
@@ -10005,8 +10005,8 @@
       </c>
       <c r="U48" s="92"/>
     </row>
-    <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
+    <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="167"/>
       <c r="B49" s="22" t="str">
         <f>[1]Personas!A46</f>
         <v>Ignacio</v>
@@ -10061,8 +10061,8 @@
       </c>
       <c r="U49" s="92"/>
     </row>
-    <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="185"/>
+    <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="167"/>
       <c r="B50" s="22" t="str">
         <f>[1]Personas!A47</f>
         <v>Rodrigo</v>
@@ -10114,8 +10114,8 @@
       </c>
       <c r="U50" s="92"/>
     </row>
-    <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="185"/>
+    <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="167"/>
       <c r="B51" s="22" t="str">
         <f>[1]Personas!A48</f>
         <v>Josefina</v>
@@ -10167,8 +10167,8 @@
       </c>
       <c r="U51" s="92"/>
     </row>
-    <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="185"/>
+    <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="167"/>
       <c r="B52" s="22" t="str">
         <f>[1]Personas!A49</f>
         <v>Raimundo</v>
@@ -10220,8 +10220,8 @@
       </c>
       <c r="U52" s="92"/>
     </row>
-    <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="185"/>
+    <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="167"/>
       <c r="B53" s="22" t="str">
         <f>[1]Personas!A50</f>
         <v>Vicente</v>
@@ -10276,8 +10276,8 @@
       </c>
       <c r="U53" s="92"/>
     </row>
-    <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="185"/>
+    <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="167"/>
       <c r="B54" s="22" t="str">
         <f>[1]Personas!A51</f>
         <v>Trinidad</v>
@@ -10332,8 +10332,8 @@
       </c>
       <c r="U54" s="92"/>
     </row>
-    <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="185"/>
+    <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="167"/>
       <c r="B55" s="22" t="str">
         <f>[1]Personas!A52</f>
         <v>Sofia</v>
@@ -10385,8 +10385,8 @@
       </c>
       <c r="U55" s="92"/>
     </row>
-    <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="185"/>
+    <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="167"/>
       <c r="B56" s="22" t="str">
         <f>[1]Personas!A53</f>
         <v>Francesco</v>
@@ -10438,8 +10438,8 @@
       </c>
       <c r="U56" s="92"/>
     </row>
-    <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="186"/>
+    <row r="57" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="168"/>
       <c r="B57" s="26" t="str">
         <f>[1]Personas!A54</f>
         <v>Trinidad</v>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="U57" s="94"/>
     </row>
-    <row r="58" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -10513,24 +10513,24 @@
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="193" t="s">
+    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="196" t="s">
+      <c r="B60" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="197"/>
-      <c r="D60" s="197"/>
-      <c r="E60" s="197"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="197"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="198"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
       <c r="M60" s="76" t="s">
         <v>9</v>
       </c>
@@ -10559,19 +10559,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="194"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="200"/>
-      <c r="D61" s="200"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="200"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="201"/>
+    <row r="61" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="176"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="183"/>
       <c r="M61" s="76" t="s">
         <v>30</v>
       </c>
@@ -10594,19 +10594,19 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="194"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="200"/>
-      <c r="D62" s="200"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="200"/>
-      <c r="K62" s="200"/>
-      <c r="L62" s="201"/>
+    <row r="62" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="176"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="182"/>
+      <c r="L62" s="183"/>
       <c r="M62" s="76" t="s">
         <v>8</v>
       </c>
@@ -10635,19 +10635,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="194"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="203"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="203"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="203"/>
-      <c r="K63" s="203"/>
-      <c r="L63" s="204"/>
+    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="176"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="185"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="185"/>
+      <c r="G63" s="185"/>
+      <c r="H63" s="185"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="186"/>
       <c r="M63" s="76" t="s">
         <v>10</v>
       </c>
@@ -10658,8 +10658,8 @@
       <c r="R63" s="32"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="194"/>
+    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="176"/>
       <c r="B64" s="77"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -10672,21 +10672,21 @@
       <c r="K64" s="47"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="194"/>
-      <c r="B65" s="196" t="s">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="176"/>
+      <c r="B65" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="197"/>
-      <c r="D65" s="197"/>
-      <c r="E65" s="197"/>
-      <c r="F65" s="197"/>
-      <c r="G65" s="197"/>
-      <c r="H65" s="197"/>
-      <c r="I65" s="197"/>
-      <c r="J65" s="197"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="198"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
       <c r="M65" s="76" t="s">
         <v>14</v>
       </c>
@@ -10715,19 +10715,19 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="194"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="200"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="200"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="201"/>
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="176"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="183"/>
       <c r="M66" s="76" t="s">
         <v>8</v>
       </c>
@@ -10750,19 +10750,19 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="194"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="203"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="203"/>
-      <c r="K67" s="203"/>
-      <c r="L67" s="204"/>
+    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="176"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="186"/>
       <c r="M67" s="76" t="s">
         <v>15</v>
       </c>
@@ -10785,8 +10785,8 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="194"/>
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="176"/>
       <c r="B68" s="77"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -10799,21 +10799,21 @@
       <c r="K68" s="47"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="194"/>
-      <c r="B69" s="196" t="s">
+    <row r="69" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="176"/>
+      <c r="B69" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197"/>
-      <c r="G69" s="197"/>
-      <c r="H69" s="197"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="197"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="198"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="179"/>
+      <c r="J69" s="179"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
       <c r="M69" s="76" t="s">
         <v>20</v>
       </c>
@@ -10842,47 +10842,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="194"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="203"/>
-      <c r="D70" s="203"/>
-      <c r="E70" s="203"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-      <c r="L70" s="204"/>
+    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="176"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="186"/>
       <c r="M70" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="205">
+      <c r="N70" s="187">
         <f>SUM(N69:S69)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="206"/>
-      <c r="P70" s="206"/>
-      <c r="Q70" s="206"/>
-      <c r="R70" s="206"/>
-      <c r="S70" s="207"/>
-    </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="194"/>
-      <c r="B71" s="196" t="s">
+      <c r="O70" s="188"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="188"/>
+      <c r="R70" s="188"/>
+      <c r="S70" s="189"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="176"/>
+      <c r="B71" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="197"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="197"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="197"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="198"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
       <c r="M71" s="76" t="s">
         <v>20</v>
       </c>
@@ -10911,47 +10911,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="194"/>
-      <c r="B72" s="202"/>
-      <c r="C72" s="203"/>
-      <c r="D72" s="203"/>
-      <c r="E72" s="203"/>
-      <c r="F72" s="203"/>
-      <c r="G72" s="203"/>
-      <c r="H72" s="203"/>
-      <c r="I72" s="203"/>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
-      <c r="L72" s="204"/>
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="176"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="185"/>
+      <c r="D72" s="185"/>
+      <c r="E72" s="185"/>
+      <c r="F72" s="185"/>
+      <c r="G72" s="185"/>
+      <c r="H72" s="185"/>
+      <c r="I72" s="185"/>
+      <c r="J72" s="185"/>
+      <c r="K72" s="185"/>
+      <c r="L72" s="186"/>
       <c r="M72" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="205">
+      <c r="N72" s="187">
         <f>SUM(N71:S71)</f>
         <v>0</v>
       </c>
-      <c r="O72" s="206"/>
-      <c r="P72" s="206"/>
-      <c r="Q72" s="206"/>
-      <c r="R72" s="206"/>
-      <c r="S72" s="207"/>
-    </row>
-    <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="194"/>
-      <c r="B73" s="196" t="s">
+      <c r="O72" s="188"/>
+      <c r="P72" s="188"/>
+      <c r="Q72" s="188"/>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189"/>
+    </row>
+    <row r="73" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="176"/>
+      <c r="B73" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
-      <c r="F73" s="197"/>
-      <c r="G73" s="197"/>
-      <c r="H73" s="197"/>
-      <c r="I73" s="197"/>
-      <c r="J73" s="197"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="198"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
       <c r="M73" s="76" t="s">
         <v>20</v>
       </c>
@@ -10980,228 +10980,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="194"/>
-      <c r="B74" s="202"/>
-      <c r="C74" s="203"/>
-      <c r="D74" s="203"/>
-      <c r="E74" s="203"/>
-      <c r="F74" s="203"/>
-      <c r="G74" s="203"/>
-      <c r="H74" s="203"/>
-      <c r="I74" s="203"/>
-      <c r="J74" s="203"/>
-      <c r="K74" s="203"/>
-      <c r="L74" s="204"/>
+    <row r="74" spans="1:19" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="176"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="186"/>
       <c r="M74" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="217">
+      <c r="N74" s="202">
         <f>SUM(N73:S73)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="218"/>
-      <c r="P74" s="218"/>
-      <c r="Q74" s="218"/>
-      <c r="R74" s="218"/>
-      <c r="S74" s="219"/>
-    </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="194"/>
-    </row>
-    <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="194"/>
-      <c r="B76" s="166" t="s">
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="204"/>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="176"/>
+    </row>
+    <row r="76" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="176"/>
+      <c r="B76" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="167"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="167"/>
-      <c r="J76" s="167"/>
-      <c r="K76" s="167"/>
-      <c r="L76" s="167"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="175" t="s">
+      <c r="C76" s="206"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="176"/>
-      <c r="P76" s="177"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="198"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="194"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="170"/>
-      <c r="F77" s="170"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="170"/>
-      <c r="I77" s="170"/>
-      <c r="J77" s="170"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="170"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="178"/>
-      <c r="O77" s="179"/>
-      <c r="P77" s="180"/>
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="176"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="209"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="214"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="216"/>
       <c r="Q77" s="61"/>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="194"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="171"/>
-      <c r="N78" s="181"/>
-      <c r="O78" s="182"/>
-      <c r="P78" s="183"/>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="176"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="217"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="219"/>
       <c r="Q78" s="62"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="194"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="170"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="170"/>
-      <c r="M79" s="171"/>
-      <c r="N79" s="181"/>
-      <c r="O79" s="182"/>
-      <c r="P79" s="183"/>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="176"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="217"/>
+      <c r="O79" s="218"/>
+      <c r="P79" s="219"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="194"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="171"/>
-      <c r="N80" s="181"/>
-      <c r="O80" s="182"/>
-      <c r="P80" s="183"/>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="176"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="217"/>
+      <c r="O80" s="218"/>
+      <c r="P80" s="219"/>
       <c r="Q80" s="62"/>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="194"/>
-      <c r="B81" s="169"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="170"/>
-      <c r="F81" s="170"/>
-      <c r="G81" s="170"/>
-      <c r="H81" s="170"/>
-      <c r="I81" s="170"/>
-      <c r="J81" s="170"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="170"/>
-      <c r="M81" s="171"/>
-      <c r="N81" s="181"/>
-      <c r="O81" s="182"/>
-      <c r="P81" s="183"/>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="176"/>
+      <c r="B81" s="208"/>
+      <c r="C81" s="209"/>
+      <c r="D81" s="209"/>
+      <c r="E81" s="209"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="209"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="217"/>
+      <c r="O81" s="218"/>
+      <c r="P81" s="219"/>
       <c r="Q81" s="62"/>
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="194"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="170"/>
-      <c r="E82" s="170"/>
-      <c r="F82" s="170"/>
-      <c r="G82" s="170"/>
-      <c r="H82" s="170"/>
-      <c r="I82" s="170"/>
-      <c r="J82" s="170"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="170"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="181"/>
-      <c r="O82" s="182"/>
-      <c r="P82" s="183"/>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="176"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="209"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="209"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="209"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="217"/>
+      <c r="O82" s="218"/>
+      <c r="P82" s="219"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="194"/>
-      <c r="B83" s="169"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="170"/>
-      <c r="I83" s="170"/>
-      <c r="J83" s="170"/>
-      <c r="K83" s="170"/>
-      <c r="L83" s="170"/>
-      <c r="M83" s="171"/>
-      <c r="N83" s="208"/>
-      <c r="O83" s="209"/>
-      <c r="P83" s="210"/>
+    <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="176"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="209"/>
+      <c r="D83" s="209"/>
+      <c r="E83" s="209"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="190"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="192"/>
       <c r="Q83" s="62"/>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="194"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="174"/>
-      <c r="N84" s="211" t="s">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="176"/>
+      <c r="B84" s="211"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="212"/>
+      <c r="G84" s="212"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="212"/>
+      <c r="M84" s="213"/>
+      <c r="N84" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="212"/>
-      <c r="P84" s="213"/>
+      <c r="O84" s="194"/>
+      <c r="P84" s="195"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>0</v>
@@ -11209,88 +11209,88 @@
       <c r="R84" s="15"/>
       <c r="S84" s="15"/>
     </row>
-    <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="194"/>
-    </row>
-    <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="195"/>
-      <c r="B86" s="175" t="s">
+    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="176"/>
+    </row>
+    <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="177"/>
+      <c r="B86" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="176"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="176"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="176"/>
-      <c r="K86" s="176"/>
-      <c r="L86" s="177"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="198"/>
       <c r="M86" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="214">
+      <c r="N86" s="199">
         <f>N74-SUM(Q77:Q83)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="215"/>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="215"/>
-      <c r="R86" s="215"/>
-      <c r="S86" s="216"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O86" s="200"/>
+      <c r="P86" s="200"/>
+      <c r="Q86" s="200"/>
+      <c r="R86" s="200"/>
+      <c r="S86" s="201"/>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="53"/>
       <c r="O87" s="51"/>
       <c r="P87" s="51"/>
       <c r="Q87" s="51"/>
       <c r="S87" s="78"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="53"/>
       <c r="O88" s="51"/>
       <c r="P88" s="51"/>
       <c r="Q88" s="51"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O89" s="51"/>
       <c r="P89" s="51"/>
       <c r="Q89" s="51"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O90" s="51"/>
       <c r="P90" s="51"/>
       <c r="Q90" s="51"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O91" s="51"/>
       <c r="P91" s="51"/>
       <c r="Q91" s="51"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O92" s="51"/>
       <c r="P92" s="51"/>
       <c r="Q92" s="51"/>
       <c r="S92" s="17"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O93" s="51"/>
       <c r="P93" s="51"/>
       <c r="Q93" s="51"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O94" s="51"/>
       <c r="P94" s="51"/>
       <c r="Q94" s="51"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O95" s="51"/>
       <c r="P95" s="51"/>
       <c r="Q95" s="51"/>
@@ -11298,6 +11298,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
     <mergeCell ref="A5:A57"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -11314,14 +11322,6 @@
     <mergeCell ref="N86:S86"/>
     <mergeCell ref="B73:L74"/>
     <mergeCell ref="N74:S74"/>
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11345,50 +11345,50 @@
       <selection pane="bottomRight" activeCell="N4" sqref="N4:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="33.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="19.21875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="19" width="15.44140625" customWidth="1"/>
-    <col min="21" max="21" width="71.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="19.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="19" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="71.42578125" style="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="187" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="192"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="174"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
       <c r="N3" s="33" t="s">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="U3" s="67"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="220"/>
       <c r="B5" s="95" t="s">
         <v>137</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="U5" s="69"/>
     </row>
-    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="221"/>
       <c r="B6" s="80" t="s">
         <v>79</v>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="U6" s="70"/>
     </row>
-    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="221"/>
       <c r="B7" s="80" t="s">
         <v>111</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="U7" s="70"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="80" t="s">
         <v>57</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="U8" s="70"/>
     </row>
-    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="221"/>
       <c r="B9" s="80" t="s">
         <v>107</v>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="U9" s="70"/>
     </row>
-    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="221"/>
       <c r="B10" s="80" t="s">
         <v>92</v>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="U10" s="70"/>
     </row>
-    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="221"/>
       <c r="B11" s="80" t="s">
         <v>90</v>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="U11" s="70"/>
     </row>
-    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="221"/>
       <c r="B12" s="80" t="s">
         <v>70</v>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="U12" s="70"/>
     </row>
-    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="221"/>
       <c r="B13" s="80" t="s">
         <v>117</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="U13" s="70"/>
     </row>
-    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="221"/>
       <c r="B14" s="80" t="s">
         <v>107</v>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="U14" s="70"/>
     </row>
-    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="221"/>
       <c r="B15" s="80" t="s">
         <v>102</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="U15" s="70"/>
     </row>
-    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="221"/>
       <c r="B16" s="82" t="s">
         <v>125</v>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="U16" s="70"/>
     </row>
-    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="221"/>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="U17" s="70"/>
     </row>
-    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
       <c r="B18" s="80" t="s">
         <v>55</v>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="U18" s="70"/>
     </row>
-    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="221"/>
       <c r="B19" s="80" t="s">
         <v>55</v>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="U19" s="70"/>
     </row>
-    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="221"/>
       <c r="B20" s="80" t="s">
         <v>73</v>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="U20" s="70"/>
     </row>
-    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="221"/>
       <c r="B21" s="80" t="s">
         <v>84</v>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="U21" s="70"/>
     </row>
-    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="221"/>
       <c r="B22" s="82" t="s">
         <v>123</v>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="U22" s="70"/>
     </row>
-    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="221"/>
       <c r="B23" s="82" t="s">
         <v>64</v>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="U23" s="70"/>
     </row>
-    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="221"/>
       <c r="B24" s="80" t="s">
         <v>68</v>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="U24" s="70"/>
     </row>
-    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="221"/>
       <c r="B25" s="80" t="s">
         <v>75</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="U25" s="70"/>
     </row>
-    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="221"/>
       <c r="B26" s="80" t="s">
         <v>80</v>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="U26" s="70"/>
     </row>
-    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="221"/>
       <c r="B27" s="80" t="s">
         <v>82</v>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="U27" s="70"/>
     </row>
-    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="221"/>
       <c r="B28" s="80" t="s">
         <v>96</v>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="U28" s="70"/>
     </row>
-    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="221"/>
       <c r="B29" s="80" t="s">
         <v>98</v>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="U29" s="70"/>
     </row>
-    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="221"/>
       <c r="B30" s="80" t="s">
         <v>100</v>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="U30" s="70"/>
     </row>
-    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="221"/>
       <c r="B31" s="82" t="s">
         <v>132</v>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="U31" s="70"/>
     </row>
-    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="221"/>
       <c r="B32" s="80" t="s">
         <v>109</v>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="U32" s="70"/>
     </row>
-    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="221"/>
       <c r="B33" s="82" t="s">
         <v>134</v>
@@ -13274,7 +13274,7 @@
       </c>
       <c r="U33" s="70"/>
     </row>
-    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="221"/>
       <c r="B34" s="80" t="s">
         <v>77</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="U34" s="70"/>
     </row>
-    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="221"/>
       <c r="B35" s="80" t="s">
         <v>84</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="U35" s="70"/>
     </row>
-    <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="221"/>
       <c r="B36" s="80" t="s">
         <v>119</v>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="U36" s="70"/>
     </row>
-    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="221"/>
       <c r="B37" s="82" t="s">
         <v>135</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="U37" s="70"/>
     </row>
-    <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="221"/>
       <c r="B38" s="80" t="s">
         <v>61</v>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="U38" s="70"/>
     </row>
-    <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="221"/>
       <c r="B39" s="80" t="s">
         <v>86</v>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="U39" s="70"/>
     </row>
-    <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="221"/>
       <c r="B40" s="80" t="s">
         <v>41</v>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="U40" s="70"/>
     </row>
-    <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="221"/>
       <c r="B41" s="80" t="s">
         <v>79</v>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="U41" s="70"/>
     </row>
-    <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="221"/>
       <c r="B42" s="82" t="s">
         <v>127</v>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="U42" s="70"/>
     </row>
-    <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="221"/>
       <c r="B43" s="80" t="s">
         <v>47</v>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="U43" s="70"/>
     </row>
-    <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="221"/>
       <c r="B44" s="80" t="s">
         <v>49</v>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="U44" s="70"/>
     </row>
-    <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="221"/>
       <c r="B45" s="80" t="s">
         <v>62</v>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="U45" s="70"/>
     </row>
-    <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="221"/>
       <c r="B46" s="80" t="s">
         <v>66</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="U46" s="70"/>
     </row>
-    <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="221"/>
       <c r="B47" s="80" t="s">
         <v>70</v>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="U47" s="70"/>
     </row>
-    <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="221"/>
       <c r="B48" s="80" t="s">
         <v>104</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="U48" s="70"/>
     </row>
-    <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="221"/>
       <c r="B49" s="80" t="s">
         <v>51</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="U49" s="70"/>
     </row>
-    <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="221"/>
       <c r="B50" s="80" t="s">
         <v>53</v>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="U50" s="70"/>
     </row>
-    <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="221"/>
       <c r="B51" s="80" t="s">
         <v>64</v>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="U51" s="70"/>
     </row>
-    <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="221"/>
       <c r="B52" s="80" t="s">
         <v>81</v>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="U52" s="70"/>
     </row>
-    <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="221"/>
       <c r="B53" s="80" t="s">
         <v>88</v>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="U53" s="70"/>
     </row>
-    <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="221"/>
       <c r="B54" s="80" t="s">
         <v>113</v>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="U54" s="70"/>
     </row>
-    <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="221"/>
       <c r="B55" s="80" t="s">
         <v>115</v>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="U55" s="70"/>
     </row>
-    <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="221"/>
       <c r="B56" s="80" t="s">
         <v>121</v>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="U56" s="70"/>
     </row>
-    <row r="57" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="222"/>
       <c r="B57" s="85" t="s">
         <v>129</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="U57" s="71"/>
     </row>
-    <row r="58" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -14464,24 +14464,24 @@
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="193" t="s">
+    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="196" t="s">
+      <c r="B60" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="197"/>
-      <c r="D60" s="197"/>
-      <c r="E60" s="197"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="197"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="198"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
       <c r="M60" s="74" t="s">
         <v>9</v>
       </c>
@@ -14510,19 +14510,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="194"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="200"/>
-      <c r="D61" s="200"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="200"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="201"/>
+    <row r="61" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="176"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="183"/>
       <c r="M61" s="74" t="s">
         <v>30</v>
       </c>
@@ -14545,19 +14545,19 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="194"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="200"/>
-      <c r="D62" s="200"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="200"/>
-      <c r="K62" s="200"/>
-      <c r="L62" s="201"/>
+    <row r="62" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="176"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="182"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="182"/>
+      <c r="L62" s="183"/>
       <c r="M62" s="74" t="s">
         <v>8</v>
       </c>
@@ -14586,19 +14586,19 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="194"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="203"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="203"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="203"/>
-      <c r="K63" s="203"/>
-      <c r="L63" s="204"/>
+    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="176"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185"/>
+      <c r="D63" s="185"/>
+      <c r="E63" s="185"/>
+      <c r="F63" s="185"/>
+      <c r="G63" s="185"/>
+      <c r="H63" s="185"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="186"/>
       <c r="M63" s="74" t="s">
         <v>10</v>
       </c>
@@ -14609,8 +14609,8 @@
       <c r="R63" s="32"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="194"/>
+    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="176"/>
       <c r="B64" s="72"/>
       <c r="C64" s="36"/>
       <c r="D64" s="45"/>
@@ -14623,21 +14623,21 @@
       <c r="K64" s="47"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="194"/>
-      <c r="B65" s="196" t="s">
+    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="176"/>
+      <c r="B65" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="197"/>
-      <c r="D65" s="197"/>
-      <c r="E65" s="197"/>
-      <c r="F65" s="197"/>
-      <c r="G65" s="197"/>
-      <c r="H65" s="197"/>
-      <c r="I65" s="197"/>
-      <c r="J65" s="197"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="198"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
       <c r="M65" s="74" t="s">
         <v>14</v>
       </c>
@@ -14666,19 +14666,19 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="194"/>
-      <c r="B66" s="199"/>
-      <c r="C66" s="200"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="200"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="201"/>
+    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="176"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="182"/>
+      <c r="D66" s="182"/>
+      <c r="E66" s="182"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
+      <c r="H66" s="182"/>
+      <c r="I66" s="182"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="182"/>
+      <c r="L66" s="183"/>
       <c r="M66" s="74" t="s">
         <v>8</v>
       </c>
@@ -14701,19 +14701,19 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="194"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="203"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="203"/>
-      <c r="K67" s="203"/>
-      <c r="L67" s="204"/>
+    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="176"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="186"/>
       <c r="M67" s="74" t="s">
         <v>15</v>
       </c>
@@ -14736,8 +14736,8 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="194"/>
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="176"/>
       <c r="B68" s="72"/>
       <c r="C68" s="36"/>
       <c r="D68" s="45"/>
@@ -14750,21 +14750,21 @@
       <c r="K68" s="47"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="194"/>
-      <c r="B69" s="196" t="s">
+    <row r="69" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="176"/>
+      <c r="B69" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197"/>
-      <c r="G69" s="197"/>
-      <c r="H69" s="197"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="197"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="198"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="179"/>
+      <c r="J69" s="179"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
       <c r="M69" s="74" t="s">
         <v>20</v>
       </c>
@@ -14793,47 +14793,47 @@
         <v>159375</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="194"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="203"/>
-      <c r="D70" s="203"/>
-      <c r="E70" s="203"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-      <c r="L70" s="204"/>
+    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="176"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="186"/>
       <c r="M70" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="205">
+      <c r="N70" s="187">
         <f>SUM(N69:S69)</f>
         <v>3175196.4000000004</v>
       </c>
-      <c r="O70" s="206"/>
-      <c r="P70" s="206"/>
-      <c r="Q70" s="206"/>
-      <c r="R70" s="206"/>
-      <c r="S70" s="207"/>
-    </row>
-    <row r="71" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="194"/>
-      <c r="B71" s="196" t="s">
+      <c r="O70" s="188"/>
+      <c r="P70" s="188"/>
+      <c r="Q70" s="188"/>
+      <c r="R70" s="188"/>
+      <c r="S70" s="189"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="176"/>
+      <c r="B71" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="197"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="197"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="197"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="198"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
       <c r="M71" s="74" t="s">
         <v>20</v>
       </c>
@@ -14862,47 +14862,47 @@
         <v>148750</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="194"/>
-      <c r="B72" s="202"/>
-      <c r="C72" s="203"/>
-      <c r="D72" s="203"/>
-      <c r="E72" s="203"/>
-      <c r="F72" s="203"/>
-      <c r="G72" s="203"/>
-      <c r="H72" s="203"/>
-      <c r="I72" s="203"/>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
-      <c r="L72" s="204"/>
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="176"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="185"/>
+      <c r="D72" s="185"/>
+      <c r="E72" s="185"/>
+      <c r="F72" s="185"/>
+      <c r="G72" s="185"/>
+      <c r="H72" s="185"/>
+      <c r="I72" s="185"/>
+      <c r="J72" s="185"/>
+      <c r="K72" s="185"/>
+      <c r="L72" s="186"/>
       <c r="M72" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="205">
+      <c r="N72" s="187">
         <f>SUM(N71:S71)</f>
         <v>4990750</v>
       </c>
-      <c r="O72" s="206"/>
-      <c r="P72" s="206"/>
-      <c r="Q72" s="206"/>
-      <c r="R72" s="206"/>
-      <c r="S72" s="207"/>
-    </row>
-    <row r="73" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="194"/>
-      <c r="B73" s="196" t="s">
+      <c r="O72" s="188"/>
+      <c r="P72" s="188"/>
+      <c r="Q72" s="188"/>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189"/>
+    </row>
+    <row r="73" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="176"/>
+      <c r="B73" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
-      <c r="F73" s="197"/>
-      <c r="G73" s="197"/>
-      <c r="H73" s="197"/>
-      <c r="I73" s="197"/>
-      <c r="J73" s="197"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="198"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="179"/>
+      <c r="J73" s="179"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
       <c r="M73" s="74" t="s">
         <v>20</v>
       </c>
@@ -14931,256 +14931,256 @@
         <v>-10625</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="194"/>
-      <c r="B74" s="202"/>
-      <c r="C74" s="203"/>
-      <c r="D74" s="203"/>
-      <c r="E74" s="203"/>
-      <c r="F74" s="203"/>
-      <c r="G74" s="203"/>
-      <c r="H74" s="203"/>
-      <c r="I74" s="203"/>
-      <c r="J74" s="203"/>
-      <c r="K74" s="203"/>
-      <c r="L74" s="204"/>
+    <row r="74" spans="1:19" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="176"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="185"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="186"/>
       <c r="M74" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="217">
+      <c r="N74" s="202">
         <f>SUM(N73:S73)</f>
         <v>1815553.5999999999</v>
       </c>
-      <c r="O74" s="218"/>
-      <c r="P74" s="218"/>
-      <c r="Q74" s="218"/>
-      <c r="R74" s="218"/>
-      <c r="S74" s="219"/>
-    </row>
-    <row r="75" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="194"/>
-    </row>
-    <row r="76" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="194"/>
-      <c r="B76" s="166" t="s">
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="204"/>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="176"/>
+    </row>
+    <row r="76" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="176"/>
+      <c r="B76" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="167"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="167"/>
-      <c r="J76" s="167"/>
-      <c r="K76" s="167"/>
-      <c r="L76" s="167"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="175" t="s">
+      <c r="C76" s="206"/>
+      <c r="D76" s="206"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
+      <c r="H76" s="206"/>
+      <c r="I76" s="206"/>
+      <c r="J76" s="206"/>
+      <c r="K76" s="206"/>
+      <c r="L76" s="206"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="O76" s="176"/>
-      <c r="P76" s="177"/>
+      <c r="O76" s="197"/>
+      <c r="P76" s="198"/>
       <c r="Q76" s="52" t="s">
         <v>29</v>
       </c>
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="194"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="170"/>
-      <c r="F77" s="170"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="170"/>
-      <c r="I77" s="170"/>
-      <c r="J77" s="170"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="170"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="178" t="s">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="176"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="209"/>
+      <c r="D77" s="209"/>
+      <c r="E77" s="209"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="209"/>
+      <c r="M77" s="210"/>
+      <c r="N77" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="179"/>
-      <c r="P77" s="180"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="216"/>
       <c r="Q77" s="61">
         <v>45000</v>
       </c>
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="194"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="171"/>
-      <c r="N78" s="181" t="s">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="176"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="210"/>
+      <c r="N78" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="182"/>
-      <c r="P78" s="183"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="219"/>
       <c r="Q78" s="62">
         <v>50000</v>
       </c>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="194"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="170"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="170"/>
-      <c r="M79" s="171"/>
-      <c r="N79" s="181" t="s">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="176"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="209"/>
+      <c r="D79" s="209"/>
+      <c r="E79" s="209"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="209"/>
+      <c r="J79" s="209"/>
+      <c r="K79" s="209"/>
+      <c r="L79" s="209"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="182"/>
-      <c r="P79" s="183"/>
+      <c r="O79" s="218"/>
+      <c r="P79" s="219"/>
       <c r="Q79" s="62">
         <v>15000</v>
       </c>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="194"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="171"/>
-      <c r="N80" s="181" t="s">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="176"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="209"/>
+      <c r="E80" s="209"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="209"/>
+      <c r="K80" s="209"/>
+      <c r="L80" s="209"/>
+      <c r="M80" s="210"/>
+      <c r="N80" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="O80" s="182"/>
-      <c r="P80" s="183"/>
+      <c r="O80" s="218"/>
+      <c r="P80" s="219"/>
       <c r="Q80" s="62">
         <v>30000</v>
       </c>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="194"/>
-      <c r="B81" s="169"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="170"/>
-      <c r="F81" s="170"/>
-      <c r="G81" s="170"/>
-      <c r="H81" s="170"/>
-      <c r="I81" s="170"/>
-      <c r="J81" s="170"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="170"/>
-      <c r="M81" s="171"/>
-      <c r="N81" s="181" t="s">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="176"/>
+      <c r="B81" s="208"/>
+      <c r="C81" s="209"/>
+      <c r="D81" s="209"/>
+      <c r="E81" s="209"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="209"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="182"/>
-      <c r="P81" s="183"/>
+      <c r="O81" s="218"/>
+      <c r="P81" s="219"/>
       <c r="Q81" s="62">
         <v>70000</v>
       </c>
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="194"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="170"/>
-      <c r="E82" s="170"/>
-      <c r="F82" s="170"/>
-      <c r="G82" s="170"/>
-      <c r="H82" s="170"/>
-      <c r="I82" s="170"/>
-      <c r="J82" s="170"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="170"/>
-      <c r="M82" s="171"/>
-      <c r="N82" s="181" t="s">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="176"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="209"/>
+      <c r="D82" s="209"/>
+      <c r="E82" s="209"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="209"/>
+      <c r="K82" s="209"/>
+      <c r="L82" s="209"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="O82" s="182"/>
-      <c r="P82" s="183"/>
+      <c r="O82" s="218"/>
+      <c r="P82" s="219"/>
       <c r="Q82" s="62">
         <v>20000</v>
       </c>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="194"/>
-      <c r="B83" s="169"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="170"/>
-      <c r="F83" s="170"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="170"/>
-      <c r="I83" s="170"/>
-      <c r="J83" s="170"/>
-      <c r="K83" s="170"/>
-      <c r="L83" s="170"/>
-      <c r="M83" s="171"/>
-      <c r="N83" s="208" t="s">
+    <row r="83" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="176"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="209"/>
+      <c r="D83" s="209"/>
+      <c r="E83" s="209"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="209"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="O83" s="209"/>
-      <c r="P83" s="210"/>
+      <c r="O83" s="191"/>
+      <c r="P83" s="192"/>
       <c r="Q83" s="62">
         <v>15000</v>
       </c>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="194"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="174"/>
-      <c r="N84" s="211" t="s">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="176"/>
+      <c r="B84" s="211"/>
+      <c r="C84" s="212"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="212"/>
+      <c r="G84" s="212"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="212"/>
+      <c r="M84" s="213"/>
+      <c r="N84" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="212"/>
-      <c r="P84" s="213"/>
+      <c r="O84" s="194"/>
+      <c r="P84" s="195"/>
       <c r="Q84" s="63">
         <f>SUM(Q77:Q83)</f>
         <v>245000</v>
@@ -15188,88 +15188,88 @@
       <c r="R84" s="15"/>
       <c r="S84" s="15"/>
     </row>
-    <row r="85" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="194"/>
-    </row>
-    <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="195"/>
-      <c r="B86" s="175" t="s">
+    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="176"/>
+    </row>
+    <row r="86" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="177"/>
+      <c r="B86" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="176"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="176"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="176"/>
-      <c r="K86" s="176"/>
-      <c r="L86" s="177"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="197"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="198"/>
       <c r="M86" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="214">
+      <c r="N86" s="199">
         <f>N74-SUM(Q77:Q83)</f>
         <v>1570553.5999999999</v>
       </c>
-      <c r="O86" s="215"/>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="215"/>
-      <c r="R86" s="215"/>
-      <c r="S86" s="216"/>
-    </row>
-    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O86" s="200"/>
+      <c r="P86" s="200"/>
+      <c r="Q86" s="200"/>
+      <c r="R86" s="200"/>
+      <c r="S86" s="201"/>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="53"/>
       <c r="O87" s="51"/>
       <c r="P87" s="51"/>
       <c r="Q87" s="51"/>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="53"/>
       <c r="O88" s="51"/>
       <c r="P88" s="51"/>
       <c r="Q88" s="51"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O89" s="51"/>
       <c r="P89" s="51"/>
       <c r="Q89" s="51"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O90" s="51"/>
       <c r="P90" s="51"/>
       <c r="Q90" s="51"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O91" s="51"/>
       <c r="P91" s="51"/>
       <c r="Q91" s="51"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O92" s="51"/>
       <c r="P92" s="51"/>
       <c r="Q92" s="51"/>
       <c r="S92" s="17"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O93" s="51"/>
       <c r="P93" s="51"/>
       <c r="Q93" s="51"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O94" s="51"/>
       <c r="P94" s="51"/>
       <c r="Q94" s="51"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O95" s="51"/>
       <c r="P95" s="51"/>
       <c r="Q95" s="51"/>
@@ -15277,14 +15277,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="B76:M84"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A57"/>
@@ -15301,6 +15293,14 @@
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="N78:P78"/>
     <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="B76:M84"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15324,52 +15324,52 @@
       <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="98"/>
-    <col min="2" max="2" width="12.44140625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.6640625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.44140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="33.5546875" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="33.5546875" style="98" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="10.77734375" style="98" customWidth="1"/>
-    <col min="14" max="19" width="15.44140625" style="98" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" style="98"/>
-    <col min="21" max="21" width="71.44140625" style="99" customWidth="1"/>
-    <col min="22" max="16384" width="11.44140625" style="98"/>
+    <col min="1" max="1" width="11.42578125" style="98"/>
+    <col min="2" max="2" width="12.42578125" style="98" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="14.7109375" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.42578125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="33.5703125" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="33.5703125" style="98" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="10.7109375" style="98" customWidth="1"/>
+    <col min="14" max="19" width="15.42578125" style="98" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="98"/>
+    <col min="21" max="21" width="71.42578125" style="99" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:21" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="223" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="226" t="s">
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="228"/>
-    </row>
-    <row r="3" spans="1:21" s="100" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="246"/>
+    </row>
+    <row r="3" spans="1:21" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="101"/>
       <c r="M3" s="101"/>
       <c r="N3" s="102" t="s">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="U3" s="99"/>
     </row>
-    <row r="4" spans="1:21" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="103" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="104" t="s">
         <v>0</v>
       </c>
@@ -15454,8 +15454,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="229" t="s">
+    <row r="5" spans="1:21" ht="14.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="247" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="141" t="s">
@@ -15518,8 +15518,8 @@
       </c>
       <c r="U5" s="111"/>
     </row>
-    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230"/>
+    <row r="6" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="248"/>
       <c r="B6" s="116" t="s">
         <v>127</v>
       </c>
@@ -15580,8 +15580,8 @@
       </c>
       <c r="U6" s="115"/>
     </row>
-    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="230"/>
+    <row r="7" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="248"/>
       <c r="B7" s="116" t="s">
         <v>137</v>
       </c>
@@ -15642,8 +15642,8 @@
       </c>
       <c r="U7" s="115"/>
     </row>
-    <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="230"/>
+    <row r="8" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="248"/>
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
@@ -15704,8 +15704,8 @@
       </c>
       <c r="U8" s="115"/>
     </row>
-    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="230"/>
+    <row r="9" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="248"/>
       <c r="B9" s="112" t="s">
         <v>73</v>
       </c>
@@ -15766,8 +15766,8 @@
       </c>
       <c r="U9" s="115"/>
     </row>
-    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="230"/>
+    <row r="10" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="248"/>
       <c r="B10" s="116" t="s">
         <v>117</v>
       </c>
@@ -15828,8 +15828,8 @@
       </c>
       <c r="U10" s="115"/>
     </row>
-    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="230"/>
+    <row r="11" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="248"/>
       <c r="B11" s="112" t="s">
         <v>84</v>
       </c>
@@ -15890,8 +15890,8 @@
       </c>
       <c r="U11" s="115"/>
     </row>
-    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="230"/>
+    <row r="12" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="248"/>
       <c r="B12" s="112" t="s">
         <v>55</v>
       </c>
@@ -15954,8 +15954,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="230"/>
+    <row r="13" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="248"/>
       <c r="B13" s="112" t="s">
         <v>55</v>
       </c>
@@ -16016,8 +16016,8 @@
       </c>
       <c r="U13" s="115"/>
     </row>
-    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
+    <row r="14" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="248"/>
       <c r="B14" s="112" t="s">
         <v>289</v>
       </c>
@@ -16078,8 +16078,8 @@
       </c>
       <c r="U14" s="115"/>
     </row>
-    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="230"/>
+    <row r="15" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="248"/>
       <c r="B15" s="116" t="s">
         <v>123</v>
       </c>
@@ -16140,8 +16140,8 @@
       </c>
       <c r="U15" s="115"/>
     </row>
-    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="230"/>
+    <row r="16" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="248"/>
       <c r="B16" s="112" t="s">
         <v>41</v>
       </c>
@@ -16202,8 +16202,8 @@
       </c>
       <c r="U16" s="115"/>
     </row>
-    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="230"/>
+    <row r="17" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="248"/>
       <c r="B17" s="112" t="s">
         <v>100</v>
       </c>
@@ -16264,8 +16264,8 @@
       </c>
       <c r="U17" s="115"/>
     </row>
-    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="230"/>
+    <row r="18" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="248"/>
       <c r="B18" s="112" t="s">
         <v>68</v>
       </c>
@@ -16326,8 +16326,8 @@
       </c>
       <c r="U18" s="115"/>
     </row>
-    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="230"/>
+    <row r="19" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="248"/>
       <c r="B19" s="112" t="s">
         <v>82</v>
       </c>
@@ -16388,8 +16388,8 @@
       </c>
       <c r="U19" s="115"/>
     </row>
-    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="230"/>
+    <row r="20" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="248"/>
       <c r="B20" s="112" t="s">
         <v>96</v>
       </c>
@@ -16450,8 +16450,8 @@
       </c>
       <c r="U20" s="115"/>
     </row>
-    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="230"/>
+    <row r="21" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="248"/>
       <c r="B21" s="112" t="s">
         <v>61</v>
       </c>
@@ -16512,8 +16512,8 @@
       </c>
       <c r="U21" s="115"/>
     </row>
-    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="230"/>
+    <row r="22" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="248"/>
       <c r="B22" s="112" t="s">
         <v>98</v>
       </c>
@@ -16574,8 +16574,8 @@
       </c>
       <c r="U22" s="115"/>
     </row>
-    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="230"/>
+    <row r="23" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="248"/>
       <c r="B23" s="116" t="s">
         <v>132</v>
       </c>
@@ -16636,8 +16636,8 @@
       </c>
       <c r="U23" s="115"/>
     </row>
-    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="230"/>
+    <row r="24" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="248"/>
       <c r="B24" s="116" t="s">
         <v>125</v>
       </c>
@@ -16698,8 +16698,8 @@
       </c>
       <c r="U24" s="115"/>
     </row>
-    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="230"/>
+    <row r="25" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="248"/>
       <c r="B25" s="112" t="s">
         <v>102</v>
       </c>
@@ -16760,8 +16760,8 @@
       </c>
       <c r="U25" s="115"/>
     </row>
-    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="230"/>
+    <row r="26" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="248"/>
       <c r="B26" s="112" t="s">
         <v>79</v>
       </c>
@@ -16822,8 +16822,8 @@
       </c>
       <c r="U26" s="115"/>
     </row>
-    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="230"/>
+    <row r="27" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="248"/>
       <c r="B27" s="112" t="s">
         <v>92</v>
       </c>
@@ -16884,8 +16884,8 @@
       </c>
       <c r="U27" s="115"/>
     </row>
-    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="230"/>
+    <row r="28" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="248"/>
       <c r="B28" s="112" t="s">
         <v>90</v>
       </c>
@@ -16946,8 +16946,8 @@
       </c>
       <c r="U28" s="115"/>
     </row>
-    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="230"/>
+    <row r="29" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="248"/>
       <c r="B29" s="112" t="s">
         <v>57</v>
       </c>
@@ -17008,8 +17008,8 @@
       </c>
       <c r="U29" s="115"/>
     </row>
-    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="230"/>
+    <row r="30" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="248"/>
       <c r="B30" s="116" t="s">
         <v>119</v>
       </c>
@@ -17070,8 +17070,8 @@
       </c>
       <c r="U30" s="115"/>
     </row>
-    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="230"/>
+    <row r="31" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="248"/>
       <c r="B31" s="112" t="s">
         <v>51</v>
       </c>
@@ -17132,8 +17132,8 @@
       </c>
       <c r="U31" s="115"/>
     </row>
-    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="230"/>
+    <row r="32" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="248"/>
       <c r="B32" s="116" t="s">
         <v>134</v>
       </c>
@@ -17194,8 +17194,8 @@
       </c>
       <c r="U32" s="115"/>
     </row>
-    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="230"/>
+    <row r="33" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="248"/>
       <c r="B33" s="112" t="s">
         <v>109</v>
       </c>
@@ -17256,8 +17256,8 @@
       </c>
       <c r="U33" s="115"/>
     </row>
-    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="230"/>
+    <row r="34" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="248"/>
       <c r="B34" s="112" t="s">
         <v>77</v>
       </c>
@@ -17318,8 +17318,8 @@
       </c>
       <c r="U34" s="115"/>
     </row>
-    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="230"/>
+    <row r="35" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="248"/>
       <c r="B35" s="112" t="s">
         <v>84</v>
       </c>
@@ -17380,8 +17380,8 @@
       </c>
       <c r="U35" s="115"/>
     </row>
-    <row r="36" spans="1:21" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="231"/>
+    <row r="36" spans="1:21" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="249"/>
       <c r="B36" s="118" t="s">
         <v>81</v>
       </c>
@@ -17442,7 +17442,7 @@
       </c>
       <c r="U36" s="121"/>
     </row>
-    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122"/>
       <c r="B37" s="123"/>
       <c r="C37" s="123"/>
@@ -17464,24 +17464,24 @@
       <c r="S37" s="126"/>
       <c r="T37" s="126"/>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="232" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="235" t="s">
+      <c r="B39" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
-      <c r="E39" s="236"/>
-      <c r="F39" s="236"/>
-      <c r="G39" s="236"/>
-      <c r="H39" s="236"/>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="236"/>
-      <c r="L39" s="237"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="254"/>
+      <c r="I39" s="254"/>
+      <c r="J39" s="254"/>
+      <c r="K39" s="254"/>
+      <c r="L39" s="255"/>
       <c r="M39" s="127" t="s">
         <v>9</v>
       </c>
@@ -17510,19 +17510,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="233"/>
-      <c r="B40" s="238"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="239"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="239"/>
-      <c r="G40" s="239"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="239"/>
-      <c r="J40" s="239"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="240"/>
+    <row r="40" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+      <c r="B40" s="256"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="257"/>
+      <c r="E40" s="257"/>
+      <c r="F40" s="257"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="257"/>
+      <c r="J40" s="257"/>
+      <c r="K40" s="257"/>
+      <c r="L40" s="258"/>
       <c r="M40" s="127" t="s">
         <v>30</v>
       </c>
@@ -17545,19 +17545,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="233"/>
-      <c r="B41" s="238"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="239"/>
-      <c r="L41" s="240"/>
+    <row r="41" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="251"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="258"/>
       <c r="M41" s="127" t="s">
         <v>8</v>
       </c>
@@ -17586,19 +17586,19 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="233"/>
-      <c r="B42" s="241"/>
-      <c r="C42" s="242"/>
-      <c r="D42" s="242"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="243"/>
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="251"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="261"/>
       <c r="M42" s="127" t="s">
         <v>10</v>
       </c>
@@ -17609,8 +17609,8 @@
       <c r="R42" s="120"/>
       <c r="S42" s="135"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="233"/>
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="251"/>
       <c r="B43" s="136"/>
       <c r="C43" s="123"/>
       <c r="D43" s="137"/>
@@ -17623,21 +17623,21 @@
       <c r="K43" s="139"/>
       <c r="M43" s="140"/>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="233"/>
-      <c r="B44" s="235" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="251"/>
+      <c r="B44" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="236"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="236"/>
-      <c r="G44" s="236"/>
-      <c r="H44" s="236"/>
-      <c r="I44" s="236"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="237"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="254"/>
+      <c r="J44" s="254"/>
+      <c r="K44" s="254"/>
+      <c r="L44" s="255"/>
       <c r="M44" s="127" t="s">
         <v>14</v>
       </c>
@@ -17666,19 +17666,19 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="233"/>
-      <c r="B45" s="238"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="239"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="240"/>
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="251"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="257"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="257"/>
+      <c r="J45" s="257"/>
+      <c r="K45" s="257"/>
+      <c r="L45" s="258"/>
       <c r="M45" s="127" t="s">
         <v>8</v>
       </c>
@@ -17701,19 +17701,19 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="233"/>
-      <c r="B46" s="241"/>
-      <c r="C46" s="242"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="242"/>
-      <c r="G46" s="242"/>
-      <c r="H46" s="242"/>
-      <c r="I46" s="242"/>
-      <c r="J46" s="242"/>
-      <c r="K46" s="242"/>
-      <c r="L46" s="243"/>
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="251"/>
+      <c r="B46" s="259"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="261"/>
       <c r="M46" s="127" t="s">
         <v>15</v>
       </c>
@@ -17736,8 +17736,8 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="233"/>
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="251"/>
       <c r="B47" s="136"/>
       <c r="C47" s="123"/>
       <c r="D47" s="137"/>
@@ -17750,21 +17750,21 @@
       <c r="K47" s="139"/>
       <c r="M47" s="140"/>
     </row>
-    <row r="48" spans="1:21" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="233"/>
-      <c r="B48" s="235" t="s">
+    <row r="48" spans="1:21" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="251"/>
+      <c r="B48" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="236"/>
-      <c r="D48" s="236"/>
-      <c r="E48" s="236"/>
-      <c r="F48" s="236"/>
-      <c r="G48" s="236"/>
-      <c r="H48" s="236"/>
-      <c r="I48" s="236"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="237"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="255"/>
       <c r="M48" s="127" t="s">
         <v>20</v>
       </c>
@@ -17793,47 +17793,47 @@
         <v>213750</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="233"/>
-      <c r="B49" s="241"/>
-      <c r="C49" s="242"/>
-      <c r="D49" s="242"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="242"/>
-      <c r="G49" s="242"/>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="243"/>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="251"/>
+      <c r="B49" s="259"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="261"/>
       <c r="M49" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="244">
+      <c r="N49" s="262">
         <f>SUM(N48:S48)</f>
         <v>2649971.7000000002</v>
       </c>
-      <c r="O49" s="245"/>
-      <c r="P49" s="245"/>
-      <c r="Q49" s="245"/>
-      <c r="R49" s="245"/>
-      <c r="S49" s="246"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="233"/>
-      <c r="B50" s="235" t="s">
+      <c r="O49" s="263"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="264"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="251"/>
+      <c r="B50" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="236"/>
-      <c r="H50" s="236"/>
-      <c r="I50" s="236"/>
-      <c r="J50" s="236"/>
-      <c r="K50" s="236"/>
-      <c r="L50" s="237"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="254"/>
+      <c r="J50" s="254"/>
+      <c r="K50" s="254"/>
+      <c r="L50" s="255"/>
       <c r="M50" s="127" t="s">
         <v>20</v>
       </c>
@@ -17862,47 +17862,47 @@
         <v>313500</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="233"/>
-      <c r="B51" s="241"/>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
-      <c r="K51" s="242"/>
-      <c r="L51" s="243"/>
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="251"/>
+      <c r="B51" s="259"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="260"/>
+      <c r="I51" s="260"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="261"/>
       <c r="M51" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="244">
+      <c r="N51" s="262">
         <f>SUM(N50:S50)</f>
         <v>4362000</v>
       </c>
-      <c r="O51" s="245"/>
-      <c r="P51" s="245"/>
-      <c r="Q51" s="245"/>
-      <c r="R51" s="245"/>
-      <c r="S51" s="246"/>
-    </row>
-    <row r="52" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="233"/>
-      <c r="B52" s="235" t="s">
+      <c r="O51" s="263"/>
+      <c r="P51" s="263"/>
+      <c r="Q51" s="263"/>
+      <c r="R51" s="263"/>
+      <c r="S51" s="264"/>
+    </row>
+    <row r="52" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="251"/>
+      <c r="B52" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="236"/>
-      <c r="D52" s="236"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="236"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="236"/>
-      <c r="I52" s="236"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="237"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="254"/>
+      <c r="I52" s="254"/>
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="255"/>
       <c r="M52" s="127" t="s">
         <v>20</v>
       </c>
@@ -17931,377 +17931,377 @@
         <v>99750</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="233"/>
-      <c r="B53" s="241"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="242"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="242"/>
-      <c r="G53" s="242"/>
-      <c r="H53" s="242"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="242"/>
-      <c r="K53" s="242"/>
-      <c r="L53" s="243"/>
+    <row r="53" spans="1:19" ht="29.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="251"/>
+      <c r="B53" s="259"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="260"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="260"/>
+      <c r="I53" s="260"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="261"/>
       <c r="M53" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="247">
+      <c r="N53" s="265">
         <f>SUM(N52:S52)</f>
         <v>1712028.2999999998</v>
       </c>
-      <c r="O53" s="248"/>
-      <c r="P53" s="248"/>
-      <c r="Q53" s="248"/>
-      <c r="R53" s="248"/>
-      <c r="S53" s="249"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="233"/>
-    </row>
-    <row r="55" spans="1:19" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="233"/>
-      <c r="B55" s="250" t="s">
+      <c r="O53" s="266"/>
+      <c r="P53" s="266"/>
+      <c r="Q53" s="266"/>
+      <c r="R53" s="266"/>
+      <c r="S53" s="267"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="251"/>
+    </row>
+    <row r="55" spans="1:19" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="251"/>
+      <c r="B55" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="251"/>
-      <c r="D55" s="251"/>
-      <c r="E55" s="251"/>
-      <c r="F55" s="251"/>
-      <c r="G55" s="251"/>
-      <c r="H55" s="251"/>
-      <c r="I55" s="251"/>
-      <c r="J55" s="251"/>
-      <c r="K55" s="251"/>
-      <c r="L55" s="251"/>
-      <c r="M55" s="252"/>
-      <c r="N55" s="259" t="s">
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="270"/>
+      <c r="N55" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="260"/>
-      <c r="P55" s="261"/>
+      <c r="O55" s="227"/>
+      <c r="P55" s="228"/>
       <c r="Q55" s="152" t="s">
         <v>29</v>
       </c>
       <c r="R55" s="153"/>
       <c r="S55" s="153"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="233"/>
-      <c r="B56" s="253"/>
-      <c r="C56" s="254"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="254"/>
-      <c r="F56" s="254"/>
-      <c r="G56" s="254"/>
-      <c r="H56" s="254"/>
-      <c r="I56" s="254"/>
-      <c r="J56" s="254"/>
-      <c r="K56" s="254"/>
-      <c r="L56" s="254"/>
-      <c r="M56" s="255"/>
-      <c r="N56" s="262" t="s">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="251"/>
+      <c r="B56" s="271"/>
+      <c r="C56" s="272"/>
+      <c r="D56" s="272"/>
+      <c r="E56" s="272"/>
+      <c r="F56" s="272"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="272"/>
+      <c r="I56" s="272"/>
+      <c r="J56" s="272"/>
+      <c r="K56" s="272"/>
+      <c r="L56" s="272"/>
+      <c r="M56" s="273"/>
+      <c r="N56" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="O56" s="263"/>
-      <c r="P56" s="264"/>
+      <c r="O56" s="278"/>
+      <c r="P56" s="279"/>
       <c r="Q56" s="154">
         <v>40000</v>
       </c>
       <c r="R56" s="155"/>
       <c r="S56" s="155"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="233"/>
-      <c r="B57" s="253"/>
-      <c r="C57" s="254"/>
-      <c r="D57" s="254"/>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="254"/>
-      <c r="H57" s="254"/>
-      <c r="I57" s="254"/>
-      <c r="J57" s="254"/>
-      <c r="K57" s="254"/>
-      <c r="L57" s="254"/>
-      <c r="M57" s="255"/>
-      <c r="N57" s="265" t="s">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="251"/>
+      <c r="B57" s="271"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
+      <c r="F57" s="272"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="272"/>
+      <c r="I57" s="272"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="272"/>
+      <c r="M57" s="273"/>
+      <c r="N57" s="235" t="s">
         <v>287</v>
       </c>
-      <c r="O57" s="266"/>
-      <c r="P57" s="267"/>
+      <c r="O57" s="236"/>
+      <c r="P57" s="237"/>
       <c r="Q57" s="156">
         <v>40000</v>
       </c>
       <c r="R57" s="155"/>
       <c r="S57" s="155"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="233"/>
-      <c r="B58" s="253"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="254"/>
-      <c r="F58" s="254"/>
-      <c r="G58" s="254"/>
-      <c r="H58" s="254"/>
-      <c r="I58" s="254"/>
-      <c r="J58" s="254"/>
-      <c r="K58" s="254"/>
-      <c r="L58" s="254"/>
-      <c r="M58" s="255"/>
-      <c r="N58" s="265" t="s">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="251"/>
+      <c r="B58" s="271"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="272"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="272"/>
+      <c r="I58" s="272"/>
+      <c r="J58" s="272"/>
+      <c r="K58" s="272"/>
+      <c r="L58" s="272"/>
+      <c r="M58" s="273"/>
+      <c r="N58" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="O58" s="266"/>
-      <c r="P58" s="267"/>
+      <c r="O58" s="236"/>
+      <c r="P58" s="237"/>
       <c r="Q58" s="156">
         <v>20000</v>
       </c>
       <c r="R58" s="155"/>
       <c r="S58" s="155"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="233"/>
-      <c r="B59" s="253"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
-      <c r="E59" s="254"/>
-      <c r="F59" s="254"/>
-      <c r="G59" s="254"/>
-      <c r="H59" s="254"/>
-      <c r="I59" s="254"/>
-      <c r="J59" s="254"/>
-      <c r="K59" s="254"/>
-      <c r="L59" s="254"/>
-      <c r="M59" s="255"/>
-      <c r="N59" s="265" t="s">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="251"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="272"/>
+      <c r="D59" s="272"/>
+      <c r="E59" s="272"/>
+      <c r="F59" s="272"/>
+      <c r="G59" s="272"/>
+      <c r="H59" s="272"/>
+      <c r="I59" s="272"/>
+      <c r="J59" s="272"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="272"/>
+      <c r="M59" s="273"/>
+      <c r="N59" s="235" t="s">
         <v>293</v>
       </c>
-      <c r="O59" s="266"/>
-      <c r="P59" s="267"/>
+      <c r="O59" s="236"/>
+      <c r="P59" s="237"/>
       <c r="Q59" s="156">
         <v>18000</v>
       </c>
       <c r="R59" s="155"/>
       <c r="S59" s="155"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="233"/>
-      <c r="B60" s="253"/>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="254"/>
-      <c r="G60" s="254"/>
-      <c r="H60" s="254"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="254"/>
-      <c r="K60" s="254"/>
-      <c r="L60" s="254"/>
-      <c r="M60" s="255"/>
-      <c r="N60" s="265" t="s">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="251"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="272"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="272"/>
+      <c r="F60" s="272"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="272"/>
+      <c r="I60" s="272"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="272"/>
+      <c r="L60" s="272"/>
+      <c r="M60" s="273"/>
+      <c r="N60" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="O60" s="266"/>
-      <c r="P60" s="267"/>
+      <c r="O60" s="236"/>
+      <c r="P60" s="237"/>
       <c r="Q60" s="156">
         <v>60000</v>
       </c>
       <c r="R60" s="155"/>
       <c r="S60" s="155"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="233"/>
-      <c r="B61" s="253"/>
-      <c r="C61" s="254"/>
-      <c r="D61" s="254"/>
-      <c r="E61" s="254"/>
-      <c r="F61" s="254"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="254"/>
-      <c r="I61" s="254"/>
-      <c r="J61" s="254"/>
-      <c r="K61" s="254"/>
-      <c r="L61" s="254"/>
-      <c r="M61" s="255"/>
-      <c r="N61" s="277" t="s">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="251"/>
+      <c r="B61" s="271"/>
+      <c r="C61" s="272"/>
+      <c r="D61" s="272"/>
+      <c r="E61" s="272"/>
+      <c r="F61" s="272"/>
+      <c r="G61" s="272"/>
+      <c r="H61" s="272"/>
+      <c r="I61" s="272"/>
+      <c r="J61" s="272"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="272"/>
+      <c r="M61" s="273"/>
+      <c r="N61" s="232" t="s">
         <v>150</v>
       </c>
-      <c r="O61" s="278"/>
-      <c r="P61" s="279"/>
+      <c r="O61" s="233"/>
+      <c r="P61" s="234"/>
       <c r="Q61" s="156">
         <v>30000</v>
       </c>
       <c r="R61" s="155"/>
       <c r="S61" s="155"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="233"/>
-      <c r="B62" s="253"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="254"/>
-      <c r="F62" s="254"/>
-      <c r="G62" s="254"/>
-      <c r="H62" s="254"/>
-      <c r="I62" s="254"/>
-      <c r="J62" s="254"/>
-      <c r="K62" s="254"/>
-      <c r="L62" s="254"/>
-      <c r="M62" s="255"/>
-      <c r="N62" s="277" t="s">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="251"/>
+      <c r="B62" s="271"/>
+      <c r="C62" s="272"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="272"/>
+      <c r="F62" s="272"/>
+      <c r="G62" s="272"/>
+      <c r="H62" s="272"/>
+      <c r="I62" s="272"/>
+      <c r="J62" s="272"/>
+      <c r="K62" s="272"/>
+      <c r="L62" s="272"/>
+      <c r="M62" s="273"/>
+      <c r="N62" s="232" t="s">
         <v>161</v>
       </c>
-      <c r="O62" s="278"/>
-      <c r="P62" s="279"/>
+      <c r="O62" s="233"/>
+      <c r="P62" s="234"/>
       <c r="Q62" s="156">
         <v>30000</v>
       </c>
       <c r="R62" s="155"/>
       <c r="S62" s="155"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="233"/>
-      <c r="B63" s="253"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="254"/>
-      <c r="E63" s="254"/>
-      <c r="F63" s="254"/>
-      <c r="G63" s="254"/>
-      <c r="H63" s="254"/>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="254"/>
-      <c r="L63" s="254"/>
-      <c r="M63" s="255"/>
-      <c r="N63" s="277" t="s">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="251"/>
+      <c r="B63" s="271"/>
+      <c r="C63" s="272"/>
+      <c r="D63" s="272"/>
+      <c r="E63" s="272"/>
+      <c r="F63" s="272"/>
+      <c r="G63" s="272"/>
+      <c r="H63" s="272"/>
+      <c r="I63" s="272"/>
+      <c r="J63" s="272"/>
+      <c r="K63" s="272"/>
+      <c r="L63" s="272"/>
+      <c r="M63" s="273"/>
+      <c r="N63" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="O63" s="278"/>
-      <c r="P63" s="279"/>
+      <c r="O63" s="233"/>
+      <c r="P63" s="234"/>
       <c r="Q63" s="156">
         <v>30000</v>
       </c>
       <c r="R63" s="155"/>
       <c r="S63" s="155"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="233"/>
-      <c r="B64" s="253"/>
-      <c r="C64" s="254"/>
-      <c r="D64" s="254"/>
-      <c r="E64" s="254"/>
-      <c r="F64" s="254"/>
-      <c r="G64" s="254"/>
-      <c r="H64" s="254"/>
-      <c r="I64" s="254"/>
-      <c r="J64" s="254"/>
-      <c r="K64" s="254"/>
-      <c r="L64" s="254"/>
-      <c r="M64" s="255"/>
-      <c r="N64" s="277" t="s">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="251"/>
+      <c r="B64" s="271"/>
+      <c r="C64" s="272"/>
+      <c r="D64" s="272"/>
+      <c r="E64" s="272"/>
+      <c r="F64" s="272"/>
+      <c r="G64" s="272"/>
+      <c r="H64" s="272"/>
+      <c r="I64" s="272"/>
+      <c r="J64" s="272"/>
+      <c r="K64" s="272"/>
+      <c r="L64" s="272"/>
+      <c r="M64" s="273"/>
+      <c r="N64" s="232" t="s">
         <v>295</v>
       </c>
-      <c r="O64" s="278"/>
-      <c r="P64" s="279"/>
+      <c r="O64" s="233"/>
+      <c r="P64" s="234"/>
       <c r="Q64" s="156">
         <v>25000</v>
       </c>
       <c r="R64" s="155"/>
       <c r="S64" s="155"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="233"/>
-      <c r="B65" s="253"/>
-      <c r="C65" s="254"/>
-      <c r="D65" s="254"/>
-      <c r="E65" s="254"/>
-      <c r="F65" s="254"/>
-      <c r="G65" s="254"/>
-      <c r="H65" s="254"/>
-      <c r="I65" s="254"/>
-      <c r="J65" s="254"/>
-      <c r="K65" s="254"/>
-      <c r="L65" s="254"/>
-      <c r="M65" s="255"/>
-      <c r="N65" s="277" t="s">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="251"/>
+      <c r="B65" s="271"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="272"/>
+      <c r="F65" s="272"/>
+      <c r="G65" s="272"/>
+      <c r="H65" s="272"/>
+      <c r="I65" s="272"/>
+      <c r="J65" s="272"/>
+      <c r="K65" s="272"/>
+      <c r="L65" s="272"/>
+      <c r="M65" s="273"/>
+      <c r="N65" s="232" t="s">
         <v>296</v>
       </c>
-      <c r="O65" s="278"/>
-      <c r="P65" s="279"/>
+      <c r="O65" s="233"/>
+      <c r="P65" s="234"/>
       <c r="Q65" s="156">
         <v>20000</v>
       </c>
       <c r="R65" s="155"/>
       <c r="S65" s="155"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="233"/>
-      <c r="B66" s="253"/>
-      <c r="C66" s="254"/>
-      <c r="D66" s="254"/>
-      <c r="E66" s="254"/>
-      <c r="F66" s="254"/>
-      <c r="G66" s="254"/>
-      <c r="H66" s="254"/>
-      <c r="I66" s="254"/>
-      <c r="J66" s="254"/>
-      <c r="K66" s="254"/>
-      <c r="L66" s="254"/>
-      <c r="M66" s="255"/>
-      <c r="N66" s="265" t="s">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="251"/>
+      <c r="B66" s="271"/>
+      <c r="C66" s="272"/>
+      <c r="D66" s="272"/>
+      <c r="E66" s="272"/>
+      <c r="F66" s="272"/>
+      <c r="G66" s="272"/>
+      <c r="H66" s="272"/>
+      <c r="I66" s="272"/>
+      <c r="J66" s="272"/>
+      <c r="K66" s="272"/>
+      <c r="L66" s="272"/>
+      <c r="M66" s="273"/>
+      <c r="N66" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="O66" s="266"/>
-      <c r="P66" s="267"/>
+      <c r="O66" s="236"/>
+      <c r="P66" s="237"/>
       <c r="Q66" s="156">
         <v>35000</v>
       </c>
       <c r="R66" s="155"/>
       <c r="S66" s="155"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="233"/>
-      <c r="B67" s="253"/>
-      <c r="C67" s="254"/>
-      <c r="D67" s="254"/>
-      <c r="E67" s="254"/>
-      <c r="F67" s="254"/>
-      <c r="G67" s="254"/>
-      <c r="H67" s="254"/>
-      <c r="I67" s="254"/>
-      <c r="J67" s="254"/>
-      <c r="K67" s="254"/>
-      <c r="L67" s="254"/>
-      <c r="M67" s="255"/>
-      <c r="N67" s="268"/>
-      <c r="O67" s="269"/>
-      <c r="P67" s="270"/>
+    <row r="67" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="251"/>
+      <c r="B67" s="271"/>
+      <c r="C67" s="272"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="272"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="272"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="272"/>
+      <c r="J67" s="272"/>
+      <c r="K67" s="272"/>
+      <c r="L67" s="272"/>
+      <c r="M67" s="273"/>
+      <c r="N67" s="238"/>
+      <c r="O67" s="239"/>
+      <c r="P67" s="240"/>
       <c r="Q67" s="156"/>
       <c r="R67" s="155"/>
       <c r="S67" s="155"/>
     </row>
-    <row r="68" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="233"/>
-      <c r="B68" s="256"/>
-      <c r="C68" s="257"/>
-      <c r="D68" s="257"/>
-      <c r="E68" s="257"/>
-      <c r="F68" s="257"/>
-      <c r="G68" s="257"/>
-      <c r="H68" s="257"/>
-      <c r="I68" s="257"/>
-      <c r="J68" s="257"/>
-      <c r="K68" s="257"/>
-      <c r="L68" s="257"/>
-      <c r="M68" s="258"/>
-      <c r="N68" s="271" t="s">
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="251"/>
+      <c r="B68" s="274"/>
+      <c r="C68" s="275"/>
+      <c r="D68" s="275"/>
+      <c r="E68" s="275"/>
+      <c r="F68" s="275"/>
+      <c r="G68" s="275"/>
+      <c r="H68" s="275"/>
+      <c r="I68" s="275"/>
+      <c r="J68" s="275"/>
+      <c r="K68" s="275"/>
+      <c r="L68" s="275"/>
+      <c r="M68" s="276"/>
+      <c r="N68" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="272"/>
-      <c r="P68" s="273"/>
+      <c r="O68" s="224"/>
+      <c r="P68" s="225"/>
       <c r="Q68" s="157">
         <f>SUM(Q56:Q67)</f>
         <v>348000</v>
@@ -18309,88 +18309,88 @@
       <c r="R68" s="155"/>
       <c r="S68" s="155"/>
     </row>
-    <row r="69" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="233"/>
-    </row>
-    <row r="70" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="234"/>
-      <c r="B70" s="259" t="s">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="251"/>
+    </row>
+    <row r="70" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="252"/>
+      <c r="B70" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="260"/>
-      <c r="D70" s="260"/>
-      <c r="E70" s="260"/>
-      <c r="F70" s="260"/>
-      <c r="G70" s="260"/>
-      <c r="H70" s="260"/>
-      <c r="I70" s="260"/>
-      <c r="J70" s="260"/>
-      <c r="K70" s="260"/>
-      <c r="L70" s="261"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
+      <c r="F70" s="227"/>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="227"/>
+      <c r="K70" s="227"/>
+      <c r="L70" s="228"/>
       <c r="M70" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="274">
+      <c r="N70" s="229">
         <f>N53-SUM(Q56:Q67)</f>
         <v>1364028.2999999998</v>
       </c>
-      <c r="O70" s="275"/>
-      <c r="P70" s="275"/>
-      <c r="Q70" s="275"/>
-      <c r="R70" s="275"/>
-      <c r="S70" s="276"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O70" s="230"/>
+      <c r="P70" s="230"/>
+      <c r="Q70" s="230"/>
+      <c r="R70" s="230"/>
+      <c r="S70" s="231"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="159"/>
       <c r="O71" s="160"/>
       <c r="P71" s="160"/>
       <c r="Q71" s="160"/>
       <c r="S71" s="161"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="159"/>
       <c r="O72" s="160"/>
       <c r="P72" s="160"/>
       <c r="Q72" s="160"/>
       <c r="S72" s="162"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O73" s="160"/>
       <c r="P73" s="160"/>
       <c r="Q73" s="160"/>
       <c r="S73" s="162"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O74" s="160"/>
       <c r="P74" s="160"/>
       <c r="Q74" s="160"/>
       <c r="S74" s="162"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O75" s="160"/>
       <c r="P75" s="160"/>
       <c r="Q75" s="160"/>
       <c r="S75" s="162"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O76" s="160"/>
       <c r="P76" s="160"/>
       <c r="Q76" s="160"/>
       <c r="S76" s="162"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O77" s="160"/>
       <c r="P77" s="160"/>
       <c r="Q77" s="160"/>
       <c r="S77" s="162"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O78" s="160"/>
       <c r="P78" s="160"/>
       <c r="Q78" s="160"/>
       <c r="S78" s="162"/>
     </row>
-    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O79" s="160"/>
       <c r="P79" s="160"/>
       <c r="Q79" s="160"/>
@@ -18398,19 +18398,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="B70:L70"/>
-    <mergeCell ref="N70:S70"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A5:A36"/>
@@ -18427,6 +18414,19 @@
     <mergeCell ref="N55:P55"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="B70:L70"/>
+    <mergeCell ref="N70:S70"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N64:P64"/>
   </mergeCells>
   <conditionalFormatting sqref="T5:T36">
     <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
